--- a/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hzero\data-migration\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9C4D9B-C4E3-4156-8315-328CD1049C06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21600" windowHeight="10670" tabRatio="597" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -26,15 +20,7 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -46,7 +32,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -65,7 +50,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -78,7 +62,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -97,7 +80,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -116,7 +98,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -135,7 +116,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -167,7 +147,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -186,7 +165,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -205,7 +183,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -227,7 +204,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -248,7 +224,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -269,7 +244,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -290,7 +264,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -311,7 +284,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -323,7 +295,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -342,7 +313,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -354,7 +324,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -373,7 +342,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -392,7 +360,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -411,7 +378,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -430,7 +396,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -478,7 +443,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -497,7 +461,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -516,7 +479,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -535,7 +497,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -547,7 +508,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -566,7 +526,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -585,7 +544,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -605,7 +563,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -624,7 +581,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -644,7 +600,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -663,7 +618,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -675,7 +629,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -694,7 +647,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -713,7 +665,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -737,7 +688,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -756,7 +706,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -775,7 +724,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -794,7 +742,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -813,7 +760,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -825,7 +771,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -844,7 +789,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -855,7 +799,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -876,7 +819,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -887,7 +829,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -906,7 +847,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -925,7 +865,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -949,7 +888,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -968,7 +906,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -988,7 +925,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -1008,7 +944,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1028,7 +963,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1049,7 +983,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1069,7 +1002,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1104,7 +1036,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1125,7 +1056,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1137,7 +1067,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1156,7 +1085,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1177,7 +1105,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1196,7 +1123,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1209,7 +1135,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1228,7 +1153,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1247,7 +1171,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1266,7 +1189,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1281,7 +1203,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1300,7 +1221,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1319,7 +1239,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1338,7 +1257,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1357,7 +1275,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1373,7 +1290,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1383,7 +1299,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1402,7 +1317,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1418,7 +1332,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1428,7 +1341,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1447,7 +1359,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1462,7 +1373,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1481,7 +1391,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1500,7 +1409,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1520,7 +1428,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1544,7 +1451,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1563,7 +1469,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1582,7 +1487,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1602,7 +1506,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1623,7 +1526,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1634,7 +1536,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1644,7 +1545,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1656,7 +1556,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1675,7 +1574,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1694,7 +1592,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1713,7 +1610,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1733,7 +1629,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1752,7 +1647,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1771,7 +1665,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1791,7 +1684,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1810,7 +1702,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1829,7 +1720,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1848,7 +1738,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1868,7 +1757,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1880,7 +1768,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1891,7 +1778,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1901,7 +1787,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1913,7 +1798,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1932,7 +1816,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1944,7 +1827,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1963,7 +1845,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1983,7 +1864,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -3796,6 +3676,12 @@
     <t>role/site/default/developer</t>
   </si>
   <si>
+    <t>role/site/default/administrator|HZERO-PLATFORM.T.role/site/default/developer</t>
+  </si>
+  <si>
+    <t>HZERO-PLATFORM.T.role/site/default/developer</t>
+  </si>
+  <si>
     <t>角色权限</t>
   </si>
   <si>
@@ -4124,22 +4010,59 @@
   </si>
   <si>
     <t>标识gitlab_developer</t>
-  </si>
-  <si>
-    <t>role/site/default/administrator|HZERO-PLATFORM.T.role/site/default/developer</t>
-  </si>
-  <si>
-    <t>HZERO-PLATFORM.T.role/site/default/developer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="93">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -4175,38 +4098,161 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="DengXian"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFC55A11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="DengXian"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -4227,485 +4273,45 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2E75B6"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4736,8 +4342,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -4838,13 +4630,261 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4853,32 +4893,44 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4888,109 +4940,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -5063,9 +5075,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5323,281 +5332,291 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5571428571429" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.3285714285714" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.1071428571429" customWidth="1"/>
+    <col min="4" max="4" width="35.3285714285714" style="9" customWidth="1"/>
+    <col min="5" max="5" width="38.5571428571429" customWidth="1"/>
+    <col min="6" max="6" width="23.4428571428571" customWidth="1"/>
+    <col min="7" max="7" width="21.5571428571429" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.5571428571429" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.1071428571429" customWidth="1"/>
+    <col min="12" max="12" width="18.5571428571429" customWidth="1"/>
+    <col min="13" max="13" width="13.1071428571429" customWidth="1"/>
+    <col min="14" max="1025" width="10.3285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="4"/>
-      <c r="C1" s="103" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="10"/>
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" ht="18">
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="102" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="104" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-    </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="105" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
-      <c r="C7" s="10" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="13" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" ht="51.75">
-      <c r="C9" s="16" t="s">
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" ht="49.5" spans="3:6">
+      <c r="C9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
-      <c r="C10" s="19" t="s">
+    <row r="10" ht="49.5" spans="3:5">
+      <c r="C10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
-      <c r="C11" s="13" t="s">
+    <row r="11" ht="66" spans="3:5">
+      <c r="C11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="13" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" ht="34.5">
-      <c r="C15" s="21" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" ht="33" spans="3:5">
+      <c r="C15" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="106" t="s">
+      <c r="C19" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-    </row>
-    <row r="20" spans="3:5" ht="18">
-      <c r="C20" s="24" t="s">
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
-      <c r="C21" s="24" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
-      <c r="C22" s="24" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
-      <c r="C23" s="24" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="25" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="102" t="s">
+      <c r="D25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="102"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="14" t="s">
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="102" t="s">
+      <c r="D26" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="102"/>
-    </row>
-    <row r="27" spans="3:5" ht="51.75">
-      <c r="C27" s="26" t="s">
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" ht="49.5" spans="3:3">
+      <c r="C27" s="37" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="5" max="5" width="16.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="23.8571428571429" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
-      <c r="E4" s="31" t="s">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5611,13 +5630,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -5629,10 +5648,10 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="65" t="s">
+      <c r="J7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="66" t="s">
+      <c r="K7" s="4" t="s">
         <v>60</v>
       </c>
       <c r="L7" t="s">
@@ -5653,7 +5672,7 @@
       <c r="Q7" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="67" t="s">
+      <c r="R7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="S7" t="s">
@@ -5678,7 +5697,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="5:24">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -5728,7 +5747,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="5:24">
       <c r="E9" t="s">
         <v>85</v>
       </c>
@@ -5785,7 +5804,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="5:24">
       <c r="E10" t="s">
         <v>94</v>
       </c>
@@ -5833,7 +5852,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="5:24">
       <c r="E11" t="s">
         <v>100</v>
       </c>
@@ -5881,7 +5900,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="5:24">
       <c r="E12" t="s">
         <v>104</v>
       </c>
@@ -5929,7 +5948,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="5:24">
       <c r="E13" t="s">
         <v>108</v>
       </c>
@@ -5977,7 +5996,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="5:24">
       <c r="E14" t="s">
         <v>112</v>
       </c>
@@ -6025,7 +6044,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="5:24">
       <c r="E15" t="s">
         <v>116</v>
       </c>
@@ -6073,7 +6092,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="5:24">
       <c r="E16" t="s">
         <v>120</v>
       </c>
@@ -7218,41 +7237,44 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="E4" s="38" t="s">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7266,20 +7288,20 @@
       <c r="C7" t="s">
         <v>226</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="70" t="s">
+      <c r="F7" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="G7" s="71" t="s">
+      <c r="G7" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="5:7">
       <c r="E8" t="s">
         <v>230</v>
       </c>
@@ -7291,7 +7313,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="5:7">
       <c r="E9" t="s">
         <v>232</v>
       </c>
@@ -7303,7 +7325,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="5:7">
       <c r="E10" t="s">
         <v>234</v>
       </c>
@@ -7315,7 +7337,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="5:7">
       <c r="E11" t="s">
         <v>236</v>
       </c>
@@ -7327,7 +7349,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="5:7">
       <c r="E12" t="s">
         <v>238</v>
       </c>
@@ -7339,7 +7361,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="5:7">
       <c r="E13" t="s">
         <v>240</v>
       </c>
@@ -7351,7 +7373,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="5:7">
       <c r="E14" t="s">
         <v>242</v>
       </c>
@@ -7363,7 +7385,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="5:7">
       <c r="E15" t="s">
         <v>244</v>
       </c>
@@ -7375,7 +7397,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="5:7">
       <c r="E16" t="s">
         <v>246</v>
       </c>
@@ -9116,41 +9138,51 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="5" max="5" width="14.0714285714286" customWidth="1"/>
+    <col min="6" max="6" width="19.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="18.6428571428571" customWidth="1"/>
+    <col min="8" max="8" width="21.0714285714286" customWidth="1"/>
+    <col min="10" max="10" width="36.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="E4" s="45" t="s">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9164,16 +9196,16 @@
       <c r="C7" t="s">
         <v>507</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="E7" s="73" t="s">
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="F7" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="G7" s="75" t="s">
+      <c r="G7" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H7" t="s">
@@ -9201,7 +9233,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="5:15">
       <c r="E8" t="s">
         <v>519</v>
       </c>
@@ -9233,7 +9265,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="5:15">
       <c r="E9" t="s">
         <v>524</v>
       </c>
@@ -9265,7 +9297,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="5:15">
       <c r="E10" t="s">
         <v>527</v>
       </c>
@@ -9291,7 +9323,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="5:15">
       <c r="E11" t="s">
         <v>530</v>
       </c>
@@ -9317,7 +9349,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="5:15">
       <c r="E12" t="s">
         <v>532</v>
       </c>
@@ -9349,7 +9381,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="5:15">
       <c r="E13" t="s">
         <v>535</v>
       </c>
@@ -9378,7 +9410,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="5:15">
       <c r="E14" t="s">
         <v>538</v>
       </c>
@@ -9407,7 +9439,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="5:15">
       <c r="E15" t="s">
         <v>541</v>
       </c>
@@ -9436,7 +9468,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="5:15">
       <c r="E16" t="s">
         <v>544</v>
       </c>
@@ -9465,7 +9497,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="5:15">
       <c r="E17" t="s">
         <v>547</v>
       </c>
@@ -9497,7 +9529,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="5:15">
       <c r="E18" t="s">
         <v>550</v>
       </c>
@@ -9529,7 +9561,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="5:15">
       <c r="E19" t="s">
         <v>553</v>
       </c>
@@ -9561,7 +9593,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="5:15">
       <c r="E20" t="s">
         <v>556</v>
       </c>
@@ -9587,7 +9619,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="5:15">
       <c r="E21" t="s">
         <v>558</v>
       </c>
@@ -9619,7 +9651,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="5:15">
       <c r="E22" t="s">
         <v>561</v>
       </c>
@@ -9651,7 +9683,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="5:15">
       <c r="E23" t="s">
         <v>564</v>
       </c>
@@ -9683,7 +9715,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="5:15">
       <c r="E24" t="s">
         <v>567</v>
       </c>
@@ -9709,7 +9741,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="5:15">
       <c r="E25" t="s">
         <v>569</v>
       </c>
@@ -9738,7 +9770,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="5:15">
       <c r="E26" t="s">
         <v>572</v>
       </c>
@@ -9767,7 +9799,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -9777,26 +9809,26 @@
       <c r="C28" t="s">
         <v>575</v>
       </c>
-      <c r="D28" s="76" t="s">
+      <c r="D28" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="E28" s="77" t="s">
+      <c r="E28" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F28" s="78" t="s">
+      <c r="F28" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="G28" s="79" t="s">
+      <c r="G28" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="H28" s="80" t="s">
+      <c r="H28" s="3" t="s">
         <v>580</v>
       </c>
       <c r="I28" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="5:9">
       <c r="E29" t="s">
         <v>582</v>
       </c>
@@ -9815,7 +9847,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="5:9">
       <c r="E30" t="s">
         <v>582</v>
       </c>
@@ -9834,7 +9866,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="5:9">
       <c r="E31" t="s">
         <v>582</v>
       </c>
@@ -9853,7 +9885,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="5:9">
       <c r="E32" t="s">
         <v>582</v>
       </c>
@@ -10005,22 +10037,22 @@
         <v>583</v>
       </c>
     </row>
-    <row r="40" spans="5:9">
-      <c r="E40" t="s">
+    <row r="40" s="5" customFormat="1" spans="5:9">
+      <c r="E40" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="G40" t="str">
+      <c r="G40" s="6" t="str">
         <f>菜单SAAS版!$E$33</f>
         <v>iam_menu-33</v>
       </c>
-      <c r="H40" t="str">
+      <c r="H40" s="6" t="str">
         <f>菜单标签数据!$E$13</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="6" t="s">
         <v>583</v>
       </c>
     </row>
@@ -10766,43 +10798,44 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D13" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
-      <c r="E4" s="52" t="s">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -10816,10 +10849,10 @@
       <c r="C7" t="s">
         <v>585</v>
       </c>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="E7" s="82" t="s">
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" t="s">
@@ -10828,7 +10861,7 @@
       <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="83" t="s">
+      <c r="H7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="I7" t="s">
@@ -10837,16 +10870,16 @@
       <c r="J7" t="s">
         <v>512</v>
       </c>
-      <c r="K7" s="84" t="s">
+      <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
         <v>587</v>
       </c>
-      <c r="M7" s="85" t="s">
+      <c r="M7" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="N7" s="86" t="s">
+      <c r="N7" s="3" t="s">
         <v>589</v>
       </c>
       <c r="O7" t="s">
@@ -10873,7 +10906,7 @@
       <c r="V7" t="s">
         <v>596</v>
       </c>
-      <c r="W7" s="87" t="s">
+      <c r="W7" s="3" t="s">
         <v>597</v>
       </c>
       <c r="X7" t="s">
@@ -10883,7 +10916,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="5:23">
       <c r="E8" t="s">
         <v>600</v>
       </c>
@@ -10942,7 +10975,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="5:23">
       <c r="E9" t="s">
         <v>606</v>
       </c>
@@ -11001,7 +11034,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="5:25">
       <c r="E10" t="s">
         <v>611</v>
       </c>
@@ -11064,7 +11097,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="5:25">
       <c r="E11" t="s">
         <v>619</v>
       </c>
@@ -11127,7 +11160,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="5:25">
       <c r="E12" t="s">
         <v>627</v>
       </c>
@@ -11190,7 +11223,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="5:25">
       <c r="E13" t="s">
         <v>635</v>
       </c>
@@ -11253,7 +11286,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="5:23">
       <c r="E14" t="s">
         <v>643</v>
       </c>
@@ -11301,16 +11334,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>756</v>
+        <v>646</v>
       </c>
       <c r="V14" t="s">
-        <v>757</v>
+        <v>647</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -11318,33 +11351,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>646</v>
-      </c>
-      <c r="D16" s="88" t="s">
-        <v>647</v>
-      </c>
-      <c r="E16" s="89" t="s">
+        <v>648</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="90" t="s">
-        <v>648</v>
-      </c>
-      <c r="G16" s="91" t="s">
-        <v>649</v>
+      <c r="F16" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>651</v>
       </c>
       <c r="H16" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="I16" t="s">
-        <v>651</v>
-      </c>
-      <c r="J16" s="92" t="s">
+        <v>653</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -11355,18 +11388,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H17" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I17" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J17" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -11377,18 +11410,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H18" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I18" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J18" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -11399,18 +11432,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H19" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I19" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J19" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -11421,18 +11454,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H20" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I20" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J20" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -11443,18 +11476,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H21" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I21" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J21" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -11465,18 +11498,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H22" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I22" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J22" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -11487,18 +11520,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H23" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I23" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J23" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -11509,18 +11542,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H24" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I24" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J24" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -11531,18 +11564,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H25" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I25" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J25" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -11553,18 +11586,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H26" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I26" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J26" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -11575,18 +11608,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H27" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I27" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J27" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -11597,18 +11630,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H28" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I28" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J28" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$10</f>
@@ -11619,18 +11652,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H29" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I29" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J29" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$10</f>
@@ -11641,18 +11674,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H30" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I30" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J30" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$10</f>
@@ -11663,18 +11696,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H31" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I31" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J31" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$10</f>
@@ -11685,18 +11718,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H32" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I32" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J32" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$10</f>
@@ -11707,18 +11740,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H33" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I33" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J33" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$10</f>
@@ -11729,18 +11762,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H34" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I34" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J34" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$10</f>
@@ -11751,18 +11784,18 @@
         <v>iam_menu-28</v>
       </c>
       <c r="H35" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I35" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J35" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$10</f>
@@ -11773,18 +11806,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H36" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I36" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J36" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$10</f>
@@ -11795,18 +11828,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H37" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I37" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J37" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$10</f>
@@ -11817,18 +11850,18 @@
         <v>iam_menu-26</v>
       </c>
       <c r="H38" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I38" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J38" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$10</f>
@@ -11839,18 +11872,18 @@
         <v>iam_menu-27</v>
       </c>
       <c r="H39" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I39" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J39" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$12</f>
@@ -11861,18 +11894,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H40" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I40" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J40" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="41" spans="5:10">
       <c r="E41" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F41" t="str">
         <f>角色!$E$12</f>
@@ -11883,18 +11916,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H41" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I41" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J41" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="42" spans="5:10">
       <c r="E42" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="F42" t="str">
         <f>角色!$E$12</f>
@@ -11905,18 +11938,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H42" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I42" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J42" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="43" spans="5:10">
       <c r="E43" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="F43" t="str">
         <f>角色!$E$12</f>
@@ -11927,18 +11960,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H43" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I43" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J43" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="44" spans="5:10">
       <c r="E44" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="F44" t="str">
         <f>角色!$E$12</f>
@@ -11949,18 +11982,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H44" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I44" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J44" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="45" spans="5:10">
       <c r="E45" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="F45" t="str">
         <f>角色!$E$12</f>
@@ -11971,18 +12004,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H45" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I45" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J45" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="46" spans="5:10">
       <c r="E46" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="F46" t="str">
         <f>角色!$E$12</f>
@@ -11993,18 +12026,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H46" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I46" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J46" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="47" spans="5:10">
       <c r="E47" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F47" t="str">
         <f>角色!$E$12</f>
@@ -12015,18 +12048,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H47" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I47" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J47" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="48" spans="5:10">
       <c r="E48" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="F48" t="str">
         <f>角色!$E$12</f>
@@ -12037,18 +12070,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H48" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I48" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J48" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="49" spans="5:10">
       <c r="E49" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="F49" t="str">
         <f>角色!$E$12</f>
@@ -12059,18 +12092,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H49" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I49" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J49" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="50" spans="5:10">
       <c r="E50" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="F50" t="str">
         <f>角色!$E$12</f>
@@ -12081,18 +12114,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H50" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I50" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J50" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="51" spans="5:10">
       <c r="E51" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="F51" t="str">
         <f>角色!$E$12</f>
@@ -12103,18 +12136,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H51" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I51" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J51" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="52" spans="5:10">
       <c r="E52" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="F52" t="str">
         <f>角色!$E$12</f>
@@ -12125,18 +12158,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H52" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I52" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J52" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="53" spans="5:10">
       <c r="E53" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="F53" t="str">
         <f>角色!$E$12</f>
@@ -12147,18 +12180,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H53" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I53" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J53" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="54" spans="5:10">
       <c r="E54" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="F54" t="str">
         <f>角色!$E$12</f>
@@ -12169,18 +12202,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H54" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I54" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J54" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="55" spans="5:10">
       <c r="E55" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F55" t="str">
         <f>角色!$E$12</f>
@@ -12191,18 +12224,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H55" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I55" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J55" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="56" spans="5:10">
       <c r="E56" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F56" t="str">
         <f>角色!$E$12</f>
@@ -12213,18 +12246,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H56" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I56" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J56" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="57" spans="5:10">
       <c r="E57" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F57" t="str">
         <f>角色!$E$12</f>
@@ -12235,18 +12268,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H57" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I57" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J57" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="58" spans="5:10">
       <c r="E58" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="F58" t="str">
         <f>角色!$E$12</f>
@@ -12257,18 +12290,18 @@
         <v>iam_menu-28</v>
       </c>
       <c r="H58" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I58" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J58" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="59" spans="5:10">
       <c r="E59" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F59" t="str">
         <f>角色!$E$12</f>
@@ -12279,18 +12312,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H59" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I59" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J59" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="60" spans="5:10">
       <c r="E60" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="F60" t="str">
         <f>角色!$E$12</f>
@@ -12301,18 +12334,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H60" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I60" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J60" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="61" spans="5:10">
       <c r="E61" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="F61" t="str">
         <f>角色!$E$12</f>
@@ -12323,18 +12356,18 @@
         <v>iam_menu-26</v>
       </c>
       <c r="H61" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I61" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J61" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="62" spans="5:10">
       <c r="E62" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="F62" t="str">
         <f>角色!$E$12</f>
@@ -12345,18 +12378,18 @@
         <v>iam_menu-27</v>
       </c>
       <c r="H62" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I62" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J62" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="63" spans="5:10">
       <c r="E63" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="F63" t="str">
         <f>角色!$E$13</f>
@@ -12367,18 +12400,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H63" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I63" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J63" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="64" spans="5:10">
       <c r="E64" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="F64" t="str">
         <f>角色!$E$13</f>
@@ -12389,18 +12422,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H64" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="I64" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J64" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="65" spans="5:10">
       <c r="E65" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="F65" t="str">
         <f>角色!$E$13</f>
@@ -12411,18 +12444,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H65" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I65" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J65" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="66" spans="5:10">
       <c r="E66" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="F66" t="str">
         <f>角色!$E$13</f>
@@ -12433,18 +12466,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H66" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I66" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J66" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="67" spans="5:10">
       <c r="E67" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="F67" t="str">
         <f>角色!$E$13</f>
@@ -12455,18 +12488,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H67" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I67" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J67" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="68" spans="5:10">
       <c r="E68" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="F68" t="str">
         <f>角色!$E$13</f>
@@ -12477,18 +12510,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H68" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I68" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J68" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="69" spans="5:10">
       <c r="E69" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="F69" t="str">
         <f>角色!$E$13</f>
@@ -12499,18 +12532,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H69" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I69" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J69" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="70" spans="5:10">
       <c r="E70" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="F70" t="str">
         <f>角色!$E$13</f>
@@ -12521,18 +12554,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H70" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I70" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J70" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="71" spans="5:10">
       <c r="E71" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="F71" t="str">
         <f>角色!$E$13</f>
@@ -12543,18 +12576,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H71" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I71" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J71" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="72" spans="5:10">
       <c r="E72" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F72" t="str">
         <f>角色!$E$13</f>
@@ -12565,18 +12598,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H72" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I72" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J72" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="73" spans="5:10">
       <c r="E73" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="F73" t="str">
         <f>角色!$E$13</f>
@@ -12587,18 +12620,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H73" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I73" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J73" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="74" spans="5:10">
       <c r="E74" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="F74" t="str">
         <f>角色!$E$13</f>
@@ -12609,18 +12642,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H74" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I74" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J74" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="75" spans="5:10">
       <c r="E75" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="F75" t="str">
         <f>角色!$E$13</f>
@@ -12631,18 +12664,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H75" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I75" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J75" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="76" spans="5:10">
       <c r="E76" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="F76" t="str">
         <f>角色!$E$13</f>
@@ -12653,18 +12686,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H76" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I76" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J76" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="77" spans="5:10">
       <c r="E77" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="F77" t="str">
         <f>角色!$E$13</f>
@@ -12675,18 +12708,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H77" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I77" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J77" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="78" spans="5:10">
       <c r="E78" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="F78" t="str">
         <f>角色!$E$13</f>
@@ -12697,18 +12730,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H78" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I78" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J78" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="79" spans="5:10">
       <c r="E79" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="F79" t="str">
         <f>角色!$E$13</f>
@@ -12719,18 +12752,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H79" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I79" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J79" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="80" spans="5:10">
       <c r="E80" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="F80" t="str">
         <f>角色!$E$13</f>
@@ -12741,18 +12774,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H80" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I80" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J80" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="81" spans="5:10">
       <c r="E81" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="F81" t="str">
         <f>角色!$E$13</f>
@@ -12763,18 +12796,18 @@
         <v>iam_menu-28</v>
       </c>
       <c r="H81" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I81" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J81" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="82" spans="5:10">
       <c r="E82" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="F82" t="str">
         <f>角色!$E$13</f>
@@ -12785,18 +12818,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H82" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I82" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J82" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="83" spans="5:10">
       <c r="E83" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="F83" t="str">
         <f>角色!$E$13</f>
@@ -12807,18 +12840,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H83" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I83" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J83" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="84" spans="5:10">
       <c r="E84" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="F84" t="str">
         <f>角色!$E$13</f>
@@ -12829,18 +12862,18 @@
         <v>iam_menu-26</v>
       </c>
       <c r="H84" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I84" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J84" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="85" spans="5:10">
       <c r="E85" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="F85" t="str">
         <f>角色!$E$13</f>
@@ -12851,51 +12884,54 @@
         <v>iam_menu-27</v>
       </c>
       <c r="H85" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I85" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J85" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="E4" s="59" t="s">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -12909,16 +12945,16 @@
       <c r="C7" t="s">
         <v>507</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="E7" s="94" t="s">
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="95" t="s">
+      <c r="F7" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H7" t="s">
@@ -12946,15 +12982,15 @@
         <v>518</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="5:15">
       <c r="E8" t="s">
         <v>519</v>
       </c>
       <c r="F8" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="G8" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="H8" t="s">
         <v>83</v>
@@ -12963,10 +12999,10 @@
         <v>522</v>
       </c>
       <c r="J8" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="K8" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="M8" t="s">
         <v>80</v>
@@ -12978,15 +13014,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="5:15">
       <c r="E9" t="s">
         <v>524</v>
       </c>
       <c r="F9" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="G9" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="H9" t="s">
         <v>83</v>
@@ -12995,7 +13031,7 @@
         <v>529</v>
       </c>
       <c r="J9" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
@@ -13007,15 +13043,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="5:15">
       <c r="E10" t="s">
         <v>527</v>
       </c>
       <c r="F10" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="G10" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="H10" t="s">
         <v>83</v>
@@ -13024,10 +13060,10 @@
         <v>522</v>
       </c>
       <c r="J10" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="K10" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="M10" t="s">
         <v>80</v>
@@ -13039,15 +13075,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="5:15">
       <c r="E11" t="s">
         <v>530</v>
       </c>
       <c r="F11" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="G11" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="H11" t="s">
         <v>83</v>
@@ -13056,10 +13092,10 @@
         <v>522</v>
       </c>
       <c r="J11" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="K11" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -13071,15 +13107,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="5:15">
       <c r="E12" t="s">
         <v>532</v>
       </c>
       <c r="F12" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="G12" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="H12" t="s">
         <v>83</v>
@@ -13088,10 +13124,10 @@
         <v>522</v>
       </c>
       <c r="J12" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="K12" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="M12" t="s">
         <v>80</v>
@@ -13103,15 +13139,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="5:15">
       <c r="E13" t="s">
         <v>535</v>
       </c>
       <c r="F13" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="G13" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="H13" t="s">
         <v>83</v>
@@ -13120,10 +13156,10 @@
         <v>522</v>
       </c>
       <c r="J13" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="K13" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -13135,15 +13171,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="5:15">
       <c r="E14" t="s">
         <v>538</v>
       </c>
       <c r="F14" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="G14" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="H14" t="s">
         <v>83</v>
@@ -13152,7 +13188,7 @@
         <v>522</v>
       </c>
       <c r="J14" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="K14" t="s">
         <v>634</v>
@@ -13167,15 +13203,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="5:15">
       <c r="E15" t="s">
         <v>541</v>
       </c>
       <c r="F15" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="G15" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="H15" t="s">
         <v>83</v>
@@ -13184,10 +13220,10 @@
         <v>522</v>
       </c>
       <c r="J15" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="K15" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -13199,15 +13235,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="5:15">
       <c r="E16" t="s">
         <v>544</v>
       </c>
       <c r="F16" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="G16" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="H16" t="s">
         <v>83</v>
@@ -13216,10 +13252,10 @@
         <v>522</v>
       </c>
       <c r="J16" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="K16" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -13231,15 +13267,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="5:15">
       <c r="E17" t="s">
         <v>547</v>
       </c>
       <c r="F17" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="G17" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="H17" t="s">
         <v>83</v>
@@ -13248,10 +13284,10 @@
         <v>522</v>
       </c>
       <c r="J17" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="K17" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -13263,15 +13299,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="5:15">
       <c r="E18" t="s">
         <v>550</v>
       </c>
       <c r="F18" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="G18" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="H18" t="s">
         <v>83</v>
@@ -13280,10 +13316,10 @@
         <v>522</v>
       </c>
       <c r="J18" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="K18" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -13295,15 +13331,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="5:15">
       <c r="E19" t="s">
         <v>553</v>
       </c>
       <c r="F19" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="G19" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="H19" t="s">
         <v>83</v>
@@ -13312,10 +13348,10 @@
         <v>522</v>
       </c>
       <c r="J19" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="K19" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="M19" t="s">
         <v>80</v>
@@ -13327,7 +13363,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -13337,31 +13373,31 @@
       <c r="C21" t="s">
         <v>575</v>
       </c>
-      <c r="D21" s="97" t="s">
+      <c r="D21" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="E21" s="98" t="s">
+      <c r="E21" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F21" s="99" t="s">
+      <c r="F21" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="G21" s="100" t="s">
+      <c r="G21" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="H21" s="101" t="s">
+      <c r="H21" s="3" t="s">
         <v>580</v>
       </c>
       <c r="I21" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="5:9">
       <c r="E22" t="s">
         <v>582</v>
       </c>
       <c r="F22" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G22" t="str">
         <f>角色!$E$10</f>
@@ -13375,12 +13411,12 @@
         <v>584</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="5:9">
       <c r="E23" t="s">
         <v>582</v>
       </c>
       <c r="F23" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G23" t="str">
         <f>角色!$E$10</f>
@@ -13394,12 +13430,12 @@
         <v>584</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="5:9">
       <c r="E24" t="s">
         <v>582</v>
       </c>
       <c r="F24" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G24" t="str">
         <f>角色!$E$10</f>
@@ -13413,12 +13449,12 @@
         <v>584</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="5:9">
       <c r="E25" t="s">
         <v>582</v>
       </c>
       <c r="F25" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G25" t="str">
         <f>角色!$E$11</f>
@@ -13432,12 +13468,12 @@
         <v>584</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="5:9">
       <c r="E26" t="s">
         <v>582</v>
       </c>
       <c r="F26" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G26" t="str">
         <f>角色!$E$11</f>
@@ -13451,12 +13487,12 @@
         <v>584</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="5:9">
       <c r="E27" t="s">
         <v>582</v>
       </c>
       <c r="F27" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G27" t="str">
         <f>角色!$E$11</f>
@@ -13470,12 +13506,12 @@
         <v>584</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="5:9">
       <c r="E28" t="s">
         <v>582</v>
       </c>
       <c r="F28" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
@@ -13489,12 +13525,12 @@
         <v>584</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="5:9">
       <c r="E29" t="s">
         <v>582</v>
       </c>
       <c r="F29" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G29" t="str">
         <f>角色!$E$12</f>
@@ -13508,12 +13544,12 @@
         <v>584</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="5:9">
       <c r="E30" t="s">
         <v>582</v>
       </c>
       <c r="F30" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G30" t="str">
         <f>角色!$E$12</f>
@@ -13527,12 +13563,12 @@
         <v>584</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="5:9">
       <c r="E31" t="s">
         <v>582</v>
       </c>
       <c r="F31" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G31" t="str">
         <f>角色!$E$12</f>
@@ -13546,12 +13582,12 @@
         <v>584</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="5:9">
       <c r="E32" t="s">
         <v>582</v>
       </c>
       <c r="F32" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
@@ -13570,7 +13606,7 @@
         <v>582</v>
       </c>
       <c r="F33" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G33" t="str">
         <f>角色!$E$13</f>
@@ -13589,7 +13625,7 @@
         <v>582</v>
       </c>
       <c r="F34" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G34" t="str">
         <f>角色!$E$13</f>
@@ -13608,7 +13644,7 @@
         <v>582</v>
       </c>
       <c r="F35" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G35" t="str">
         <f>角色!$E$13</f>
@@ -13623,8 +13659,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10670" tabRatio="597" activeTab="3"/>
+    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="759">
   <si>
     <r>
       <rPr>
@@ -2359,1144 +2359,1147 @@
     <t>YLK</t>
   </si>
   <si>
+    <t>test_chart</t>
+  </si>
+  <si>
+    <t>/testManager/IssueManage</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.test|choerodon.code.project.test.manager</t>
+  </si>
+  <si>
+    <t>iam_menu-36</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.test.manager.ps.default</t>
+  </si>
+  <si>
+    <t>用例库默认权限集</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.test|choerodon.code.project.test.manager|choerodon.code.project.test.manager.ps.default</t>
+  </si>
+  <si>
+    <t>iam_menu-37</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.test.test-plan</t>
+  </si>
+  <si>
+    <t>计划</t>
+  </si>
+  <si>
+    <t>JH</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>insert_invitation</t>
+  </si>
+  <si>
+    <t>/testManager/TestPlan</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.test|choerodon.code.project.test.test-plan</t>
+  </si>
+  <si>
+    <t>iam_menu-38</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.test.test-plan.ps.default</t>
+  </si>
+  <si>
+    <t>计划默认权限集</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.test|choerodon.code.project.test.test-plan|choerodon.code.project.test.test-plan.ps.default</t>
+  </si>
+  <si>
+    <t>菜单权限</t>
+  </si>
+  <si>
+    <t>iam_menu_permission</t>
+  </si>
+  <si>
+    <t>#menu_id</t>
+  </si>
+  <si>
+    <t>#permission_code</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-8</t>
+  </si>
+  <si>
+    <t>hzero-iam.choerodon-project-user.queryReportList</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-9</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-status.delete</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-10</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-status.insert</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-11</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-status.query</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-12</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-status.update</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-13</t>
+  </si>
+  <si>
+    <t>devops-service.app-service-instance.formatValue</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-14</t>
+  </si>
+  <si>
+    <t>devops-service.app-service-version.pageByOptions</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-15</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.pageByOptions</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-16</t>
+  </si>
+  <si>
+    <t>devops-service.devops-cluster.pageCluster</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-17</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.listDevopsClusters</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-18</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-app-instance.deploy</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-19</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-app-instance.deployBySchedule</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-20</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-app-instance.queryValues</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-21</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-automation-history.queryLog</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-22</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-automation-history.queryWithInstance</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-23</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-automation-result.query</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-24</t>
+  </si>
+  <si>
+    <t>agile-service.issue.queryIssueByOptionForAgile</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-25</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-attachment.removeAttachment</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-26</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-attachment.uploadFile</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-27</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case-attachment.deleteAttachment</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-28</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case-attachment.uploadAttachment</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-29</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case-data-log.queryByCaseId</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-30</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case-link.create</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-31</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case-link.delete</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-32</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case-link.queryLinkIssues</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-33</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case-step.changeOneStep</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-34</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case-step.clone</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-35</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case-step.query</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-36</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case-step.removeStep</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-37</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.batchCloneCase</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-38</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.batchMoveCase</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-39</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.createTestCase</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-40</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.deleteCase</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-41</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.downExcelFail</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-42</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.downLoadByFolder</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-43</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.downloadImportTemplate</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-44</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.importIssues</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-45</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.listCaseByFolderId</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-46</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.queryCaseInfo</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-47</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.updateCase</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-48</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-file-load-history.cancelUpLoad</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-49</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-file-load-history.queryIssues</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-50</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-file-load-history.queryLatestLoadHistory</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-51</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-issue-folder.create</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-52</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-issue-folder.delete</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-53</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-issue-folder.moveFolder</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-54</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-issue-folder.query</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-55</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-issue-folder.update</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-56</t>
+  </si>
+  <si>
+    <t>agile-service.issue-attachment.uploadForAddress</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-57</t>
+  </si>
+  <si>
+    <t>agile-service.issue.listIssueWithoutSubToTestComponent</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-58</t>
+  </si>
+  <si>
+    <t>agile-service.scheme.queryIssueTypesWithStateMachineIdByProjectId</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-59</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-60</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-61</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-62</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-63</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case-defect-rel.createIssueAndLinkDefect</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-64</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case-defect-rel.insert</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-65</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case-defect-rel.removeAttachment</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-66</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case-history.query</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-67</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case-step.querySubStep</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-68</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case-step.update</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-69</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.batchAssignCase</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-70</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.delete</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-71</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.ignoreUpdate</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-72</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.importCase</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-73</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.listCaseByCycleId</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-74</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.queryCaseAndStep</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-75</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.queryCaseInfo</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-76</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.queryExecutionStatus</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-77</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.selectUpdateCompare</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-78</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.update</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-79</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.updateCaseAndStep</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-80</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle-case.updateCompare</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-81</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle.delete</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-82</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle.insert</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-83</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle.moveFolder</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-84</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle.operatePlanCalendar</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-85</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle.queryTree</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-86</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-cycle.update</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-87</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-88</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.clonePlan</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-89</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.create</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-90</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.deletePlan</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-91</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.query</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-92</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.queryInfo</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-93</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.queryTree</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-94</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.update</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-95</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.updateStatus</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-96</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-97</t>
+  </si>
+  <si>
+    <t>agile-service.report.queryBurnDownCoordinate</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-98</t>
+  </si>
+  <si>
+    <t>agile-service.report.queryBurnDownReport</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-99</t>
+  </si>
+  <si>
+    <t>agile-service.report.queryBurnDownReportByType</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-100</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-101</t>
+  </si>
+  <si>
+    <t>agile-service.sprint.queryNameByOptions</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-102</t>
+  </si>
+  <si>
+    <t>agile-service.sprint.queryNonWorkdays</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-103</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-104</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-105</t>
+  </si>
+  <si>
+    <t>agile-service.sprint.queryIssueByOptions</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-106</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-107</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-108</t>
+  </si>
+  <si>
+    <t>agile-service.sprint.querySprintById</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-109</t>
+  </si>
+  <si>
+    <t>agile-service.board.queryByOptions</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-110</t>
+  </si>
+  <si>
+    <t>agile-service.board.queryByProjectId</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-111</t>
+  </si>
+  <si>
+    <t>agile-service.project-info.queryProjectInfoByProjectId</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-112</t>
+  </si>
+  <si>
+    <t>agile-service.quick-filter.listByProjectId</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-113</t>
+  </si>
+  <si>
+    <t>agile-service.report.queryCumulativeFlowDiagram</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-114</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-115</t>
+  </si>
+  <si>
+    <t>agile-service.product-version.queryNameByOptions</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-116</t>
+  </si>
+  <si>
+    <t>agile-service.report.queryVersionChart</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-117</t>
+  </si>
+  <si>
+    <t>agile-service.report.queryVersionChartList</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-118</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-119</t>
+  </si>
+  <si>
+    <t>agile-service.report.queryVelocityChart</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-120</t>
+  </si>
+  <si>
+    <t>agile-service.issue.listEpic</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-121</t>
+  </si>
+  <si>
+    <t>agile-service.report.queryEpicChart</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-122</t>
+  </si>
+  <si>
+    <t>agile-service.report.queryEpicChartList</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-123</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-124</t>
+  </si>
+  <si>
+    <t>agile-service.report.queryPieChart</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-125</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-126</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-127</t>
+  </si>
+  <si>
+    <t>agile-service.report.queryBurnDownCoordinateByType</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-128</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-129</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-130</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-131</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-132</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-133</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.createFormsFromIssueToDefect</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-134</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-135</t>
+  </si>
+  <si>
+    <t>agile-service.product-version.listByProjectId</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-136</t>
+  </si>
+  <si>
+    <t>agile-service.scheme.queryStatusByProjectId</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-137</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.createFormDefectFromIssue</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-138</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.createFormDefectFromIssueById</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-139</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-140</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-141</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.allPlan</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-142</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.listByActive</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-143</t>
+  </si>
+  <si>
+    <t>devops-service.devops-gitlab-commit.getCommits</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-144</t>
+  </si>
+  <si>
+    <t>devops-service.devops-gitlab-commit.getRecordCommits</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-145</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.getSonarQubeTable</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-146</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-147</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-148</t>
+  </si>
+  <si>
+    <t>devops-service.devops-gitlab-pipeline.listPipelineFrequency</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-149</t>
+  </si>
+  <si>
+    <t>devops-service.devops-gitlab-pipeline.pageByOptions</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-150</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-151</t>
+  </si>
+  <si>
+    <t>devops-service.devops-gitlab-pipeline.listPipelineTime</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-152</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-153</t>
+  </si>
+  <si>
+    <t>devops-service.app-service-instance.listDeployTimeReport</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-154</t>
+  </si>
+  <si>
+    <t>devops-service.app-service-instance.pageDeployTimeTable</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-155</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.listByEnvIdAndStatus</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-156</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.listByActive</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-157</t>
+  </si>
+  <si>
+    <t>devops-service.app-service-instance.listDeployFrequencyReport</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-158</t>
+  </si>
+  <si>
+    <t>devops-service.app-service-instance.pageDeployFrequencyDetailTable</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-159</t>
+  </si>
+  <si>
+    <t>devops-service.app-service.listAll</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-160</t>
+  </si>
+  <si>
+    <t>标签表</t>
+  </si>
+  <si>
+    <t>iam_label</t>
+  </si>
+  <si>
+    <t>#name</t>
+  </si>
+  <si>
+    <t>#type</t>
+  </si>
+  <si>
+    <t>enabled_flag</t>
+  </si>
+  <si>
+    <t>fd_level</t>
+  </si>
+  <si>
+    <t>description:zh_CN</t>
+  </si>
+  <si>
+    <t>description:en_US</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>inherit_flag</t>
+  </si>
+  <si>
+    <t>preset_flag</t>
+  </si>
+  <si>
+    <t>visible_flag</t>
+  </si>
+  <si>
+    <t>iam_label-8</t>
+  </si>
+  <si>
+    <t>TENANT_MENU</t>
+  </si>
+  <si>
+    <t>MENU</t>
+  </si>
+  <si>
+    <t>TENANT</t>
+  </si>
+  <si>
+    <t>标识组织层菜单</t>
+  </si>
+  <si>
+    <t>iam_label-9</t>
+  </si>
+  <si>
+    <t>PROJECT_MENU</t>
+  </si>
+  <si>
+    <t>标识项目层菜单</t>
+  </si>
+  <si>
+    <t>iam_label-10</t>
+  </si>
+  <si>
+    <t>HZERO_MENU</t>
+  </si>
+  <si>
+    <t>SITE</t>
+  </si>
+  <si>
+    <t>iam_label-11</t>
+  </si>
+  <si>
+    <t>USER_MENU</t>
+  </si>
+  <si>
+    <t>iam_label-12</t>
+  </si>
+  <si>
+    <t>SITE_MENU</t>
+  </si>
+  <si>
+    <t>标识平台层菜单</t>
+  </si>
+  <si>
+    <t>iam_label-13</t>
+  </si>
+  <si>
+    <t>AGILE_MENU</t>
+  </si>
+  <si>
+    <t>标识敏捷类型菜单</t>
+  </si>
+  <si>
+    <t>iam_label-14</t>
+  </si>
+  <si>
+    <t>GENERAL_MENU</t>
+  </si>
+  <si>
+    <t>标识devops全流程项目菜单</t>
+  </si>
+  <si>
+    <t>iam_label-15</t>
+  </si>
+  <si>
+    <t>PROGRAM_MENU</t>
+  </si>
+  <si>
+    <t>标识项目群项目菜单</t>
+  </si>
+  <si>
+    <t>iam_label-16</t>
+  </si>
+  <si>
+    <t>PROGRAM_PROJECT_MENU</t>
+  </si>
+  <si>
+    <t>标识项目群子项目菜单</t>
+  </si>
+  <si>
+    <t>iam_label-17</t>
+  </si>
+  <si>
+    <t>OPERATIONS_MENU</t>
+  </si>
+  <si>
+    <t>标识运维项目菜单</t>
+  </si>
+  <si>
+    <t>iam_label-18</t>
+  </si>
+  <si>
+    <t>KNOWLEDGE_MENU</t>
+  </si>
+  <si>
+    <t>标识组织层知识库菜单</t>
+  </si>
+  <si>
+    <t>iam_label-19</t>
+  </si>
+  <si>
+    <t>CHOERODON_MENU</t>
+  </si>
+  <si>
+    <t>标识猪齿鱼菜单</t>
+  </si>
+  <si>
+    <t>iam_label-20</t>
+  </si>
+  <si>
+    <t>TENANT_GENERAL</t>
+  </si>
+  <si>
+    <t>iam_label-21</t>
+  </si>
+  <si>
+    <t>AGILE_SERVICE</t>
+  </si>
+  <si>
+    <t>敏捷服务菜单</t>
+  </si>
+  <si>
+    <t>iam_label-22</t>
+  </si>
+  <si>
+    <t>DEVOPS_SERVICE</t>
+  </si>
+  <si>
+    <t>devops服务菜单</t>
+  </si>
+  <si>
+    <t>iam_label-23</t>
+  </si>
+  <si>
+    <t>PLATFORM_SERVICE</t>
+  </si>
+  <si>
+    <t>平台服务标签</t>
+  </si>
+  <si>
+    <t>iam_label-24</t>
+  </si>
+  <si>
+    <t>IAM_SERVICE</t>
+  </si>
+  <si>
+    <t>iam_label-25</t>
+  </si>
+  <si>
+    <t>KNOWLEDGEBASE_SERVICE</t>
+  </si>
+  <si>
+    <t>知识服务菜单</t>
+  </si>
+  <si>
+    <t>iam_label-26</t>
+  </si>
+  <si>
+    <t>TEST_MANAGER_SERVICE</t>
+  </si>
+  <si>
+    <t>测试服务菜单</t>
+  </si>
+  <si>
+    <t>标签关系表</t>
+  </si>
+  <si>
+    <t>hiam_label_rel</t>
+  </si>
+  <si>
+    <t>*label_rel_id</t>
+  </si>
+  <si>
+    <t>#data_type</t>
+  </si>
+  <si>
+    <t>#data_id</t>
+  </si>
+  <si>
+    <t>#label_id</t>
+  </si>
+  <si>
+    <t>assign_type</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>iam_role</t>
+  </si>
+  <si>
     <t>description</t>
-  </si>
-  <si>
-    <t>/testManager/IssueManage</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.test|choerodon.code.project.test.manager</t>
-  </si>
-  <si>
-    <t>iam_menu-36</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.test.manager.ps.default</t>
-  </si>
-  <si>
-    <t>用例库默认权限集</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.test|choerodon.code.project.test.manager|choerodon.code.project.test.manager.ps.default</t>
-  </si>
-  <si>
-    <t>iam_menu-37</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.test.test-plan</t>
-  </si>
-  <si>
-    <t>计划</t>
-  </si>
-  <si>
-    <t>JH</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>insert_invitation</t>
-  </si>
-  <si>
-    <t>/testManager/TestPlan</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.test|choerodon.code.project.test.test-plan</t>
-  </si>
-  <si>
-    <t>iam_menu-38</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.test.test-plan.ps.default</t>
-  </si>
-  <si>
-    <t>计划默认权限集</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.test|choerodon.code.project.test.test-plan|choerodon.code.project.test.test-plan.ps.default</t>
-  </si>
-  <si>
-    <t>菜单权限</t>
-  </si>
-  <si>
-    <t>iam_menu_permission</t>
-  </si>
-  <si>
-    <t>#menu_id</t>
-  </si>
-  <si>
-    <t>#permission_code</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-8</t>
-  </si>
-  <si>
-    <t>hzero-iam.choerodon-project-user.queryReportList</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-9</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-status.delete</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-10</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-status.insert</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-11</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-status.query</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-12</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-status.update</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-13</t>
-  </si>
-  <si>
-    <t>devops-service.app-service-instance.formatValue</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-14</t>
-  </si>
-  <si>
-    <t>devops-service.app-service-version.pageByOptions</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-15</t>
-  </si>
-  <si>
-    <t>devops-service.app-service.pageByOptions</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-16</t>
-  </si>
-  <si>
-    <t>devops-service.devops-cluster.pageCluster</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-17</t>
-  </si>
-  <si>
-    <t>devops-service.devops-environment.listDevopsClusters</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-18</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-app-instance.deploy</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-19</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-app-instance.deployBySchedule</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-20</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-app-instance.queryValues</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-21</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-automation-history.queryLog</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-22</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-automation-history.queryWithInstance</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-23</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-automation-result.query</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-24</t>
-  </si>
-  <si>
-    <t>agile-service.issue.queryIssueByOptionForAgile</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-25</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-attachment.removeAttachment</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-26</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-attachment.uploadFile</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-27</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case-attachment.deleteAttachment</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-28</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case-attachment.uploadAttachment</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-29</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case-data-log.queryByCaseId</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-30</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case-link.create</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-31</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case-link.delete</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-32</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case-link.queryLinkIssues</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-33</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case-step.changeOneStep</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-34</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case-step.clone</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-35</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case-step.query</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-36</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case-step.removeStep</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-37</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case.batchCloneCase</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-38</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case.batchMoveCase</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-39</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case.createTestCase</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-40</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case.deleteCase</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-41</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case.downExcelFail</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-42</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case.downLoadByFolder</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-43</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case.downloadImportTemplate</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-44</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case.importIssues</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-45</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case.listCaseByFolderId</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-46</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case.queryCaseInfo</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-47</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case.updateCase</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-48</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-file-load-history.cancelUpLoad</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-49</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-file-load-history.queryIssues</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-50</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-file-load-history.queryLatestLoadHistory</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-51</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-issue-folder.create</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-52</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-issue-folder.delete</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-53</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-issue-folder.moveFolder</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-54</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-issue-folder.query</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-55</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-issue-folder.update</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-56</t>
-  </si>
-  <si>
-    <t>agile-service.issue-attachment.uploadForAddress</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-57</t>
-  </si>
-  <si>
-    <t>agile-service.issue.listIssueWithoutSubToTestComponent</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-58</t>
-  </si>
-  <si>
-    <t>agile-service.scheme.queryIssueTypesWithStateMachineIdByProjectId</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-59</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-60</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-61</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-62</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-63</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle-case-defect-rel.createIssueAndLinkDefect</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-64</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle-case-defect-rel.insert</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-65</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle-case-defect-rel.removeAttachment</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-66</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle-case-history.query</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-67</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle-case-step.querySubStep</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-68</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle-case-step.update</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-69</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle-case.batchAssignCase</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-70</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle-case.delete</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-71</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle-case.ignoreUpdate</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-72</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle-case.importCase</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-73</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle-case.listCaseByCycleId</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-74</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle-case.queryCaseAndStep</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-75</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle-case.queryCaseInfo</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-76</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle-case.queryExecutionStatus</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-77</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle-case.selectUpdateCompare</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-78</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle-case.update</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-79</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle-case.updateCaseAndStep</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-80</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle-case.updateCompare</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-81</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle.delete</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-82</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle.insert</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-83</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle.moveFolder</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-84</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle.operatePlanCalendar</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-85</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle.queryTree</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-86</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-cycle.update</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-87</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-88</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-plan.clonePlan</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-89</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-plan.create</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-90</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-plan.deletePlan</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-91</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-plan.query</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-92</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-plan.queryInfo</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-93</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-plan.queryTree</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-94</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-plan.update</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-95</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-plan.updateStatus</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-96</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-97</t>
-  </si>
-  <si>
-    <t>agile-service.report.queryBurnDownCoordinate</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-98</t>
-  </si>
-  <si>
-    <t>agile-service.report.queryBurnDownReport</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-99</t>
-  </si>
-  <si>
-    <t>agile-service.report.queryBurnDownReportByType</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-100</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-101</t>
-  </si>
-  <si>
-    <t>agile-service.sprint.queryNameByOptions</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-102</t>
-  </si>
-  <si>
-    <t>agile-service.sprint.queryNonWorkdays</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-103</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-104</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-105</t>
-  </si>
-  <si>
-    <t>agile-service.sprint.queryIssueByOptions</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-106</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-107</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-108</t>
-  </si>
-  <si>
-    <t>agile-service.sprint.querySprintById</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-109</t>
-  </si>
-  <si>
-    <t>agile-service.board.queryByOptions</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-110</t>
-  </si>
-  <si>
-    <t>agile-service.board.queryByProjectId</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-111</t>
-  </si>
-  <si>
-    <t>agile-service.project-info.queryProjectInfoByProjectId</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-112</t>
-  </si>
-  <si>
-    <t>agile-service.quick-filter.listByProjectId</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-113</t>
-  </si>
-  <si>
-    <t>agile-service.report.queryCumulativeFlowDiagram</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-114</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-115</t>
-  </si>
-  <si>
-    <t>agile-service.product-version.queryNameByOptions</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-116</t>
-  </si>
-  <si>
-    <t>agile-service.report.queryVersionChart</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-117</t>
-  </si>
-  <si>
-    <t>agile-service.report.queryVersionChartList</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-118</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-119</t>
-  </si>
-  <si>
-    <t>agile-service.report.queryVelocityChart</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-120</t>
-  </si>
-  <si>
-    <t>agile-service.issue.listEpic</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-121</t>
-  </si>
-  <si>
-    <t>agile-service.report.queryEpicChart</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-122</t>
-  </si>
-  <si>
-    <t>agile-service.report.queryEpicChartList</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-123</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-124</t>
-  </si>
-  <si>
-    <t>agile-service.report.queryPieChart</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-125</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-126</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-127</t>
-  </si>
-  <si>
-    <t>agile-service.report.queryBurnDownCoordinateByType</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-128</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-129</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-130</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-131</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-132</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-133</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case.createFormsFromIssueToDefect</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-134</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-135</t>
-  </si>
-  <si>
-    <t>agile-service.product-version.listByProjectId</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-136</t>
-  </si>
-  <si>
-    <t>agile-service.scheme.queryStatusByProjectId</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-137</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case.createFormDefectFromIssue</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-138</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-case.createFormDefectFromIssueById</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-139</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-140</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-141</t>
-  </si>
-  <si>
-    <t>test-manager-service.test-plan.allPlan</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-142</t>
-  </si>
-  <si>
-    <t>devops-service.app-service.listByActive</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-143</t>
-  </si>
-  <si>
-    <t>devops-service.devops-gitlab-commit.getCommits</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-144</t>
-  </si>
-  <si>
-    <t>devops-service.devops-gitlab-commit.getRecordCommits</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-145</t>
-  </si>
-  <si>
-    <t>devops-service.app-service.getSonarQubeTable</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-146</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-147</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-148</t>
-  </si>
-  <si>
-    <t>devops-service.devops-gitlab-pipeline.listPipelineFrequency</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-149</t>
-  </si>
-  <si>
-    <t>devops-service.devops-gitlab-pipeline.pageByOptions</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-150</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-151</t>
-  </si>
-  <si>
-    <t>devops-service.devops-gitlab-pipeline.listPipelineTime</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-152</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-153</t>
-  </si>
-  <si>
-    <t>devops-service.app-service-instance.listDeployTimeReport</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-154</t>
-  </si>
-  <si>
-    <t>devops-service.app-service-instance.pageDeployTimeTable</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-155</t>
-  </si>
-  <si>
-    <t>devops-service.app-service.listByEnvIdAndStatus</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-156</t>
-  </si>
-  <si>
-    <t>devops-service.devops-environment.listByActive</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-157</t>
-  </si>
-  <si>
-    <t>devops-service.app-service-instance.listDeployFrequencyReport</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-158</t>
-  </si>
-  <si>
-    <t>devops-service.app-service-instance.pageDeployFrequencyDetailTable</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-159</t>
-  </si>
-  <si>
-    <t>devops-service.app-service.listAll</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-160</t>
-  </si>
-  <si>
-    <t>标签表</t>
-  </si>
-  <si>
-    <t>iam_label</t>
-  </si>
-  <si>
-    <t>#name</t>
-  </si>
-  <si>
-    <t>#type</t>
-  </si>
-  <si>
-    <t>enabled_flag</t>
-  </si>
-  <si>
-    <t>fd_level</t>
-  </si>
-  <si>
-    <t>description:zh_CN</t>
-  </si>
-  <si>
-    <t>description:en_US</t>
-  </si>
-  <si>
-    <t>tag</t>
-  </si>
-  <si>
-    <t>inherit_flag</t>
-  </si>
-  <si>
-    <t>preset_flag</t>
-  </si>
-  <si>
-    <t>visible_flag</t>
-  </si>
-  <si>
-    <t>iam_label-8</t>
-  </si>
-  <si>
-    <t>TENANT_MENU</t>
-  </si>
-  <si>
-    <t>MENU</t>
-  </si>
-  <si>
-    <t>TENANT</t>
-  </si>
-  <si>
-    <t>标识组织层菜单</t>
-  </si>
-  <si>
-    <t>iam_label-9</t>
-  </si>
-  <si>
-    <t>PROJECT_MENU</t>
-  </si>
-  <si>
-    <t>标识项目层菜单</t>
-  </si>
-  <si>
-    <t>iam_label-10</t>
-  </si>
-  <si>
-    <t>HZERO_MENU</t>
-  </si>
-  <si>
-    <t>SITE</t>
-  </si>
-  <si>
-    <t>iam_label-11</t>
-  </si>
-  <si>
-    <t>USER_MENU</t>
-  </si>
-  <si>
-    <t>iam_label-12</t>
-  </si>
-  <si>
-    <t>SITE_MENU</t>
-  </si>
-  <si>
-    <t>标识平台层菜单</t>
-  </si>
-  <si>
-    <t>iam_label-13</t>
-  </si>
-  <si>
-    <t>AGILE_MENU</t>
-  </si>
-  <si>
-    <t>标识敏捷类型菜单</t>
-  </si>
-  <si>
-    <t>iam_label-14</t>
-  </si>
-  <si>
-    <t>GENERAL_MENU</t>
-  </si>
-  <si>
-    <t>标识devops全流程项目菜单</t>
-  </si>
-  <si>
-    <t>iam_label-15</t>
-  </si>
-  <si>
-    <t>PROGRAM_MENU</t>
-  </si>
-  <si>
-    <t>标识项目群项目菜单</t>
-  </si>
-  <si>
-    <t>iam_label-16</t>
-  </si>
-  <si>
-    <t>PROGRAM_PROJECT_MENU</t>
-  </si>
-  <si>
-    <t>标识项目群子项目菜单</t>
-  </si>
-  <si>
-    <t>iam_label-17</t>
-  </si>
-  <si>
-    <t>OPERATIONS_MENU</t>
-  </si>
-  <si>
-    <t>标识运维项目菜单</t>
-  </si>
-  <si>
-    <t>iam_label-18</t>
-  </si>
-  <si>
-    <t>KNOWLEDGE_MENU</t>
-  </si>
-  <si>
-    <t>标识组织层知识库菜单</t>
-  </si>
-  <si>
-    <t>iam_label-19</t>
-  </si>
-  <si>
-    <t>CHOERODON_MENU</t>
-  </si>
-  <si>
-    <t>标识猪齿鱼菜单</t>
-  </si>
-  <si>
-    <t>iam_label-20</t>
-  </si>
-  <si>
-    <t>TENANT_GENERAL</t>
-  </si>
-  <si>
-    <t>iam_label-21</t>
-  </si>
-  <si>
-    <t>AGILE_SERVICE</t>
-  </si>
-  <si>
-    <t>敏捷服务菜单</t>
-  </si>
-  <si>
-    <t>iam_label-22</t>
-  </si>
-  <si>
-    <t>DEVOPS_SERVICE</t>
-  </si>
-  <si>
-    <t>devops服务菜单</t>
-  </si>
-  <si>
-    <t>iam_label-23</t>
-  </si>
-  <si>
-    <t>PLATFORM_SERVICE</t>
-  </si>
-  <si>
-    <t>平台服务标签</t>
-  </si>
-  <si>
-    <t>iam_label-24</t>
-  </si>
-  <si>
-    <t>IAM_SERVICE</t>
-  </si>
-  <si>
-    <t>iam_label-25</t>
-  </si>
-  <si>
-    <t>KNOWLEDGEBASE_SERVICE</t>
-  </si>
-  <si>
-    <t>知识服务菜单</t>
-  </si>
-  <si>
-    <t>iam_label-26</t>
-  </si>
-  <si>
-    <t>TEST_MANAGER_SERVICE</t>
-  </si>
-  <si>
-    <t>测试服务菜单</t>
-  </si>
-  <si>
-    <t>标签关系表</t>
-  </si>
-  <si>
-    <t>hiam_label_rel</t>
-  </si>
-  <si>
-    <t>*label_rel_id</t>
-  </si>
-  <si>
-    <t>#data_type</t>
-  </si>
-  <si>
-    <t>#data_id</t>
-  </si>
-  <si>
-    <t>#label_id</t>
-  </si>
-  <si>
-    <t>assign_type</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>角色</t>
-  </si>
-  <si>
-    <t>iam_role</t>
   </si>
   <si>
     <t>h_inherit_role_id</t>
@@ -4017,12 +4020,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -4099,6 +4102,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -4106,7 +4116,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4121,7 +4175,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -4129,28 +4183,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4158,6 +4191,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4187,45 +4228,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4242,14 +4247,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4276,13 +4273,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -4295,12 +4285,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -4344,19 +4328,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4368,7 +4340,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4386,7 +4370,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4398,31 +4460,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4440,91 +4508,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4632,16 +4616,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4670,13 +4654,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4686,30 +4674,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4728,162 +4692,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5344,155 +5327,155 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5571428571429" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.3285714285714" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.1071428571429" customWidth="1"/>
-    <col min="4" max="4" width="35.3285714285714" style="9" customWidth="1"/>
-    <col min="5" max="5" width="38.5571428571429" customWidth="1"/>
-    <col min="6" max="6" width="23.4428571428571" customWidth="1"/>
-    <col min="7" max="7" width="21.5571428571429" customWidth="1"/>
+    <col min="1" max="1" width="15.5555555555556" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.3259259259259" style="7" customWidth="1"/>
+    <col min="3" max="3" width="28.1037037037037" customWidth="1"/>
+    <col min="4" max="4" width="35.3259259259259" style="8" customWidth="1"/>
+    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5571428571429" customWidth="1"/>
+    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1071428571429" customWidth="1"/>
-    <col min="12" max="12" width="18.5571428571429" customWidth="1"/>
-    <col min="13" max="13" width="13.1071428571429" customWidth="1"/>
-    <col min="14" max="1025" width="10.3285714285714" customWidth="1"/>
+    <col min="11" max="11" width="19.1037037037037" customWidth="1"/>
+    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
+    <col min="13" max="13" width="13.1037037037037" customWidth="1"/>
+    <col min="14" max="1025" width="10.3259259259259" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="13"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" ht="18" spans="5:5">
+      <c r="E2" s="12"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="16" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" ht="18" spans="3:7">
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="9"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="20" t="s">
+    <row r="7" ht="18" spans="3:5">
+      <c r="C7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="25"/>
-    </row>
-    <row r="9" ht="49.5" spans="3:6">
-      <c r="C9" s="26" t="s">
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" ht="51.75" spans="3:6">
+      <c r="C9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="49.5" spans="3:5">
-      <c r="C10" s="29" t="s">
+    <row r="10" ht="51.75" spans="3:5">
+      <c r="C10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="66" spans="3:5">
-      <c r="C11" s="23" t="s">
+    <row r="11" ht="69" spans="3:5">
+      <c r="C11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-    </row>
-    <row r="15" ht="33" spans="3:5">
-      <c r="C15" s="31" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" ht="34.5" spans="3:5">
+      <c r="C15" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="32" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5502,64 +5485,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="35" t="s">
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+    </row>
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="35" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="35" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="35" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" ht="49.5" spans="3:3">
-      <c r="C27" s="37" t="s">
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" ht="51.75" spans="3:3">
+      <c r="C27" s="36" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5584,15 +5567,15 @@
   <sheetPr/>
   <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="G28" workbookViewId="0">
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="16.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="16.8592592592593" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="23.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="23.8592592592593" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7251,7 +7234,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -9148,17 +9131,17 @@
   <sheetPr/>
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="14.0714285714286" customWidth="1"/>
-    <col min="6" max="6" width="19.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="18.6428571428571" customWidth="1"/>
-    <col min="8" max="8" width="21.0714285714286" customWidth="1"/>
-    <col min="10" max="10" width="36.5" customWidth="1"/>
+    <col min="5" max="5" width="14.0740740740741" customWidth="1"/>
+    <col min="6" max="6" width="19.5703703703704" customWidth="1"/>
+    <col min="7" max="7" width="18.6444444444444" customWidth="1"/>
+    <col min="8" max="8" width="21.0740740740741" customWidth="1"/>
+    <col min="10" max="10" width="36.5037037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10038,21 +10021,21 @@
       </c>
     </row>
     <row r="40" s="5" customFormat="1" spans="5:9">
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="G40" s="6" t="str">
+      <c r="G40" s="5" t="str">
         <f>菜单SAAS版!$E$33</f>
         <v>iam_menu-33</v>
       </c>
-      <c r="H40" s="6" t="str">
+      <c r="H40" s="5" t="str">
         <f>菜单标签数据!$E$13</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="I40" s="5" t="s">
         <v>583</v>
       </c>
     </row>
@@ -10812,7 +10795,7 @@
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -10865,7 +10848,7 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>207</v>
+        <v>587</v>
       </c>
       <c r="J7" t="s">
         <v>512</v>
@@ -10874,66 +10857,66 @@
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="P7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Q7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="R7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="S7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="T7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="X7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Y7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H8" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I8" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="J8" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K8" t="s">
         <v>80</v>
@@ -10966,10 +10949,10 @@
         <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="V8" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="W8" t="s">
         <v>80</v>
@@ -10977,19 +10960,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F9" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G9" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H9" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="I9" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
@@ -11025,10 +11008,10 @@
         <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="V9" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="W9" t="s">
         <v>80</v>
@@ -11036,16 +11019,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F10" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G10" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H10" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
@@ -11082,33 +11065,33 @@
         <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="V10" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="W10" t="s">
         <v>80</v>
       </c>
       <c r="X10" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="Y10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F11" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G11" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H11" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
@@ -11145,33 +11128,33 @@
         <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="V11" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="W11" t="s">
         <v>80</v>
       </c>
       <c r="X11" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Y11" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F12" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G12" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H12" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -11208,33 +11191,33 @@
         <v>80</v>
       </c>
       <c r="U12" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="V12" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="W12" t="s">
         <v>80</v>
       </c>
       <c r="X12" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="Y12" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F13" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G13" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H13" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
@@ -11271,36 +11254,36 @@
         <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="V13" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="W13" t="s">
         <v>80</v>
       </c>
       <c r="X13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="Y13" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F14" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G14" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H14" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="J14" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -11334,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="V14" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -11351,25 +11334,25 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H16" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="I16" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>510</v>
@@ -11377,7 +11360,7 @@
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -11388,18 +11371,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H17" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I17" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J17" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -11410,18 +11393,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H18" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I18" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J18" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -11432,18 +11415,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H19" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I19" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J19" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -11454,18 +11437,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H20" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I20" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J20" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -11476,18 +11459,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H21" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I21" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J21" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -11498,18 +11481,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H22" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I22" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J22" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -11520,18 +11503,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H23" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I23" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J23" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -11542,18 +11525,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H24" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I24" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J24" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -11564,18 +11547,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H25" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I25" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J25" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -11586,18 +11569,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H26" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I26" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J26" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -11608,18 +11591,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H27" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I27" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J27" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -11630,18 +11613,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H28" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I28" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J28" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$10</f>
@@ -11652,18 +11635,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H29" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I29" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J29" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$10</f>
@@ -11674,18 +11657,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H30" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I30" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J30" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$10</f>
@@ -11696,18 +11679,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H31" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I31" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J31" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$10</f>
@@ -11718,18 +11701,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H32" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I32" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J32" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$10</f>
@@ -11740,18 +11723,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H33" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I33" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J33" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$10</f>
@@ -11762,18 +11745,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H34" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I34" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J34" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$10</f>
@@ -11784,18 +11767,18 @@
         <v>iam_menu-28</v>
       </c>
       <c r="H35" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I35" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J35" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$10</f>
@@ -11806,18 +11789,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H36" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I36" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J36" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$10</f>
@@ -11828,18 +11811,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H37" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I37" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J37" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$10</f>
@@ -11850,18 +11833,18 @@
         <v>iam_menu-26</v>
       </c>
       <c r="H38" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I38" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J38" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$10</f>
@@ -11872,18 +11855,18 @@
         <v>iam_menu-27</v>
       </c>
       <c r="H39" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I39" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J39" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$12</f>
@@ -11894,18 +11877,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H40" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I40" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J40" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="41" spans="5:10">
       <c r="E41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F41" t="str">
         <f>角色!$E$12</f>
@@ -11916,18 +11899,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H41" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I41" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J41" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="42" spans="5:10">
       <c r="E42" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F42" t="str">
         <f>角色!$E$12</f>
@@ -11938,18 +11921,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H42" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I42" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J42" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="43" spans="5:10">
       <c r="E43" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F43" t="str">
         <f>角色!$E$12</f>
@@ -11960,18 +11943,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H43" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I43" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J43" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="44" spans="5:10">
       <c r="E44" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F44" t="str">
         <f>角色!$E$12</f>
@@ -11982,18 +11965,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H44" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I44" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J44" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="45" spans="5:10">
       <c r="E45" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F45" t="str">
         <f>角色!$E$12</f>
@@ -12004,18 +11987,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H45" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I45" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J45" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="46" spans="5:10">
       <c r="E46" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F46" t="str">
         <f>角色!$E$12</f>
@@ -12026,18 +12009,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H46" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I46" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J46" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="47" spans="5:10">
       <c r="E47" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F47" t="str">
         <f>角色!$E$12</f>
@@ -12048,18 +12031,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H47" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I47" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J47" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="48" spans="5:10">
       <c r="E48" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F48" t="str">
         <f>角色!$E$12</f>
@@ -12070,18 +12053,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H48" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I48" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J48" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="49" spans="5:10">
       <c r="E49" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F49" t="str">
         <f>角色!$E$12</f>
@@ -12092,18 +12075,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H49" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I49" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J49" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="50" spans="5:10">
       <c r="E50" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F50" t="str">
         <f>角色!$E$12</f>
@@ -12114,18 +12097,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H50" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I50" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J50" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="51" spans="5:10">
       <c r="E51" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F51" t="str">
         <f>角色!$E$12</f>
@@ -12136,18 +12119,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H51" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I51" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J51" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="52" spans="5:10">
       <c r="E52" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F52" t="str">
         <f>角色!$E$12</f>
@@ -12158,18 +12141,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H52" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I52" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J52" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="53" spans="5:10">
       <c r="E53" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F53" t="str">
         <f>角色!$E$12</f>
@@ -12180,18 +12163,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H53" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I53" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J53" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="54" spans="5:10">
       <c r="E54" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F54" t="str">
         <f>角色!$E$12</f>
@@ -12202,18 +12185,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H54" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I54" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J54" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="55" spans="5:10">
       <c r="E55" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F55" t="str">
         <f>角色!$E$12</f>
@@ -12224,18 +12207,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H55" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I55" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J55" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="56" spans="5:10">
       <c r="E56" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F56" t="str">
         <f>角色!$E$12</f>
@@ -12246,18 +12229,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H56" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I56" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J56" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="57" spans="5:10">
       <c r="E57" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F57" t="str">
         <f>角色!$E$12</f>
@@ -12268,18 +12251,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H57" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I57" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J57" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="58" spans="5:10">
       <c r="E58" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F58" t="str">
         <f>角色!$E$12</f>
@@ -12290,18 +12273,18 @@
         <v>iam_menu-28</v>
       </c>
       <c r="H58" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I58" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J58" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="59" spans="5:10">
       <c r="E59" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F59" t="str">
         <f>角色!$E$12</f>
@@ -12312,18 +12295,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H59" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I59" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J59" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="60" spans="5:10">
       <c r="E60" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F60" t="str">
         <f>角色!$E$12</f>
@@ -12334,18 +12317,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H60" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I60" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J60" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="61" spans="5:10">
       <c r="E61" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F61" t="str">
         <f>角色!$E$12</f>
@@ -12356,18 +12339,18 @@
         <v>iam_menu-26</v>
       </c>
       <c r="H61" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I61" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J61" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="62" spans="5:10">
       <c r="E62" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F62" t="str">
         <f>角色!$E$12</f>
@@ -12378,18 +12361,18 @@
         <v>iam_menu-27</v>
       </c>
       <c r="H62" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I62" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J62" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="63" spans="5:10">
       <c r="E63" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F63" t="str">
         <f>角色!$E$13</f>
@@ -12400,18 +12383,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H63" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I63" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J63" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="64" spans="5:10">
       <c r="E64" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F64" t="str">
         <f>角色!$E$13</f>
@@ -12422,18 +12405,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H64" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="I64" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J64" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="65" spans="5:10">
       <c r="E65" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F65" t="str">
         <f>角色!$E$13</f>
@@ -12444,18 +12427,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H65" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I65" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J65" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="66" spans="5:10">
       <c r="E66" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F66" t="str">
         <f>角色!$E$13</f>
@@ -12466,18 +12449,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H66" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I66" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J66" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="67" spans="5:10">
       <c r="E67" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F67" t="str">
         <f>角色!$E$13</f>
@@ -12488,18 +12471,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H67" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I67" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J67" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="68" spans="5:10">
       <c r="E68" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F68" t="str">
         <f>角色!$E$13</f>
@@ -12510,18 +12493,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H68" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I68" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J68" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="69" spans="5:10">
       <c r="E69" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F69" t="str">
         <f>角色!$E$13</f>
@@ -12532,18 +12515,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H69" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I69" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J69" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="70" spans="5:10">
       <c r="E70" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F70" t="str">
         <f>角色!$E$13</f>
@@ -12554,18 +12537,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H70" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I70" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J70" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="71" spans="5:10">
       <c r="E71" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F71" t="str">
         <f>角色!$E$13</f>
@@ -12576,18 +12559,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H71" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I71" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J71" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="72" spans="5:10">
       <c r="E72" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F72" t="str">
         <f>角色!$E$13</f>
@@ -12598,18 +12581,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H72" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I72" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J72" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="73" spans="5:10">
       <c r="E73" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F73" t="str">
         <f>角色!$E$13</f>
@@ -12620,18 +12603,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H73" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I73" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J73" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="74" spans="5:10">
       <c r="E74" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F74" t="str">
         <f>角色!$E$13</f>
@@ -12642,18 +12625,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H74" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I74" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J74" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="75" spans="5:10">
       <c r="E75" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="F75" t="str">
         <f>角色!$E$13</f>
@@ -12664,18 +12647,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H75" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I75" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J75" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="76" spans="5:10">
       <c r="E76" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F76" t="str">
         <f>角色!$E$13</f>
@@ -12686,18 +12669,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H76" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I76" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J76" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="77" spans="5:10">
       <c r="E77" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F77" t="str">
         <f>角色!$E$13</f>
@@ -12708,18 +12691,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H77" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I77" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J77" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="78" spans="5:10">
       <c r="E78" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F78" t="str">
         <f>角色!$E$13</f>
@@ -12730,18 +12713,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H78" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I78" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J78" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="79" spans="5:10">
       <c r="E79" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F79" t="str">
         <f>角色!$E$13</f>
@@ -12752,18 +12735,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H79" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I79" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J79" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="80" spans="5:10">
       <c r="E80" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F80" t="str">
         <f>角色!$E$13</f>
@@ -12774,18 +12757,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H80" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I80" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J80" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="81" spans="5:10">
       <c r="E81" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="F81" t="str">
         <f>角色!$E$13</f>
@@ -12796,18 +12779,18 @@
         <v>iam_menu-28</v>
       </c>
       <c r="H81" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I81" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J81" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="82" spans="5:10">
       <c r="E82" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F82" t="str">
         <f>角色!$E$13</f>
@@ -12818,18 +12801,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H82" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I82" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J82" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="83" spans="5:10">
       <c r="E83" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F83" t="str">
         <f>角色!$E$13</f>
@@ -12840,18 +12823,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H83" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I83" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J83" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="84" spans="5:10">
       <c r="E84" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F84" t="str">
         <f>角色!$E$13</f>
@@ -12862,18 +12845,18 @@
         <v>iam_menu-26</v>
       </c>
       <c r="H84" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I84" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J84" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="85" spans="5:10">
       <c r="E85" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F85" t="str">
         <f>角色!$E$13</f>
@@ -12884,13 +12867,13 @@
         <v>iam_menu-27</v>
       </c>
       <c r="H85" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I85" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J85" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
   </sheetData>
@@ -12908,7 +12891,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -12987,10 +12970,10 @@
         <v>519</v>
       </c>
       <c r="F8" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G8" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H8" t="s">
         <v>83</v>
@@ -12999,10 +12982,10 @@
         <v>522</v>
       </c>
       <c r="J8" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="K8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M8" t="s">
         <v>80</v>
@@ -13019,10 +13002,10 @@
         <v>524</v>
       </c>
       <c r="F9" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G9" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H9" t="s">
         <v>83</v>
@@ -13031,7 +13014,7 @@
         <v>529</v>
       </c>
       <c r="J9" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
@@ -13048,10 +13031,10 @@
         <v>527</v>
       </c>
       <c r="F10" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G10" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H10" t="s">
         <v>83</v>
@@ -13060,10 +13043,10 @@
         <v>522</v>
       </c>
       <c r="J10" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="K10" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="M10" t="s">
         <v>80</v>
@@ -13080,10 +13063,10 @@
         <v>530</v>
       </c>
       <c r="F11" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G11" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H11" t="s">
         <v>83</v>
@@ -13092,10 +13075,10 @@
         <v>522</v>
       </c>
       <c r="J11" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="K11" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -13112,10 +13095,10 @@
         <v>532</v>
       </c>
       <c r="F12" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G12" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H12" t="s">
         <v>83</v>
@@ -13124,10 +13107,10 @@
         <v>522</v>
       </c>
       <c r="J12" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="K12" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="M12" t="s">
         <v>80</v>
@@ -13144,10 +13127,10 @@
         <v>535</v>
       </c>
       <c r="F13" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G13" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H13" t="s">
         <v>83</v>
@@ -13156,10 +13139,10 @@
         <v>522</v>
       </c>
       <c r="J13" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="K13" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -13176,10 +13159,10 @@
         <v>538</v>
       </c>
       <c r="F14" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G14" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H14" t="s">
         <v>83</v>
@@ -13188,10 +13171,10 @@
         <v>522</v>
       </c>
       <c r="J14" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="K14" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -13208,10 +13191,10 @@
         <v>541</v>
       </c>
       <c r="F15" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G15" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H15" t="s">
         <v>83</v>
@@ -13220,10 +13203,10 @@
         <v>522</v>
       </c>
       <c r="J15" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="K15" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -13240,10 +13223,10 @@
         <v>544</v>
       </c>
       <c r="F16" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G16" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H16" t="s">
         <v>83</v>
@@ -13252,10 +13235,10 @@
         <v>522</v>
       </c>
       <c r="J16" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="K16" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -13272,10 +13255,10 @@
         <v>547</v>
       </c>
       <c r="F17" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G17" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H17" t="s">
         <v>83</v>
@@ -13284,10 +13267,10 @@
         <v>522</v>
       </c>
       <c r="J17" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="K17" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -13304,10 +13287,10 @@
         <v>550</v>
       </c>
       <c r="F18" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G18" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H18" t="s">
         <v>83</v>
@@ -13316,10 +13299,10 @@
         <v>522</v>
       </c>
       <c r="J18" t="s">
+        <v>756</v>
+      </c>
+      <c r="K18" t="s">
         <v>755</v>
-      </c>
-      <c r="K18" t="s">
-        <v>754</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -13336,10 +13319,10 @@
         <v>553</v>
       </c>
       <c r="F19" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G19" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H19" t="s">
         <v>83</v>
@@ -13348,10 +13331,10 @@
         <v>522</v>
       </c>
       <c r="J19" t="s">
+        <v>758</v>
+      </c>
+      <c r="K19" t="s">
         <v>757</v>
-      </c>
-      <c r="K19" t="s">
-        <v>756</v>
       </c>
       <c r="M19" t="s">
         <v>80</v>
@@ -13397,7 +13380,7 @@
         <v>582</v>
       </c>
       <c r="F22" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G22" t="str">
         <f>角色!$E$10</f>
@@ -13416,7 +13399,7 @@
         <v>582</v>
       </c>
       <c r="F23" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G23" t="str">
         <f>角色!$E$10</f>
@@ -13435,7 +13418,7 @@
         <v>582</v>
       </c>
       <c r="F24" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G24" t="str">
         <f>角色!$E$10</f>
@@ -13454,7 +13437,7 @@
         <v>582</v>
       </c>
       <c r="F25" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G25" t="str">
         <f>角色!$E$11</f>
@@ -13473,7 +13456,7 @@
         <v>582</v>
       </c>
       <c r="F26" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G26" t="str">
         <f>角色!$E$11</f>
@@ -13492,7 +13475,7 @@
         <v>582</v>
       </c>
       <c r="F27" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G27" t="str">
         <f>角色!$E$11</f>
@@ -13511,7 +13494,7 @@
         <v>582</v>
       </c>
       <c r="F28" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
@@ -13530,7 +13513,7 @@
         <v>582</v>
       </c>
       <c r="F29" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G29" t="str">
         <f>角色!$E$12</f>
@@ -13549,7 +13532,7 @@
         <v>582</v>
       </c>
       <c r="F30" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G30" t="str">
         <f>角色!$E$12</f>
@@ -13568,7 +13551,7 @@
         <v>582</v>
       </c>
       <c r="F31" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G31" t="str">
         <f>角色!$E$12</f>
@@ -13587,7 +13570,7 @@
         <v>582</v>
       </c>
       <c r="F32" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
@@ -13606,7 +13589,7 @@
         <v>582</v>
       </c>
       <c r="F33" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G33" t="str">
         <f>角色!$E$13</f>
@@ -13625,7 +13608,7 @@
         <v>582</v>
       </c>
       <c r="F34" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G34" t="str">
         <f>角色!$E$13</f>
@@ -13644,7 +13627,7 @@
         <v>582</v>
       </c>
       <c r="F35" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G35" t="str">
         <f>角色!$E$13</f>

--- a/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="760">
   <si>
     <r>
       <rPr>
@@ -2719,24 +2719,24 @@
     <t>iam_menu_permission-56</t>
   </si>
   <si>
-    <t>agile-service.issue-attachment.uploadForAddress</t>
-  </si>
-  <si>
     <t>iam_menu_permission-57</t>
   </si>
   <si>
+    <t>agile-service.project-object-scheme-field.queryDescriptionTemplate</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-58</t>
+  </si>
+  <si>
     <t>agile-service.issue.listIssueWithoutSubToTestComponent</t>
   </si>
   <si>
-    <t>iam_menu_permission-58</t>
+    <t>iam_menu_permission-59</t>
   </si>
   <si>
     <t>agile-service.scheme.queryIssueTypesWithStateMachineIdByProjectId</t>
   </si>
   <si>
-    <t>iam_menu_permission-59</t>
-  </si>
-  <si>
     <t>iam_menu_permission-60</t>
   </si>
   <si>
@@ -2749,360 +2749,360 @@
     <t>iam_menu_permission-63</t>
   </si>
   <si>
+    <t>iam_menu_permission-64</t>
+  </si>
+  <si>
     <t>test-manager-service.test-cycle-case-defect-rel.createIssueAndLinkDefect</t>
   </si>
   <si>
-    <t>iam_menu_permission-64</t>
+    <t>iam_menu_permission-65</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case-defect-rel.insert</t>
   </si>
   <si>
-    <t>iam_menu_permission-65</t>
+    <t>iam_menu_permission-66</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case-defect-rel.removeAttachment</t>
   </si>
   <si>
-    <t>iam_menu_permission-66</t>
+    <t>iam_menu_permission-67</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case-history.query</t>
   </si>
   <si>
-    <t>iam_menu_permission-67</t>
+    <t>iam_menu_permission-68</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case-step.querySubStep</t>
   </si>
   <si>
-    <t>iam_menu_permission-68</t>
+    <t>iam_menu_permission-69</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case-step.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-69</t>
+    <t>iam_menu_permission-70</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.batchAssignCase</t>
   </si>
   <si>
-    <t>iam_menu_permission-70</t>
+    <t>iam_menu_permission-71</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.delete</t>
   </si>
   <si>
-    <t>iam_menu_permission-71</t>
+    <t>iam_menu_permission-72</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.ignoreUpdate</t>
   </si>
   <si>
-    <t>iam_menu_permission-72</t>
+    <t>iam_menu_permission-73</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.importCase</t>
   </si>
   <si>
-    <t>iam_menu_permission-73</t>
+    <t>iam_menu_permission-74</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.listCaseByCycleId</t>
   </si>
   <si>
-    <t>iam_menu_permission-74</t>
+    <t>iam_menu_permission-75</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.queryCaseAndStep</t>
   </si>
   <si>
-    <t>iam_menu_permission-75</t>
+    <t>iam_menu_permission-76</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.queryCaseInfo</t>
   </si>
   <si>
-    <t>iam_menu_permission-76</t>
+    <t>iam_menu_permission-77</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.queryExecutionStatus</t>
   </si>
   <si>
-    <t>iam_menu_permission-77</t>
+    <t>iam_menu_permission-78</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.selectUpdateCompare</t>
   </si>
   <si>
-    <t>iam_menu_permission-78</t>
+    <t>iam_menu_permission-79</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-79</t>
+    <t>iam_menu_permission-80</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.updateCaseAndStep</t>
   </si>
   <si>
-    <t>iam_menu_permission-80</t>
+    <t>iam_menu_permission-81</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.updateCompare</t>
   </si>
   <si>
-    <t>iam_menu_permission-81</t>
+    <t>iam_menu_permission-82</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle.delete</t>
   </si>
   <si>
-    <t>iam_menu_permission-82</t>
+    <t>iam_menu_permission-83</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle.insert</t>
   </si>
   <si>
-    <t>iam_menu_permission-83</t>
+    <t>iam_menu_permission-84</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle.moveFolder</t>
   </si>
   <si>
-    <t>iam_menu_permission-84</t>
+    <t>iam_menu_permission-85</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle.operatePlanCalendar</t>
   </si>
   <si>
-    <t>iam_menu_permission-85</t>
+    <t>iam_menu_permission-86</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle.queryTree</t>
   </si>
   <si>
-    <t>iam_menu_permission-86</t>
+    <t>iam_menu_permission-87</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-87</t>
-  </si>
-  <si>
     <t>iam_menu_permission-88</t>
   </si>
   <si>
+    <t>iam_menu_permission-89</t>
+  </si>
+  <si>
     <t>test-manager-service.test-plan.clonePlan</t>
   </si>
   <si>
-    <t>iam_menu_permission-89</t>
+    <t>iam_menu_permission-90</t>
   </si>
   <si>
     <t>test-manager-service.test-plan.create</t>
   </si>
   <si>
-    <t>iam_menu_permission-90</t>
+    <t>iam_menu_permission-91</t>
   </si>
   <si>
     <t>test-manager-service.test-plan.deletePlan</t>
   </si>
   <si>
-    <t>iam_menu_permission-91</t>
+    <t>iam_menu_permission-92</t>
   </si>
   <si>
     <t>test-manager-service.test-plan.query</t>
   </si>
   <si>
-    <t>iam_menu_permission-92</t>
+    <t>iam_menu_permission-93</t>
   </si>
   <si>
     <t>test-manager-service.test-plan.queryInfo</t>
   </si>
   <si>
-    <t>iam_menu_permission-93</t>
+    <t>iam_menu_permission-94</t>
   </si>
   <si>
     <t>test-manager-service.test-plan.queryTree</t>
   </si>
   <si>
-    <t>iam_menu_permission-94</t>
+    <t>iam_menu_permission-95</t>
   </si>
   <si>
     <t>test-manager-service.test-plan.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-95</t>
+    <t>iam_menu_permission-96</t>
   </si>
   <si>
     <t>test-manager-service.test-plan.updateStatus</t>
   </si>
   <si>
-    <t>iam_menu_permission-96</t>
-  </si>
-  <si>
     <t>iam_menu_permission-97</t>
   </si>
   <si>
+    <t>iam_menu_permission-98</t>
+  </si>
+  <si>
     <t>agile-service.report.queryBurnDownCoordinate</t>
   </si>
   <si>
-    <t>iam_menu_permission-98</t>
+    <t>iam_menu_permission-99</t>
   </si>
   <si>
     <t>agile-service.report.queryBurnDownReport</t>
   </si>
   <si>
-    <t>iam_menu_permission-99</t>
+    <t>iam_menu_permission-100</t>
   </si>
   <si>
     <t>agile-service.report.queryBurnDownReportByType</t>
   </si>
   <si>
-    <t>iam_menu_permission-100</t>
-  </si>
-  <si>
     <t>iam_menu_permission-101</t>
   </si>
   <si>
+    <t>iam_menu_permission-102</t>
+  </si>
+  <si>
     <t>agile-service.sprint.queryNameByOptions</t>
   </si>
   <si>
-    <t>iam_menu_permission-102</t>
+    <t>iam_menu_permission-103</t>
   </si>
   <si>
     <t>agile-service.sprint.queryNonWorkdays</t>
   </si>
   <si>
-    <t>iam_menu_permission-103</t>
-  </si>
-  <si>
     <t>iam_menu_permission-104</t>
   </si>
   <si>
     <t>iam_menu_permission-105</t>
   </si>
   <si>
+    <t>iam_menu_permission-106</t>
+  </si>
+  <si>
     <t>agile-service.sprint.queryIssueByOptions</t>
   </si>
   <si>
-    <t>iam_menu_permission-106</t>
-  </si>
-  <si>
     <t>iam_menu_permission-107</t>
   </si>
   <si>
     <t>iam_menu_permission-108</t>
   </si>
   <si>
+    <t>iam_menu_permission-109</t>
+  </si>
+  <si>
     <t>agile-service.sprint.querySprintById</t>
   </si>
   <si>
-    <t>iam_menu_permission-109</t>
+    <t>iam_menu_permission-110</t>
   </si>
   <si>
     <t>agile-service.board.queryByOptions</t>
   </si>
   <si>
-    <t>iam_menu_permission-110</t>
+    <t>iam_menu_permission-111</t>
   </si>
   <si>
     <t>agile-service.board.queryByProjectId</t>
   </si>
   <si>
-    <t>iam_menu_permission-111</t>
+    <t>iam_menu_permission-112</t>
   </si>
   <si>
     <t>agile-service.project-info.queryProjectInfoByProjectId</t>
   </si>
   <si>
-    <t>iam_menu_permission-112</t>
+    <t>iam_menu_permission-113</t>
   </si>
   <si>
     <t>agile-service.quick-filter.listByProjectId</t>
   </si>
   <si>
-    <t>iam_menu_permission-113</t>
+    <t>iam_menu_permission-114</t>
   </si>
   <si>
     <t>agile-service.report.queryCumulativeFlowDiagram</t>
   </si>
   <si>
-    <t>iam_menu_permission-114</t>
-  </si>
-  <si>
     <t>iam_menu_permission-115</t>
   </si>
   <si>
+    <t>iam_menu_permission-116</t>
+  </si>
+  <si>
     <t>agile-service.product-version.queryNameByOptions</t>
   </si>
   <si>
-    <t>iam_menu_permission-116</t>
+    <t>iam_menu_permission-117</t>
   </si>
   <si>
     <t>agile-service.report.queryVersionChart</t>
   </si>
   <si>
-    <t>iam_menu_permission-117</t>
+    <t>iam_menu_permission-118</t>
   </si>
   <si>
     <t>agile-service.report.queryVersionChartList</t>
   </si>
   <si>
-    <t>iam_menu_permission-118</t>
-  </si>
-  <si>
     <t>iam_menu_permission-119</t>
   </si>
   <si>
+    <t>iam_menu_permission-120</t>
+  </si>
+  <si>
     <t>agile-service.report.queryVelocityChart</t>
   </si>
   <si>
-    <t>iam_menu_permission-120</t>
+    <t>iam_menu_permission-121</t>
   </si>
   <si>
     <t>agile-service.issue.listEpic</t>
   </si>
   <si>
-    <t>iam_menu_permission-121</t>
+    <t>iam_menu_permission-122</t>
   </si>
   <si>
     <t>agile-service.report.queryEpicChart</t>
   </si>
   <si>
-    <t>iam_menu_permission-122</t>
+    <t>iam_menu_permission-123</t>
   </si>
   <si>
     <t>agile-service.report.queryEpicChartList</t>
   </si>
   <si>
-    <t>iam_menu_permission-123</t>
-  </si>
-  <si>
     <t>iam_menu_permission-124</t>
   </si>
   <si>
+    <t>iam_menu_permission-125</t>
+  </si>
+  <si>
     <t>agile-service.report.queryPieChart</t>
   </si>
   <si>
-    <t>iam_menu_permission-125</t>
-  </si>
-  <si>
     <t>iam_menu_permission-126</t>
   </si>
   <si>
     <t>iam_menu_permission-127</t>
   </si>
   <si>
+    <t>iam_menu_permission-128</t>
+  </si>
+  <si>
     <t>agile-service.report.queryBurnDownCoordinateByType</t>
   </si>
   <si>
-    <t>iam_menu_permission-128</t>
-  </si>
-  <si>
     <t>iam_menu_permission-129</t>
   </si>
   <si>
@@ -3118,145 +3118,148 @@
     <t>iam_menu_permission-133</t>
   </si>
   <si>
+    <t>iam_menu_permission-134</t>
+  </si>
+  <si>
     <t>test-manager-service.test-case.createFormsFromIssueToDefect</t>
   </si>
   <si>
-    <t>iam_menu_permission-134</t>
-  </si>
-  <si>
     <t>iam_menu_permission-135</t>
   </si>
   <si>
+    <t>iam_menu_permission-136</t>
+  </si>
+  <si>
     <t>agile-service.product-version.listByProjectId</t>
   </si>
   <si>
-    <t>iam_menu_permission-136</t>
+    <t>iam_menu_permission-137</t>
   </si>
   <si>
     <t>agile-service.scheme.queryStatusByProjectId</t>
   </si>
   <si>
-    <t>iam_menu_permission-137</t>
+    <t>iam_menu_permission-138</t>
   </si>
   <si>
     <t>test-manager-service.test-case.createFormDefectFromIssue</t>
   </si>
   <si>
-    <t>iam_menu_permission-138</t>
+    <t>iam_menu_permission-139</t>
   </si>
   <si>
     <t>test-manager-service.test-case.createFormDefectFromIssueById</t>
   </si>
   <si>
-    <t>iam_menu_permission-139</t>
-  </si>
-  <si>
     <t>iam_menu_permission-140</t>
   </si>
   <si>
     <t>iam_menu_permission-141</t>
   </si>
   <si>
+    <t>iam_menu_permission-142</t>
+  </si>
+  <si>
     <t>test-manager-service.test-plan.allPlan</t>
   </si>
   <si>
-    <t>iam_menu_permission-142</t>
+    <t>iam_menu_permission-143</t>
   </si>
   <si>
     <t>devops-service.app-service.listByActive</t>
   </si>
   <si>
-    <t>iam_menu_permission-143</t>
+    <t>iam_menu_permission-144</t>
   </si>
   <si>
     <t>devops-service.devops-gitlab-commit.getCommits</t>
   </si>
   <si>
-    <t>iam_menu_permission-144</t>
+    <t>iam_menu_permission-145</t>
   </si>
   <si>
     <t>devops-service.devops-gitlab-commit.getRecordCommits</t>
   </si>
   <si>
-    <t>iam_menu_permission-145</t>
+    <t>iam_menu_permission-146</t>
   </si>
   <si>
     <t>devops-service.app-service.getSonarQubeTable</t>
   </si>
   <si>
-    <t>iam_menu_permission-146</t>
-  </si>
-  <si>
     <t>iam_menu_permission-147</t>
   </si>
   <si>
     <t>iam_menu_permission-148</t>
   </si>
   <si>
+    <t>iam_menu_permission-149</t>
+  </si>
+  <si>
     <t>devops-service.devops-gitlab-pipeline.listPipelineFrequency</t>
   </si>
   <si>
-    <t>iam_menu_permission-149</t>
+    <t>iam_menu_permission-150</t>
   </si>
   <si>
     <t>devops-service.devops-gitlab-pipeline.pageByOptions</t>
   </si>
   <si>
-    <t>iam_menu_permission-150</t>
-  </si>
-  <si>
     <t>iam_menu_permission-151</t>
   </si>
   <si>
+    <t>iam_menu_permission-152</t>
+  </si>
+  <si>
     <t>devops-service.devops-gitlab-pipeline.listPipelineTime</t>
   </si>
   <si>
-    <t>iam_menu_permission-152</t>
-  </si>
-  <si>
     <t>iam_menu_permission-153</t>
   </si>
   <si>
+    <t>iam_menu_permission-154</t>
+  </si>
+  <si>
     <t>devops-service.app-service-instance.listDeployTimeReport</t>
   </si>
   <si>
-    <t>iam_menu_permission-154</t>
+    <t>iam_menu_permission-155</t>
   </si>
   <si>
     <t>devops-service.app-service-instance.pageDeployTimeTable</t>
   </si>
   <si>
-    <t>iam_menu_permission-155</t>
+    <t>iam_menu_permission-156</t>
   </si>
   <si>
     <t>devops-service.app-service.listByEnvIdAndStatus</t>
   </si>
   <si>
-    <t>iam_menu_permission-156</t>
+    <t>iam_menu_permission-157</t>
   </si>
   <si>
     <t>devops-service.devops-environment.listByActive</t>
   </si>
   <si>
-    <t>iam_menu_permission-157</t>
+    <t>iam_menu_permission-158</t>
   </si>
   <si>
     <t>devops-service.app-service-instance.listDeployFrequencyReport</t>
   </si>
   <si>
-    <t>iam_menu_permission-158</t>
+    <t>iam_menu_permission-159</t>
   </si>
   <si>
     <t>devops-service.app-service-instance.pageDeployFrequencyDetailTable</t>
   </si>
   <si>
-    <t>iam_menu_permission-159</t>
+    <t>iam_menu_permission-160</t>
   </si>
   <si>
     <t>devops-service.app-service.listAll</t>
   </si>
   <si>
-    <t>iam_menu_permission-160</t>
+    <t>iam_menu_permission-161</t>
   </si>
   <si>
     <t>标签表</t>
@@ -4102,50 +4105,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4160,7 +4120,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4168,22 +4142,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4191,14 +4150,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4228,9 +4179,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4247,6 +4197,59 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4328,7 +4331,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4340,7 +4349,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4352,25 +4385,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4388,103 +4409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4502,6 +4427,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4509,6 +4458,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4615,21 +4618,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -4654,17 +4642,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4674,6 +4658,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4693,170 +4686,180 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5327,22 +5330,22 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="15.5555555555556" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.3259259259259" style="7" customWidth="1"/>
-    <col min="3" max="3" width="28.1037037037037" customWidth="1"/>
-    <col min="4" max="4" width="35.3259259259259" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.3263888888889" style="7" customWidth="1"/>
+    <col min="3" max="3" width="28.1041666666667" customWidth="1"/>
+    <col min="4" max="4" width="35.3263888888889" style="8" customWidth="1"/>
     <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
     <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
     <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1037037037037" customWidth="1"/>
+    <col min="11" max="11" width="19.1041666666667" customWidth="1"/>
     <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="13.1037037037037" customWidth="1"/>
-    <col min="14" max="1025" width="10.3259259259259" customWidth="1"/>
+    <col min="13" max="13" width="13.1041666666667" customWidth="1"/>
+    <col min="14" max="1025" width="10.3263888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
@@ -5356,7 +5359,7 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
     </row>
-    <row r="2" ht="18" spans="5:5">
+    <row r="2" spans="5:5">
       <c r="E2" s="12"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
@@ -5370,7 +5373,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" ht="18" spans="3:7">
+    <row r="4" spans="3:7">
       <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
@@ -5391,7 +5394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
+    <row r="7" spans="3:5">
       <c r="C7" s="19" t="s">
         <v>8</v>
       </c>
@@ -5411,7 +5414,7 @@
       </c>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" ht="51.75" spans="3:6">
+    <row r="9" ht="52.2" spans="3:6">
       <c r="C9" s="25" t="s">
         <v>13</v>
       </c>
@@ -5425,7 +5428,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
+    <row r="10" ht="52.2" spans="3:5">
       <c r="C10" s="28" t="s">
         <v>17</v>
       </c>
@@ -5436,7 +5439,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
+    <row r="11" ht="69.6" spans="3:5">
       <c r="C11" s="22" t="s">
         <v>20</v>
       </c>
@@ -5468,7 +5471,7 @@
       <c r="D14" s="23"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" ht="34.5" spans="3:5">
+    <row r="15" ht="34.8" spans="3:5">
       <c r="C15" s="30" t="s">
         <v>26</v>
       </c>
@@ -5491,7 +5494,7 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
     </row>
-    <row r="20" ht="18" spans="3:4">
+    <row r="20" spans="3:4">
       <c r="C20" s="34" t="s">
         <v>31</v>
       </c>
@@ -5499,7 +5502,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
+    <row r="21" spans="3:4">
       <c r="C21" s="34" t="s">
         <v>33</v>
       </c>
@@ -5507,7 +5510,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
+    <row r="22" spans="3:4">
       <c r="C22" s="34" t="s">
         <v>35</v>
       </c>
@@ -5515,7 +5518,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
+    <row r="23" spans="3:4">
       <c r="C23" s="34" t="s">
         <v>37</v>
       </c>
@@ -5541,7 +5544,7 @@
       </c>
       <c r="E26" s="13"/>
     </row>
-    <row r="27" ht="51.75" spans="3:3">
+    <row r="27" ht="52.2" spans="3:3">
       <c r="C27" s="36" t="s">
         <v>43</v>
       </c>
@@ -5567,15 +5570,15 @@
   <sheetPr/>
   <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G28" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+    <sheetView topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="5" max="5" width="16.8592592592593" customWidth="1"/>
+    <col min="5" max="5" width="16.8611111111111" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="23.8592592592593" customWidth="1"/>
+    <col min="7" max="7" width="23.8611111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7228,13 +7231,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="E164" sqref="E164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="5" max="5" width="23.8333333333333" customWidth="1"/>
+    <col min="6" max="6" width="12.4166666666667" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -7869,43 +7876,43 @@
         <v>iam_menu-38</v>
       </c>
       <c r="G56" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F57" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G57" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F58" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G58" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F59" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G59" t="s">
-        <v>265</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60" spans="5:7">
@@ -7917,7 +7924,7 @@
         <v>iam_menu-38</v>
       </c>
       <c r="G60" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="61" spans="5:7">
@@ -7929,7 +7936,7 @@
         <v>iam_menu-38</v>
       </c>
       <c r="G61" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="62" spans="5:7">
@@ -7941,7 +7948,7 @@
         <v>iam_menu-38</v>
       </c>
       <c r="G62" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
     </row>
     <row r="63" spans="5:7">
@@ -7953,295 +7960,295 @@
         <v>iam_menu-38</v>
       </c>
       <c r="G63" t="s">
-        <v>337</v>
+        <v>305</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F64" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G64" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F65" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G65" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F66" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G66" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F67" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G67" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F68" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G68" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F69" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G69" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F70" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G70" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F71" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G71" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F72" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G72" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F73" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G73" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F74" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G74" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F75" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G75" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F76" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G76" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F77" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G77" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F78" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G78" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="E79" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F79" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G79" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="E80" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F80" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G80" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="81" spans="5:7">
       <c r="E81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F81" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G81" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="82" spans="5:7">
       <c r="E82" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F82" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G82" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="83" spans="5:7">
       <c r="E83" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F83" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G83" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="84" spans="5:7">
       <c r="E84" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F84" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G84" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="85" spans="5:7">
       <c r="E85" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F85" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G85" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F86" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G86" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="87" spans="5:7">
       <c r="E87" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F87" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G87" t="s">
-        <v>323</v>
+        <v>384</v>
       </c>
     </row>
     <row r="88" spans="5:7">
@@ -8253,103 +8260,103 @@
         <v>iam_menu-38</v>
       </c>
       <c r="G88" t="s">
-        <v>386</v>
+        <v>323</v>
       </c>
     </row>
     <row r="89" spans="5:7">
       <c r="E89" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F89" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G89" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F90" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G90" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="91" spans="5:7">
       <c r="E91" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F91" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G91" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="92" spans="5:7">
       <c r="E92" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F92" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G92" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="93" spans="5:7">
       <c r="E93" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F93" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G93" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="94" spans="5:7">
       <c r="E94" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F94" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G94" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="95" spans="5:7">
       <c r="E95" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F95" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G95" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="96" spans="5:7">
       <c r="E96" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F96" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G96" t="s">
-        <v>237</v>
+        <v>401</v>
       </c>
     </row>
     <row r="97" spans="5:7">
@@ -8357,47 +8364,47 @@
         <v>402</v>
       </c>
       <c r="F97" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
+        <f>菜单SAAS版!$E$38</f>
+        <v>iam_menu-38</v>
       </c>
       <c r="G97" t="s">
-        <v>403</v>
+        <v>237</v>
       </c>
     </row>
     <row r="98" spans="5:7">
       <c r="E98" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F98" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G98" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="99" spans="5:7">
       <c r="E99" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F99" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G99" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="100" spans="5:7">
       <c r="E100" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F100" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G100" t="s">
-        <v>331</v>
+        <v>408</v>
       </c>
     </row>
     <row r="101" spans="5:7">
@@ -8409,31 +8416,31 @@
         <v>iam_menu-12</v>
       </c>
       <c r="G101" t="s">
-        <v>410</v>
+        <v>332</v>
       </c>
     </row>
     <row r="102" spans="5:7">
       <c r="E102" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F102" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G102" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="103" spans="5:7">
       <c r="E103" t="s">
+        <v>412</v>
+      </c>
+      <c r="F103" t="str">
+        <f>菜单SAAS版!$E$12</f>
+        <v>iam_menu-12</v>
+      </c>
+      <c r="G103" t="s">
         <v>413</v>
-      </c>
-      <c r="F103" t="str">
-        <f>菜单SAAS版!$E$20</f>
-        <v>iam_menu-20</v>
-      </c>
-      <c r="G103" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="104" spans="5:7">
@@ -8445,7 +8452,7 @@
         <v>iam_menu-20</v>
       </c>
       <c r="G104" t="s">
-        <v>331</v>
+        <v>404</v>
       </c>
     </row>
     <row r="105" spans="5:7">
@@ -8457,19 +8464,19 @@
         <v>iam_menu-20</v>
       </c>
       <c r="G105" t="s">
-        <v>416</v>
+        <v>332</v>
       </c>
     </row>
     <row r="106" spans="5:7">
       <c r="E106" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F106" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G106" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="107" spans="5:7">
@@ -8481,7 +8488,7 @@
         <v>iam_menu-20</v>
       </c>
       <c r="G107" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="108" spans="5:7">
@@ -8493,79 +8500,79 @@
         <v>iam_menu-20</v>
       </c>
       <c r="G108" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="109" spans="5:7">
       <c r="E109" t="s">
+        <v>420</v>
+      </c>
+      <c r="F109" t="str">
+        <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-20</v>
+      </c>
+      <c r="G109" t="s">
         <v>421</v>
-      </c>
-      <c r="F109" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="G109" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="110" spans="5:7">
       <c r="E110" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F110" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G110" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="111" spans="5:7">
       <c r="E111" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F111" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G111" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="112" spans="5:7">
       <c r="E112" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F112" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G112" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="113" spans="5:7">
       <c r="E113" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F113" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G113" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="114" spans="5:7">
       <c r="E114" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F114" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G114" t="s">
-        <v>331</v>
+        <v>431</v>
       </c>
     </row>
     <row r="115" spans="5:7">
@@ -8573,47 +8580,47 @@
         <v>432</v>
       </c>
       <c r="F115" t="str">
-        <f>菜单SAAS版!$E$23</f>
-        <v>iam_menu-23</v>
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="G115" t="s">
-        <v>433</v>
+        <v>332</v>
       </c>
     </row>
     <row r="116" spans="5:7">
       <c r="E116" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F116" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G116" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="117" spans="5:7">
       <c r="E117" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F117" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G117" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="118" spans="5:7">
       <c r="E118" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F118" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G118" t="s">
-        <v>331</v>
+        <v>438</v>
       </c>
     </row>
     <row r="119" spans="5:7">
@@ -8621,59 +8628,59 @@
         <v>439</v>
       </c>
       <c r="F119" t="str">
+        <f>菜单SAAS版!$E$23</f>
+        <v>iam_menu-23</v>
+      </c>
+      <c r="G119" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="120" spans="5:7">
+      <c r="E120" t="s">
+        <v>440</v>
+      </c>
+      <c r="F120" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
-      <c r="G119" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="120" spans="5:7">
-      <c r="E120" t="s">
+      <c r="G120" t="s">
         <v>441</v>
-      </c>
-      <c r="F120" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="G120" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="121" spans="5:7">
       <c r="E121" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F121" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-15</v>
       </c>
       <c r="G121" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="122" spans="5:7">
       <c r="E122" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F122" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-15</v>
       </c>
       <c r="G122" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="123" spans="5:7">
       <c r="E123" t="s">
+        <v>446</v>
+      </c>
+      <c r="F123" t="str">
+        <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-15</v>
+      </c>
+      <c r="G123" t="s">
         <v>447</v>
-      </c>
-      <c r="F123" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
-      </c>
-      <c r="G123" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="124" spans="5:7">
@@ -8685,19 +8692,19 @@
         <v>iam_menu-17</v>
       </c>
       <c r="G124" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
     </row>
     <row r="125" spans="5:7">
       <c r="E125" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F125" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-17</v>
       </c>
       <c r="G125" t="s">
-        <v>410</v>
+        <v>450</v>
       </c>
     </row>
     <row r="126" spans="5:7">
@@ -8705,11 +8712,11 @@
         <v>451</v>
       </c>
       <c r="F126" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
+        <f>菜单SAAS版!$E$17</f>
+        <v>iam_menu-17</v>
       </c>
       <c r="G126" t="s">
-        <v>442</v>
+        <v>411</v>
       </c>
     </row>
     <row r="127" spans="5:7">
@@ -8721,19 +8728,19 @@
         <v>iam_menu-14</v>
       </c>
       <c r="G127" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="128" spans="5:7">
       <c r="E128" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F128" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-14</v>
       </c>
       <c r="G128" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
     </row>
     <row r="129" spans="5:7">
@@ -8741,11 +8748,11 @@
         <v>455</v>
       </c>
       <c r="F129" t="str">
-        <f>菜单SAAS版!$E$22</f>
-        <v>iam_menu-22</v>
+        <f>菜单SAAS版!$E$14</f>
+        <v>iam_menu-14</v>
       </c>
       <c r="G129" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
     </row>
     <row r="130" spans="5:7">
@@ -8757,7 +8764,7 @@
         <v>iam_menu-22</v>
       </c>
       <c r="G130" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
     </row>
     <row r="131" spans="5:7">
@@ -8769,7 +8776,7 @@
         <v>iam_menu-22</v>
       </c>
       <c r="G131" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
     </row>
     <row r="132" spans="5:7">
@@ -8777,11 +8784,11 @@
         <v>458</v>
       </c>
       <c r="F132" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
+        <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
       </c>
       <c r="G132" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="133" spans="5:7">
@@ -8793,19 +8800,19 @@
         <v>iam_menu-19</v>
       </c>
       <c r="G133" t="s">
-        <v>460</v>
+        <v>411</v>
       </c>
     </row>
     <row r="134" spans="5:7">
       <c r="E134" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F134" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G134" t="s">
-        <v>237</v>
+        <v>461</v>
       </c>
     </row>
     <row r="135" spans="5:7">
@@ -8813,59 +8820,59 @@
         <v>462</v>
       </c>
       <c r="F135" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
+        <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G135" t="s">
-        <v>463</v>
+        <v>237</v>
       </c>
     </row>
     <row r="136" spans="5:7">
       <c r="E136" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F136" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G136" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="137" spans="5:7">
       <c r="E137" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F137" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G137" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="138" spans="5:7">
       <c r="E138" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F138" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G138" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="139" spans="5:7">
       <c r="E139" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F139" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G139" t="s">
-        <v>237</v>
+        <v>470</v>
       </c>
     </row>
     <row r="140" spans="5:7">
@@ -8873,11 +8880,11 @@
         <v>471</v>
       </c>
       <c r="F140" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
+        <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="G140" t="s">
-        <v>363</v>
+        <v>237</v>
       </c>
     </row>
     <row r="141" spans="5:7">
@@ -8889,67 +8896,67 @@
         <v>iam_menu-16</v>
       </c>
       <c r="G141" t="s">
-        <v>473</v>
+        <v>364</v>
       </c>
     </row>
     <row r="142" spans="5:7">
       <c r="E142" t="s">
+        <v>473</v>
+      </c>
+      <c r="F142" t="str">
+        <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-16</v>
+      </c>
+      <c r="G142" t="s">
         <v>474</v>
-      </c>
-      <c r="F142" t="str">
-        <f>菜单SAAS版!$E$24</f>
-        <v>iam_menu-24</v>
-      </c>
-      <c r="G142" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="143" spans="5:7">
       <c r="E143" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F143" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G143" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="144" spans="5:7">
       <c r="E144" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F144" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G144" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="145" spans="5:7">
       <c r="E145" t="s">
+        <v>479</v>
+      </c>
+      <c r="F145" t="str">
+        <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-24</v>
+      </c>
+      <c r="G145" t="s">
         <v>480</v>
-      </c>
-      <c r="F145" t="str">
-        <f>菜单SAAS版!$E$28</f>
-        <v>iam_menu-28</v>
-      </c>
-      <c r="G145" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="146" spans="5:7">
       <c r="E146" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F146" t="str">
         <f>菜单SAAS版!$E$28</f>
         <v>iam_menu-28</v>
       </c>
       <c r="G146" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
     </row>
     <row r="147" spans="5:7">
@@ -8957,11 +8964,11 @@
         <v>483</v>
       </c>
       <c r="F147" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
+        <f>菜单SAAS版!$E$28</f>
+        <v>iam_menu-28</v>
       </c>
       <c r="G147" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="148" spans="5:7">
@@ -8973,31 +8980,31 @@
         <v>iam_menu-11</v>
       </c>
       <c r="G148" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="149" spans="5:7">
       <c r="E149" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F149" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G149" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="150" spans="5:7">
       <c r="E150" t="s">
+        <v>487</v>
+      </c>
+      <c r="F150" t="str">
+        <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
+      </c>
+      <c r="G150" t="s">
         <v>488</v>
-      </c>
-      <c r="F150" t="str">
-        <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-10</v>
-      </c>
-      <c r="G150" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="151" spans="5:7">
@@ -9009,19 +9016,19 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G151" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
     </row>
     <row r="152" spans="5:7">
       <c r="E152" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F152" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G152" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="153" spans="5:7">
@@ -9029,95 +9036,107 @@
         <v>492</v>
       </c>
       <c r="F153" t="str">
-        <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-10</v>
       </c>
       <c r="G153" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="154" spans="5:7">
       <c r="E154" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F154" t="str">
         <f>菜单SAAS版!$E$26</f>
         <v>iam_menu-26</v>
       </c>
       <c r="G154" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="155" spans="5:7">
       <c r="E155" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F155" t="str">
         <f>菜单SAAS版!$E$26</f>
         <v>iam_menu-26</v>
       </c>
       <c r="G155" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="156" spans="5:7">
       <c r="E156" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F156" t="str">
         <f>菜单SAAS版!$E$26</f>
         <v>iam_menu-26</v>
       </c>
       <c r="G156" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="157" spans="5:7">
       <c r="E157" t="s">
+        <v>499</v>
+      </c>
+      <c r="F157" t="str">
+        <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-26</v>
+      </c>
+      <c r="G157" t="s">
         <v>500</v>
-      </c>
-      <c r="F157" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
-      </c>
-      <c r="G157" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="158" spans="5:7">
       <c r="E158" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F158" t="str">
         <f>菜单SAAS版!$E$27</f>
         <v>iam_menu-27</v>
       </c>
       <c r="G158" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="159" spans="5:7">
       <c r="E159" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F159" t="str">
         <f>菜单SAAS版!$E$27</f>
         <v>iam_menu-27</v>
       </c>
       <c r="G159" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="160" spans="5:7">
       <c r="E160" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F160" t="str">
         <f>菜单SAAS版!$E$27</f>
         <v>iam_menu-27</v>
       </c>
       <c r="G160" t="s">
-        <v>499</v>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="161" spans="5:7">
+      <c r="E161" t="s">
+        <v>507</v>
+      </c>
+      <c r="F161" t="str">
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
+      </c>
+      <c r="G161" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -9135,13 +9154,13 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="5" max="5" width="14.0740740740741" customWidth="1"/>
-    <col min="6" max="6" width="19.5703703703704" customWidth="1"/>
-    <col min="7" max="7" width="18.6444444444444" customWidth="1"/>
-    <col min="8" max="8" width="21.0740740740741" customWidth="1"/>
-    <col min="10" max="10" width="36.5037037037037" customWidth="1"/>
+    <col min="5" max="5" width="14.0763888888889" customWidth="1"/>
+    <col min="6" max="6" width="19.5694444444444" customWidth="1"/>
+    <col min="7" max="7" width="18.6458333333333" customWidth="1"/>
+    <col min="8" max="8" width="21.0763888888889" customWidth="1"/>
+    <col min="10" max="10" width="36.5069444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -9177,66 +9196,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="I7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="J7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F8" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G8" t="s">
+        <v>522</v>
+      </c>
+      <c r="H8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" t="s">
+        <v>523</v>
+      </c>
+      <c r="J8" t="s">
+        <v>524</v>
+      </c>
+      <c r="K8" t="s">
         <v>521</v>
-      </c>
-      <c r="H8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" t="s">
-        <v>522</v>
-      </c>
-      <c r="J8" t="s">
-        <v>523</v>
-      </c>
-      <c r="K8" t="s">
-        <v>520</v>
       </c>
       <c r="M8" t="s">
         <v>83</v>
@@ -9250,25 +9269,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G9" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H9" t="s">
         <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J9" t="s">
+        <v>527</v>
+      </c>
+      <c r="K9" t="s">
         <v>526</v>
-      </c>
-      <c r="K9" t="s">
-        <v>525</v>
       </c>
       <c r="M9" t="s">
         <v>83</v>
@@ -9282,19 +9301,19 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F10" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H10" t="s">
         <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M10" t="s">
         <v>83</v>
@@ -9308,19 +9327,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F11" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G11" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H11" t="s">
         <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -9334,25 +9353,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F12" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G12" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H12" t="s">
         <v>83</v>
       </c>
       <c r="I12" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="J12" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K12" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M12" t="s">
         <v>83</v>
@@ -9366,22 +9385,22 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F13" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G13" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H13" t="s">
         <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J13" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -9395,22 +9414,22 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F14" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G14" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H14" t="s">
         <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J14" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -9424,22 +9443,22 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F15" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G15" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H15" t="s">
         <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J15" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -9453,22 +9472,22 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F16" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G16" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H16" t="s">
         <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J16" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -9482,25 +9501,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F17" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G17" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H17" t="s">
         <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J17" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K17" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -9514,25 +9533,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F18" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H18" t="s">
         <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J18" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="K18" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -9546,25 +9565,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F19" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G19" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H19" t="s">
         <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J19" t="s">
+        <v>556</v>
+      </c>
+      <c r="K19" t="s">
         <v>555</v>
-      </c>
-      <c r="K19" t="s">
-        <v>554</v>
       </c>
       <c r="M19" t="s">
         <v>83</v>
@@ -9578,19 +9597,19 @@
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F20" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G20" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H20" t="s">
         <v>83</v>
       </c>
       <c r="I20" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M20" t="s">
         <v>83</v>
@@ -9604,25 +9623,25 @@
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F21" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G21" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H21" t="s">
         <v>83</v>
       </c>
       <c r="I21" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="J21" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="K21" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M21" t="s">
         <v>80</v>
@@ -9636,25 +9655,25 @@
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F22" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G22" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H22" t="s">
         <v>83</v>
       </c>
       <c r="I22" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="J22" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K22" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M22" t="s">
         <v>80</v>
@@ -9668,25 +9687,25 @@
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F23" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G23" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H23" t="s">
         <v>83</v>
       </c>
       <c r="I23" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="J23" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="K23" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M23" t="s">
         <v>80</v>
@@ -9700,19 +9719,19 @@
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F24" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G24" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H24" t="s">
         <v>83</v>
       </c>
       <c r="I24" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M24" t="s">
         <v>80</v>
@@ -9726,22 +9745,22 @@
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F25" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="G25" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H25" t="s">
         <v>83</v>
       </c>
       <c r="I25" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="J25" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M25" t="s">
         <v>80</v>
@@ -9755,22 +9774,22 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F26" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G26" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H26" t="s">
         <v>83</v>
       </c>
       <c r="I26" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="J26" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M26" t="s">
         <v>80</v>
@@ -9790,33 +9809,33 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="I28" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F29" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G29" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -9827,15 +9846,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I29" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F30" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -9846,15 +9865,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I30" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F31" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G31" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -9865,15 +9884,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I31" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F32" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G32" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -9884,15 +9903,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I32" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F33" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G33" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -9903,15 +9922,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I33" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F34" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G34" t="str">
         <f>菜单SAAS版!$E$35</f>
@@ -9922,15 +9941,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I34" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F35" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G35" t="str">
         <f>菜单SAAS版!$E$35</f>
@@ -9941,15 +9960,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I35" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="36" spans="5:9">
       <c r="E36" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F36" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G36" t="str">
         <f>菜单SAAS版!$E$35</f>
@@ -9960,15 +9979,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I36" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="37" spans="5:9">
       <c r="E37" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F37" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G37" t="str">
         <f>菜单SAAS版!$E$37</f>
@@ -9979,15 +9998,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I37" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="38" spans="5:9">
       <c r="E38" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F38" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G38" t="str">
         <f>菜单SAAS版!$E$37</f>
@@ -9998,15 +10017,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I38" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="39" spans="5:9">
       <c r="E39" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F39" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G39" t="str">
         <f>菜单SAAS版!$E$37</f>
@@ -10017,15 +10036,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I39" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="40" s="5" customFormat="1" spans="5:9">
       <c r="E40" s="5" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G40" s="5" t="str">
         <f>菜单SAAS版!$E$33</f>
@@ -10036,15 +10055,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="41" spans="5:9">
       <c r="E41" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F41" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G41" t="str">
         <f>菜单SAAS版!$E$33</f>
@@ -10055,15 +10074,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I41" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="42" spans="5:9">
       <c r="E42" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F42" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G42" t="str">
         <f>菜单SAAS版!$E$33</f>
@@ -10074,15 +10093,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I42" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="43" spans="5:9">
       <c r="E43" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F43" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G43" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10093,15 +10112,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I43" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="44" spans="5:9">
       <c r="E44" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F44" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G44" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10112,15 +10131,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I44" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="45" spans="5:9">
       <c r="E45" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F45" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G45" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10131,15 +10150,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I45" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="46" spans="5:9">
       <c r="E46" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F46" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G46" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10150,15 +10169,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I46" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="47" spans="5:9">
       <c r="E47" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F47" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G47" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10169,15 +10188,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I47" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="48" spans="5:9">
       <c r="E48" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F48" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G48" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10188,15 +10207,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I48" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="49" spans="5:9">
       <c r="E49" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F49" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G49" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10207,15 +10226,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I49" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="50" spans="5:9">
       <c r="E50" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F50" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G50" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10226,15 +10245,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I50" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="51" spans="5:9">
       <c r="E51" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F51" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G51" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10245,15 +10264,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I51" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="52" spans="5:9">
       <c r="E52" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F52" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G52" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10264,15 +10283,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I52" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="53" spans="5:9">
       <c r="E53" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F53" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G53" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10283,15 +10302,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I53" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="54" spans="5:9">
       <c r="E54" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F54" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G54" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10302,15 +10321,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I54" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="55" spans="5:9">
       <c r="E55" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F55" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G55" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10321,15 +10340,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I55" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="56" spans="5:9">
       <c r="E56" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F56" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G56" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10340,15 +10359,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I56" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="57" spans="5:9">
       <c r="E57" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F57" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G57" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10359,15 +10378,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I57" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="58" spans="5:9">
       <c r="E58" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F58" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G58" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10378,15 +10397,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I58" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="59" spans="5:9">
       <c r="E59" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F59" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G59" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10397,15 +10416,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I59" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="60" spans="5:9">
       <c r="E60" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F60" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G60" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10416,15 +10435,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I60" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="61" spans="5:9">
       <c r="E61" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F61" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G61" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10435,15 +10454,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I61" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="62" spans="5:9">
       <c r="E62" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F62" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G62" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10454,15 +10473,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I62" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="63" spans="5:9">
       <c r="E63" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F63" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G63" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10473,15 +10492,15 @@
         <v>iam_label-22</v>
       </c>
       <c r="I63" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="64" spans="5:9">
       <c r="E64" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F64" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G64" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10492,15 +10511,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I64" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="65" spans="5:9">
       <c r="E65" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F65" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G65" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10511,15 +10530,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I65" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="66" spans="5:9">
       <c r="E66" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F66" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G66" t="str">
         <f>菜单SAAS版!$E$30</f>
@@ -10530,15 +10549,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I66" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="67" spans="5:9">
       <c r="E67" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F67" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G67" t="str">
         <f>菜单SAAS版!$E$30</f>
@@ -10549,15 +10568,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I67" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="68" spans="5:9">
       <c r="E68" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F68" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G68" t="str">
         <f>菜单SAAS版!$E$30</f>
@@ -10568,15 +10587,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I68" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="69" spans="5:9">
       <c r="E69" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F69" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G69" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -10587,15 +10606,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I69" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="70" spans="5:9">
       <c r="E70" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F70" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G70" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -10606,15 +10625,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I70" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="71" spans="5:9">
       <c r="E71" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F71" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G71" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -10625,15 +10644,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I71" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="72" spans="5:9">
       <c r="E72" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F72" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G72" t="str">
         <f>菜单SAAS版!$E$31</f>
@@ -10644,15 +10663,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I72" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="73" spans="5:9">
       <c r="E73" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F73" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G73" t="str">
         <f>菜单SAAS版!$E$31</f>
@@ -10663,15 +10682,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I73" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="74" spans="5:9">
       <c r="E74" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F74" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G74" t="str">
         <f>菜单SAAS版!$E$34</f>
@@ -10682,15 +10701,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I74" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="75" spans="5:9">
       <c r="E75" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F75" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G75" t="str">
         <f>菜单SAAS版!$E$34</f>
@@ -10701,15 +10720,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I75" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="76" spans="5:9">
       <c r="E76" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F76" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G76" t="str">
         <f>菜单SAAS版!$E$36</f>
@@ -10720,15 +10739,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I76" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="77" spans="5:9">
       <c r="E77" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F77" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G77" t="str">
         <f>菜单SAAS版!$E$36</f>
@@ -10739,15 +10758,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I77" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="78" spans="5:9">
       <c r="E78" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F78" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G78" t="str">
         <f>菜单SAAS版!$E$38</f>
@@ -10758,15 +10777,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I78" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="79" spans="5:9">
       <c r="E79" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F79" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G79" t="str">
         <f>菜单SAAS版!$E$38</f>
@@ -10777,7 +10796,7 @@
         <v>iam_label-14</v>
       </c>
       <c r="I79" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -10795,7 +10814,7 @@
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -10830,10 +10849,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -10848,75 +10867,75 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="J7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="O7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="P7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Q7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="R7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="S7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="T7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="X7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="Y7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G8" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H8" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I8" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="J8" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="K8" t="s">
         <v>80</v>
@@ -10949,10 +10968,10 @@
         <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="V8" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="W8" t="s">
         <v>80</v>
@@ -10960,19 +10979,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F9" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G9" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H9" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="I9" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
@@ -11008,10 +11027,10 @@
         <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="V9" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="W9" t="s">
         <v>80</v>
@@ -11019,16 +11038,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F10" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G10" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H10" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
@@ -11065,33 +11084,33 @@
         <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="V10" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="W10" t="s">
         <v>80</v>
       </c>
       <c r="X10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="Y10" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F11" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G11" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H11" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
@@ -11128,33 +11147,33 @@
         <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="V11" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="W11" t="s">
         <v>80</v>
       </c>
       <c r="X11" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="Y11" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F12" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G12" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H12" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -11191,33 +11210,33 @@
         <v>80</v>
       </c>
       <c r="U12" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="V12" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="W12" t="s">
         <v>80</v>
       </c>
       <c r="X12" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="Y12" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F13" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G13" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H13" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
@@ -11254,36 +11273,36 @@
         <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="V13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="W13" t="s">
         <v>80</v>
       </c>
       <c r="X13" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="Y13" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F14" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="G14" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H14" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="J14" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -11317,10 +11336,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="V14" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -11334,33 +11353,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H16" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="I16" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -11371,18 +11390,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H17" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I17" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J17" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -11393,18 +11412,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H18" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I18" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J18" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -11415,18 +11434,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H19" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I19" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J19" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -11437,18 +11456,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H20" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I20" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J20" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -11459,18 +11478,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H21" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I21" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J21" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -11481,18 +11500,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H22" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I22" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J22" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -11503,18 +11522,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H23" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I23" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J23" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -11525,18 +11544,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H24" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I24" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J24" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -11547,18 +11566,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H25" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I25" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J25" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -11569,18 +11588,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H26" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I26" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J26" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -11591,18 +11610,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H27" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I27" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J27" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -11613,18 +11632,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H28" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I28" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J28" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$10</f>
@@ -11635,18 +11654,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H29" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I29" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J29" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$10</f>
@@ -11657,18 +11676,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H30" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I30" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J30" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$10</f>
@@ -11679,18 +11698,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H31" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I31" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J31" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$10</f>
@@ -11701,18 +11720,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H32" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I32" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J32" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$10</f>
@@ -11723,18 +11742,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H33" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I33" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J33" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$10</f>
@@ -11745,18 +11764,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H34" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I34" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J34" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$10</f>
@@ -11767,18 +11786,18 @@
         <v>iam_menu-28</v>
       </c>
       <c r="H35" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I35" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J35" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$10</f>
@@ -11789,18 +11808,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H36" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I36" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J36" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$10</f>
@@ -11811,18 +11830,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H37" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I37" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J37" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$10</f>
@@ -11833,18 +11852,18 @@
         <v>iam_menu-26</v>
       </c>
       <c r="H38" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I38" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J38" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$10</f>
@@ -11855,18 +11874,18 @@
         <v>iam_menu-27</v>
       </c>
       <c r="H39" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I39" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J39" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$12</f>
@@ -11877,18 +11896,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H40" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I40" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J40" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="41" spans="5:10">
       <c r="E41" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F41" t="str">
         <f>角色!$E$12</f>
@@ -11899,18 +11918,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H41" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I41" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J41" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="42" spans="5:10">
       <c r="E42" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F42" t="str">
         <f>角色!$E$12</f>
@@ -11921,18 +11940,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H42" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I42" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J42" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="43" spans="5:10">
       <c r="E43" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F43" t="str">
         <f>角色!$E$12</f>
@@ -11943,18 +11962,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H43" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I43" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J43" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="44" spans="5:10">
       <c r="E44" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F44" t="str">
         <f>角色!$E$12</f>
@@ -11965,18 +11984,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H44" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I44" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J44" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="45" spans="5:10">
       <c r="E45" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F45" t="str">
         <f>角色!$E$12</f>
@@ -11987,18 +12006,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H45" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I45" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J45" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="46" spans="5:10">
       <c r="E46" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F46" t="str">
         <f>角色!$E$12</f>
@@ -12009,18 +12028,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H46" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I46" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J46" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="47" spans="5:10">
       <c r="E47" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F47" t="str">
         <f>角色!$E$12</f>
@@ -12031,18 +12050,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H47" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I47" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J47" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="48" spans="5:10">
       <c r="E48" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F48" t="str">
         <f>角色!$E$12</f>
@@ -12053,18 +12072,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H48" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I48" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J48" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="49" spans="5:10">
       <c r="E49" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F49" t="str">
         <f>角色!$E$12</f>
@@ -12075,18 +12094,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H49" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I49" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J49" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="50" spans="5:10">
       <c r="E50" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F50" t="str">
         <f>角色!$E$12</f>
@@ -12097,18 +12116,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H50" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I50" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J50" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="51" spans="5:10">
       <c r="E51" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F51" t="str">
         <f>角色!$E$12</f>
@@ -12119,18 +12138,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H51" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I51" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J51" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="52" spans="5:10">
       <c r="E52" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F52" t="str">
         <f>角色!$E$12</f>
@@ -12141,18 +12160,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H52" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I52" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J52" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="53" spans="5:10">
       <c r="E53" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F53" t="str">
         <f>角色!$E$12</f>
@@ -12163,18 +12182,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H53" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I53" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J53" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="54" spans="5:10">
       <c r="E54" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F54" t="str">
         <f>角色!$E$12</f>
@@ -12185,18 +12204,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H54" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I54" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J54" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="55" spans="5:10">
       <c r="E55" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F55" t="str">
         <f>角色!$E$12</f>
@@ -12207,18 +12226,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H55" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I55" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J55" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="56" spans="5:10">
       <c r="E56" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F56" t="str">
         <f>角色!$E$12</f>
@@ -12229,18 +12248,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H56" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I56" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J56" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="57" spans="5:10">
       <c r="E57" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F57" t="str">
         <f>角色!$E$12</f>
@@ -12251,18 +12270,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H57" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I57" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J57" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="58" spans="5:10">
       <c r="E58" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F58" t="str">
         <f>角色!$E$12</f>
@@ -12273,18 +12292,18 @@
         <v>iam_menu-28</v>
       </c>
       <c r="H58" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I58" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J58" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="59" spans="5:10">
       <c r="E59" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F59" t="str">
         <f>角色!$E$12</f>
@@ -12295,18 +12314,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H59" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I59" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J59" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="60" spans="5:10">
       <c r="E60" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F60" t="str">
         <f>角色!$E$12</f>
@@ -12317,18 +12336,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H60" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I60" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J60" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="61" spans="5:10">
       <c r="E61" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F61" t="str">
         <f>角色!$E$12</f>
@@ -12339,18 +12358,18 @@
         <v>iam_menu-26</v>
       </c>
       <c r="H61" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I61" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J61" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="62" spans="5:10">
       <c r="E62" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F62" t="str">
         <f>角色!$E$12</f>
@@ -12361,18 +12380,18 @@
         <v>iam_menu-27</v>
       </c>
       <c r="H62" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I62" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J62" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="63" spans="5:10">
       <c r="E63" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F63" t="str">
         <f>角色!$E$13</f>
@@ -12383,18 +12402,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H63" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I63" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J63" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="64" spans="5:10">
       <c r="E64" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F64" t="str">
         <f>角色!$E$13</f>
@@ -12405,18 +12424,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H64" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="I64" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J64" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="65" spans="5:10">
       <c r="E65" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F65" t="str">
         <f>角色!$E$13</f>
@@ -12427,18 +12446,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H65" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I65" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J65" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="66" spans="5:10">
       <c r="E66" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F66" t="str">
         <f>角色!$E$13</f>
@@ -12449,18 +12468,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H66" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I66" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J66" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="67" spans="5:10">
       <c r="E67" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F67" t="str">
         <f>角色!$E$13</f>
@@ -12471,18 +12490,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H67" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I67" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J67" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="68" spans="5:10">
       <c r="E68" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F68" t="str">
         <f>角色!$E$13</f>
@@ -12493,18 +12512,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H68" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I68" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J68" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="69" spans="5:10">
       <c r="E69" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F69" t="str">
         <f>角色!$E$13</f>
@@ -12515,18 +12534,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H69" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I69" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J69" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="70" spans="5:10">
       <c r="E70" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F70" t="str">
         <f>角色!$E$13</f>
@@ -12537,18 +12556,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H70" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I70" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J70" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="71" spans="5:10">
       <c r="E71" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F71" t="str">
         <f>角色!$E$13</f>
@@ -12559,18 +12578,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H71" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I71" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J71" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="72" spans="5:10">
       <c r="E72" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F72" t="str">
         <f>角色!$E$13</f>
@@ -12581,18 +12600,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H72" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I72" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J72" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="73" spans="5:10">
       <c r="E73" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F73" t="str">
         <f>角色!$E$13</f>
@@ -12603,18 +12622,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H73" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I73" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J73" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="74" spans="5:10">
       <c r="E74" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="F74" t="str">
         <f>角色!$E$13</f>
@@ -12625,18 +12644,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H74" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I74" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J74" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="75" spans="5:10">
       <c r="E75" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F75" t="str">
         <f>角色!$E$13</f>
@@ -12647,18 +12666,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H75" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I75" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J75" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="76" spans="5:10">
       <c r="E76" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F76" t="str">
         <f>角色!$E$13</f>
@@ -12669,18 +12688,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H76" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I76" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J76" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="77" spans="5:10">
       <c r="E77" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F77" t="str">
         <f>角色!$E$13</f>
@@ -12691,18 +12710,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H77" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I77" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J77" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="78" spans="5:10">
       <c r="E78" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F78" t="str">
         <f>角色!$E$13</f>
@@ -12713,18 +12732,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H78" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I78" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J78" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="79" spans="5:10">
       <c r="E79" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F79" t="str">
         <f>角色!$E$13</f>
@@ -12735,18 +12754,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H79" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I79" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J79" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="80" spans="5:10">
       <c r="E80" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="F80" t="str">
         <f>角色!$E$13</f>
@@ -12757,18 +12776,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H80" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I80" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J80" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="81" spans="5:10">
       <c r="E81" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F81" t="str">
         <f>角色!$E$13</f>
@@ -12779,18 +12798,18 @@
         <v>iam_menu-28</v>
       </c>
       <c r="H81" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I81" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J81" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="82" spans="5:10">
       <c r="E82" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F82" t="str">
         <f>角色!$E$13</f>
@@ -12801,18 +12820,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H82" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I82" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J82" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="83" spans="5:10">
       <c r="E83" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F83" t="str">
         <f>角色!$E$13</f>
@@ -12823,18 +12842,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H83" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I83" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J83" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="84" spans="5:10">
       <c r="E84" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F84" t="str">
         <f>角色!$E$13</f>
@@ -12845,18 +12864,18 @@
         <v>iam_menu-26</v>
       </c>
       <c r="H84" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I84" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J84" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="85" spans="5:10">
       <c r="E85" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="F85" t="str">
         <f>角色!$E$13</f>
@@ -12867,13 +12886,13 @@
         <v>iam_menu-27</v>
       </c>
       <c r="H85" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I85" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J85" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>
@@ -12891,7 +12910,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -12926,66 +12945,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="I7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="J7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F8" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G8" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H8" t="s">
         <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="K8" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M8" t="s">
         <v>80</v>
@@ -12999,22 +13018,22 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F9" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G9" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H9" t="s">
         <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="J9" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
@@ -13028,25 +13047,25 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F10" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G10" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H10" t="s">
         <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J10" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="K10" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="M10" t="s">
         <v>80</v>
@@ -13060,25 +13079,25 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F11" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G11" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H11" t="s">
         <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J11" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="K11" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -13092,25 +13111,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F12" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G12" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H12" t="s">
         <v>83</v>
       </c>
       <c r="I12" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J12" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="K12" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="M12" t="s">
         <v>80</v>
@@ -13124,25 +13143,25 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F13" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G13" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H13" t="s">
         <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J13" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="K13" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -13156,25 +13175,25 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F14" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G14" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H14" t="s">
         <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J14" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="K14" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -13188,25 +13207,25 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F15" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G15" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H15" t="s">
         <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J15" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="K15" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -13220,25 +13239,25 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F16" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G16" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H16" t="s">
         <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J16" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="K16" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -13252,25 +13271,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F17" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G17" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H17" t="s">
         <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J17" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="K17" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -13284,25 +13303,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F18" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G18" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H18" t="s">
         <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J18" t="s">
+        <v>757</v>
+      </c>
+      <c r="K18" t="s">
         <v>756</v>
-      </c>
-      <c r="K18" t="s">
-        <v>755</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -13316,25 +13335,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F19" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G19" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H19" t="s">
         <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J19" t="s">
+        <v>759</v>
+      </c>
+      <c r="K19" t="s">
         <v>758</v>
-      </c>
-      <c r="K19" t="s">
-        <v>757</v>
       </c>
       <c r="M19" t="s">
         <v>80</v>
@@ -13354,33 +13373,33 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="I21" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F22" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G22" t="str">
         <f>角色!$E$10</f>
@@ -13391,15 +13410,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I22" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F23" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G23" t="str">
         <f>角色!$E$10</f>
@@ -13410,15 +13429,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I23" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F24" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G24" t="str">
         <f>角色!$E$10</f>
@@ -13429,15 +13448,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I24" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F25" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G25" t="str">
         <f>角色!$E$11</f>
@@ -13448,15 +13467,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I25" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="26" spans="5:9">
       <c r="E26" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F26" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G26" t="str">
         <f>角色!$E$11</f>
@@ -13467,15 +13486,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I26" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="27" spans="5:9">
       <c r="E27" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F27" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G27" t="str">
         <f>角色!$E$11</f>
@@ -13486,15 +13505,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I27" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="28" spans="5:9">
       <c r="E28" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F28" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
@@ -13505,15 +13524,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I28" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F29" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G29" t="str">
         <f>角色!$E$12</f>
@@ -13524,15 +13543,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I29" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F30" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G30" t="str">
         <f>角色!$E$12</f>
@@ -13543,15 +13562,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I30" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F31" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G31" t="str">
         <f>角色!$E$12</f>
@@ -13562,15 +13581,15 @@
         <v>iam_label-18</v>
       </c>
       <c r="I31" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F32" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
@@ -13581,15 +13600,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I32" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F33" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G33" t="str">
         <f>角色!$E$13</f>
@@ -13600,15 +13619,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I33" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F34" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G34" t="str">
         <f>角色!$E$13</f>
@@ -13619,15 +13638,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I34" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F35" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G35" t="str">
         <f>角色!$E$13</f>
@@ -13638,7 +13657,7 @@
         <v>iam_label-19</v>
       </c>
       <c r="I35" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="776">
   <si>
     <r>
       <rPr>
@@ -2416,6 +2416,45 @@
     <t>choerodon.code.project.test|choerodon.code.project.test.test-plan|choerodon.code.project.test.test-plan.ps.default</t>
   </si>
   <si>
+    <t>iam_menu-39</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.setting</t>
+  </si>
+  <si>
+    <t>iam_menu-40</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.setting.test.priority</t>
+  </si>
+  <si>
+    <t>测试优先级</t>
+  </si>
+  <si>
+    <t>CSYXJ</t>
+  </si>
+  <si>
+    <t>grain</t>
+  </si>
+  <si>
+    <t>/testManager/priority</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.setting|choerodon.code.organization.setting.test.priority</t>
+  </si>
+  <si>
+    <t>iam_menu-41</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.setting.test.priority.ps.default</t>
+  </si>
+  <si>
+    <t>测试优先级默认权限集</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.setting|choerodon.code.organization.setting.test.priority|choerodon.code.organization.setting.test.priority.ps.default</t>
+  </si>
+  <si>
     <t>菜单权限</t>
   </si>
   <si>
@@ -3923,6 +3962,15 @@
   </si>
   <si>
     <t>iam_role_permission-85</t>
+  </si>
+  <si>
+    <t>iam_role_permission-86</t>
+  </si>
+  <si>
+    <t>iam_role_permission-87</t>
+  </si>
+  <si>
+    <t>iam_role_permission-88</t>
   </si>
   <si>
     <t>TENANT_MGR</t>
@@ -4105,6 +4153,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -4120,20 +4182,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -4142,7 +4190,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4150,6 +4198,35 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4179,13 +4256,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -4204,7 +4274,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4212,7 +4282,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4228,28 +4298,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4331,13 +4379,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4349,13 +4427,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4373,67 +4529,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4445,73 +4541,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4642,13 +4690,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4658,15 +4710,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4686,17 +4729,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4718,148 +4766,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5568,16 +5616,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y38"/>
+  <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
     <col min="5" max="5" width="16.8611111111111" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="6" max="6" width="40.0833333333333" customWidth="1"/>
     <col min="7" max="7" width="23.8611111111111" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7219,6 +7267,161 @@
         <v>84</v>
       </c>
       <c r="X38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="5:24">
+      <c r="E39" t="s">
+        <v>226</v>
+      </c>
+      <c r="F39" t="s">
+        <v>227</v>
+      </c>
+      <c r="G39" t="s">
+        <v>174</v>
+      </c>
+      <c r="H39" t="s">
+        <v>174</v>
+      </c>
+      <c r="I39" t="s">
+        <v>175</v>
+      </c>
+      <c r="J39" t="s">
+        <v>79</v>
+      </c>
+      <c r="K39" t="s">
+        <v>80</v>
+      </c>
+      <c r="L39" t="s">
+        <v>81</v>
+      </c>
+      <c r="M39" t="s">
+        <v>83</v>
+      </c>
+      <c r="N39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>80</v>
+      </c>
+      <c r="R39" t="s">
+        <v>80</v>
+      </c>
+      <c r="S39" t="s">
+        <v>227</v>
+      </c>
+      <c r="T39" t="s">
+        <v>80</v>
+      </c>
+      <c r="V39" t="s">
+        <v>84</v>
+      </c>
+      <c r="X39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="5:24">
+      <c r="E40" t="s">
+        <v>228</v>
+      </c>
+      <c r="F40" t="s">
+        <v>229</v>
+      </c>
+      <c r="G40" t="s">
+        <v>230</v>
+      </c>
+      <c r="H40" t="s">
+        <v>230</v>
+      </c>
+      <c r="I40" t="s">
+        <v>231</v>
+      </c>
+      <c r="J40" t="s">
+        <v>79</v>
+      </c>
+      <c r="K40" t="str">
+        <f>菜单SAAS版!$E$39</f>
+        <v>iam_menu-39</v>
+      </c>
+      <c r="L40" t="s">
+        <v>89</v>
+      </c>
+      <c r="M40">
+        <v>55</v>
+      </c>
+      <c r="N40" t="s">
+        <v>83</v>
+      </c>
+      <c r="O40" t="s">
+        <v>232</v>
+      </c>
+      <c r="P40" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>80</v>
+      </c>
+      <c r="R40" t="s">
+        <v>80</v>
+      </c>
+      <c r="S40" t="s">
+        <v>234</v>
+      </c>
+      <c r="T40" t="s">
+        <v>80</v>
+      </c>
+      <c r="V40" t="s">
+        <v>84</v>
+      </c>
+      <c r="X40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="5:24">
+      <c r="E41" t="s">
+        <v>235</v>
+      </c>
+      <c r="F41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G41" t="s">
+        <v>237</v>
+      </c>
+      <c r="H41" t="s">
+        <v>237</v>
+      </c>
+      <c r="J41" t="s">
+        <v>79</v>
+      </c>
+      <c r="K41" t="str">
+        <f>菜单SAAS版!$E$40</f>
+        <v>iam_menu-40</v>
+      </c>
+      <c r="L41" t="s">
+        <v>97</v>
+      </c>
+      <c r="M41" t="s">
+        <v>80</v>
+      </c>
+      <c r="N41" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>80</v>
+      </c>
+      <c r="R41" t="s">
+        <v>80</v>
+      </c>
+      <c r="S41" t="s">
+        <v>238</v>
+      </c>
+      <c r="T41" t="s">
+        <v>80</v>
+      </c>
+      <c r="V41" t="s">
+        <v>84</v>
+      </c>
+      <c r="X41" t="s">
         <v>83</v>
       </c>
     </row>
@@ -7233,8 +7436,8 @@
   <sheetPr/>
   <dimension ref="A1:G161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="E164" sqref="E164"/>
+    <sheetView topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="F162" sqref="F162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
@@ -7276,1867 +7479,1867 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="5:7">
       <c r="E8" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="F8" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G8" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="5:7">
       <c r="E9" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="F9" t="str">
         <f>菜单SAAS版!$E$31</f>
         <v>iam_menu-31</v>
       </c>
       <c r="G9" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="5:7">
       <c r="E10" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="F10" t="str">
         <f>菜单SAAS版!$E$31</f>
         <v>iam_menu-31</v>
       </c>
       <c r="G10" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="5:7">
       <c r="E11" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="F11" t="str">
         <f>菜单SAAS版!$E$31</f>
         <v>iam_menu-31</v>
       </c>
       <c r="G11" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="5:7">
       <c r="E12" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="F12" t="str">
         <f>菜单SAAS版!$E$31</f>
         <v>iam_menu-31</v>
       </c>
       <c r="G12" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="5:7">
       <c r="E13" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="F13" t="str">
         <f>菜单SAAS版!$E$34</f>
         <v>iam_menu-34</v>
       </c>
       <c r="G13" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="5:7">
       <c r="E14" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="F14" t="str">
         <f>菜单SAAS版!$E$34</f>
         <v>iam_menu-34</v>
       </c>
       <c r="G14" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="5:7">
       <c r="E15" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="F15" t="str">
         <f>菜单SAAS版!$E$34</f>
         <v>iam_menu-34</v>
       </c>
       <c r="G15" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="5:7">
       <c r="E16" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="F16" t="str">
         <f>菜单SAAS版!$E$34</f>
         <v>iam_menu-34</v>
       </c>
       <c r="G16" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="F17" t="str">
         <f>菜单SAAS版!$E$34</f>
         <v>iam_menu-34</v>
       </c>
       <c r="G17" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="F18" t="str">
         <f>菜单SAAS版!$E$34</f>
         <v>iam_menu-34</v>
       </c>
       <c r="G18" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="F19" t="str">
         <f>菜单SAAS版!$E$34</f>
         <v>iam_menu-34</v>
       </c>
       <c r="G19" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="F20" t="str">
         <f>菜单SAAS版!$E$34</f>
         <v>iam_menu-34</v>
       </c>
       <c r="G20" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="F21" t="str">
         <f>菜单SAAS版!$E$34</f>
         <v>iam_menu-34</v>
       </c>
       <c r="G21" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="F22" t="str">
         <f>菜单SAAS版!$E$34</f>
         <v>iam_menu-34</v>
       </c>
       <c r="G22" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="F23" t="str">
         <f>菜单SAAS版!$E$34</f>
         <v>iam_menu-34</v>
       </c>
       <c r="G23" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="F24" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G24" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="F25" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G25" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="F26" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G26" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F27" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G27" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="F28" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G28" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="F29" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G29" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="F30" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G30" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="F31" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G31" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="F32" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G32" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="F33" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G33" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="F34" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G34" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="F35" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G35" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="F36" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G36" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="F37" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G37" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="F38" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G38" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="F39" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G39" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="F40" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G40" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="F41" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G41" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="F42" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G42" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="F43" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G43" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="F44" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G44" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="F45" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G45" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="F46" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G46" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="F47" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G47" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="F48" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G48" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="F49" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G49" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="F50" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G50" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="F51" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G51" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="F52" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G52" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="F53" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G53" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="F54" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G54" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="F55" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G55" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="F56" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G56" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="F57" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G57" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="F58" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G58" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="F59" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G59" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="F60" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G60" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="F61" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G61" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="F62" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G62" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="E63" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="F63" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G63" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="F64" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G64" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F65" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G65" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="F66" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G66" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="F67" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G67" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="F68" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G68" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="F69" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G69" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="F70" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G70" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="F71" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G71" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="F72" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G72" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="F73" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G73" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="F74" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G74" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="F75" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G75" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="F76" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G76" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="F77" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G77" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="F78" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G78" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="E79" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="F79" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G79" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="E80" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="F80" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G80" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
     </row>
     <row r="81" spans="5:7">
       <c r="E81" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="F81" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G81" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
     </row>
     <row r="82" spans="5:7">
       <c r="E82" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="F82" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G82" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
     </row>
     <row r="83" spans="5:7">
       <c r="E83" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="F83" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G83" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
     </row>
     <row r="84" spans="5:7">
       <c r="E84" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="F84" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G84" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
     </row>
     <row r="85" spans="5:7">
       <c r="E85" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="F85" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G85" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="F86" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G86" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
     </row>
     <row r="87" spans="5:7">
       <c r="E87" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="F87" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G87" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
     </row>
     <row r="88" spans="5:7">
       <c r="E88" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="F88" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G88" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
     </row>
     <row r="89" spans="5:7">
       <c r="E89" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="F89" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G89" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="F90" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G90" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
     </row>
     <row r="91" spans="5:7">
       <c r="E91" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="F91" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G91" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
     </row>
     <row r="92" spans="5:7">
       <c r="E92" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="F92" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G92" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
     </row>
     <row r="93" spans="5:7">
       <c r="E93" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="F93" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G93" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="94" spans="5:7">
       <c r="E94" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="F94" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G94" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
     </row>
     <row r="95" spans="5:7">
       <c r="E95" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="F95" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G95" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
     </row>
     <row r="96" spans="5:7">
       <c r="E96" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="F96" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G96" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
     </row>
     <row r="97" spans="5:7">
       <c r="E97" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="F97" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G97" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="98" spans="5:7">
       <c r="E98" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="F98" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G98" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
     </row>
     <row r="99" spans="5:7">
       <c r="E99" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="F99" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G99" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
     </row>
     <row r="100" spans="5:7">
       <c r="E100" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="F100" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G100" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
     </row>
     <row r="101" spans="5:7">
       <c r="E101" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="F101" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G101" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="102" spans="5:7">
       <c r="E102" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="F102" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G102" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
     </row>
     <row r="103" spans="5:7">
       <c r="E103" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="F103" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G103" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
     </row>
     <row r="104" spans="5:7">
       <c r="E104" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="F104" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G104" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
     </row>
     <row r="105" spans="5:7">
       <c r="E105" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="F105" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G105" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="106" spans="5:7">
       <c r="E106" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="F106" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G106" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
     </row>
     <row r="107" spans="5:7">
       <c r="E107" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="F107" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G107" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
     </row>
     <row r="108" spans="5:7">
       <c r="E108" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="F108" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G108" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
     </row>
     <row r="109" spans="5:7">
       <c r="E109" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="F109" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G109" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
     </row>
     <row r="110" spans="5:7">
       <c r="E110" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="F110" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G110" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
     </row>
     <row r="111" spans="5:7">
       <c r="E111" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="F111" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G111" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
     </row>
     <row r="112" spans="5:7">
       <c r="E112" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="F112" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G112" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
     </row>
     <row r="113" spans="5:7">
       <c r="E113" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="F113" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G113" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
     </row>
     <row r="114" spans="5:7">
       <c r="E114" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="F114" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G114" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
     </row>
     <row r="115" spans="5:7">
       <c r="E115" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="F115" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G115" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="116" spans="5:7">
       <c r="E116" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="F116" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G116" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
     </row>
     <row r="117" spans="5:7">
       <c r="E117" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="F117" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G117" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
     </row>
     <row r="118" spans="5:7">
       <c r="E118" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="F118" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G118" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
     </row>
     <row r="119" spans="5:7">
       <c r="E119" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="F119" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G119" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="120" spans="5:7">
       <c r="E120" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="F120" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G120" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
     </row>
     <row r="121" spans="5:7">
       <c r="E121" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="F121" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-15</v>
       </c>
       <c r="G121" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
     </row>
     <row r="122" spans="5:7">
       <c r="E122" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="F122" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-15</v>
       </c>
       <c r="G122" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
     </row>
     <row r="123" spans="5:7">
       <c r="E123" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="F123" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-15</v>
       </c>
       <c r="G123" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
     </row>
     <row r="124" spans="5:7">
       <c r="E124" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="F124" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-17</v>
       </c>
       <c r="G124" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
     </row>
     <row r="125" spans="5:7">
       <c r="E125" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="F125" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-17</v>
       </c>
       <c r="G125" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
     </row>
     <row r="126" spans="5:7">
       <c r="E126" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="F126" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-17</v>
       </c>
       <c r="G126" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
     </row>
     <row r="127" spans="5:7">
       <c r="E127" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="F127" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-14</v>
       </c>
       <c r="G127" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
     </row>
     <row r="128" spans="5:7">
       <c r="E128" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="F128" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-14</v>
       </c>
       <c r="G128" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
     </row>
     <row r="129" spans="5:7">
       <c r="E129" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="F129" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-14</v>
       </c>
       <c r="G129" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
     </row>
     <row r="130" spans="5:7">
       <c r="E130" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="F130" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G130" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
     </row>
     <row r="131" spans="5:7">
       <c r="E131" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="F131" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G131" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
     </row>
     <row r="132" spans="5:7">
       <c r="E132" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="F132" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G132" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
     </row>
     <row r="133" spans="5:7">
       <c r="E133" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="F133" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G133" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
     </row>
     <row r="134" spans="5:7">
       <c r="E134" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="F134" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G134" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
     </row>
     <row r="135" spans="5:7">
       <c r="E135" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="F135" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G135" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="136" spans="5:7">
       <c r="E136" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="F136" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G136" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
     </row>
     <row r="137" spans="5:7">
       <c r="E137" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="F137" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G137" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
     </row>
     <row r="138" spans="5:7">
       <c r="E138" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="F138" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G138" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
     </row>
     <row r="139" spans="5:7">
       <c r="E139" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="F139" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G139" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
     </row>
     <row r="140" spans="5:7">
       <c r="E140" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="F140" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G140" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="141" spans="5:7">
       <c r="E141" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="F141" t="str">
         <f>菜单SAAS版!$E$16</f>
         <v>iam_menu-16</v>
       </c>
       <c r="G141" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
     </row>
     <row r="142" spans="5:7">
       <c r="E142" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="F142" t="str">
         <f>菜单SAAS版!$E$16</f>
         <v>iam_menu-16</v>
       </c>
       <c r="G142" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
     </row>
     <row r="143" spans="5:7">
       <c r="E143" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="F143" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G143" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
     </row>
     <row r="144" spans="5:7">
       <c r="E144" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="F144" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G144" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
     </row>
     <row r="145" spans="5:7">
       <c r="E145" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="F145" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G145" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
     </row>
     <row r="146" spans="5:7">
       <c r="E146" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="F146" t="str">
         <f>菜单SAAS版!$E$28</f>
         <v>iam_menu-28</v>
       </c>
       <c r="G146" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
     </row>
     <row r="147" spans="5:7">
       <c r="E147" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="F147" t="str">
         <f>菜单SAAS版!$E$28</f>
         <v>iam_menu-28</v>
       </c>
       <c r="G147" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
     </row>
     <row r="148" spans="5:7">
       <c r="E148" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="F148" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G148" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
     </row>
     <row r="149" spans="5:7">
       <c r="E149" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="F149" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G149" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
     </row>
     <row r="150" spans="5:7">
       <c r="E150" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F150" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G150" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
     </row>
     <row r="151" spans="5:7">
       <c r="E151" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="F151" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G151" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
     </row>
     <row r="152" spans="5:7">
       <c r="E152" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="F152" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G152" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
     </row>
     <row r="153" spans="5:7">
       <c r="E153" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="F153" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G153" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
     </row>
     <row r="154" spans="5:7">
       <c r="E154" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="F154" t="str">
         <f>菜单SAAS版!$E$26</f>
         <v>iam_menu-26</v>
       </c>
       <c r="G154" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
     </row>
     <row r="155" spans="5:7">
       <c r="E155" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="F155" t="str">
         <f>菜单SAAS版!$E$26</f>
         <v>iam_menu-26</v>
       </c>
       <c r="G155" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
     </row>
     <row r="156" spans="5:7">
       <c r="E156" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="F156" t="str">
         <f>菜单SAAS版!$E$26</f>
         <v>iam_menu-26</v>
       </c>
       <c r="G156" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
     </row>
     <row r="157" spans="5:7">
       <c r="E157" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="F157" t="str">
         <f>菜单SAAS版!$E$26</f>
         <v>iam_menu-26</v>
       </c>
       <c r="G157" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
     </row>
     <row r="158" spans="5:7">
       <c r="E158" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="F158" t="str">
         <f>菜单SAAS版!$E$27</f>
         <v>iam_menu-27</v>
       </c>
       <c r="G158" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
     </row>
     <row r="159" spans="5:7">
       <c r="E159" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="F159" t="str">
         <f>菜单SAAS版!$E$27</f>
         <v>iam_menu-27</v>
       </c>
       <c r="G159" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
     </row>
     <row r="160" spans="5:7">
       <c r="E160" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="F160" t="str">
         <f>菜单SAAS版!$E$27</f>
         <v>iam_menu-27</v>
       </c>
       <c r="G160" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
     </row>
     <row r="161" spans="5:7">
       <c r="E161" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="F161" t="str">
         <f>菜单SAAS版!$E$27</f>
         <v>iam_menu-27</v>
       </c>
       <c r="G161" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -9148,10 +9351,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O79"/>
+  <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -9196,66 +9399,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="H7" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="I7" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="J7" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="K7" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="L7" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="M7" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="N7" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="O7" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="F8" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="G8" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="H8" t="s">
         <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="J8" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="K8" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="M8" t="s">
         <v>83</v>
@@ -9269,25 +9472,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="F9" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="G9" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="H9" t="s">
         <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="J9" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="K9" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="M9" t="s">
         <v>83</v>
@@ -9301,19 +9504,19 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="F10" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="G10" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="H10" t="s">
         <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="M10" t="s">
         <v>83</v>
@@ -9327,19 +9530,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="F11" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="G11" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="H11" t="s">
         <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -9353,25 +9556,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="F12" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="G12" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="H12" t="s">
         <v>83</v>
       </c>
       <c r="I12" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="J12" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="K12" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="M12" t="s">
         <v>83</v>
@@ -9385,22 +9588,22 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
+        <v>549</v>
+      </c>
+      <c r="F13" t="s">
+        <v>550</v>
+      </c>
+      <c r="G13" t="s">
+        <v>535</v>
+      </c>
+      <c r="H13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" t="s">
         <v>536</v>
       </c>
-      <c r="F13" t="s">
-        <v>537</v>
-      </c>
-      <c r="G13" t="s">
-        <v>522</v>
-      </c>
-      <c r="H13" t="s">
-        <v>83</v>
-      </c>
-      <c r="I13" t="s">
-        <v>523</v>
-      </c>
       <c r="J13" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -9414,22 +9617,22 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="F14" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="G14" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="H14" t="s">
         <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="J14" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -9443,22 +9646,22 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="F15" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="G15" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="H15" t="s">
         <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="J15" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -9472,22 +9675,22 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="F16" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="G16" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="H16" t="s">
         <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="J16" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -9501,25 +9704,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="F17" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="G17" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="H17" t="s">
         <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="J17" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="K17" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -9533,25 +9736,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="F18" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="G18" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="H18" t="s">
         <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="J18" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="K18" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -9565,25 +9768,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="F19" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="G19" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="H19" t="s">
         <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="J19" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="K19" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="M19" t="s">
         <v>83</v>
@@ -9597,19 +9800,19 @@
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="F20" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="G20" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="H20" t="s">
         <v>83</v>
       </c>
       <c r="I20" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="M20" t="s">
         <v>83</v>
@@ -9623,25 +9826,25 @@
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="F21" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="G21" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="H21" t="s">
         <v>83</v>
       </c>
       <c r="I21" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="J21" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="K21" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="M21" t="s">
         <v>80</v>
@@ -9655,25 +9858,25 @@
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="F22" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="G22" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="H22" t="s">
         <v>83</v>
       </c>
       <c r="I22" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="J22" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="K22" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="M22" t="s">
         <v>80</v>
@@ -9687,25 +9890,25 @@
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="F23" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="G23" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="H23" t="s">
         <v>83</v>
       </c>
       <c r="I23" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="J23" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="K23" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="M23" t="s">
         <v>80</v>
@@ -9719,19 +9922,19 @@
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="F24" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="G24" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="H24" t="s">
         <v>83</v>
       </c>
       <c r="I24" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="M24" t="s">
         <v>80</v>
@@ -9745,22 +9948,22 @@
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="F25" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="G25" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="H25" t="s">
         <v>83</v>
       </c>
       <c r="I25" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="J25" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="M25" t="s">
         <v>80</v>
@@ -9774,22 +9977,22 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="F26" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="G26" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="H26" t="s">
         <v>83</v>
       </c>
       <c r="I26" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="J26" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="M26" t="s">
         <v>80</v>
@@ -9809,33 +10012,33 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="I28" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F29" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G29" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -9846,15 +10049,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I29" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F30" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -9865,15 +10068,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I30" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F31" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G31" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -9884,15 +10087,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I31" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F32" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G32" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -9903,15 +10106,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I32" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F33" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G33" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -9922,15 +10125,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I33" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F34" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G34" t="str">
         <f>菜单SAAS版!$E$35</f>
@@ -9941,15 +10144,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I34" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F35" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G35" t="str">
         <f>菜单SAAS版!$E$35</f>
@@ -9960,15 +10163,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I35" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="36" spans="5:9">
       <c r="E36" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F36" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G36" t="str">
         <f>菜单SAAS版!$E$35</f>
@@ -9979,15 +10182,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I36" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="37" spans="5:9">
       <c r="E37" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F37" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G37" t="str">
         <f>菜单SAAS版!$E$37</f>
@@ -9998,15 +10201,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I37" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="38" spans="5:9">
       <c r="E38" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F38" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G38" t="str">
         <f>菜单SAAS版!$E$37</f>
@@ -10017,15 +10220,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I38" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="39" spans="5:9">
       <c r="E39" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F39" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G39" t="str">
         <f>菜单SAAS版!$E$37</f>
@@ -10036,15 +10239,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I39" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="40" s="5" customFormat="1" spans="5:9">
       <c r="E40" s="5" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G40" s="5" t="str">
         <f>菜单SAAS版!$E$33</f>
@@ -10055,15 +10258,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="41" spans="5:9">
       <c r="E41" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F41" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G41" t="str">
         <f>菜单SAAS版!$E$33</f>
@@ -10074,15 +10277,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I41" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="42" spans="5:9">
       <c r="E42" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F42" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G42" t="str">
         <f>菜单SAAS版!$E$33</f>
@@ -10093,15 +10296,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I42" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="43" spans="5:9">
       <c r="E43" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F43" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G43" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10112,15 +10315,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I43" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="44" spans="5:9">
       <c r="E44" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F44" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G44" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10131,15 +10334,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I44" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="45" spans="5:9">
       <c r="E45" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F45" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G45" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10150,15 +10353,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I45" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="46" spans="5:9">
       <c r="E46" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F46" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G46" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10169,15 +10372,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I46" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="47" spans="5:9">
       <c r="E47" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F47" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G47" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10188,15 +10391,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I47" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="48" spans="5:9">
       <c r="E48" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F48" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G48" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10207,15 +10410,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I48" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="49" spans="5:9">
       <c r="E49" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F49" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G49" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10226,15 +10429,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I49" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="50" spans="5:9">
       <c r="E50" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F50" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G50" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10245,15 +10448,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I50" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="51" spans="5:9">
       <c r="E51" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F51" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G51" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10264,15 +10467,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I51" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="52" spans="5:9">
       <c r="E52" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F52" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G52" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10283,15 +10486,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I52" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="53" spans="5:9">
       <c r="E53" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F53" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G53" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10302,15 +10505,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I53" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="54" spans="5:9">
       <c r="E54" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F54" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G54" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10321,15 +10524,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I54" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="55" spans="5:9">
       <c r="E55" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F55" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G55" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10340,15 +10543,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I55" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="56" spans="5:9">
       <c r="E56" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F56" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G56" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10359,15 +10562,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I56" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="57" spans="5:9">
       <c r="E57" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F57" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G57" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10378,15 +10581,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I57" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="58" spans="5:9">
       <c r="E58" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F58" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G58" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10397,15 +10600,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I58" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="59" spans="5:9">
       <c r="E59" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F59" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G59" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10416,15 +10619,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I59" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="60" spans="5:9">
       <c r="E60" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F60" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G60" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10435,15 +10638,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I60" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="61" spans="5:9">
       <c r="E61" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F61" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G61" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10454,15 +10657,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I61" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="62" spans="5:9">
       <c r="E62" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F62" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G62" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10473,15 +10676,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I62" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="63" spans="5:9">
       <c r="E63" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F63" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G63" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10492,15 +10695,15 @@
         <v>iam_label-22</v>
       </c>
       <c r="I63" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="64" spans="5:9">
       <c r="E64" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F64" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G64" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10511,15 +10714,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I64" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="65" spans="5:9">
       <c r="E65" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F65" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G65" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10530,15 +10733,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I65" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="66" spans="5:9">
       <c r="E66" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F66" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G66" t="str">
         <f>菜单SAAS版!$E$30</f>
@@ -10549,15 +10752,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I66" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="67" spans="5:9">
       <c r="E67" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F67" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G67" t="str">
         <f>菜单SAAS版!$E$30</f>
@@ -10568,15 +10771,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I67" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="68" spans="5:9">
       <c r="E68" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F68" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G68" t="str">
         <f>菜单SAAS版!$E$30</f>
@@ -10587,15 +10790,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I68" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="69" spans="5:9">
       <c r="E69" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F69" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G69" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -10606,15 +10809,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I69" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="70" spans="5:9">
       <c r="E70" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F70" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G70" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -10625,15 +10828,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I70" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="71" spans="5:9">
       <c r="E71" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F71" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G71" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -10644,15 +10847,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I71" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="72" spans="5:9">
       <c r="E72" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F72" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G72" t="str">
         <f>菜单SAAS版!$E$31</f>
@@ -10663,15 +10866,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I72" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="73" spans="5:9">
       <c r="E73" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F73" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G73" t="str">
         <f>菜单SAAS版!$E$31</f>
@@ -10682,15 +10885,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I73" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="74" spans="5:9">
       <c r="E74" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F74" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G74" t="str">
         <f>菜单SAAS版!$E$34</f>
@@ -10701,15 +10904,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I74" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="75" spans="5:9">
       <c r="E75" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F75" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G75" t="str">
         <f>菜单SAAS版!$E$34</f>
@@ -10720,15 +10923,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I75" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="76" spans="5:9">
       <c r="E76" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F76" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G76" t="str">
         <f>菜单SAAS版!$E$36</f>
@@ -10739,15 +10942,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I76" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="77" spans="5:9">
       <c r="E77" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F77" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G77" t="str">
         <f>菜单SAAS版!$E$36</f>
@@ -10758,15 +10961,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I77" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="78" spans="5:9">
       <c r="E78" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F78" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G78" t="str">
         <f>菜单SAAS版!$E$38</f>
@@ -10777,15 +10980,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I78" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="79" spans="5:9">
       <c r="E79" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F79" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G79" t="str">
         <f>菜单SAAS版!$E$38</f>
@@ -10796,7 +10999,64 @@
         <v>iam_label-14</v>
       </c>
       <c r="I79" t="s">
-        <v>585</v>
+        <v>598</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" spans="5:9">
+      <c r="E80" t="s">
+        <v>596</v>
+      </c>
+      <c r="F80" t="s">
+        <v>535</v>
+      </c>
+      <c r="G80" t="str">
+        <f>菜单SAAS版!$E$40</f>
+        <v>iam_menu-40</v>
+      </c>
+      <c r="H80" t="str">
+        <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I80" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" spans="5:9">
+      <c r="E81" t="s">
+        <v>596</v>
+      </c>
+      <c r="F81" t="s">
+        <v>535</v>
+      </c>
+      <c r="G81" t="str">
+        <f>菜单SAAS版!$E$40</f>
+        <v>iam_menu-40</v>
+      </c>
+      <c r="H81" t="str">
+        <f>菜单标签数据!$E$26</f>
+        <v>iam_label-26</v>
+      </c>
+      <c r="I81" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="82" customFormat="1" spans="5:9">
+      <c r="E82" t="s">
+        <v>596</v>
+      </c>
+      <c r="F82" t="s">
+        <v>535</v>
+      </c>
+      <c r="G82" t="str">
+        <f>菜单SAAS版!$E$41</f>
+        <v>iam_menu-41</v>
+      </c>
+      <c r="H82" t="str">
+        <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I82" t="s">
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -10808,13 +11068,17 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y85"/>
+  <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <cols>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -10849,10 +11113,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -10867,75 +11131,75 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="J7" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="O7" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="P7" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="Q7" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="R7" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="S7" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="T7" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="X7" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="Y7" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="F8" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="G8" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="H8" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="I8" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="J8" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="K8" t="s">
         <v>80</v>
@@ -10968,10 +11232,10 @@
         <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="V8" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="W8" t="s">
         <v>80</v>
@@ -10979,19 +11243,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="F9" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="G9" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="H9" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="I9" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
@@ -11027,10 +11291,10 @@
         <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="V9" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="W9" t="s">
         <v>80</v>
@@ -11038,16 +11302,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="F10" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="G10" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="H10" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
@@ -11084,33 +11348,33 @@
         <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="V10" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="W10" t="s">
         <v>80</v>
       </c>
       <c r="X10" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="Y10" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="F11" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="G11" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="H11" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
@@ -11147,33 +11411,33 @@
         <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="V11" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="W11" t="s">
         <v>80</v>
       </c>
       <c r="X11" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="Y11" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
       <c r="F12" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
       <c r="G12" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="H12" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -11210,33 +11474,33 @@
         <v>80</v>
       </c>
       <c r="U12" t="s">
-        <v>633</v>
+        <v>646</v>
       </c>
       <c r="V12" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
       <c r="W12" t="s">
         <v>80</v>
       </c>
       <c r="X12" t="s">
-        <v>635</v>
+        <v>648</v>
       </c>
       <c r="Y12" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>637</v>
+        <v>650</v>
       </c>
       <c r="F13" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
       <c r="G13" t="s">
-        <v>639</v>
+        <v>652</v>
       </c>
       <c r="H13" t="s">
-        <v>640</v>
+        <v>653</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
@@ -11273,36 +11537,36 @@
         <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
       <c r="V13" t="s">
-        <v>642</v>
+        <v>655</v>
       </c>
       <c r="W13" t="s">
         <v>80</v>
       </c>
       <c r="X13" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
       <c r="Y13" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="F14" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="G14" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="H14" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="J14" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -11336,10 +11600,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="V14" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -11353,33 +11617,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>650</v>
+        <v>663</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>652</v>
+        <v>665</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
       <c r="H16" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
       <c r="I16" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>656</v>
+        <v>669</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -11390,18 +11654,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H17" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I17" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J17" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -11412,18 +11676,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H18" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I18" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J18" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>661</v>
+        <v>674</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -11434,18 +11698,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H19" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I19" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J19" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>662</v>
+        <v>675</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -11456,18 +11720,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H20" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I20" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J20" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -11478,18 +11742,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H21" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I21" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J21" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>664</v>
+        <v>677</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -11500,18 +11764,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H22" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I22" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J22" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -11522,18 +11786,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H23" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I23" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J23" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>666</v>
+        <v>679</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -11544,18 +11808,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H24" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I24" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J24" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>667</v>
+        <v>680</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -11566,18 +11830,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H25" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I25" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J25" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -11588,18 +11852,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H26" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I26" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J26" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -11610,18 +11874,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H27" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I27" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J27" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -11632,18 +11896,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H28" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I28" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J28" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>671</v>
+        <v>684</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$10</f>
@@ -11654,18 +11918,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H29" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I29" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J29" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$10</f>
@@ -11676,18 +11940,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H30" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I30" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J30" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$10</f>
@@ -11698,18 +11962,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H31" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I31" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J31" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$10</f>
@@ -11720,18 +11984,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H32" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I32" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J32" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$10</f>
@@ -11742,18 +12006,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H33" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I33" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J33" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$10</f>
@@ -11764,18 +12028,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H34" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I34" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J34" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$10</f>
@@ -11786,18 +12050,18 @@
         <v>iam_menu-28</v>
       </c>
       <c r="H35" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I35" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J35" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>678</v>
+        <v>691</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$10</f>
@@ -11808,18 +12072,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H36" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I36" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J36" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$10</f>
@@ -11830,18 +12094,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H37" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I37" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J37" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$10</f>
@@ -11852,18 +12116,18 @@
         <v>iam_menu-26</v>
       </c>
       <c r="H38" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I38" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J38" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$10</f>
@@ -11874,1025 +12138,1062 @@
         <v>iam_menu-27</v>
       </c>
       <c r="H39" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I39" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J39" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="F40" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
       </c>
       <c r="G40" t="str">
-        <f>菜单SAAS版!$E$25</f>
-        <v>iam_menu-25</v>
+        <f>菜单SAAS版!$E$41</f>
+        <v>iam_menu-41</v>
       </c>
       <c r="H40" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I40" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J40" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="41" spans="5:10">
       <c r="E41" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="F41" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
       <c r="G41" t="str">
-        <f>菜单SAAS版!$E$31</f>
-        <v>iam_menu-31</v>
+        <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="H41" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I41" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J41" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="42" spans="5:10">
       <c r="E42" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="F42" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
       <c r="G42" t="str">
-        <f>菜单SAAS版!$E$34</f>
-        <v>iam_menu-34</v>
+        <f>菜单SAAS版!$E$31</f>
+        <v>iam_menu-31</v>
       </c>
       <c r="H42" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I42" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J42" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="43" spans="5:10">
       <c r="E43" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="F43" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
       <c r="G43" t="str">
-        <f>菜单SAAS版!$E$36</f>
-        <v>iam_menu-36</v>
+        <f>菜单SAAS版!$E$34</f>
+        <v>iam_menu-34</v>
       </c>
       <c r="H43" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I43" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J43" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="44" spans="5:10">
       <c r="E44" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="F44" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
       <c r="G44" t="str">
-        <f>菜单SAAS版!$E$38</f>
-        <v>iam_menu-38</v>
+        <f>菜单SAAS版!$E$36</f>
+        <v>iam_menu-36</v>
       </c>
       <c r="H44" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I44" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J44" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="45" spans="5:10">
       <c r="E45" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="F45" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
       <c r="G45" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
+        <f>菜单SAAS版!$E$38</f>
+        <v>iam_menu-38</v>
       </c>
       <c r="H45" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I45" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J45" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="46" spans="5:10">
       <c r="E46" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="F46" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
       <c r="G46" t="str">
-        <f>菜单SAAS版!$E$20</f>
-        <v>iam_menu-20</v>
+        <f>菜单SAAS版!$E$12</f>
+        <v>iam_menu-12</v>
       </c>
       <c r="H46" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I46" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J46" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="47" spans="5:10">
       <c r="E47" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="F47" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
       <c r="G47" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
+        <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-20</v>
       </c>
       <c r="H47" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I47" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J47" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="48" spans="5:10">
       <c r="E48" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="F48" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
       <c r="G48" t="str">
-        <f>菜单SAAS版!$E$23</f>
-        <v>iam_menu-23</v>
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="H48" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I48" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J48" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="49" spans="5:10">
       <c r="E49" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="F49" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
       <c r="G49" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
+        <f>菜单SAAS版!$E$23</f>
+        <v>iam_menu-23</v>
       </c>
       <c r="H49" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I49" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J49" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="50" spans="5:10">
       <c r="E50" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="F50" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
       <c r="G50" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
+        <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="H50" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I50" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J50" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="51" spans="5:10">
       <c r="E51" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
       <c r="F51" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
       <c r="G51" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
+        <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-15</v>
       </c>
       <c r="H51" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I51" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J51" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="52" spans="5:10">
       <c r="E52" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="F52" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
       <c r="G52" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
+        <f>菜单SAAS版!$E$17</f>
+        <v>iam_menu-17</v>
       </c>
       <c r="H52" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I52" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J52" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="53" spans="5:10">
       <c r="E53" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="F53" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
       <c r="G53" t="str">
-        <f>菜单SAAS版!$E$22</f>
-        <v>iam_menu-22</v>
+        <f>菜单SAAS版!$E$14</f>
+        <v>iam_menu-14</v>
       </c>
       <c r="H53" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I53" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J53" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="54" spans="5:10">
       <c r="E54" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="F54" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
       <c r="G54" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
+        <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
       </c>
       <c r="H54" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I54" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J54" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="55" spans="5:10">
       <c r="E55" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="F55" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
       <c r="G55" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
+        <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="H55" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I55" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J55" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="56" spans="5:10">
       <c r="E56" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
       <c r="F56" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
       <c r="G56" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
+        <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="H56" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I56" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J56" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="57" spans="5:10">
       <c r="E57" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="F57" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
       <c r="G57" t="str">
-        <f>菜单SAAS版!$E$24</f>
-        <v>iam_menu-24</v>
+        <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="H57" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I57" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J57" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="58" spans="5:10">
       <c r="E58" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="F58" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
       <c r="G58" t="str">
-        <f>菜单SAAS版!$E$28</f>
-        <v>iam_menu-28</v>
+        <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-24</v>
       </c>
       <c r="H58" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I58" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J58" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="59" spans="5:10">
       <c r="E59" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="F59" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
       <c r="G59" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
+        <f>菜单SAAS版!$E$28</f>
+        <v>iam_menu-28</v>
       </c>
       <c r="H59" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I59" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J59" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="60" spans="5:10">
       <c r="E60" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="F60" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
       <c r="G60" t="str">
-        <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-10</v>
+        <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="H60" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I60" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J60" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="61" spans="5:10">
       <c r="E61" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
       <c r="F61" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
       <c r="G61" t="str">
-        <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-10</v>
       </c>
       <c r="H61" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I61" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J61" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="62" spans="5:10">
       <c r="E62" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="F62" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
       <c r="G62" t="str">
+        <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-26</v>
+      </c>
+      <c r="H62" t="s">
+        <v>670</v>
+      </c>
+      <c r="I62" t="s">
+        <v>671</v>
+      </c>
+      <c r="J62" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="63" spans="5:10">
+      <c r="E63" t="s">
+        <v>717</v>
+      </c>
+      <c r="F63" t="str">
+        <f>角色!$E$12</f>
+        <v>iam_role-12</v>
+      </c>
+      <c r="G63" t="str">
         <f>菜单SAAS版!$E$27</f>
         <v>iam_menu-27</v>
       </c>
-      <c r="H62" t="s">
-        <v>657</v>
-      </c>
-      <c r="I62" t="s">
-        <v>658</v>
-      </c>
-      <c r="J62" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="63" spans="5:10">
-      <c r="E63" t="s">
-        <v>705</v>
-      </c>
-      <c r="F63" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G63" t="str">
-        <f>菜单SAAS版!$E$25</f>
-        <v>iam_menu-25</v>
-      </c>
       <c r="H63" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I63" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J63" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="64" spans="5:10">
       <c r="E64" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="F64" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="G64" t="str">
-        <f>菜单SAAS版!$E$31</f>
-        <v>iam_menu-31</v>
+        <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="H64" t="s">
-        <v>707</v>
+        <v>670</v>
       </c>
       <c r="I64" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J64" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="65" spans="5:10">
       <c r="E65" t="s">
-        <v>708</v>
+        <v>719</v>
       </c>
       <c r="F65" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="G65" t="str">
-        <f>菜单SAAS版!$E$34</f>
-        <v>iam_menu-34</v>
+        <f>菜单SAAS版!$E$31</f>
+        <v>iam_menu-31</v>
       </c>
       <c r="H65" t="s">
-        <v>657</v>
+        <v>720</v>
       </c>
       <c r="I65" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J65" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="66" spans="5:10">
       <c r="E66" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="F66" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="G66" t="str">
-        <f>菜单SAAS版!$E$36</f>
-        <v>iam_menu-36</v>
+        <f>菜单SAAS版!$E$34</f>
+        <v>iam_menu-34</v>
       </c>
       <c r="H66" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I66" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J66" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="67" spans="5:10">
       <c r="E67" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="F67" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="G67" t="str">
-        <f>菜单SAAS版!$E$38</f>
-        <v>iam_menu-38</v>
+        <f>菜单SAAS版!$E$36</f>
+        <v>iam_menu-36</v>
       </c>
       <c r="H67" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I67" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J67" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="68" spans="5:10">
       <c r="E68" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="F68" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="G68" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
+        <f>菜单SAAS版!$E$38</f>
+        <v>iam_menu-38</v>
       </c>
       <c r="H68" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I68" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J68" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="69" spans="5:10">
       <c r="E69" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="F69" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="G69" t="str">
-        <f>菜单SAAS版!$E$20</f>
-        <v>iam_menu-20</v>
+        <f>菜单SAAS版!$E$12</f>
+        <v>iam_menu-12</v>
       </c>
       <c r="H69" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I69" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J69" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="70" spans="5:10">
       <c r="E70" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="F70" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="G70" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
+        <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-20</v>
       </c>
       <c r="H70" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I70" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J70" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="71" spans="5:10">
       <c r="E71" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="F71" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="G71" t="str">
-        <f>菜单SAAS版!$E$23</f>
-        <v>iam_menu-23</v>
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="H71" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I71" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J71" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="72" spans="5:10">
       <c r="E72" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="F72" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="G72" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
+        <f>菜单SAAS版!$E$23</f>
+        <v>iam_menu-23</v>
       </c>
       <c r="H72" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I72" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J72" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="73" spans="5:10">
       <c r="E73" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="F73" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="G73" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
+        <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="H73" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I73" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J73" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="74" spans="5:10">
       <c r="E74" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="F74" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="G74" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
+        <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-15</v>
       </c>
       <c r="H74" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I74" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J74" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="75" spans="5:10">
       <c r="E75" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="F75" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="G75" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
+        <f>菜单SAAS版!$E$17</f>
+        <v>iam_menu-17</v>
       </c>
       <c r="H75" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I75" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J75" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="76" spans="5:10">
       <c r="E76" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="F76" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="G76" t="str">
-        <f>菜单SAAS版!$E$22</f>
-        <v>iam_menu-22</v>
+        <f>菜单SAAS版!$E$14</f>
+        <v>iam_menu-14</v>
       </c>
       <c r="H76" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I76" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J76" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="77" spans="5:10">
       <c r="E77" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="F77" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="G77" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
+        <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
       </c>
       <c r="H77" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I77" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J77" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="78" spans="5:10">
       <c r="E78" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="F78" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="G78" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
+        <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="H78" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I78" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J78" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="79" spans="5:10">
       <c r="E79" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="F79" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="G79" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
+        <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="H79" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I79" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J79" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="80" spans="5:10">
       <c r="E80" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="F80" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="G80" t="str">
-        <f>菜单SAAS版!$E$24</f>
-        <v>iam_menu-24</v>
+        <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="H80" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I80" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J80" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="81" spans="5:10">
       <c r="E81" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="F81" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="G81" t="str">
-        <f>菜单SAAS版!$E$28</f>
-        <v>iam_menu-28</v>
+        <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-24</v>
       </c>
       <c r="H81" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I81" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J81" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="82" spans="5:10">
       <c r="E82" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="F82" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="G82" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
+        <f>菜单SAAS版!$E$28</f>
+        <v>iam_menu-28</v>
       </c>
       <c r="H82" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I82" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J82" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="83" spans="5:10">
       <c r="E83" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="F83" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="G83" t="str">
-        <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-10</v>
+        <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="H83" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I83" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J83" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="84" spans="5:10">
       <c r="E84" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="F84" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="G84" t="str">
-        <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-10</v>
       </c>
       <c r="H84" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="I84" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="J84" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="85" spans="5:10">
       <c r="E85" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="F85" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="G85" t="str">
+        <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-26</v>
+      </c>
+      <c r="H85" t="s">
+        <v>670</v>
+      </c>
+      <c r="I85" t="s">
+        <v>671</v>
+      </c>
+      <c r="J85" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="86" spans="5:10">
+      <c r="E86" t="s">
+        <v>741</v>
+      </c>
+      <c r="F86" t="str">
+        <f>角色!$E$13</f>
+        <v>iam_role-13</v>
+      </c>
+      <c r="G86" t="str">
         <f>菜单SAAS版!$E$27</f>
         <v>iam_menu-27</v>
       </c>
-      <c r="H85" t="s">
-        <v>657</v>
-      </c>
-      <c r="I85" t="s">
-        <v>658</v>
-      </c>
-      <c r="J85" t="s">
-        <v>659</v>
+      <c r="H86" t="s">
+        <v>670</v>
+      </c>
+      <c r="I86" t="s">
+        <v>671</v>
+      </c>
+      <c r="J86" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="87" spans="5:5">
+      <c r="E87" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="88" spans="5:5">
+      <c r="E88" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="89" spans="5:5">
+      <c r="E89" t="s">
+        <v>744</v>
       </c>
     </row>
   </sheetData>
@@ -12945,66 +13246,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="H7" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="I7" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="J7" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="K7" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="L7" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="M7" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="N7" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="O7" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="F8" t="s">
-        <v>729</v>
+        <v>745</v>
       </c>
       <c r="G8" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="H8" t="s">
         <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="J8" t="s">
-        <v>731</v>
+        <v>747</v>
       </c>
       <c r="K8" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
       <c r="M8" t="s">
         <v>80</v>
@@ -13018,22 +13319,22 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="F9" t="s">
-        <v>733</v>
+        <v>749</v>
       </c>
       <c r="G9" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="H9" t="s">
         <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="J9" t="s">
-        <v>734</v>
+        <v>750</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
@@ -13047,25 +13348,25 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="F10" t="s">
-        <v>735</v>
+        <v>751</v>
       </c>
       <c r="G10" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="H10" t="s">
         <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="J10" t="s">
-        <v>736</v>
+        <v>752</v>
       </c>
       <c r="K10" t="s">
-        <v>736</v>
+        <v>752</v>
       </c>
       <c r="M10" t="s">
         <v>80</v>
@@ -13079,25 +13380,25 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="F11" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="G11" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="H11" t="s">
         <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="J11" t="s">
-        <v>738</v>
+        <v>754</v>
       </c>
       <c r="K11" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -13111,25 +13412,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="F12" t="s">
-        <v>740</v>
+        <v>756</v>
       </c>
       <c r="G12" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="H12" t="s">
         <v>83</v>
       </c>
       <c r="I12" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="J12" t="s">
-        <v>741</v>
+        <v>757</v>
       </c>
       <c r="K12" t="s">
-        <v>741</v>
+        <v>757</v>
       </c>
       <c r="M12" t="s">
         <v>80</v>
@@ -13143,25 +13444,25 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
+        <v>549</v>
+      </c>
+      <c r="F13" t="s">
+        <v>758</v>
+      </c>
+      <c r="G13" t="s">
+        <v>746</v>
+      </c>
+      <c r="H13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" t="s">
         <v>536</v>
       </c>
-      <c r="F13" t="s">
-        <v>742</v>
-      </c>
-      <c r="G13" t="s">
-        <v>730</v>
-      </c>
-      <c r="H13" t="s">
-        <v>83</v>
-      </c>
-      <c r="I13" t="s">
-        <v>523</v>
-      </c>
       <c r="J13" t="s">
-        <v>743</v>
+        <v>759</v>
       </c>
       <c r="K13" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -13175,25 +13476,25 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="F14" t="s">
-        <v>745</v>
+        <v>761</v>
       </c>
       <c r="G14" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="H14" t="s">
         <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="J14" t="s">
-        <v>746</v>
+        <v>762</v>
       </c>
       <c r="K14" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -13207,25 +13508,25 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="F15" t="s">
-        <v>747</v>
+        <v>763</v>
       </c>
       <c r="G15" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="H15" t="s">
         <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="J15" t="s">
-        <v>748</v>
+        <v>764</v>
       </c>
       <c r="K15" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -13239,25 +13540,25 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="F16" t="s">
-        <v>750</v>
+        <v>766</v>
       </c>
       <c r="G16" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="H16" t="s">
         <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="J16" t="s">
-        <v>751</v>
+        <v>767</v>
       </c>
       <c r="K16" t="s">
-        <v>752</v>
+        <v>768</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -13271,25 +13572,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="F17" t="s">
-        <v>753</v>
+        <v>769</v>
       </c>
       <c r="G17" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="H17" t="s">
         <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="J17" t="s">
-        <v>754</v>
+        <v>770</v>
       </c>
       <c r="K17" t="s">
-        <v>755</v>
+        <v>771</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -13303,25 +13604,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="F18" t="s">
-        <v>756</v>
+        <v>772</v>
       </c>
       <c r="G18" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="H18" t="s">
         <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="J18" t="s">
-        <v>757</v>
+        <v>773</v>
       </c>
       <c r="K18" t="s">
-        <v>756</v>
+        <v>772</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -13335,25 +13636,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="F19" t="s">
-        <v>758</v>
+        <v>774</v>
       </c>
       <c r="G19" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="H19" t="s">
         <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="J19" t="s">
-        <v>759</v>
+        <v>775</v>
       </c>
       <c r="K19" t="s">
-        <v>758</v>
+        <v>774</v>
       </c>
       <c r="M19" t="s">
         <v>80</v>
@@ -13373,33 +13674,33 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="I21" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F22" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="G22" t="str">
         <f>角色!$E$10</f>
@@ -13410,15 +13711,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I22" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F23" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="G23" t="str">
         <f>角色!$E$10</f>
@@ -13429,15 +13730,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I23" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F24" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="G24" t="str">
         <f>角色!$E$10</f>
@@ -13448,15 +13749,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I24" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F25" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="G25" t="str">
         <f>角色!$E$11</f>
@@ -13467,15 +13768,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I25" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="26" spans="5:9">
       <c r="E26" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F26" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="G26" t="str">
         <f>角色!$E$11</f>
@@ -13486,15 +13787,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I26" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="27" spans="5:9">
       <c r="E27" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F27" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="G27" t="str">
         <f>角色!$E$11</f>
@@ -13505,15 +13806,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I27" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="28" spans="5:9">
       <c r="E28" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F28" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
@@ -13524,15 +13825,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I28" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F29" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="G29" t="str">
         <f>角色!$E$12</f>
@@ -13543,15 +13844,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I29" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F30" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="G30" t="str">
         <f>角色!$E$12</f>
@@ -13562,15 +13863,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I30" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F31" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="G31" t="str">
         <f>角色!$E$12</f>
@@ -13581,15 +13882,15 @@
         <v>iam_label-18</v>
       </c>
       <c r="I31" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F32" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
@@ -13600,15 +13901,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I32" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F33" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="G33" t="str">
         <f>角色!$E$13</f>
@@ -13619,15 +13920,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I33" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F34" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="G34" t="str">
         <f>角色!$E$13</f>
@@ -13638,15 +13939,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I34" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F35" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="G35" t="str">
         <f>角色!$E$13</f>
@@ -13657,7 +13958,7 @@
         <v>iam_label-19</v>
       </c>
       <c r="I35" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="791">
   <si>
     <r>
       <rPr>
@@ -2755,6 +2755,9 @@
     <t>test-manager-service.test-issue-folder.update</t>
   </si>
   <si>
+    <t>test-manager-service.test-priority.list</t>
+  </si>
+  <si>
     <t>iam_menu_permission-56</t>
   </si>
   <si>
@@ -3301,6 +3304,57 @@
     <t>iam_menu_permission-161</t>
   </si>
   <si>
+    <t>iam_menu_permission-162</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-163</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-priority.create</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-164</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-priority.update</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-165</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-priority.remove</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-166</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-priority.checkDelete</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-167</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-priority.checkName</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-168</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-priority.updateByList</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-169</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-priority.disablePriority</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-170</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-priority.enablePriority</t>
+  </si>
+  <si>
     <t>标签表</t>
   </si>
   <si>
@@ -3962,15 +4016,6 @@
   </si>
   <si>
     <t>iam_role_permission-85</t>
-  </si>
-  <si>
-    <t>iam_role_permission-86</t>
-  </si>
-  <si>
-    <t>iam_role_permission-87</t>
-  </si>
-  <si>
-    <t>iam_role_permission-88</t>
   </si>
   <si>
     <t>TENANT_MGR</t>
@@ -4071,10 +4116,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -4155,12 +4200,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4173,33 +4225,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4211,7 +4248,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4232,25 +4269,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4264,19 +4308,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4289,17 +4325,26 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4379,7 +4424,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4403,127 +4526,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4541,7 +4550,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4559,7 +4586,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4669,23 +4714,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4705,15 +4744,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4729,11 +4759,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4763,151 +4799,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5618,8 +5663,8 @@
   <sheetPr/>
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -7434,10 +7479,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G161"/>
+  <dimension ref="A1:G172"/>
   <sheetViews>
-    <sheetView topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="F162" sqref="F162"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
@@ -8072,14 +8117,14 @@
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
+        <v>337</v>
+      </c>
+      <c r="F56" t="str">
+        <f>菜单SAAS版!$E$36</f>
+        <v>iam_menu-36</v>
+      </c>
+      <c r="G56" t="s">
         <v>339</v>
-      </c>
-      <c r="F56" t="str">
-        <f>菜单SAAS版!$E$38</f>
-        <v>iam_menu-38</v>
-      </c>
-      <c r="G56" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="57" spans="5:7">
@@ -8091,43 +8136,43 @@
         <v>iam_menu-38</v>
       </c>
       <c r="G57" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F58" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G58" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F59" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G59" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F60" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G60" t="s">
-        <v>278</v>
+        <v>346</v>
       </c>
     </row>
     <row r="61" spans="5:7">
@@ -8139,7 +8184,7 @@
         <v>iam_menu-38</v>
       </c>
       <c r="G61" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="5:7">
@@ -8151,7 +8196,7 @@
         <v>iam_menu-38</v>
       </c>
       <c r="G62" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63" spans="5:7">
@@ -8163,7 +8208,7 @@
         <v>iam_menu-38</v>
       </c>
       <c r="G63" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
     </row>
     <row r="64" spans="5:7">
@@ -8175,295 +8220,295 @@
         <v>iam_menu-38</v>
       </c>
       <c r="G64" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F65" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G65" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F66" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G66" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F67" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G67" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F68" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G68" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F69" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G69" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F70" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G70" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F71" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G71" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F72" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G72" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F73" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G73" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F74" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G74" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F75" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G75" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F76" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G76" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F77" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G77" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F78" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G78" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="E79" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F79" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G79" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="E80" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F80" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G80" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="81" spans="5:7">
       <c r="E81" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F81" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G81" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="82" spans="5:7">
       <c r="E82" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F82" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G82" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="83" spans="5:7">
       <c r="E83" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F83" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G83" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="84" spans="5:7">
       <c r="E84" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F84" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G84" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="85" spans="5:7">
       <c r="E85" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F85" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G85" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F86" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G86" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="87" spans="5:7">
       <c r="E87" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F87" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G87" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="88" spans="5:7">
       <c r="E88" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F88" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G88" t="s">
-        <v>336</v>
+        <v>398</v>
       </c>
     </row>
     <row r="89" spans="5:7">
@@ -8475,103 +8520,103 @@
         <v>iam_menu-38</v>
       </c>
       <c r="G89" t="s">
-        <v>400</v>
+        <v>336</v>
       </c>
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F90" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G90" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="91" spans="5:7">
       <c r="E91" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F91" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G91" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="92" spans="5:7">
       <c r="E92" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F92" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G92" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="93" spans="5:7">
       <c r="E93" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F93" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G93" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="94" spans="5:7">
       <c r="E94" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F94" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G94" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="95" spans="5:7">
       <c r="E95" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F95" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G95" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="96" spans="5:7">
       <c r="E96" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F96" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G96" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="97" spans="5:7">
       <c r="E97" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F97" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G97" t="s">
-        <v>250</v>
+        <v>415</v>
       </c>
     </row>
     <row r="98" spans="5:7">
@@ -8579,767 +8624,899 @@
         <v>416</v>
       </c>
       <c r="F98" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
+        <f>菜单SAAS版!$E$38</f>
+        <v>iam_menu-38</v>
       </c>
       <c r="G98" t="s">
-        <v>417</v>
+        <v>250</v>
       </c>
     </row>
     <row r="99" spans="5:7">
       <c r="E99" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F99" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
+        <f>菜单SAAS版!$E$38</f>
+        <v>iam_menu-38</v>
       </c>
       <c r="G99" t="s">
-        <v>419</v>
+        <v>339</v>
       </c>
     </row>
     <row r="100" spans="5:7">
       <c r="E100" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F100" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G100" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="101" spans="5:7">
       <c r="E101" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F101" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G101" t="s">
-        <v>345</v>
+        <v>420</v>
       </c>
     </row>
     <row r="102" spans="5:7">
       <c r="E102" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F102" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G102" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="103" spans="5:7">
       <c r="E103" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F103" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G103" t="s">
-        <v>426</v>
+        <v>346</v>
       </c>
     </row>
     <row r="104" spans="5:7">
       <c r="E104" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F104" t="str">
-        <f>菜单SAAS版!$E$20</f>
-        <v>iam_menu-20</v>
+        <f>菜单SAAS版!$E$12</f>
+        <v>iam_menu-12</v>
       </c>
       <c r="G104" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
     </row>
     <row r="105" spans="5:7">
       <c r="E105" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F105" t="str">
-        <f>菜单SAAS版!$E$20</f>
-        <v>iam_menu-20</v>
+        <f>菜单SAAS版!$E$12</f>
+        <v>iam_menu-12</v>
       </c>
       <c r="G105" t="s">
-        <v>345</v>
+        <v>427</v>
       </c>
     </row>
     <row r="106" spans="5:7">
       <c r="E106" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F106" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G106" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
     </row>
     <row r="107" spans="5:7">
       <c r="E107" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F107" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G107" t="s">
-        <v>424</v>
+        <v>346</v>
       </c>
     </row>
     <row r="108" spans="5:7">
       <c r="E108" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F108" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G108" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="109" spans="5:7">
       <c r="E109" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F109" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G109" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="110" spans="5:7">
       <c r="E110" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F110" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
+        <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-20</v>
       </c>
       <c r="G110" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="111" spans="5:7">
       <c r="E111" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F111" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
+        <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-20</v>
       </c>
       <c r="G111" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="112" spans="5:7">
       <c r="E112" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F112" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G112" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="113" spans="5:7">
       <c r="E113" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F113" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G113" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="114" spans="5:7">
       <c r="E114" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F114" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G114" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="115" spans="5:7">
       <c r="E115" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F115" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G115" t="s">
-        <v>345</v>
+        <v>443</v>
       </c>
     </row>
     <row r="116" spans="5:7">
       <c r="E116" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F116" t="str">
-        <f>菜单SAAS版!$E$23</f>
-        <v>iam_menu-23</v>
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="G116" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="117" spans="5:7">
       <c r="E117" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F117" t="str">
-        <f>菜单SAAS版!$E$23</f>
-        <v>iam_menu-23</v>
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="G117" t="s">
-        <v>449</v>
+        <v>346</v>
       </c>
     </row>
     <row r="118" spans="5:7">
       <c r="E118" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F118" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G118" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="119" spans="5:7">
       <c r="E119" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F119" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G119" t="s">
-        <v>345</v>
+        <v>450</v>
       </c>
     </row>
     <row r="120" spans="5:7">
       <c r="E120" t="s">
+        <v>451</v>
+      </c>
+      <c r="F120" t="str">
+        <f>菜单SAAS版!$E$23</f>
+        <v>iam_menu-23</v>
+      </c>
+      <c r="G120" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="121" spans="5:7">
+      <c r="E121" t="s">
         <v>453</v>
       </c>
-      <c r="F120" t="str">
+      <c r="F121" t="str">
+        <f>菜单SAAS版!$E$23</f>
+        <v>iam_menu-23</v>
+      </c>
+      <c r="G121" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="122" spans="5:7">
+      <c r="E122" t="s">
+        <v>454</v>
+      </c>
+      <c r="F122" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
-      <c r="G120" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="121" spans="5:7">
-      <c r="E121" t="s">
+      <c r="G122" t="s">
         <v>455</v>
-      </c>
-      <c r="F121" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="G121" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="122" spans="5:7">
-      <c r="E122" t="s">
-        <v>457</v>
-      </c>
-      <c r="F122" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="G122" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="123" spans="5:7">
       <c r="E123" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F123" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-15</v>
       </c>
       <c r="G123" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="124" spans="5:7">
       <c r="E124" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F124" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
+        <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-15</v>
       </c>
       <c r="G124" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="125" spans="5:7">
       <c r="E125" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F125" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
+        <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-15</v>
       </c>
       <c r="G125" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="126" spans="5:7">
       <c r="E126" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F126" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-17</v>
       </c>
       <c r="G126" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
     </row>
     <row r="127" spans="5:7">
       <c r="E127" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F127" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
+        <f>菜单SAAS版!$E$17</f>
+        <v>iam_menu-17</v>
       </c>
       <c r="G127" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
     </row>
     <row r="128" spans="5:7">
       <c r="E128" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F128" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
+        <f>菜单SAAS版!$E$17</f>
+        <v>iam_menu-17</v>
       </c>
       <c r="G128" t="s">
-        <v>467</v>
+        <v>425</v>
       </c>
     </row>
     <row r="129" spans="5:7">
       <c r="E129" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F129" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-14</v>
       </c>
       <c r="G129" t="s">
-        <v>421</v>
+        <v>457</v>
       </c>
     </row>
     <row r="130" spans="5:7">
       <c r="E130" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F130" t="str">
-        <f>菜单SAAS版!$E$22</f>
-        <v>iam_menu-22</v>
+        <f>菜单SAAS版!$E$14</f>
+        <v>iam_menu-14</v>
       </c>
       <c r="G130" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
     </row>
     <row r="131" spans="5:7">
       <c r="E131" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F131" t="str">
-        <f>菜单SAAS版!$E$22</f>
-        <v>iam_menu-22</v>
+        <f>菜单SAAS版!$E$14</f>
+        <v>iam_menu-14</v>
       </c>
       <c r="G131" t="s">
-        <v>467</v>
+        <v>422</v>
       </c>
     </row>
     <row r="132" spans="5:7">
       <c r="E132" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F132" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G132" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
     </row>
     <row r="133" spans="5:7">
       <c r="E133" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F133" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
+        <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
       </c>
       <c r="G133" t="s">
-        <v>424</v>
+        <v>468</v>
       </c>
     </row>
     <row r="134" spans="5:7">
       <c r="E134" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F134" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
+        <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
       </c>
       <c r="G134" t="s">
-        <v>474</v>
+        <v>422</v>
       </c>
     </row>
     <row r="135" spans="5:7">
       <c r="E135" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F135" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G135" t="s">
-        <v>250</v>
+        <v>425</v>
       </c>
     </row>
     <row r="136" spans="5:7">
       <c r="E136" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F136" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
+        <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G136" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="137" spans="5:7">
       <c r="E137" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F137" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
+        <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G137" t="s">
-        <v>479</v>
+        <v>250</v>
       </c>
     </row>
     <row r="138" spans="5:7">
       <c r="E138" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F138" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G138" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="139" spans="5:7">
       <c r="E139" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F139" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G139" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="140" spans="5:7">
       <c r="E140" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F140" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G140" t="s">
-        <v>250</v>
+        <v>482</v>
       </c>
     </row>
     <row r="141" spans="5:7">
       <c r="E141" t="s">
+        <v>483</v>
+      </c>
+      <c r="F141" t="str">
+        <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
+      </c>
+      <c r="G141" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="142" spans="5:7">
+      <c r="E142" t="s">
         <v>485</v>
       </c>
-      <c r="F141" t="str">
+      <c r="F142" t="str">
+        <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
+      </c>
+      <c r="G142" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="143" spans="5:7">
+      <c r="E143" t="s">
+        <v>486</v>
+      </c>
+      <c r="F143" t="str">
         <f>菜单SAAS版!$E$16</f>
         <v>iam_menu-16</v>
       </c>
-      <c r="G141" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="142" spans="5:7">
-      <c r="E142" t="s">
-        <v>486</v>
-      </c>
-      <c r="F142" t="str">
+      <c r="G143" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="144" spans="5:7">
+      <c r="E144" t="s">
+        <v>487</v>
+      </c>
+      <c r="F144" t="str">
         <f>菜单SAAS版!$E$16</f>
         <v>iam_menu-16</v>
       </c>
-      <c r="G142" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="143" spans="5:7">
-      <c r="E143" t="s">
+      <c r="G144" t="s">
         <v>488</v>
-      </c>
-      <c r="F143" t="str">
-        <f>菜单SAAS版!$E$24</f>
-        <v>iam_menu-24</v>
-      </c>
-      <c r="G143" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="144" spans="5:7">
-      <c r="E144" t="s">
-        <v>490</v>
-      </c>
-      <c r="F144" t="str">
-        <f>菜单SAAS版!$E$24</f>
-        <v>iam_menu-24</v>
-      </c>
-      <c r="G144" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="145" spans="5:7">
       <c r="E145" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F145" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G145" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="146" spans="5:7">
       <c r="E146" t="s">
+        <v>491</v>
+      </c>
+      <c r="F146" t="str">
+        <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-24</v>
+      </c>
+      <c r="G146" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="147" spans="5:7">
+      <c r="E147" t="s">
+        <v>493</v>
+      </c>
+      <c r="F147" t="str">
+        <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-24</v>
+      </c>
+      <c r="G147" t="s">
         <v>494</v>
       </c>
-      <c r="F146" t="str">
+    </row>
+    <row r="148" spans="5:7">
+      <c r="E148" t="s">
+        <v>495</v>
+      </c>
+      <c r="F148" t="str">
         <f>菜单SAAS版!$E$28</f>
         <v>iam_menu-28</v>
       </c>
-      <c r="G146" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="147" spans="5:7">
-      <c r="E147" t="s">
+      <c r="G148" t="s">
         <v>496</v>
       </c>
-      <c r="F147" t="str">
+    </row>
+    <row r="149" spans="5:7">
+      <c r="E149" t="s">
+        <v>497</v>
+      </c>
+      <c r="F149" t="str">
         <f>菜单SAAS版!$E$28</f>
         <v>iam_menu-28</v>
       </c>
-      <c r="G147" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="148" spans="5:7">
-      <c r="E148" t="s">
-        <v>497</v>
-      </c>
-      <c r="F148" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="G148" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="149" spans="5:7">
-      <c r="E149" t="s">
-        <v>498</v>
-      </c>
-      <c r="F149" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
       <c r="G149" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="150" spans="5:7">
       <c r="E150" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F150" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G150" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
     </row>
     <row r="151" spans="5:7">
       <c r="E151" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F151" t="str">
-        <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-10</v>
+        <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G151" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
     </row>
     <row r="152" spans="5:7">
       <c r="E152" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F152" t="str">
-        <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-10</v>
+        <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G152" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="153" spans="5:7">
       <c r="E153" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F153" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G153" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
     </row>
     <row r="154" spans="5:7">
       <c r="E154" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F154" t="str">
-        <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-10</v>
       </c>
       <c r="G154" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="155" spans="5:7">
       <c r="E155" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F155" t="str">
-        <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-10</v>
       </c>
       <c r="G155" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="156" spans="5:7">
       <c r="E156" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F156" t="str">
         <f>菜单SAAS版!$E$26</f>
         <v>iam_menu-26</v>
       </c>
       <c r="G156" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="157" spans="5:7">
       <c r="E157" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F157" t="str">
         <f>菜单SAAS版!$E$26</f>
         <v>iam_menu-26</v>
       </c>
       <c r="G157" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="158" spans="5:7">
       <c r="E158" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F158" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
+        <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-26</v>
       </c>
       <c r="G158" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="159" spans="5:7">
       <c r="E159" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F159" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
+        <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-26</v>
       </c>
       <c r="G159" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="160" spans="5:7">
       <c r="E160" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F160" t="str">
         <f>菜单SAAS版!$E$27</f>
         <v>iam_menu-27</v>
       </c>
       <c r="G160" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="161" spans="5:7">
       <c r="E161" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F161" t="str">
         <f>菜单SAAS版!$E$27</f>
         <v>iam_menu-27</v>
       </c>
       <c r="G161" t="s">
-        <v>513</v>
+        <v>518</v>
+      </c>
+    </row>
+    <row r="162" spans="5:7">
+      <c r="E162" t="s">
+        <v>519</v>
+      </c>
+      <c r="F162" t="str">
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
+      </c>
+      <c r="G162" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="163" spans="5:7">
+      <c r="E163" t="s">
+        <v>521</v>
+      </c>
+      <c r="F163" t="str">
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
+      </c>
+      <c r="G163" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="164" spans="5:7">
+      <c r="E164" t="s">
+        <v>522</v>
+      </c>
+      <c r="F164" t="str">
+        <f>菜单SAAS版!$E$41</f>
+        <v>iam_menu-41</v>
+      </c>
+      <c r="G164" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="165" spans="5:7">
+      <c r="E165" t="s">
+        <v>523</v>
+      </c>
+      <c r="F165" t="str">
+        <f>菜单SAAS版!$E$41</f>
+        <v>iam_menu-41</v>
+      </c>
+      <c r="G165" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="166" spans="5:7">
+      <c r="E166" t="s">
+        <v>525</v>
+      </c>
+      <c r="F166" t="str">
+        <f>菜单SAAS版!$E$41</f>
+        <v>iam_menu-41</v>
+      </c>
+      <c r="G166" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="167" spans="5:7">
+      <c r="E167" t="s">
+        <v>527</v>
+      </c>
+      <c r="F167" t="str">
+        <f>菜单SAAS版!$E$41</f>
+        <v>iam_menu-41</v>
+      </c>
+      <c r="G167" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="168" spans="5:7">
+      <c r="E168" t="s">
+        <v>529</v>
+      </c>
+      <c r="F168" t="str">
+        <f>菜单SAAS版!$E$41</f>
+        <v>iam_menu-41</v>
+      </c>
+      <c r="G168" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="169" spans="5:7">
+      <c r="E169" t="s">
+        <v>531</v>
+      </c>
+      <c r="F169" t="str">
+        <f>菜单SAAS版!$E$41</f>
+        <v>iam_menu-41</v>
+      </c>
+      <c r="G169" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="170" spans="5:7">
+      <c r="E170" t="s">
+        <v>533</v>
+      </c>
+      <c r="F170" t="str">
+        <f>菜单SAAS版!$E$41</f>
+        <v>iam_menu-41</v>
+      </c>
+      <c r="G170" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="171" spans="5:7">
+      <c r="E171" t="s">
+        <v>535</v>
+      </c>
+      <c r="F171" t="str">
+        <f>菜单SAAS版!$E$41</f>
+        <v>iam_menu-41</v>
+      </c>
+      <c r="G171" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="172" spans="5:7">
+      <c r="E172" t="s">
+        <v>537</v>
+      </c>
+      <c r="F172" t="str">
+        <f>菜单SAAS版!$E$41</f>
+        <v>iam_menu-41</v>
+      </c>
+      <c r="G172" t="s">
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -9353,7 +9530,7 @@
   <sheetPr/>
   <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
@@ -9399,66 +9576,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="H7" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="I7" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="J7" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="K7" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="L7" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="M7" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="N7" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="O7" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="F8" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="G8" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="H8" t="s">
         <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="J8" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="K8" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="M8" t="s">
         <v>83</v>
@@ -9472,25 +9649,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="F9" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="G9" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="H9" t="s">
         <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="J9" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="K9" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="M9" t="s">
         <v>83</v>
@@ -9504,19 +9681,19 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
       <c r="F10" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="G10" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="H10" t="s">
         <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="M10" t="s">
         <v>83</v>
@@ -9530,19 +9707,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
       <c r="F11" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="G11" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="H11" t="s">
         <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -9556,25 +9733,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
       <c r="F12" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="G12" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="H12" t="s">
         <v>83</v>
       </c>
       <c r="I12" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="J12" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
       <c r="K12" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
       <c r="M12" t="s">
         <v>83</v>
@@ -9588,22 +9765,22 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="F13" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="G13" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="H13" t="s">
         <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="J13" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -9617,22 +9794,22 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>552</v>
+        <v>570</v>
       </c>
       <c r="F14" t="s">
+        <v>571</v>
+      </c>
+      <c r="G14" t="s">
         <v>553</v>
       </c>
-      <c r="G14" t="s">
-        <v>535</v>
-      </c>
       <c r="H14" t="s">
         <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="J14" t="s">
-        <v>554</v>
+        <v>572</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -9646,22 +9823,22 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="F15" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="G15" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="H15" t="s">
         <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="J15" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -9675,22 +9852,22 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="F16" t="s">
-        <v>559</v>
+        <v>577</v>
       </c>
       <c r="G16" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="H16" t="s">
         <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="J16" t="s">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -9704,25 +9881,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="F17" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
       <c r="G17" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="H17" t="s">
         <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="J17" t="s">
-        <v>563</v>
+        <v>581</v>
       </c>
       <c r="K17" t="s">
-        <v>563</v>
+        <v>581</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -9736,25 +9913,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="F18" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="G18" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="H18" t="s">
         <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="J18" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
       <c r="K18" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -9768,25 +9945,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
       <c r="F19" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
       <c r="G19" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="H19" t="s">
         <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="J19" t="s">
-        <v>569</v>
+        <v>587</v>
       </c>
       <c r="K19" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
       <c r="M19" t="s">
         <v>83</v>
@@ -9800,19 +9977,19 @@
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>570</v>
+        <v>588</v>
       </c>
       <c r="F20" t="s">
-        <v>571</v>
+        <v>589</v>
       </c>
       <c r="G20" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="H20" t="s">
         <v>83</v>
       </c>
       <c r="I20" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="M20" t="s">
         <v>83</v>
@@ -9826,25 +10003,25 @@
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
       <c r="F21" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="G21" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="H21" t="s">
         <v>83</v>
       </c>
       <c r="I21" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="J21" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
       <c r="K21" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
       <c r="M21" t="s">
         <v>80</v>
@@ -9858,25 +10035,25 @@
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="F22" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="G22" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="H22" t="s">
         <v>83</v>
       </c>
       <c r="I22" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="J22" t="s">
-        <v>577</v>
+        <v>595</v>
       </c>
       <c r="K22" t="s">
-        <v>577</v>
+        <v>595</v>
       </c>
       <c r="M22" t="s">
         <v>80</v>
@@ -9890,25 +10067,25 @@
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>578</v>
+        <v>596</v>
       </c>
       <c r="F23" t="s">
-        <v>579</v>
+        <v>597</v>
       </c>
       <c r="G23" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="H23" t="s">
         <v>83</v>
       </c>
       <c r="I23" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="J23" t="s">
-        <v>580</v>
+        <v>598</v>
       </c>
       <c r="K23" t="s">
-        <v>580</v>
+        <v>598</v>
       </c>
       <c r="M23" t="s">
         <v>80</v>
@@ -9922,19 +10099,19 @@
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>581</v>
+        <v>599</v>
       </c>
       <c r="F24" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="G24" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="H24" t="s">
         <v>83</v>
       </c>
       <c r="I24" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="M24" t="s">
         <v>80</v>
@@ -9948,22 +10125,22 @@
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>583</v>
+        <v>601</v>
       </c>
       <c r="F25" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="G25" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="H25" t="s">
         <v>83</v>
       </c>
       <c r="I25" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="J25" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
       <c r="M25" t="s">
         <v>80</v>
@@ -9977,22 +10154,22 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="F26" t="s">
-        <v>587</v>
+        <v>605</v>
       </c>
       <c r="G26" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="H26" t="s">
         <v>83</v>
       </c>
       <c r="I26" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="J26" t="s">
-        <v>588</v>
+        <v>606</v>
       </c>
       <c r="M26" t="s">
         <v>80</v>
@@ -10012,33 +10189,33 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>590</v>
+        <v>608</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>591</v>
+        <v>609</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>592</v>
+        <v>610</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>593</v>
+        <v>611</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>594</v>
+        <v>612</v>
       </c>
       <c r="I28" t="s">
-        <v>595</v>
+        <v>613</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F29" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G29" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -10049,15 +10226,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I29" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F30" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -10068,15 +10245,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I30" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F31" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G31" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -10087,15 +10264,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I31" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F32" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G32" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -10106,15 +10283,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I32" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F33" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G33" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -10125,15 +10302,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I33" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F34" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G34" t="str">
         <f>菜单SAAS版!$E$35</f>
@@ -10144,15 +10321,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I34" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F35" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G35" t="str">
         <f>菜单SAAS版!$E$35</f>
@@ -10163,15 +10340,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I35" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="36" spans="5:9">
       <c r="E36" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F36" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G36" t="str">
         <f>菜单SAAS版!$E$35</f>
@@ -10182,15 +10359,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I36" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="37" spans="5:9">
       <c r="E37" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F37" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G37" t="str">
         <f>菜单SAAS版!$E$37</f>
@@ -10201,15 +10378,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I37" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="38" spans="5:9">
       <c r="E38" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F38" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G38" t="str">
         <f>菜单SAAS版!$E$37</f>
@@ -10220,15 +10397,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I38" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="39" spans="5:9">
       <c r="E39" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F39" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G39" t="str">
         <f>菜单SAAS版!$E$37</f>
@@ -10239,15 +10416,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I39" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="40" s="5" customFormat="1" spans="5:9">
       <c r="E40" s="5" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G40" s="5" t="str">
         <f>菜单SAAS版!$E$33</f>
@@ -10258,15 +10435,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="41" spans="5:9">
       <c r="E41" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F41" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G41" t="str">
         <f>菜单SAAS版!$E$33</f>
@@ -10277,15 +10454,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I41" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="42" spans="5:9">
       <c r="E42" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F42" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G42" t="str">
         <f>菜单SAAS版!$E$33</f>
@@ -10296,15 +10473,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I42" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="43" spans="5:9">
       <c r="E43" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F43" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G43" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10315,15 +10492,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I43" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="44" spans="5:9">
       <c r="E44" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F44" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G44" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10334,15 +10511,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I44" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="45" spans="5:9">
       <c r="E45" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F45" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G45" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10353,15 +10530,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I45" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="46" spans="5:9">
       <c r="E46" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F46" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G46" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10372,15 +10549,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I46" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="47" spans="5:9">
       <c r="E47" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F47" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G47" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10391,15 +10568,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I47" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="48" spans="5:9">
       <c r="E48" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F48" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G48" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10410,15 +10587,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I48" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="49" spans="5:9">
       <c r="E49" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F49" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G49" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10429,15 +10606,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I49" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="50" spans="5:9">
       <c r="E50" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F50" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G50" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10448,15 +10625,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I50" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="51" spans="5:9">
       <c r="E51" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F51" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G51" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10467,15 +10644,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I51" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="52" spans="5:9">
       <c r="E52" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F52" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G52" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10486,15 +10663,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I52" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="53" spans="5:9">
       <c r="E53" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F53" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G53" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10505,15 +10682,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I53" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="54" spans="5:9">
       <c r="E54" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F54" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G54" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10524,15 +10701,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I54" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="55" spans="5:9">
       <c r="E55" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F55" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G55" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10543,15 +10720,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I55" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="56" spans="5:9">
       <c r="E56" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F56" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G56" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10562,15 +10739,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I56" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="57" spans="5:9">
       <c r="E57" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F57" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G57" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10581,15 +10758,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I57" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="58" spans="5:9">
       <c r="E58" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F58" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G58" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10600,15 +10777,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I58" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="59" spans="5:9">
       <c r="E59" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F59" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G59" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10619,15 +10796,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I59" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="60" spans="5:9">
       <c r="E60" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F60" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G60" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10638,15 +10815,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I60" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="61" spans="5:9">
       <c r="E61" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F61" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G61" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10657,15 +10834,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I61" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="62" spans="5:9">
       <c r="E62" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F62" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G62" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10676,15 +10853,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I62" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="63" spans="5:9">
       <c r="E63" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F63" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G63" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10695,15 +10872,15 @@
         <v>iam_label-22</v>
       </c>
       <c r="I63" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="64" spans="5:9">
       <c r="E64" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F64" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G64" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10714,15 +10891,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I64" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="65" spans="5:9">
       <c r="E65" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F65" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G65" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10733,15 +10910,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I65" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="66" spans="5:9">
       <c r="E66" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F66" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G66" t="str">
         <f>菜单SAAS版!$E$30</f>
@@ -10752,15 +10929,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I66" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="67" spans="5:9">
       <c r="E67" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F67" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G67" t="str">
         <f>菜单SAAS版!$E$30</f>
@@ -10771,15 +10948,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I67" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="68" spans="5:9">
       <c r="E68" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F68" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G68" t="str">
         <f>菜单SAAS版!$E$30</f>
@@ -10790,15 +10967,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I68" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="69" spans="5:9">
       <c r="E69" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F69" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G69" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -10809,15 +10986,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I69" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
     </row>
     <row r="70" spans="5:9">
       <c r="E70" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F70" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G70" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -10828,15 +11005,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I70" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
     </row>
     <row r="71" spans="5:9">
       <c r="E71" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F71" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G71" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -10847,15 +11024,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I71" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
     </row>
     <row r="72" spans="5:9">
       <c r="E72" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F72" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G72" t="str">
         <f>菜单SAAS版!$E$31</f>
@@ -10866,15 +11043,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I72" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
     </row>
     <row r="73" spans="5:9">
       <c r="E73" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F73" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G73" t="str">
         <f>菜单SAAS版!$E$31</f>
@@ -10885,15 +11062,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I73" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
     </row>
     <row r="74" spans="5:9">
       <c r="E74" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F74" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G74" t="str">
         <f>菜单SAAS版!$E$34</f>
@@ -10904,15 +11081,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I74" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
     </row>
     <row r="75" spans="5:9">
       <c r="E75" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F75" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G75" t="str">
         <f>菜单SAAS版!$E$34</f>
@@ -10923,15 +11100,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I75" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
     </row>
     <row r="76" spans="5:9">
       <c r="E76" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F76" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G76" t="str">
         <f>菜单SAAS版!$E$36</f>
@@ -10942,15 +11119,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I76" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
     </row>
     <row r="77" spans="5:9">
       <c r="E77" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F77" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G77" t="str">
         <f>菜单SAAS版!$E$36</f>
@@ -10961,15 +11138,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I77" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
     </row>
     <row r="78" spans="5:9">
       <c r="E78" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F78" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G78" t="str">
         <f>菜单SAAS版!$E$38</f>
@@ -10980,15 +11157,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I78" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
     </row>
     <row r="79" spans="5:9">
       <c r="E79" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F79" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G79" t="str">
         <f>菜单SAAS版!$E$38</f>
@@ -10999,15 +11176,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I79" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
     </row>
     <row r="80" customFormat="1" spans="5:9">
       <c r="E80" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F80" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G80" t="str">
         <f>菜单SAAS版!$E$40</f>
@@ -11018,15 +11195,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I80" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
     </row>
     <row r="81" customFormat="1" spans="5:9">
       <c r="E81" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F81" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G81" t="str">
         <f>菜单SAAS版!$E$40</f>
@@ -11037,15 +11214,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I81" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
     </row>
     <row r="82" customFormat="1" spans="5:9">
       <c r="E82" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F82" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G82" t="str">
         <f>菜单SAAS版!$E$41</f>
@@ -11056,7 +11233,7 @@
         <v>iam_label-8</v>
       </c>
       <c r="I82" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -11068,10 +11245,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y89"/>
+  <dimension ref="A1:Y86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -11113,10 +11290,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>599</v>
+        <v>617</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -11131,75 +11308,75 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="J7" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>602</v>
+        <v>620</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>603</v>
+        <v>621</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>604</v>
+        <v>622</v>
       </c>
       <c r="O7" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="P7" t="s">
-        <v>606</v>
+        <v>624</v>
       </c>
       <c r="Q7" t="s">
-        <v>607</v>
+        <v>625</v>
       </c>
       <c r="R7" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="S7" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="T7" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>611</v>
+        <v>629</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>612</v>
+        <v>630</v>
       </c>
       <c r="X7" t="s">
-        <v>613</v>
+        <v>631</v>
       </c>
       <c r="Y7" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="F8" t="s">
-        <v>616</v>
+        <v>634</v>
       </c>
       <c r="G8" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="H8" t="s">
-        <v>618</v>
+        <v>636</v>
       </c>
       <c r="I8" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
       <c r="J8" t="s">
-        <v>620</v>
+        <v>638</v>
       </c>
       <c r="K8" t="s">
         <v>80</v>
@@ -11232,10 +11409,10 @@
         <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>618</v>
+        <v>636</v>
       </c>
       <c r="V8" t="s">
-        <v>618</v>
+        <v>636</v>
       </c>
       <c r="W8" t="s">
         <v>80</v>
@@ -11243,19 +11420,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>621</v>
+        <v>639</v>
       </c>
       <c r="F9" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="G9" t="s">
-        <v>623</v>
+        <v>641</v>
       </c>
       <c r="H9" t="s">
-        <v>624</v>
+        <v>642</v>
       </c>
       <c r="I9" t="s">
-        <v>625</v>
+        <v>643</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
@@ -11291,10 +11468,10 @@
         <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>624</v>
+        <v>642</v>
       </c>
       <c r="V9" t="s">
-        <v>624</v>
+        <v>642</v>
       </c>
       <c r="W9" t="s">
         <v>80</v>
@@ -11302,16 +11479,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
       <c r="F10" t="s">
-        <v>627</v>
+        <v>645</v>
       </c>
       <c r="G10" t="s">
-        <v>628</v>
+        <v>646</v>
       </c>
       <c r="H10" t="s">
-        <v>629</v>
+        <v>647</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
@@ -11348,33 +11525,33 @@
         <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>630</v>
+        <v>648</v>
       </c>
       <c r="V10" t="s">
-        <v>631</v>
+        <v>649</v>
       </c>
       <c r="W10" t="s">
         <v>80</v>
       </c>
       <c r="X10" t="s">
-        <v>632</v>
+        <v>650</v>
       </c>
       <c r="Y10" t="s">
-        <v>633</v>
+        <v>651</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>634</v>
+        <v>652</v>
       </c>
       <c r="F11" t="s">
-        <v>635</v>
+        <v>653</v>
       </c>
       <c r="G11" t="s">
-        <v>636</v>
+        <v>654</v>
       </c>
       <c r="H11" t="s">
-        <v>637</v>
+        <v>655</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
@@ -11411,33 +11588,33 @@
         <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>638</v>
+        <v>656</v>
       </c>
       <c r="V11" t="s">
-        <v>639</v>
+        <v>657</v>
       </c>
       <c r="W11" t="s">
         <v>80</v>
       </c>
       <c r="X11" t="s">
-        <v>640</v>
+        <v>658</v>
       </c>
       <c r="Y11" t="s">
-        <v>641</v>
+        <v>659</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>642</v>
+        <v>660</v>
       </c>
       <c r="F12" t="s">
-        <v>643</v>
+        <v>661</v>
       </c>
       <c r="G12" t="s">
-        <v>644</v>
+        <v>662</v>
       </c>
       <c r="H12" t="s">
-        <v>645</v>
+        <v>663</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -11474,33 +11651,33 @@
         <v>80</v>
       </c>
       <c r="U12" t="s">
-        <v>646</v>
+        <v>664</v>
       </c>
       <c r="V12" t="s">
-        <v>647</v>
+        <v>665</v>
       </c>
       <c r="W12" t="s">
         <v>80</v>
       </c>
       <c r="X12" t="s">
-        <v>648</v>
+        <v>666</v>
       </c>
       <c r="Y12" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>650</v>
+        <v>668</v>
       </c>
       <c r="F13" t="s">
-        <v>651</v>
+        <v>669</v>
       </c>
       <c r="G13" t="s">
-        <v>652</v>
+        <v>670</v>
       </c>
       <c r="H13" t="s">
-        <v>653</v>
+        <v>671</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
@@ -11537,36 +11714,36 @@
         <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>654</v>
+        <v>672</v>
       </c>
       <c r="V13" t="s">
-        <v>655</v>
+        <v>673</v>
       </c>
       <c r="W13" t="s">
         <v>80</v>
       </c>
       <c r="X13" t="s">
-        <v>656</v>
+        <v>674</v>
       </c>
       <c r="Y13" t="s">
-        <v>657</v>
+        <v>675</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" t="s">
-        <v>658</v>
+        <v>676</v>
       </c>
       <c r="F14" t="s">
-        <v>659</v>
+        <v>677</v>
       </c>
       <c r="G14" t="s">
-        <v>659</v>
+        <v>677</v>
       </c>
       <c r="H14" t="s">
-        <v>660</v>
+        <v>678</v>
       </c>
       <c r="J14" t="s">
-        <v>620</v>
+        <v>638</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -11600,10 +11777,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>661</v>
+        <v>679</v>
       </c>
       <c r="V14" t="s">
-        <v>662</v>
+        <v>680</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -11617,33 +11794,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>663</v>
+        <v>681</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>664</v>
+        <v>682</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>665</v>
+        <v>683</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>666</v>
+        <v>684</v>
       </c>
       <c r="H16" t="s">
-        <v>667</v>
+        <v>685</v>
       </c>
       <c r="I16" t="s">
-        <v>668</v>
+        <v>686</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -11654,18 +11831,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H17" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I17" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J17" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>673</v>
+        <v>691</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -11676,18 +11853,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H18" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I18" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J18" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>674</v>
+        <v>692</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -11698,18 +11875,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H19" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I19" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J19" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>675</v>
+        <v>693</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -11720,18 +11897,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H20" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I20" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J20" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -11742,18 +11919,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H21" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I21" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J21" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -11764,18 +11941,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H22" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I22" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J22" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -11786,18 +11963,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H23" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I23" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J23" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>679</v>
+        <v>697</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -11808,18 +11985,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H24" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I24" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J24" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -11830,18 +12007,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H25" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I25" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J25" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>681</v>
+        <v>699</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -11852,18 +12029,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H26" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I26" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J26" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -11874,18 +12051,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H27" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I27" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J27" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -11896,18 +12073,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H28" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I28" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J28" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$10</f>
@@ -11918,18 +12095,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H29" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I29" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J29" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>685</v>
+        <v>703</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$10</f>
@@ -11940,18 +12117,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H30" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I30" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J30" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>686</v>
+        <v>704</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$10</f>
@@ -11962,18 +12139,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H31" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I31" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J31" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>687</v>
+        <v>705</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$10</f>
@@ -11984,18 +12161,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H32" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I32" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J32" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>688</v>
+        <v>706</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$10</f>
@@ -12006,18 +12183,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H33" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I33" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J33" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>689</v>
+        <v>707</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$10</f>
@@ -12028,18 +12205,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H34" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I34" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J34" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>690</v>
+        <v>708</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$10</f>
@@ -12050,18 +12227,18 @@
         <v>iam_menu-28</v>
       </c>
       <c r="H35" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I35" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J35" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$10</f>
@@ -12072,18 +12249,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H36" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I36" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J36" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>692</v>
+        <v>710</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$10</f>
@@ -12094,18 +12271,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H37" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I37" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J37" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>693</v>
+        <v>711</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$10</f>
@@ -12116,18 +12293,18 @@
         <v>iam_menu-26</v>
       </c>
       <c r="H38" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I38" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J38" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>694</v>
+        <v>712</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$10</f>
@@ -12138,18 +12315,18 @@
         <v>iam_menu-27</v>
       </c>
       <c r="H39" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I39" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J39" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>694</v>
+        <v>712</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$10</f>
@@ -12160,18 +12337,18 @@
         <v>iam_menu-41</v>
       </c>
       <c r="H40" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I40" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J40" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="41" spans="5:10">
       <c r="E41" t="s">
-        <v>695</v>
+        <v>713</v>
       </c>
       <c r="F41" t="str">
         <f>角色!$E$12</f>
@@ -12182,18 +12359,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H41" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I41" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J41" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="42" spans="5:10">
       <c r="E42" t="s">
-        <v>696</v>
+        <v>714</v>
       </c>
       <c r="F42" t="str">
         <f>角色!$E$12</f>
@@ -12204,18 +12381,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H42" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I42" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J42" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="43" spans="5:10">
       <c r="E43" t="s">
-        <v>697</v>
+        <v>715</v>
       </c>
       <c r="F43" t="str">
         <f>角色!$E$12</f>
@@ -12226,18 +12403,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H43" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I43" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J43" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="44" spans="5:10">
       <c r="E44" t="s">
-        <v>698</v>
+        <v>716</v>
       </c>
       <c r="F44" t="str">
         <f>角色!$E$12</f>
@@ -12248,18 +12425,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H44" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I44" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J44" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="45" spans="5:10">
       <c r="E45" t="s">
-        <v>699</v>
+        <v>717</v>
       </c>
       <c r="F45" t="str">
         <f>角色!$E$12</f>
@@ -12270,18 +12447,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H45" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I45" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J45" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="46" spans="5:10">
       <c r="E46" t="s">
-        <v>700</v>
+        <v>718</v>
       </c>
       <c r="F46" t="str">
         <f>角色!$E$12</f>
@@ -12292,18 +12469,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H46" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I46" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J46" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="47" spans="5:10">
       <c r="E47" t="s">
-        <v>701</v>
+        <v>719</v>
       </c>
       <c r="F47" t="str">
         <f>角色!$E$12</f>
@@ -12314,18 +12491,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H47" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I47" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J47" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="48" spans="5:10">
       <c r="E48" t="s">
-        <v>702</v>
+        <v>720</v>
       </c>
       <c r="F48" t="str">
         <f>角色!$E$12</f>
@@ -12336,18 +12513,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H48" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I48" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J48" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="49" spans="5:10">
       <c r="E49" t="s">
-        <v>703</v>
+        <v>721</v>
       </c>
       <c r="F49" t="str">
         <f>角色!$E$12</f>
@@ -12358,18 +12535,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H49" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I49" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J49" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="50" spans="5:10">
       <c r="E50" t="s">
-        <v>704</v>
+        <v>722</v>
       </c>
       <c r="F50" t="str">
         <f>角色!$E$12</f>
@@ -12380,18 +12557,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H50" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I50" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J50" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="51" spans="5:10">
       <c r="E51" t="s">
-        <v>705</v>
+        <v>723</v>
       </c>
       <c r="F51" t="str">
         <f>角色!$E$12</f>
@@ -12402,18 +12579,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H51" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I51" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J51" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="52" spans="5:10">
       <c r="E52" t="s">
-        <v>706</v>
+        <v>724</v>
       </c>
       <c r="F52" t="str">
         <f>角色!$E$12</f>
@@ -12424,18 +12601,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H52" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I52" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J52" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="53" spans="5:10">
       <c r="E53" t="s">
-        <v>707</v>
+        <v>725</v>
       </c>
       <c r="F53" t="str">
         <f>角色!$E$12</f>
@@ -12446,18 +12623,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H53" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I53" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J53" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="54" spans="5:10">
       <c r="E54" t="s">
-        <v>708</v>
+        <v>726</v>
       </c>
       <c r="F54" t="str">
         <f>角色!$E$12</f>
@@ -12468,18 +12645,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H54" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I54" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J54" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="55" spans="5:10">
       <c r="E55" t="s">
-        <v>709</v>
+        <v>727</v>
       </c>
       <c r="F55" t="str">
         <f>角色!$E$12</f>
@@ -12490,18 +12667,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H55" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I55" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J55" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="56" spans="5:10">
       <c r="E56" t="s">
-        <v>710</v>
+        <v>728</v>
       </c>
       <c r="F56" t="str">
         <f>角色!$E$12</f>
@@ -12512,18 +12689,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H56" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I56" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J56" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="57" spans="5:10">
       <c r="E57" t="s">
-        <v>711</v>
+        <v>729</v>
       </c>
       <c r="F57" t="str">
         <f>角色!$E$12</f>
@@ -12534,18 +12711,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H57" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I57" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J57" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="58" spans="5:10">
       <c r="E58" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="F58" t="str">
         <f>角色!$E$12</f>
@@ -12556,18 +12733,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H58" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I58" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J58" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="59" spans="5:10">
       <c r="E59" t="s">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="F59" t="str">
         <f>角色!$E$12</f>
@@ -12578,18 +12755,18 @@
         <v>iam_menu-28</v>
       </c>
       <c r="H59" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I59" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J59" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="60" spans="5:10">
       <c r="E60" t="s">
-        <v>714</v>
+        <v>732</v>
       </c>
       <c r="F60" t="str">
         <f>角色!$E$12</f>
@@ -12600,18 +12777,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H60" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I60" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J60" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="61" spans="5:10">
       <c r="E61" t="s">
-        <v>715</v>
+        <v>733</v>
       </c>
       <c r="F61" t="str">
         <f>角色!$E$12</f>
@@ -12622,18 +12799,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H61" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I61" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J61" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="62" spans="5:10">
       <c r="E62" t="s">
-        <v>716</v>
+        <v>734</v>
       </c>
       <c r="F62" t="str">
         <f>角色!$E$12</f>
@@ -12644,18 +12821,18 @@
         <v>iam_menu-26</v>
       </c>
       <c r="H62" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I62" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J62" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="63" spans="5:10">
       <c r="E63" t="s">
-        <v>717</v>
+        <v>735</v>
       </c>
       <c r="F63" t="str">
         <f>角色!$E$12</f>
@@ -12666,18 +12843,18 @@
         <v>iam_menu-27</v>
       </c>
       <c r="H63" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I63" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J63" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="64" spans="5:10">
       <c r="E64" t="s">
-        <v>718</v>
+        <v>736</v>
       </c>
       <c r="F64" t="str">
         <f>角色!$E$13</f>
@@ -12688,18 +12865,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H64" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I64" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J64" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="65" spans="5:10">
       <c r="E65" t="s">
-        <v>719</v>
+        <v>737</v>
       </c>
       <c r="F65" t="str">
         <f>角色!$E$13</f>
@@ -12710,18 +12887,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H65" t="s">
-        <v>720</v>
+        <v>738</v>
       </c>
       <c r="I65" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J65" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="66" spans="5:10">
       <c r="E66" t="s">
-        <v>721</v>
+        <v>739</v>
       </c>
       <c r="F66" t="str">
         <f>角色!$E$13</f>
@@ -12732,18 +12909,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H66" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I66" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J66" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="67" spans="5:10">
       <c r="E67" t="s">
-        <v>722</v>
+        <v>740</v>
       </c>
       <c r="F67" t="str">
         <f>角色!$E$13</f>
@@ -12754,18 +12931,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H67" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I67" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J67" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="68" spans="5:10">
       <c r="E68" t="s">
-        <v>723</v>
+        <v>741</v>
       </c>
       <c r="F68" t="str">
         <f>角色!$E$13</f>
@@ -12776,18 +12953,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H68" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I68" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J68" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="69" spans="5:10">
       <c r="E69" t="s">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="F69" t="str">
         <f>角色!$E$13</f>
@@ -12798,18 +12975,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H69" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I69" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J69" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="70" spans="5:10">
       <c r="E70" t="s">
-        <v>725</v>
+        <v>743</v>
       </c>
       <c r="F70" t="str">
         <f>角色!$E$13</f>
@@ -12820,18 +12997,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H70" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I70" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J70" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="71" spans="5:10">
       <c r="E71" t="s">
-        <v>726</v>
+        <v>744</v>
       </c>
       <c r="F71" t="str">
         <f>角色!$E$13</f>
@@ -12842,18 +13019,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H71" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I71" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J71" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="72" spans="5:10">
       <c r="E72" t="s">
-        <v>727</v>
+        <v>745</v>
       </c>
       <c r="F72" t="str">
         <f>角色!$E$13</f>
@@ -12864,18 +13041,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H72" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I72" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J72" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="73" spans="5:10">
       <c r="E73" t="s">
-        <v>728</v>
+        <v>746</v>
       </c>
       <c r="F73" t="str">
         <f>角色!$E$13</f>
@@ -12886,18 +13063,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H73" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I73" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J73" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="74" spans="5:10">
       <c r="E74" t="s">
-        <v>729</v>
+        <v>747</v>
       </c>
       <c r="F74" t="str">
         <f>角色!$E$13</f>
@@ -12908,18 +13085,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H74" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I74" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J74" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="75" spans="5:10">
       <c r="E75" t="s">
-        <v>730</v>
+        <v>748</v>
       </c>
       <c r="F75" t="str">
         <f>角色!$E$13</f>
@@ -12930,18 +13107,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H75" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I75" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J75" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="76" spans="5:10">
       <c r="E76" t="s">
-        <v>731</v>
+        <v>749</v>
       </c>
       <c r="F76" t="str">
         <f>角色!$E$13</f>
@@ -12952,18 +13129,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H76" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I76" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J76" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="77" spans="5:10">
       <c r="E77" t="s">
-        <v>732</v>
+        <v>750</v>
       </c>
       <c r="F77" t="str">
         <f>角色!$E$13</f>
@@ -12974,18 +13151,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H77" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I77" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J77" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="78" spans="5:10">
       <c r="E78" t="s">
-        <v>733</v>
+        <v>751</v>
       </c>
       <c r="F78" t="str">
         <f>角色!$E$13</f>
@@ -12996,18 +13173,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H78" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I78" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J78" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="79" spans="5:10">
       <c r="E79" t="s">
-        <v>734</v>
+        <v>752</v>
       </c>
       <c r="F79" t="str">
         <f>角色!$E$13</f>
@@ -13018,18 +13195,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H79" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I79" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J79" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="80" spans="5:10">
       <c r="E80" t="s">
-        <v>735</v>
+        <v>753</v>
       </c>
       <c r="F80" t="str">
         <f>角色!$E$13</f>
@@ -13040,18 +13217,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H80" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I80" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J80" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="81" spans="5:10">
       <c r="E81" t="s">
-        <v>736</v>
+        <v>754</v>
       </c>
       <c r="F81" t="str">
         <f>角色!$E$13</f>
@@ -13062,18 +13239,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H81" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I81" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J81" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="82" spans="5:10">
       <c r="E82" t="s">
-        <v>737</v>
+        <v>755</v>
       </c>
       <c r="F82" t="str">
         <f>角色!$E$13</f>
@@ -13084,18 +13261,18 @@
         <v>iam_menu-28</v>
       </c>
       <c r="H82" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I82" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J82" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="83" spans="5:10">
       <c r="E83" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="F83" t="str">
         <f>角色!$E$13</f>
@@ -13106,18 +13283,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H83" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I83" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J83" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="84" spans="5:10">
       <c r="E84" t="s">
-        <v>739</v>
+        <v>757</v>
       </c>
       <c r="F84" t="str">
         <f>角色!$E$13</f>
@@ -13128,18 +13305,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H84" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I84" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J84" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="85" spans="5:10">
       <c r="E85" t="s">
-        <v>740</v>
+        <v>758</v>
       </c>
       <c r="F85" t="str">
         <f>角色!$E$13</f>
@@ -13150,18 +13327,18 @@
         <v>iam_menu-26</v>
       </c>
       <c r="H85" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I85" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J85" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="86" spans="5:10">
       <c r="E86" t="s">
-        <v>741</v>
+        <v>759</v>
       </c>
       <c r="F86" t="str">
         <f>角色!$E$13</f>
@@ -13172,28 +13349,13 @@
         <v>iam_menu-27</v>
       </c>
       <c r="H86" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="I86" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="J86" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="87" spans="5:5">
-      <c r="E87" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="88" spans="5:5">
-      <c r="E88" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="89" spans="5:5">
-      <c r="E89" t="s">
-        <v>744</v>
+        <v>690</v>
       </c>
     </row>
   </sheetData>
@@ -13246,66 +13408,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="H7" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="I7" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="J7" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="K7" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="L7" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="M7" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="N7" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="O7" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="F8" t="s">
-        <v>745</v>
+        <v>760</v>
       </c>
       <c r="G8" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="H8" t="s">
         <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="J8" t="s">
-        <v>747</v>
+        <v>762</v>
       </c>
       <c r="K8" t="s">
-        <v>748</v>
+        <v>763</v>
       </c>
       <c r="M8" t="s">
         <v>80</v>
@@ -13319,22 +13481,22 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="F9" t="s">
-        <v>749</v>
+        <v>764</v>
       </c>
       <c r="G9" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="H9" t="s">
         <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="J9" t="s">
-        <v>750</v>
+        <v>765</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
@@ -13348,25 +13510,25 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
       <c r="F10" t="s">
-        <v>751</v>
+        <v>766</v>
       </c>
       <c r="G10" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="H10" t="s">
         <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="J10" t="s">
-        <v>752</v>
+        <v>767</v>
       </c>
       <c r="K10" t="s">
-        <v>752</v>
+        <v>767</v>
       </c>
       <c r="M10" t="s">
         <v>80</v>
@@ -13380,25 +13542,25 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
       <c r="F11" t="s">
-        <v>753</v>
+        <v>768</v>
       </c>
       <c r="G11" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="H11" t="s">
         <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="J11" t="s">
-        <v>754</v>
+        <v>769</v>
       </c>
       <c r="K11" t="s">
-        <v>755</v>
+        <v>770</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -13412,25 +13574,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
       <c r="F12" t="s">
-        <v>756</v>
+        <v>771</v>
       </c>
       <c r="G12" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="H12" t="s">
         <v>83</v>
       </c>
       <c r="I12" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="J12" t="s">
-        <v>757</v>
+        <v>772</v>
       </c>
       <c r="K12" t="s">
-        <v>757</v>
+        <v>772</v>
       </c>
       <c r="M12" t="s">
         <v>80</v>
@@ -13444,25 +13606,25 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="F13" t="s">
-        <v>758</v>
+        <v>773</v>
       </c>
       <c r="G13" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="H13" t="s">
         <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="J13" t="s">
-        <v>759</v>
+        <v>774</v>
       </c>
       <c r="K13" t="s">
-        <v>760</v>
+        <v>775</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -13476,25 +13638,25 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>552</v>
+        <v>570</v>
       </c>
       <c r="F14" t="s">
+        <v>776</v>
+      </c>
+      <c r="G14" t="s">
         <v>761</v>
       </c>
-      <c r="G14" t="s">
-        <v>746</v>
-      </c>
       <c r="H14" t="s">
         <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="J14" t="s">
-        <v>762</v>
+        <v>777</v>
       </c>
       <c r="K14" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -13508,25 +13670,25 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="F15" t="s">
-        <v>763</v>
+        <v>778</v>
       </c>
       <c r="G15" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="H15" t="s">
         <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="J15" t="s">
-        <v>764</v>
+        <v>779</v>
       </c>
       <c r="K15" t="s">
-        <v>765</v>
+        <v>780</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -13540,25 +13702,25 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="F16" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="G16" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="H16" t="s">
         <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="J16" t="s">
-        <v>767</v>
+        <v>782</v>
       </c>
       <c r="K16" t="s">
-        <v>768</v>
+        <v>783</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -13572,25 +13734,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="F17" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
       <c r="G17" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="H17" t="s">
         <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="J17" t="s">
-        <v>770</v>
+        <v>785</v>
       </c>
       <c r="K17" t="s">
-        <v>771</v>
+        <v>786</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -13604,25 +13766,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="F18" t="s">
-        <v>772</v>
+        <v>787</v>
       </c>
       <c r="G18" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="H18" t="s">
         <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="J18" t="s">
-        <v>773</v>
+        <v>788</v>
       </c>
       <c r="K18" t="s">
-        <v>772</v>
+        <v>787</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -13636,25 +13798,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
       <c r="F19" t="s">
-        <v>774</v>
+        <v>789</v>
       </c>
       <c r="G19" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="H19" t="s">
         <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="J19" t="s">
-        <v>775</v>
+        <v>790</v>
       </c>
       <c r="K19" t="s">
-        <v>774</v>
+        <v>789</v>
       </c>
       <c r="M19" t="s">
         <v>80</v>
@@ -13674,33 +13836,33 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>590</v>
+        <v>608</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>591</v>
+        <v>609</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>592</v>
+        <v>610</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>593</v>
+        <v>611</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>594</v>
+        <v>612</v>
       </c>
       <c r="I21" t="s">
-        <v>595</v>
+        <v>613</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F22" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="G22" t="str">
         <f>角色!$E$10</f>
@@ -13711,15 +13873,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I22" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F23" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="G23" t="str">
         <f>角色!$E$10</f>
@@ -13730,15 +13892,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I23" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F24" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="G24" t="str">
         <f>角色!$E$10</f>
@@ -13749,15 +13911,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I24" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F25" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="G25" t="str">
         <f>角色!$E$11</f>
@@ -13768,15 +13930,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I25" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
     </row>
     <row r="26" spans="5:9">
       <c r="E26" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F26" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="G26" t="str">
         <f>角色!$E$11</f>
@@ -13787,15 +13949,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I26" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
     </row>
     <row r="27" spans="5:9">
       <c r="E27" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F27" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="G27" t="str">
         <f>角色!$E$11</f>
@@ -13806,15 +13968,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I27" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
     </row>
     <row r="28" spans="5:9">
       <c r="E28" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F28" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
@@ -13825,15 +13987,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I28" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F29" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="G29" t="str">
         <f>角色!$E$12</f>
@@ -13844,15 +14006,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I29" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F30" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="G30" t="str">
         <f>角色!$E$12</f>
@@ -13863,15 +14025,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I30" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F31" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="G31" t="str">
         <f>角色!$E$12</f>
@@ -13882,15 +14044,15 @@
         <v>iam_label-18</v>
       </c>
       <c r="I31" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F32" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
@@ -13901,15 +14063,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I32" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F33" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="G33" t="str">
         <f>角色!$E$13</f>
@@ -13920,15 +14082,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I33" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F34" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="G34" t="str">
         <f>角色!$E$13</f>
@@ -13939,15 +14101,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I34" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="F35" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="G35" t="str">
         <f>角色!$E$13</f>
@@ -13958,7 +14120,7 @@
         <v>iam_label-19</v>
       </c>
       <c r="I35" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="794">
   <si>
     <r>
       <rPr>
@@ -2755,33 +2755,33 @@
     <t>test-manager-service.test-issue-folder.update</t>
   </si>
   <si>
+    <t>iam_menu_permission-56</t>
+  </si>
+  <si>
     <t>test-manager-service.test-priority.list</t>
   </si>
   <si>
-    <t>iam_menu_permission-56</t>
-  </si>
-  <si>
     <t>iam_menu_permission-57</t>
   </si>
   <si>
+    <t>iam_menu_permission-58</t>
+  </si>
+  <si>
     <t>agile-service.project-object-scheme-field.queryDescriptionTemplate</t>
   </si>
   <si>
-    <t>iam_menu_permission-58</t>
+    <t>iam_menu_permission-59</t>
   </si>
   <si>
     <t>agile-service.issue.listIssueWithoutSubToTestComponent</t>
   </si>
   <si>
-    <t>iam_menu_permission-59</t>
+    <t>iam_menu_permission-60</t>
   </si>
   <si>
     <t>agile-service.scheme.queryIssueTypesWithStateMachineIdByProjectId</t>
   </si>
   <si>
-    <t>iam_menu_permission-60</t>
-  </si>
-  <si>
     <t>iam_menu_permission-61</t>
   </si>
   <si>
@@ -2794,363 +2794,363 @@
     <t>iam_menu_permission-64</t>
   </si>
   <si>
+    <t>iam_menu_permission-65</t>
+  </si>
+  <si>
     <t>test-manager-service.test-cycle-case-defect-rel.createIssueAndLinkDefect</t>
   </si>
   <si>
-    <t>iam_menu_permission-65</t>
+    <t>iam_menu_permission-66</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case-defect-rel.insert</t>
   </si>
   <si>
-    <t>iam_menu_permission-66</t>
+    <t>iam_menu_permission-67</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case-defect-rel.removeAttachment</t>
   </si>
   <si>
-    <t>iam_menu_permission-67</t>
+    <t>iam_menu_permission-68</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case-history.query</t>
   </si>
   <si>
-    <t>iam_menu_permission-68</t>
+    <t>iam_menu_permission-69</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case-step.querySubStep</t>
   </si>
   <si>
-    <t>iam_menu_permission-69</t>
+    <t>iam_menu_permission-70</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case-step.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-70</t>
+    <t>iam_menu_permission-71</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.batchAssignCase</t>
   </si>
   <si>
-    <t>iam_menu_permission-71</t>
+    <t>iam_menu_permission-72</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.delete</t>
   </si>
   <si>
-    <t>iam_menu_permission-72</t>
+    <t>iam_menu_permission-73</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.ignoreUpdate</t>
   </si>
   <si>
-    <t>iam_menu_permission-73</t>
+    <t>iam_menu_permission-74</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.importCase</t>
   </si>
   <si>
-    <t>iam_menu_permission-74</t>
+    <t>iam_menu_permission-75</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.listCaseByCycleId</t>
   </si>
   <si>
-    <t>iam_menu_permission-75</t>
+    <t>iam_menu_permission-76</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.queryCaseAndStep</t>
   </si>
   <si>
-    <t>iam_menu_permission-76</t>
+    <t>iam_menu_permission-77</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.queryCaseInfo</t>
   </si>
   <si>
-    <t>iam_menu_permission-77</t>
+    <t>iam_menu_permission-78</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.queryExecutionStatus</t>
   </si>
   <si>
-    <t>iam_menu_permission-78</t>
+    <t>iam_menu_permission-79</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.selectUpdateCompare</t>
   </si>
   <si>
-    <t>iam_menu_permission-79</t>
+    <t>iam_menu_permission-80</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-80</t>
+    <t>iam_menu_permission-81</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.updateCaseAndStep</t>
   </si>
   <si>
-    <t>iam_menu_permission-81</t>
+    <t>iam_menu_permission-82</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.updateCompare</t>
   </si>
   <si>
-    <t>iam_menu_permission-82</t>
+    <t>iam_menu_permission-83</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle.delete</t>
   </si>
   <si>
-    <t>iam_menu_permission-83</t>
+    <t>iam_menu_permission-84</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle.insert</t>
   </si>
   <si>
-    <t>iam_menu_permission-84</t>
+    <t>iam_menu_permission-85</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle.moveFolder</t>
   </si>
   <si>
-    <t>iam_menu_permission-85</t>
+    <t>iam_menu_permission-86</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle.operatePlanCalendar</t>
   </si>
   <si>
-    <t>iam_menu_permission-86</t>
+    <t>iam_menu_permission-87</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle.queryTree</t>
   </si>
   <si>
-    <t>iam_menu_permission-87</t>
+    <t>iam_menu_permission-88</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-88</t>
-  </si>
-  <si>
     <t>iam_menu_permission-89</t>
   </si>
   <si>
+    <t>iam_menu_permission-90</t>
+  </si>
+  <si>
     <t>test-manager-service.test-plan.clonePlan</t>
   </si>
   <si>
-    <t>iam_menu_permission-90</t>
+    <t>iam_menu_permission-91</t>
   </si>
   <si>
     <t>test-manager-service.test-plan.create</t>
   </si>
   <si>
-    <t>iam_menu_permission-91</t>
+    <t>iam_menu_permission-92</t>
   </si>
   <si>
     <t>test-manager-service.test-plan.deletePlan</t>
   </si>
   <si>
-    <t>iam_menu_permission-92</t>
+    <t>iam_menu_permission-93</t>
   </si>
   <si>
     <t>test-manager-service.test-plan.query</t>
   </si>
   <si>
-    <t>iam_menu_permission-93</t>
+    <t>iam_menu_permission-94</t>
   </si>
   <si>
     <t>test-manager-service.test-plan.queryInfo</t>
   </si>
   <si>
-    <t>iam_menu_permission-94</t>
+    <t>iam_menu_permission-95</t>
   </si>
   <si>
     <t>test-manager-service.test-plan.queryTree</t>
   </si>
   <si>
-    <t>iam_menu_permission-95</t>
+    <t>iam_menu_permission-96</t>
   </si>
   <si>
     <t>test-manager-service.test-plan.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-96</t>
+    <t>iam_menu_permission-97</t>
   </si>
   <si>
     <t>test-manager-service.test-plan.updateStatus</t>
   </si>
   <si>
-    <t>iam_menu_permission-97</t>
-  </si>
-  <si>
     <t>iam_menu_permission-98</t>
   </si>
   <si>
+    <t>iam_menu_permission-99</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-100</t>
+  </si>
+  <si>
     <t>agile-service.report.queryBurnDownCoordinate</t>
   </si>
   <si>
-    <t>iam_menu_permission-99</t>
+    <t>iam_menu_permission-101</t>
   </si>
   <si>
     <t>agile-service.report.queryBurnDownReport</t>
   </si>
   <si>
-    <t>iam_menu_permission-100</t>
+    <t>iam_menu_permission-102</t>
   </si>
   <si>
     <t>agile-service.report.queryBurnDownReportByType</t>
   </si>
   <si>
-    <t>iam_menu_permission-101</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-102</t>
+    <t>iam_menu_permission-103</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-104</t>
   </si>
   <si>
     <t>agile-service.sprint.queryNameByOptions</t>
   </si>
   <si>
-    <t>iam_menu_permission-103</t>
+    <t>iam_menu_permission-105</t>
   </si>
   <si>
     <t>agile-service.sprint.queryNonWorkdays</t>
   </si>
   <si>
-    <t>iam_menu_permission-104</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-105</t>
-  </si>
-  <si>
     <t>iam_menu_permission-106</t>
   </si>
   <si>
+    <t>iam_menu_permission-107</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-108</t>
+  </si>
+  <si>
     <t>agile-service.sprint.queryIssueByOptions</t>
   </si>
   <si>
-    <t>iam_menu_permission-107</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-108</t>
-  </si>
-  <si>
     <t>iam_menu_permission-109</t>
   </si>
   <si>
+    <t>iam_menu_permission-110</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-111</t>
+  </si>
+  <si>
     <t>agile-service.sprint.querySprintById</t>
   </si>
   <si>
-    <t>iam_menu_permission-110</t>
+    <t>iam_menu_permission-112</t>
   </si>
   <si>
     <t>agile-service.board.queryByOptions</t>
   </si>
   <si>
-    <t>iam_menu_permission-111</t>
+    <t>iam_menu_permission-113</t>
   </si>
   <si>
     <t>agile-service.board.queryByProjectId</t>
   </si>
   <si>
-    <t>iam_menu_permission-112</t>
+    <t>iam_menu_permission-114</t>
   </si>
   <si>
     <t>agile-service.project-info.queryProjectInfoByProjectId</t>
   </si>
   <si>
-    <t>iam_menu_permission-113</t>
+    <t>iam_menu_permission-115</t>
   </si>
   <si>
     <t>agile-service.quick-filter.listByProjectId</t>
   </si>
   <si>
-    <t>iam_menu_permission-114</t>
+    <t>iam_menu_permission-116</t>
   </si>
   <si>
     <t>agile-service.report.queryCumulativeFlowDiagram</t>
   </si>
   <si>
-    <t>iam_menu_permission-115</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-116</t>
+    <t>iam_menu_permission-117</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-118</t>
   </si>
   <si>
     <t>agile-service.product-version.queryNameByOptions</t>
   </si>
   <si>
-    <t>iam_menu_permission-117</t>
+    <t>iam_menu_permission-119</t>
   </si>
   <si>
     <t>agile-service.report.queryVersionChart</t>
   </si>
   <si>
-    <t>iam_menu_permission-118</t>
+    <t>iam_menu_permission-120</t>
   </si>
   <si>
     <t>agile-service.report.queryVersionChartList</t>
   </si>
   <si>
-    <t>iam_menu_permission-119</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-120</t>
+    <t>iam_menu_permission-121</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-122</t>
   </si>
   <si>
     <t>agile-service.report.queryVelocityChart</t>
   </si>
   <si>
-    <t>iam_menu_permission-121</t>
+    <t>iam_menu_permission-123</t>
   </si>
   <si>
     <t>agile-service.issue.listEpic</t>
   </si>
   <si>
-    <t>iam_menu_permission-122</t>
+    <t>iam_menu_permission-124</t>
   </si>
   <si>
     <t>agile-service.report.queryEpicChart</t>
   </si>
   <si>
-    <t>iam_menu_permission-123</t>
+    <t>iam_menu_permission-125</t>
   </si>
   <si>
     <t>agile-service.report.queryEpicChartList</t>
   </si>
   <si>
-    <t>iam_menu_permission-124</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-125</t>
+    <t>iam_menu_permission-126</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-127</t>
   </si>
   <si>
     <t>agile-service.report.queryPieChart</t>
   </si>
   <si>
-    <t>iam_menu_permission-126</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-127</t>
-  </si>
-  <si>
     <t>iam_menu_permission-128</t>
   </si>
   <si>
+    <t>iam_menu_permission-129</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-130</t>
+  </si>
+  <si>
     <t>agile-service.report.queryBurnDownCoordinateByType</t>
   </si>
   <si>
-    <t>iam_menu_permission-129</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-130</t>
-  </si>
-  <si>
     <t>iam_menu_permission-131</t>
   </si>
   <si>
@@ -3163,193 +3163,199 @@
     <t>iam_menu_permission-134</t>
   </si>
   <si>
+    <t>iam_menu_permission-135</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-136</t>
+  </si>
+  <si>
     <t>test-manager-service.test-case.createFormsFromIssueToDefect</t>
   </si>
   <si>
-    <t>iam_menu_permission-135</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-136</t>
+    <t>iam_menu_permission-137</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-138</t>
   </si>
   <si>
     <t>agile-service.product-version.listByProjectId</t>
   </si>
   <si>
-    <t>iam_menu_permission-137</t>
+    <t>iam_menu_permission-139</t>
   </si>
   <si>
     <t>agile-service.scheme.queryStatusByProjectId</t>
   </si>
   <si>
-    <t>iam_menu_permission-138</t>
+    <t>iam_menu_permission-140</t>
   </si>
   <si>
     <t>test-manager-service.test-case.createFormDefectFromIssue</t>
   </si>
   <si>
-    <t>iam_menu_permission-139</t>
+    <t>iam_menu_permission-141</t>
   </si>
   <si>
     <t>test-manager-service.test-case.createFormDefectFromIssueById</t>
   </si>
   <si>
-    <t>iam_menu_permission-140</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-141</t>
-  </si>
-  <si>
     <t>iam_menu_permission-142</t>
   </si>
   <si>
+    <t>iam_menu_permission-143</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-144</t>
+  </si>
+  <si>
     <t>test-manager-service.test-plan.allPlan</t>
   </si>
   <si>
-    <t>iam_menu_permission-143</t>
+    <t>iam_menu_permission-145</t>
   </si>
   <si>
     <t>devops-service.app-service.listByActive</t>
   </si>
   <si>
-    <t>iam_menu_permission-144</t>
+    <t>iam_menu_permission-146</t>
   </si>
   <si>
     <t>devops-service.devops-gitlab-commit.getCommits</t>
   </si>
   <si>
-    <t>iam_menu_permission-145</t>
+    <t>iam_menu_permission-147</t>
   </si>
   <si>
     <t>devops-service.devops-gitlab-commit.getRecordCommits</t>
   </si>
   <si>
-    <t>iam_menu_permission-146</t>
+    <t>iam_menu_permission-148</t>
   </si>
   <si>
     <t>devops-service.app-service.getSonarQubeTable</t>
   </si>
   <si>
-    <t>iam_menu_permission-147</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-148</t>
-  </si>
-  <si>
     <t>iam_menu_permission-149</t>
   </si>
   <si>
+    <t>iam_menu_permission-150</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-151</t>
+  </si>
+  <si>
     <t>devops-service.devops-gitlab-pipeline.listPipelineFrequency</t>
   </si>
   <si>
-    <t>iam_menu_permission-150</t>
+    <t>iam_menu_permission-152</t>
   </si>
   <si>
     <t>devops-service.devops-gitlab-pipeline.pageByOptions</t>
   </si>
   <si>
-    <t>iam_menu_permission-151</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-152</t>
+    <t>iam_menu_permission-153</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-154</t>
   </si>
   <si>
     <t>devops-service.devops-gitlab-pipeline.listPipelineTime</t>
   </si>
   <si>
-    <t>iam_menu_permission-153</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-154</t>
+    <t>iam_menu_permission-155</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-156</t>
   </si>
   <si>
     <t>devops-service.app-service-instance.listDeployTimeReport</t>
   </si>
   <si>
-    <t>iam_menu_permission-155</t>
+    <t>iam_menu_permission-157</t>
   </si>
   <si>
     <t>devops-service.app-service-instance.pageDeployTimeTable</t>
   </si>
   <si>
-    <t>iam_menu_permission-156</t>
+    <t>iam_menu_permission-158</t>
   </si>
   <si>
     <t>devops-service.app-service.listByEnvIdAndStatus</t>
   </si>
   <si>
-    <t>iam_menu_permission-157</t>
+    <t>iam_menu_permission-159</t>
   </si>
   <si>
     <t>devops-service.devops-environment.listByActive</t>
   </si>
   <si>
-    <t>iam_menu_permission-158</t>
+    <t>iam_menu_permission-160</t>
   </si>
   <si>
     <t>devops-service.app-service-instance.listDeployFrequencyReport</t>
   </si>
   <si>
-    <t>iam_menu_permission-159</t>
+    <t>iam_menu_permission-161</t>
   </si>
   <si>
     <t>devops-service.app-service-instance.pageDeployFrequencyDetailTable</t>
   </si>
   <si>
-    <t>iam_menu_permission-160</t>
+    <t>iam_menu_permission-162</t>
   </si>
   <si>
     <t>devops-service.app-service.listAll</t>
   </si>
   <si>
-    <t>iam_menu_permission-161</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-162</t>
-  </si>
-  <si>
     <t>iam_menu_permission-163</t>
   </si>
   <si>
+    <t>iam_menu_permission-164</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-165</t>
+  </si>
+  <si>
     <t>test-manager-service.test-priority.create</t>
   </si>
   <si>
-    <t>iam_menu_permission-164</t>
+    <t>iam_menu_permission-166</t>
   </si>
   <si>
     <t>test-manager-service.test-priority.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-165</t>
+    <t>iam_menu_permission-167</t>
   </si>
   <si>
     <t>test-manager-service.test-priority.remove</t>
   </si>
   <si>
-    <t>iam_menu_permission-166</t>
+    <t>iam_menu_permission-168</t>
   </si>
   <si>
     <t>test-manager-service.test-priority.checkDelete</t>
   </si>
   <si>
-    <t>iam_menu_permission-167</t>
+    <t>iam_menu_permission-169</t>
   </si>
   <si>
     <t>test-manager-service.test-priority.checkName</t>
   </si>
   <si>
-    <t>iam_menu_permission-168</t>
+    <t>iam_menu_permission-170</t>
   </si>
   <si>
     <t>test-manager-service.test-priority.updateByList</t>
   </si>
   <si>
-    <t>iam_menu_permission-169</t>
+    <t>iam_menu_permission-171</t>
   </si>
   <si>
     <t>test-manager-service.test-priority.disablePriority</t>
   </si>
   <si>
-    <t>iam_menu_permission-170</t>
+    <t>iam_menu_permission-172</t>
   </si>
   <si>
     <t>test-manager-service.test-priority.enablePriority</t>
@@ -3952,12 +3958,12 @@
     <t>iam_role_permission-64</t>
   </si>
   <si>
+    <t>iam_role_permission-65</t>
+  </si>
+  <si>
     <t>X</t>
   </si>
   <si>
-    <t>iam_role_permission-65</t>
-  </si>
-  <si>
     <t>iam_role_permission-66</t>
   </si>
   <si>
@@ -4016,6 +4022,9 @@
   </si>
   <si>
     <t>iam_role_permission-85</t>
+  </si>
+  <si>
+    <t>iam_role_permission-86</t>
   </si>
   <si>
     <t>TENANT_MGR</t>
@@ -4116,10 +4125,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -4205,9 +4214,25 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4232,16 +4257,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4255,54 +4272,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4317,6 +4303,29 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
@@ -4324,27 +4333,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4424,25 +4433,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4454,7 +4457,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4472,13 +4493,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4490,37 +4529,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4538,13 +4589,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4556,55 +4613,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4711,11 +4720,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4729,17 +4744,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4759,28 +4783,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4802,157 +4809,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5663,7 +5672,7 @@
   <sheetPr/>
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
@@ -7481,8 +7490,8 @@
   <sheetPr/>
   <dimension ref="A1:G172"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="D176" sqref="D176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
@@ -8117,19 +8126,19 @@
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F56" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G56" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F57" t="str">
         <f>菜单SAAS版!$E$38</f>
@@ -8141,43 +8150,43 @@
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F58" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G58" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F59" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G59" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F60" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G60" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F61" t="str">
         <f>菜单SAAS版!$E$38</f>
@@ -8189,7 +8198,7 @@
     </row>
     <row r="62" spans="5:7">
       <c r="E62" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F62" t="str">
         <f>菜单SAAS版!$E$38</f>
@@ -8201,7 +8210,7 @@
     </row>
     <row r="63" spans="5:7">
       <c r="E63" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F63" t="str">
         <f>菜单SAAS版!$E$38</f>
@@ -8213,7 +8222,7 @@
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F64" t="str">
         <f>菜单SAAS版!$E$38</f>
@@ -8225,295 +8234,295 @@
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F65" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G65" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F66" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G66" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F67" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G67" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F68" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G68" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F69" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G69" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F70" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G70" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F71" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G71" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F72" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G72" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F73" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G73" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F74" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G74" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F75" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G75" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F76" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G76" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F77" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G77" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F78" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G78" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="E79" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F79" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G79" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="E80" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F80" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G80" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="81" spans="5:7">
       <c r="E81" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F81" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G81" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="82" spans="5:7">
       <c r="E82" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F82" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G82" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="83" spans="5:7">
       <c r="E83" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F83" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G83" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="84" spans="5:7">
       <c r="E84" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F84" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G84" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="85" spans="5:7">
       <c r="E85" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F85" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G85" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F86" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G86" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="87" spans="5:7">
       <c r="E87" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F87" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G87" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="88" spans="5:7">
       <c r="E88" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F88" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G88" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="89" spans="5:7">
       <c r="E89" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F89" t="str">
         <f>菜单SAAS版!$E$38</f>
@@ -8525,103 +8534,103 @@
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F90" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G90" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="91" spans="5:7">
       <c r="E91" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F91" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G91" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="92" spans="5:7">
       <c r="E92" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F92" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G92" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="93" spans="5:7">
       <c r="E93" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F93" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G93" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="94" spans="5:7">
       <c r="E94" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F94" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G94" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="95" spans="5:7">
       <c r="E95" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F95" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G95" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="96" spans="5:7">
       <c r="E96" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F96" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G96" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="97" spans="5:7">
       <c r="E97" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F97" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G97" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="98" spans="5:7">
       <c r="E98" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F98" t="str">
         <f>菜单SAAS版!$E$38</f>
@@ -8633,463 +8642,463 @@
     </row>
     <row r="99" spans="5:7">
       <c r="E99" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F99" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G99" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="100" spans="5:7">
       <c r="E100" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F100" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G100" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="101" spans="5:7">
       <c r="E101" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F101" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G101" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="102" spans="5:7">
       <c r="E102" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F102" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G102" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="103" spans="5:7">
       <c r="E103" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F103" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G103" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="104" spans="5:7">
       <c r="E104" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F104" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G104" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="105" spans="5:7">
       <c r="E105" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F105" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G105" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="106" spans="5:7">
       <c r="E106" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F106" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G106" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="107" spans="5:7">
       <c r="E107" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F107" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G107" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="108" spans="5:7">
       <c r="E108" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F108" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G108" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="109" spans="5:7">
       <c r="E109" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F109" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G109" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="110" spans="5:7">
       <c r="E110" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F110" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G110" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="111" spans="5:7">
       <c r="E111" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F111" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G111" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="112" spans="5:7">
       <c r="E112" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F112" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G112" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="113" spans="5:7">
       <c r="E113" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F113" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G113" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="114" spans="5:7">
       <c r="E114" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F114" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G114" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="115" spans="5:7">
       <c r="E115" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F115" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G115" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="116" spans="5:7">
       <c r="E116" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F116" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G116" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="117" spans="5:7">
       <c r="E117" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F117" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G117" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="118" spans="5:7">
       <c r="E118" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F118" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G118" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="119" spans="5:7">
       <c r="E119" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F119" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G119" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="120" spans="5:7">
       <c r="E120" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F120" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G120" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="121" spans="5:7">
       <c r="E121" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F121" t="str">
         <f>菜单SAAS版!$E$23</f>
         <v>iam_menu-23</v>
       </c>
       <c r="G121" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="122" spans="5:7">
       <c r="E122" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F122" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G122" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="123" spans="5:7">
       <c r="E123" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F123" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-15</v>
       </c>
       <c r="G123" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="124" spans="5:7">
       <c r="E124" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F124" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-15</v>
       </c>
       <c r="G124" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="125" spans="5:7">
       <c r="E125" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F125" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-15</v>
       </c>
       <c r="G125" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="126" spans="5:7">
       <c r="E126" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F126" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-17</v>
       </c>
       <c r="G126" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="127" spans="5:7">
       <c r="E127" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F127" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-17</v>
       </c>
       <c r="G127" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="128" spans="5:7">
       <c r="E128" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F128" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-17</v>
       </c>
       <c r="G128" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="129" spans="5:7">
       <c r="E129" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F129" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-14</v>
       </c>
       <c r="G129" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="130" spans="5:7">
       <c r="E130" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F130" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-14</v>
       </c>
       <c r="G130" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="131" spans="5:7">
       <c r="E131" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F131" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-14</v>
       </c>
       <c r="G131" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="132" spans="5:7">
       <c r="E132" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F132" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G132" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="133" spans="5:7">
       <c r="E133" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F133" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G133" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="134" spans="5:7">
       <c r="E134" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F134" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G134" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="135" spans="5:7">
       <c r="E135" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F135" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G135" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="136" spans="5:7">
       <c r="E136" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F136" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G136" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="137" spans="5:7">
       <c r="E137" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F137" t="str">
         <f>菜单SAAS版!$E$19</f>
@@ -9101,55 +9110,55 @@
     </row>
     <row r="138" spans="5:7">
       <c r="E138" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F138" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G138" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="139" spans="5:7">
       <c r="E139" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F139" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G139" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="140" spans="5:7">
       <c r="E140" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F140" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G140" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="141" spans="5:7">
       <c r="E141" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F141" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G141" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="142" spans="5:7">
       <c r="E142" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F142" t="str">
         <f>菜单SAAS版!$E$18</f>
@@ -9161,362 +9170,362 @@
     </row>
     <row r="143" spans="5:7">
       <c r="E143" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F143" t="str">
         <f>菜单SAAS版!$E$16</f>
         <v>iam_menu-16</v>
       </c>
       <c r="G143" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="144" spans="5:7">
       <c r="E144" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F144" t="str">
         <f>菜单SAAS版!$E$16</f>
         <v>iam_menu-16</v>
       </c>
       <c r="G144" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="145" spans="5:7">
       <c r="E145" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F145" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G145" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="146" spans="5:7">
       <c r="E146" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F146" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G146" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="147" spans="5:7">
       <c r="E147" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F147" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G147" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="148" spans="5:7">
       <c r="E148" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F148" t="str">
         <f>菜单SAAS版!$E$28</f>
         <v>iam_menu-28</v>
       </c>
       <c r="G148" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="149" spans="5:7">
       <c r="E149" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F149" t="str">
         <f>菜单SAAS版!$E$28</f>
         <v>iam_menu-28</v>
       </c>
       <c r="G149" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="150" spans="5:7">
       <c r="E150" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F150" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G150" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="151" spans="5:7">
       <c r="E151" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F151" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G151" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="152" spans="5:7">
       <c r="E152" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F152" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G152" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="153" spans="5:7">
       <c r="E153" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F153" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G153" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="154" spans="5:7">
       <c r="E154" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F154" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G154" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="155" spans="5:7">
       <c r="E155" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F155" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G155" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="156" spans="5:7">
       <c r="E156" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F156" t="str">
         <f>菜单SAAS版!$E$26</f>
         <v>iam_menu-26</v>
       </c>
       <c r="G156" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="157" spans="5:7">
       <c r="E157" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F157" t="str">
         <f>菜单SAAS版!$E$26</f>
         <v>iam_menu-26</v>
       </c>
       <c r="G157" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="158" spans="5:7">
       <c r="E158" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F158" t="str">
         <f>菜单SAAS版!$E$26</f>
         <v>iam_menu-26</v>
       </c>
       <c r="G158" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="159" spans="5:7">
       <c r="E159" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F159" t="str">
         <f>菜单SAAS版!$E$26</f>
         <v>iam_menu-26</v>
       </c>
       <c r="G159" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="160" spans="5:7">
       <c r="E160" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F160" t="str">
         <f>菜单SAAS版!$E$27</f>
         <v>iam_menu-27</v>
       </c>
       <c r="G160" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="161" spans="5:7">
       <c r="E161" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F161" t="str">
         <f>菜单SAAS版!$E$27</f>
         <v>iam_menu-27</v>
       </c>
       <c r="G161" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="162" spans="5:7">
       <c r="E162" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F162" t="str">
         <f>菜单SAAS版!$E$27</f>
         <v>iam_menu-27</v>
       </c>
       <c r="G162" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="163" spans="5:7">
       <c r="E163" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F163" t="str">
         <f>菜单SAAS版!$E$27</f>
         <v>iam_menu-27</v>
       </c>
       <c r="G163" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="164" spans="5:7">
       <c r="E164" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="F164" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G164" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="165" spans="5:7">
       <c r="E165" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F165" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G165" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="166" spans="5:7">
       <c r="E166" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F166" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G166" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="167" spans="5:7">
       <c r="E167" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F167" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G167" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="168" spans="5:7">
       <c r="E168" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="F168" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G168" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="169" spans="5:7">
       <c r="E169" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F169" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G169" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="170" spans="5:7">
       <c r="E170" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F170" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G170" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="171" spans="5:7">
       <c r="E171" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="F171" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G171" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="172" spans="5:7">
       <c r="E172" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F172" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G172" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -9530,8 +9539,8 @@
   <sheetPr/>
   <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="D171" sqref="D171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -9576,66 +9585,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="H7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="I7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="J7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="N7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="O7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="F8" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="G8" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H8" t="s">
         <v>83</v>
       </c>
       <c r="I8" t="s">
+        <v>556</v>
+      </c>
+      <c r="J8" t="s">
+        <v>557</v>
+      </c>
+      <c r="K8" t="s">
         <v>554</v>
-      </c>
-      <c r="J8" t="s">
-        <v>555</v>
-      </c>
-      <c r="K8" t="s">
-        <v>552</v>
       </c>
       <c r="M8" t="s">
         <v>83</v>
@@ -9649,25 +9658,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
+        <v>558</v>
+      </c>
+      <c r="F9" t="s">
+        <v>559</v>
+      </c>
+      <c r="G9" t="s">
+        <v>555</v>
+      </c>
+      <c r="H9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" t="s">
         <v>556</v>
       </c>
-      <c r="F9" t="s">
-        <v>557</v>
-      </c>
-      <c r="G9" t="s">
-        <v>553</v>
-      </c>
-      <c r="H9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I9" t="s">
-        <v>554</v>
-      </c>
       <c r="J9" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="K9" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="M9" t="s">
         <v>83</v>
@@ -9681,19 +9690,19 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F10" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G10" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H10" t="s">
         <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="M10" t="s">
         <v>83</v>
@@ -9707,19 +9716,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="F11" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="G11" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H11" t="s">
         <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -9733,25 +9742,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F12" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="G12" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H12" t="s">
         <v>83</v>
       </c>
       <c r="I12" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="J12" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="K12" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="M12" t="s">
         <v>83</v>
@@ -9765,22 +9774,22 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F13" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="G13" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H13" t="s">
         <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="J13" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -9794,22 +9803,22 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F14" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="G14" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H14" t="s">
         <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="J14" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -9823,22 +9832,22 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F15" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G15" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H15" t="s">
         <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="J15" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -9852,22 +9861,22 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F16" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="G16" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H16" t="s">
         <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="J16" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -9881,25 +9890,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F17" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="G17" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H17" t="s">
         <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="J17" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="K17" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -9913,25 +9922,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="F18" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="G18" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H18" t="s">
         <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="J18" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="K18" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -9945,25 +9954,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F19" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="G19" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H19" t="s">
         <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="J19" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="K19" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="M19" t="s">
         <v>83</v>
@@ -9977,19 +9986,19 @@
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="F20" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="G20" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H20" t="s">
         <v>83</v>
       </c>
       <c r="I20" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="M20" t="s">
         <v>83</v>
@@ -10003,25 +10012,25 @@
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="F21" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="G21" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H21" t="s">
         <v>83</v>
       </c>
       <c r="I21" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="J21" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="K21" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="M21" t="s">
         <v>80</v>
@@ -10035,25 +10044,25 @@
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="F22" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="G22" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H22" t="s">
         <v>83</v>
       </c>
       <c r="I22" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="J22" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="K22" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M22" t="s">
         <v>80</v>
@@ -10067,25 +10076,25 @@
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="F23" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G23" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H23" t="s">
         <v>83</v>
       </c>
       <c r="I23" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="J23" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="K23" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="M23" t="s">
         <v>80</v>
@@ -10099,19 +10108,19 @@
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F24" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="G24" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H24" t="s">
         <v>83</v>
       </c>
       <c r="I24" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="M24" t="s">
         <v>80</v>
@@ -10125,22 +10134,22 @@
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="F25" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="G25" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H25" t="s">
         <v>83</v>
       </c>
       <c r="I25" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="J25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="M25" t="s">
         <v>80</v>
@@ -10154,22 +10163,22 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="F26" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="G26" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H26" t="s">
         <v>83</v>
       </c>
       <c r="I26" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="J26" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="M26" t="s">
         <v>80</v>
@@ -10189,33 +10198,33 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="I28" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F29" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G29" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -10226,15 +10235,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I29" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F30" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -10245,15 +10254,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I30" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F31" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G31" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -10264,15 +10273,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I31" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F32" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G32" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -10283,15 +10292,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I32" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F33" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G33" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -10302,15 +10311,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I33" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F34" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G34" t="str">
         <f>菜单SAAS版!$E$35</f>
@@ -10321,15 +10330,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I34" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F35" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G35" t="str">
         <f>菜单SAAS版!$E$35</f>
@@ -10340,15 +10349,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I35" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="36" spans="5:9">
       <c r="E36" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F36" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G36" t="str">
         <f>菜单SAAS版!$E$35</f>
@@ -10359,15 +10368,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I36" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="37" spans="5:9">
       <c r="E37" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F37" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G37" t="str">
         <f>菜单SAAS版!$E$37</f>
@@ -10378,15 +10387,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I37" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="38" spans="5:9">
       <c r="E38" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F38" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G38" t="str">
         <f>菜单SAAS版!$E$37</f>
@@ -10397,15 +10406,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I38" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="39" spans="5:9">
       <c r="E39" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F39" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G39" t="str">
         <f>菜单SAAS版!$E$37</f>
@@ -10416,15 +10425,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I39" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="40" s="5" customFormat="1" spans="5:9">
       <c r="E40" s="5" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G40" s="5" t="str">
         <f>菜单SAAS版!$E$33</f>
@@ -10435,15 +10444,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="41" spans="5:9">
       <c r="E41" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F41" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G41" t="str">
         <f>菜单SAAS版!$E$33</f>
@@ -10454,15 +10463,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I41" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="42" spans="5:9">
       <c r="E42" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F42" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G42" t="str">
         <f>菜单SAAS版!$E$33</f>
@@ -10473,15 +10482,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I42" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="43" spans="5:9">
       <c r="E43" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F43" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G43" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10492,15 +10501,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I43" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="44" spans="5:9">
       <c r="E44" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F44" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G44" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10511,15 +10520,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I44" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="45" spans="5:9">
       <c r="E45" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F45" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G45" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10530,15 +10539,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I45" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="46" spans="5:9">
       <c r="E46" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F46" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G46" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10549,15 +10558,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I46" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="47" spans="5:9">
       <c r="E47" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F47" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G47" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10568,15 +10577,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I47" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="48" spans="5:9">
       <c r="E48" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F48" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G48" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10587,15 +10596,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I48" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="49" spans="5:9">
       <c r="E49" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F49" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G49" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10606,15 +10615,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I49" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="50" spans="5:9">
       <c r="E50" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F50" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G50" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10625,15 +10634,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I50" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="51" spans="5:9">
       <c r="E51" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F51" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G51" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10644,15 +10653,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I51" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="52" spans="5:9">
       <c r="E52" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F52" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G52" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10663,15 +10672,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I52" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="53" spans="5:9">
       <c r="E53" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F53" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G53" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10682,15 +10691,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I53" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="54" spans="5:9">
       <c r="E54" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F54" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G54" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10701,15 +10710,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I54" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="55" spans="5:9">
       <c r="E55" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F55" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G55" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10720,15 +10729,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I55" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="56" spans="5:9">
       <c r="E56" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F56" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G56" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10739,15 +10748,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I56" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="57" spans="5:9">
       <c r="E57" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F57" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G57" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10758,15 +10767,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I57" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="58" spans="5:9">
       <c r="E58" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F58" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G58" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10777,15 +10786,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I58" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="59" spans="5:9">
       <c r="E59" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F59" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G59" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10796,15 +10805,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I59" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="60" spans="5:9">
       <c r="E60" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F60" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G60" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10815,15 +10824,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I60" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="61" spans="5:9">
       <c r="E61" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F61" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G61" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10834,15 +10843,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I61" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="62" spans="5:9">
       <c r="E62" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F62" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G62" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10853,15 +10862,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I62" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="63" spans="5:9">
       <c r="E63" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F63" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G63" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10872,15 +10881,15 @@
         <v>iam_label-22</v>
       </c>
       <c r="I63" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="64" spans="5:9">
       <c r="E64" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F64" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G64" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10891,15 +10900,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I64" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="65" spans="5:9">
       <c r="E65" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F65" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G65" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10910,15 +10919,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I65" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="66" spans="5:9">
       <c r="E66" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F66" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G66" t="str">
         <f>菜单SAAS版!$E$30</f>
@@ -10929,15 +10938,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I66" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="67" spans="5:9">
       <c r="E67" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F67" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G67" t="str">
         <f>菜单SAAS版!$E$30</f>
@@ -10948,15 +10957,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I67" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="68" spans="5:9">
       <c r="E68" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F68" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G68" t="str">
         <f>菜单SAAS版!$E$30</f>
@@ -10967,15 +10976,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I68" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="69" spans="5:9">
       <c r="E69" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F69" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G69" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -10986,15 +10995,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I69" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="70" spans="5:9">
       <c r="E70" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F70" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G70" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -11005,15 +11014,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I70" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="71" spans="5:9">
       <c r="E71" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F71" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G71" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -11024,15 +11033,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I71" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="72" spans="5:9">
       <c r="E72" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F72" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G72" t="str">
         <f>菜单SAAS版!$E$31</f>
@@ -11043,15 +11052,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I72" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="73" spans="5:9">
       <c r="E73" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F73" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G73" t="str">
         <f>菜单SAAS版!$E$31</f>
@@ -11062,15 +11071,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I73" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="74" spans="5:9">
       <c r="E74" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F74" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G74" t="str">
         <f>菜单SAAS版!$E$34</f>
@@ -11081,15 +11090,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I74" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="75" spans="5:9">
       <c r="E75" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F75" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G75" t="str">
         <f>菜单SAAS版!$E$34</f>
@@ -11100,15 +11109,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I75" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="76" spans="5:9">
       <c r="E76" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F76" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G76" t="str">
         <f>菜单SAAS版!$E$36</f>
@@ -11119,15 +11128,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I76" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="77" spans="5:9">
       <c r="E77" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F77" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G77" t="str">
         <f>菜单SAAS版!$E$36</f>
@@ -11138,15 +11147,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I77" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="78" spans="5:9">
       <c r="E78" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F78" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G78" t="str">
         <f>菜单SAAS版!$E$38</f>
@@ -11157,15 +11166,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I78" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="79" spans="5:9">
       <c r="E79" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F79" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G79" t="str">
         <f>菜单SAAS版!$E$38</f>
@@ -11176,15 +11185,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I79" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="80" customFormat="1" spans="5:9">
       <c r="E80" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F80" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G80" t="str">
         <f>菜单SAAS版!$E$40</f>
@@ -11195,15 +11204,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I80" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="81" customFormat="1" spans="5:9">
       <c r="E81" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F81" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G81" t="str">
         <f>菜单SAAS版!$E$40</f>
@@ -11214,15 +11223,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I81" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="82" customFormat="1" spans="5:9">
       <c r="E82" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F82" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G82" t="str">
         <f>菜单SAAS版!$E$41</f>
@@ -11233,7 +11242,7 @@
         <v>iam_label-8</v>
       </c>
       <c r="I82" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -11247,12 +11256,13 @@
   <sheetPr/>
   <dimension ref="A1:Y86"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="D70" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
+    <col min="5" max="5" width="21.1666666666667" customWidth="1"/>
     <col min="6" max="6" width="13.25" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
   </cols>
@@ -11290,10 +11300,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -11308,75 +11318,75 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="J7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="O7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="P7" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="Q7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="R7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="S7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="T7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="X7" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="Y7" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="F8" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="G8" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="H8" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="I8" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="J8" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="K8" t="s">
         <v>80</v>
@@ -11409,10 +11419,10 @@
         <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="V8" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="W8" t="s">
         <v>80</v>
@@ -11420,19 +11430,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="F9" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="G9" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="H9" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="I9" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
@@ -11468,10 +11478,10 @@
         <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="V9" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="W9" t="s">
         <v>80</v>
@@ -11479,16 +11489,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="F10" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="G10" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="H10" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
@@ -11525,33 +11535,33 @@
         <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="V10" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="W10" t="s">
         <v>80</v>
       </c>
       <c r="X10" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="Y10" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="F11" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="G11" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H11" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
@@ -11588,33 +11598,33 @@
         <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="V11" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="W11" t="s">
         <v>80</v>
       </c>
       <c r="X11" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="Y11" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="F12" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="G12" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="H12" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -11651,33 +11661,33 @@
         <v>80</v>
       </c>
       <c r="U12" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="V12" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="W12" t="s">
         <v>80</v>
       </c>
       <c r="X12" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="Y12" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="F13" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="G13" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="H13" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
@@ -11714,36 +11724,36 @@
         <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="V13" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="W13" t="s">
         <v>80</v>
       </c>
       <c r="X13" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="Y13" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="F14" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="G14" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="H14" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="J14" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -11777,10 +11787,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="V14" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -11794,33 +11804,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="H16" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="I16" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -11831,18 +11841,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H17" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I17" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J17" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -11853,18 +11863,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H18" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I18" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J18" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -11875,18 +11885,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H19" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I19" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J19" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -11897,18 +11907,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H20" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I20" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J20" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -11919,18 +11929,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H21" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I21" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J21" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -11941,18 +11951,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H22" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I22" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J22" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -11963,18 +11973,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H23" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I23" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J23" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -11985,18 +11995,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H24" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I24" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J24" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -12007,18 +12017,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H25" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I25" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J25" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -12029,18 +12039,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H26" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I26" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J26" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -12051,18 +12061,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H27" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I27" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J27" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -12073,18 +12083,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H28" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I28" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J28" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$10</f>
@@ -12095,18 +12105,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H29" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I29" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J29" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$10</f>
@@ -12117,18 +12127,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H30" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I30" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J30" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$10</f>
@@ -12139,18 +12149,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H31" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I31" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J31" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$10</f>
@@ -12161,18 +12171,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H32" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I32" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J32" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$10</f>
@@ -12183,18 +12193,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H33" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I33" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J33" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$10</f>
@@ -12205,18 +12215,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H34" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I34" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J34" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$10</f>
@@ -12227,18 +12237,18 @@
         <v>iam_menu-28</v>
       </c>
       <c r="H35" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I35" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J35" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$10</f>
@@ -12249,18 +12259,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H36" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I36" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J36" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$10</f>
@@ -12271,18 +12281,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H37" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I37" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J37" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$10</f>
@@ -12293,18 +12303,18 @@
         <v>iam_menu-26</v>
       </c>
       <c r="H38" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I38" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J38" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$10</f>
@@ -12315,18 +12325,18 @@
         <v>iam_menu-27</v>
       </c>
       <c r="H39" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I39" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J39" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$10</f>
@@ -12337,18 +12347,18 @@
         <v>iam_menu-41</v>
       </c>
       <c r="H40" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I40" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J40" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="41" spans="5:10">
       <c r="E41" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="F41" t="str">
         <f>角色!$E$12</f>
@@ -12359,18 +12369,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H41" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I41" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J41" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="42" spans="5:10">
       <c r="E42" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="F42" t="str">
         <f>角色!$E$12</f>
@@ -12381,18 +12391,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H42" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I42" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J42" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="43" spans="5:10">
       <c r="E43" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="F43" t="str">
         <f>角色!$E$12</f>
@@ -12403,18 +12413,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H43" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I43" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J43" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="44" spans="5:10">
       <c r="E44" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="F44" t="str">
         <f>角色!$E$12</f>
@@ -12425,18 +12435,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H44" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I44" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J44" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="45" spans="5:10">
       <c r="E45" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="F45" t="str">
         <f>角色!$E$12</f>
@@ -12447,18 +12457,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H45" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I45" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J45" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="46" spans="5:10">
       <c r="E46" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="F46" t="str">
         <f>角色!$E$12</f>
@@ -12469,18 +12479,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H46" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I46" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J46" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="47" spans="5:10">
       <c r="E47" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="F47" t="str">
         <f>角色!$E$12</f>
@@ -12491,18 +12501,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H47" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I47" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J47" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="48" spans="5:10">
       <c r="E48" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="F48" t="str">
         <f>角色!$E$12</f>
@@ -12513,18 +12523,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H48" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I48" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J48" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="49" spans="5:10">
       <c r="E49" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="F49" t="str">
         <f>角色!$E$12</f>
@@ -12535,18 +12545,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H49" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I49" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J49" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="50" spans="5:10">
       <c r="E50" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="F50" t="str">
         <f>角色!$E$12</f>
@@ -12557,18 +12567,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H50" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I50" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J50" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="51" spans="5:10">
       <c r="E51" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="F51" t="str">
         <f>角色!$E$12</f>
@@ -12579,18 +12589,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H51" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I51" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J51" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="52" spans="5:10">
       <c r="E52" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="F52" t="str">
         <f>角色!$E$12</f>
@@ -12601,18 +12611,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H52" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I52" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J52" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="53" spans="5:10">
       <c r="E53" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="F53" t="str">
         <f>角色!$E$12</f>
@@ -12623,18 +12633,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H53" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I53" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J53" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="54" spans="5:10">
       <c r="E54" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="F54" t="str">
         <f>角色!$E$12</f>
@@ -12645,18 +12655,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H54" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I54" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J54" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="55" spans="5:10">
       <c r="E55" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="F55" t="str">
         <f>角色!$E$12</f>
@@ -12667,18 +12677,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H55" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I55" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J55" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="56" spans="5:10">
       <c r="E56" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="F56" t="str">
         <f>角色!$E$12</f>
@@ -12689,18 +12699,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H56" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I56" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J56" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="57" spans="5:10">
       <c r="E57" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="F57" t="str">
         <f>角色!$E$12</f>
@@ -12711,18 +12721,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H57" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I57" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J57" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="58" spans="5:10">
       <c r="E58" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="F58" t="str">
         <f>角色!$E$12</f>
@@ -12733,18 +12743,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H58" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I58" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J58" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="59" spans="5:10">
       <c r="E59" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="F59" t="str">
         <f>角色!$E$12</f>
@@ -12755,18 +12765,18 @@
         <v>iam_menu-28</v>
       </c>
       <c r="H59" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I59" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J59" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="60" spans="5:10">
       <c r="E60" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="F60" t="str">
         <f>角色!$E$12</f>
@@ -12777,18 +12787,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H60" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I60" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J60" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="61" spans="5:10">
       <c r="E61" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="F61" t="str">
         <f>角色!$E$12</f>
@@ -12799,18 +12809,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H61" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I61" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J61" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="62" spans="5:10">
       <c r="E62" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="F62" t="str">
         <f>角色!$E$12</f>
@@ -12821,18 +12831,18 @@
         <v>iam_menu-26</v>
       </c>
       <c r="H62" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I62" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J62" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="63" spans="5:10">
       <c r="E63" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="F63" t="str">
         <f>角色!$E$12</f>
@@ -12843,18 +12853,18 @@
         <v>iam_menu-27</v>
       </c>
       <c r="H63" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I63" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J63" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="64" spans="5:10">
       <c r="E64" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="F64" t="str">
         <f>角色!$E$13</f>
@@ -12865,18 +12875,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H64" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I64" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J64" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="65" spans="5:10">
       <c r="E65" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="F65" t="str">
         <f>角色!$E$13</f>
@@ -12887,18 +12897,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H65" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="I65" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J65" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="66" spans="5:10">
       <c r="E66" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="F66" t="str">
         <f>角色!$E$13</f>
@@ -12909,18 +12919,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H66" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I66" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J66" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="67" spans="5:10">
       <c r="E67" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="F67" t="str">
         <f>角色!$E$13</f>
@@ -12931,18 +12941,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H67" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I67" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J67" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="68" spans="5:10">
       <c r="E68" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="F68" t="str">
         <f>角色!$E$13</f>
@@ -12953,18 +12963,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H68" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I68" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J68" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="69" spans="5:10">
       <c r="E69" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="F69" t="str">
         <f>角色!$E$13</f>
@@ -12975,18 +12985,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H69" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I69" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J69" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="70" spans="5:10">
       <c r="E70" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="F70" t="str">
         <f>角色!$E$13</f>
@@ -12997,18 +13007,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H70" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I70" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J70" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="71" spans="5:10">
       <c r="E71" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="F71" t="str">
         <f>角色!$E$13</f>
@@ -13019,18 +13029,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H71" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I71" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J71" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="72" spans="5:10">
       <c r="E72" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="F72" t="str">
         <f>角色!$E$13</f>
@@ -13041,18 +13051,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H72" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I72" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J72" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="73" spans="5:10">
       <c r="E73" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="F73" t="str">
         <f>角色!$E$13</f>
@@ -13063,18 +13073,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H73" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I73" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J73" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="74" spans="5:10">
       <c r="E74" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="F74" t="str">
         <f>角色!$E$13</f>
@@ -13085,18 +13095,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H74" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I74" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J74" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="75" spans="5:10">
       <c r="E75" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="F75" t="str">
         <f>角色!$E$13</f>
@@ -13107,18 +13117,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H75" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I75" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J75" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="76" spans="5:10">
       <c r="E76" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="F76" t="str">
         <f>角色!$E$13</f>
@@ -13129,18 +13139,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H76" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I76" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J76" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="77" spans="5:10">
       <c r="E77" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="F77" t="str">
         <f>角色!$E$13</f>
@@ -13151,18 +13161,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H77" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I77" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J77" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="78" spans="5:10">
       <c r="E78" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="F78" t="str">
         <f>角色!$E$13</f>
@@ -13173,18 +13183,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H78" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I78" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J78" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="79" spans="5:10">
       <c r="E79" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="F79" t="str">
         <f>角色!$E$13</f>
@@ -13195,18 +13205,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H79" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I79" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J79" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="80" spans="5:10">
       <c r="E80" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="F80" t="str">
         <f>角色!$E$13</f>
@@ -13217,18 +13227,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H80" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I80" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J80" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="81" spans="5:10">
       <c r="E81" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="F81" t="str">
         <f>角色!$E$13</f>
@@ -13239,18 +13249,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H81" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I81" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J81" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="82" spans="5:10">
       <c r="E82" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="F82" t="str">
         <f>角色!$E$13</f>
@@ -13261,18 +13271,18 @@
         <v>iam_menu-28</v>
       </c>
       <c r="H82" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I82" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J82" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="83" spans="5:10">
       <c r="E83" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="F83" t="str">
         <f>角色!$E$13</f>
@@ -13283,18 +13293,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H83" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I83" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J83" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="84" spans="5:10">
       <c r="E84" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="F84" t="str">
         <f>角色!$E$13</f>
@@ -13305,18 +13315,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H84" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I84" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J84" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="85" spans="5:10">
       <c r="E85" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="F85" t="str">
         <f>角色!$E$13</f>
@@ -13327,18 +13337,18 @@
         <v>iam_menu-26</v>
       </c>
       <c r="H85" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I85" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J85" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="86" spans="5:10">
       <c r="E86" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="F86" t="str">
         <f>角色!$E$13</f>
@@ -13349,13 +13359,13 @@
         <v>iam_menu-27</v>
       </c>
       <c r="H86" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I86" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J86" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -13408,66 +13418,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="H7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="I7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="J7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="N7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="O7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="F8" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="G8" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="H8" t="s">
         <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="J8" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="K8" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="M8" t="s">
         <v>80</v>
@@ -13481,22 +13491,22 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="F9" t="s">
+        <v>767</v>
+      </c>
+      <c r="G9" t="s">
         <v>764</v>
       </c>
-      <c r="G9" t="s">
-        <v>761</v>
-      </c>
       <c r="H9" t="s">
         <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="J9" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
@@ -13510,25 +13520,25 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F10" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="G10" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="H10" t="s">
         <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="J10" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="K10" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="M10" t="s">
         <v>80</v>
@@ -13542,25 +13552,25 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="F11" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="G11" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="H11" t="s">
         <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="J11" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="K11" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -13574,25 +13584,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F12" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="G12" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="H12" t="s">
         <v>83</v>
       </c>
       <c r="I12" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="J12" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="K12" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="M12" t="s">
         <v>80</v>
@@ -13606,25 +13616,25 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F13" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="G13" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="H13" t="s">
         <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="J13" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="K13" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -13638,25 +13648,25 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F14" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="G14" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="H14" t="s">
         <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="J14" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="K14" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -13670,25 +13680,25 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F15" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="G15" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="H15" t="s">
         <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="J15" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="K15" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -13702,25 +13712,25 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F16" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="G16" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="H16" t="s">
         <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="J16" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="K16" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -13734,25 +13744,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F17" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="G17" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="H17" t="s">
         <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="J17" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="K17" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -13766,25 +13776,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="F18" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="G18" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="H18" t="s">
         <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="J18" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="K18" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -13798,25 +13808,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F19" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="G19" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="H19" t="s">
         <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="J19" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="K19" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="M19" t="s">
         <v>80</v>
@@ -13836,33 +13846,33 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="I21" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F22" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="G22" t="str">
         <f>角色!$E$10</f>
@@ -13873,15 +13883,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I22" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F23" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="G23" t="str">
         <f>角色!$E$10</f>
@@ -13892,15 +13902,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I23" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F24" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="G24" t="str">
         <f>角色!$E$10</f>
@@ -13911,15 +13921,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I24" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F25" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="G25" t="str">
         <f>角色!$E$11</f>
@@ -13930,15 +13940,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I25" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="26" spans="5:9">
       <c r="E26" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F26" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="G26" t="str">
         <f>角色!$E$11</f>
@@ -13949,15 +13959,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I26" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="27" spans="5:9">
       <c r="E27" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F27" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="G27" t="str">
         <f>角色!$E$11</f>
@@ -13968,15 +13978,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I27" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="28" spans="5:9">
       <c r="E28" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F28" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
@@ -13987,15 +13997,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I28" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F29" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="G29" t="str">
         <f>角色!$E$12</f>
@@ -14006,15 +14016,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I29" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F30" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="G30" t="str">
         <f>角色!$E$12</f>
@@ -14025,15 +14035,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I30" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F31" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="G31" t="str">
         <f>角色!$E$12</f>
@@ -14044,15 +14054,15 @@
         <v>iam_label-18</v>
       </c>
       <c r="I31" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F32" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
@@ -14063,15 +14073,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I32" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F33" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="G33" t="str">
         <f>角色!$E$13</f>
@@ -14082,15 +14092,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I33" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F34" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="G34" t="str">
         <f>角色!$E$13</f>
@@ -14101,15 +14111,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I34" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F35" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="G35" t="str">
         <f>角色!$E$13</f>
@@ -14120,7 +14130,7 @@
         <v>iam_label-19</v>
       </c>
       <c r="I35" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="794">
   <si>
     <r>
       <rPr>
@@ -4125,10 +4125,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -4207,14 +4207,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4229,17 +4275,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4253,13 +4292,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -4272,70 +4304,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4350,8 +4319,39 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4433,7 +4433,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4445,7 +4493,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4457,19 +4523,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4481,13 +4541,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4499,61 +4553,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4571,37 +4577,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4613,7 +4595,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4720,17 +4720,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4744,26 +4749,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4793,6 +4789,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -4806,162 +4817,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5672,8 +5672,8 @@
   <sheetPr/>
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="H23" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -7490,8 +7490,8 @@
   <sheetPr/>
   <dimension ref="A1:G172"/>
   <sheetViews>
-    <sheetView topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="D176" sqref="D176"/>
+    <sheetView topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="E176" sqref="E176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
@@ -9537,10 +9537,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="D171" sqref="D171"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="A82" sqref="$A82:$XFD82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -11226,25 +11226,6 @@
         <v>618</v>
       </c>
     </row>
-    <row r="82" customFormat="1" spans="5:9">
-      <c r="E82" t="s">
-        <v>616</v>
-      </c>
-      <c r="F82" t="s">
-        <v>555</v>
-      </c>
-      <c r="G82" t="str">
-        <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
-      </c>
-      <c r="H82" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I82" t="s">
-        <v>618</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -11256,7 +11237,7 @@
   <sheetPr/>
   <dimension ref="A1:Y86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D70" workbookViewId="0">
+    <sheetView topLeftCell="D70" workbookViewId="0">
       <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="21000" windowHeight="8675" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="796">
   <si>
     <r>
       <rPr>
@@ -2764,27 +2764,30 @@
     <t>iam_menu_permission-57</t>
   </si>
   <si>
+    <t>test-manager-service.test-issue-folder.checkCopyFolderName</t>
+  </si>
+  <si>
     <t>iam_menu_permission-58</t>
   </si>
   <si>
+    <t>iam_menu_permission-59</t>
+  </si>
+  <si>
     <t>agile-service.project-object-scheme-field.queryDescriptionTemplate</t>
   </si>
   <si>
-    <t>iam_menu_permission-59</t>
+    <t>iam_menu_permission-60</t>
   </si>
   <si>
     <t>agile-service.issue.listIssueWithoutSubToTestComponent</t>
   </si>
   <si>
-    <t>iam_menu_permission-60</t>
+    <t>iam_menu_permission-61</t>
   </si>
   <si>
     <t>agile-service.scheme.queryIssueTypesWithStateMachineIdByProjectId</t>
   </si>
   <si>
-    <t>iam_menu_permission-61</t>
-  </si>
-  <si>
     <t>iam_menu_permission-62</t>
   </si>
   <si>
@@ -2797,363 +2800,363 @@
     <t>iam_menu_permission-65</t>
   </si>
   <si>
+    <t>iam_menu_permission-66</t>
+  </si>
+  <si>
     <t>test-manager-service.test-cycle-case-defect-rel.createIssueAndLinkDefect</t>
   </si>
   <si>
-    <t>iam_menu_permission-66</t>
+    <t>iam_menu_permission-67</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case-defect-rel.insert</t>
   </si>
   <si>
-    <t>iam_menu_permission-67</t>
+    <t>iam_menu_permission-68</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case-defect-rel.removeAttachment</t>
   </si>
   <si>
-    <t>iam_menu_permission-68</t>
+    <t>iam_menu_permission-69</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case-history.query</t>
   </si>
   <si>
-    <t>iam_menu_permission-69</t>
+    <t>iam_menu_permission-70</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case-step.querySubStep</t>
   </si>
   <si>
-    <t>iam_menu_permission-70</t>
+    <t>iam_menu_permission-71</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case-step.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-71</t>
+    <t>iam_menu_permission-72</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.batchAssignCase</t>
   </si>
   <si>
-    <t>iam_menu_permission-72</t>
+    <t>iam_menu_permission-73</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.delete</t>
   </si>
   <si>
-    <t>iam_menu_permission-73</t>
+    <t>iam_menu_permission-74</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.ignoreUpdate</t>
   </si>
   <si>
-    <t>iam_menu_permission-74</t>
+    <t>iam_menu_permission-75</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.importCase</t>
   </si>
   <si>
-    <t>iam_menu_permission-75</t>
+    <t>iam_menu_permission-76</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.listCaseByCycleId</t>
   </si>
   <si>
-    <t>iam_menu_permission-76</t>
+    <t>iam_menu_permission-77</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.queryCaseAndStep</t>
   </si>
   <si>
-    <t>iam_menu_permission-77</t>
+    <t>iam_menu_permission-78</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.queryCaseInfo</t>
   </si>
   <si>
-    <t>iam_menu_permission-78</t>
+    <t>iam_menu_permission-79</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.queryExecutionStatus</t>
   </si>
   <si>
-    <t>iam_menu_permission-79</t>
+    <t>iam_menu_permission-80</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.selectUpdateCompare</t>
   </si>
   <si>
-    <t>iam_menu_permission-80</t>
+    <t>iam_menu_permission-81</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-81</t>
+    <t>iam_menu_permission-82</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.updateCaseAndStep</t>
   </si>
   <si>
-    <t>iam_menu_permission-82</t>
+    <t>iam_menu_permission-83</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.updateCompare</t>
   </si>
   <si>
-    <t>iam_menu_permission-83</t>
+    <t>iam_menu_permission-84</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle.delete</t>
   </si>
   <si>
-    <t>iam_menu_permission-84</t>
+    <t>iam_menu_permission-85</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle.insert</t>
   </si>
   <si>
-    <t>iam_menu_permission-85</t>
+    <t>iam_menu_permission-86</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle.moveFolder</t>
   </si>
   <si>
-    <t>iam_menu_permission-86</t>
+    <t>iam_menu_permission-87</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle.operatePlanCalendar</t>
   </si>
   <si>
-    <t>iam_menu_permission-87</t>
+    <t>iam_menu_permission-88</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle.queryTree</t>
   </si>
   <si>
-    <t>iam_menu_permission-88</t>
+    <t>iam_menu_permission-89</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-89</t>
-  </si>
-  <si>
     <t>iam_menu_permission-90</t>
   </si>
   <si>
+    <t>iam_menu_permission-91</t>
+  </si>
+  <si>
     <t>test-manager-service.test-plan.clonePlan</t>
   </si>
   <si>
-    <t>iam_menu_permission-91</t>
+    <t>iam_menu_permission-92</t>
   </si>
   <si>
     <t>test-manager-service.test-plan.create</t>
   </si>
   <si>
-    <t>iam_menu_permission-92</t>
+    <t>iam_menu_permission-93</t>
   </si>
   <si>
     <t>test-manager-service.test-plan.deletePlan</t>
   </si>
   <si>
-    <t>iam_menu_permission-93</t>
+    <t>iam_menu_permission-94</t>
   </si>
   <si>
     <t>test-manager-service.test-plan.query</t>
   </si>
   <si>
-    <t>iam_menu_permission-94</t>
+    <t>iam_menu_permission-95</t>
   </si>
   <si>
     <t>test-manager-service.test-plan.queryInfo</t>
   </si>
   <si>
-    <t>iam_menu_permission-95</t>
+    <t>iam_menu_permission-96</t>
   </si>
   <si>
     <t>test-manager-service.test-plan.queryTree</t>
   </si>
   <si>
-    <t>iam_menu_permission-96</t>
+    <t>iam_menu_permission-97</t>
   </si>
   <si>
     <t>test-manager-service.test-plan.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-97</t>
+    <t>iam_menu_permission-98</t>
   </si>
   <si>
     <t>test-manager-service.test-plan.updateStatus</t>
   </si>
   <si>
-    <t>iam_menu_permission-98</t>
-  </si>
-  <si>
     <t>iam_menu_permission-99</t>
   </si>
   <si>
     <t>iam_menu_permission-100</t>
   </si>
   <si>
+    <t>iam_menu_permission-101</t>
+  </si>
+  <si>
     <t>agile-service.report.queryBurnDownCoordinate</t>
   </si>
   <si>
-    <t>iam_menu_permission-101</t>
+    <t>iam_menu_permission-102</t>
   </si>
   <si>
     <t>agile-service.report.queryBurnDownReport</t>
   </si>
   <si>
-    <t>iam_menu_permission-102</t>
+    <t>iam_menu_permission-103</t>
   </si>
   <si>
     <t>agile-service.report.queryBurnDownReportByType</t>
   </si>
   <si>
-    <t>iam_menu_permission-103</t>
-  </si>
-  <si>
     <t>iam_menu_permission-104</t>
   </si>
   <si>
+    <t>iam_menu_permission-105</t>
+  </si>
+  <si>
     <t>agile-service.sprint.queryNameByOptions</t>
   </si>
   <si>
-    <t>iam_menu_permission-105</t>
+    <t>iam_menu_permission-106</t>
   </si>
   <si>
     <t>agile-service.sprint.queryNonWorkdays</t>
   </si>
   <si>
-    <t>iam_menu_permission-106</t>
-  </si>
-  <si>
     <t>iam_menu_permission-107</t>
   </si>
   <si>
     <t>iam_menu_permission-108</t>
   </si>
   <si>
+    <t>iam_menu_permission-109</t>
+  </si>
+  <si>
     <t>agile-service.sprint.queryIssueByOptions</t>
   </si>
   <si>
-    <t>iam_menu_permission-109</t>
-  </si>
-  <si>
     <t>iam_menu_permission-110</t>
   </si>
   <si>
     <t>iam_menu_permission-111</t>
   </si>
   <si>
+    <t>iam_menu_permission-112</t>
+  </si>
+  <si>
     <t>agile-service.sprint.querySprintById</t>
   </si>
   <si>
-    <t>iam_menu_permission-112</t>
+    <t>iam_menu_permission-113</t>
   </si>
   <si>
     <t>agile-service.board.queryByOptions</t>
   </si>
   <si>
-    <t>iam_menu_permission-113</t>
+    <t>iam_menu_permission-114</t>
   </si>
   <si>
     <t>agile-service.board.queryByProjectId</t>
   </si>
   <si>
-    <t>iam_menu_permission-114</t>
+    <t>iam_menu_permission-115</t>
   </si>
   <si>
     <t>agile-service.project-info.queryProjectInfoByProjectId</t>
   </si>
   <si>
-    <t>iam_menu_permission-115</t>
+    <t>iam_menu_permission-116</t>
   </si>
   <si>
     <t>agile-service.quick-filter.listByProjectId</t>
   </si>
   <si>
-    <t>iam_menu_permission-116</t>
+    <t>iam_menu_permission-117</t>
   </si>
   <si>
     <t>agile-service.report.queryCumulativeFlowDiagram</t>
   </si>
   <si>
-    <t>iam_menu_permission-117</t>
-  </si>
-  <si>
     <t>iam_menu_permission-118</t>
   </si>
   <si>
+    <t>iam_menu_permission-119</t>
+  </si>
+  <si>
     <t>agile-service.product-version.queryNameByOptions</t>
   </si>
   <si>
-    <t>iam_menu_permission-119</t>
+    <t>iam_menu_permission-120</t>
   </si>
   <si>
     <t>agile-service.report.queryVersionChart</t>
   </si>
   <si>
-    <t>iam_menu_permission-120</t>
+    <t>iam_menu_permission-121</t>
   </si>
   <si>
     <t>agile-service.report.queryVersionChartList</t>
   </si>
   <si>
-    <t>iam_menu_permission-121</t>
-  </si>
-  <si>
     <t>iam_menu_permission-122</t>
   </si>
   <si>
+    <t>iam_menu_permission-123</t>
+  </si>
+  <si>
     <t>agile-service.report.queryVelocityChart</t>
   </si>
   <si>
-    <t>iam_menu_permission-123</t>
+    <t>iam_menu_permission-124</t>
   </si>
   <si>
     <t>agile-service.issue.listEpic</t>
   </si>
   <si>
-    <t>iam_menu_permission-124</t>
+    <t>iam_menu_permission-125</t>
   </si>
   <si>
     <t>agile-service.report.queryEpicChart</t>
   </si>
   <si>
-    <t>iam_menu_permission-125</t>
+    <t>iam_menu_permission-126</t>
   </si>
   <si>
     <t>agile-service.report.queryEpicChartList</t>
   </si>
   <si>
-    <t>iam_menu_permission-126</t>
-  </si>
-  <si>
     <t>iam_menu_permission-127</t>
   </si>
   <si>
+    <t>iam_menu_permission-128</t>
+  </si>
+  <si>
     <t>agile-service.report.queryPieChart</t>
   </si>
   <si>
-    <t>iam_menu_permission-128</t>
-  </si>
-  <si>
     <t>iam_menu_permission-129</t>
   </si>
   <si>
     <t>iam_menu_permission-130</t>
   </si>
   <si>
+    <t>iam_menu_permission-131</t>
+  </si>
+  <si>
     <t>agile-service.report.queryBurnDownCoordinateByType</t>
   </si>
   <si>
-    <t>iam_menu_permission-131</t>
-  </si>
-  <si>
     <t>iam_menu_permission-132</t>
   </si>
   <si>
@@ -3169,193 +3172,196 @@
     <t>iam_menu_permission-136</t>
   </si>
   <si>
+    <t>iam_menu_permission-137</t>
+  </si>
+  <si>
     <t>test-manager-service.test-case.createFormsFromIssueToDefect</t>
   </si>
   <si>
-    <t>iam_menu_permission-137</t>
-  </si>
-  <si>
     <t>iam_menu_permission-138</t>
   </si>
   <si>
+    <t>iam_menu_permission-139</t>
+  </si>
+  <si>
     <t>agile-service.product-version.listByProjectId</t>
   </si>
   <si>
-    <t>iam_menu_permission-139</t>
+    <t>iam_menu_permission-140</t>
   </si>
   <si>
     <t>agile-service.scheme.queryStatusByProjectId</t>
   </si>
   <si>
-    <t>iam_menu_permission-140</t>
+    <t>iam_menu_permission-141</t>
   </si>
   <si>
     <t>test-manager-service.test-case.createFormDefectFromIssue</t>
   </si>
   <si>
-    <t>iam_menu_permission-141</t>
+    <t>iam_menu_permission-142</t>
   </si>
   <si>
     <t>test-manager-service.test-case.createFormDefectFromIssueById</t>
   </si>
   <si>
-    <t>iam_menu_permission-142</t>
-  </si>
-  <si>
     <t>iam_menu_permission-143</t>
   </si>
   <si>
     <t>iam_menu_permission-144</t>
   </si>
   <si>
+    <t>iam_menu_permission-145</t>
+  </si>
+  <si>
     <t>test-manager-service.test-plan.allPlan</t>
   </si>
   <si>
-    <t>iam_menu_permission-145</t>
+    <t>iam_menu_permission-146</t>
   </si>
   <si>
     <t>devops-service.app-service.listByActive</t>
   </si>
   <si>
-    <t>iam_menu_permission-146</t>
+    <t>iam_menu_permission-147</t>
   </si>
   <si>
     <t>devops-service.devops-gitlab-commit.getCommits</t>
   </si>
   <si>
-    <t>iam_menu_permission-147</t>
+    <t>iam_menu_permission-148</t>
   </si>
   <si>
     <t>devops-service.devops-gitlab-commit.getRecordCommits</t>
   </si>
   <si>
-    <t>iam_menu_permission-148</t>
+    <t>iam_menu_permission-149</t>
   </si>
   <si>
     <t>devops-service.app-service.getSonarQubeTable</t>
   </si>
   <si>
-    <t>iam_menu_permission-149</t>
-  </si>
-  <si>
     <t>iam_menu_permission-150</t>
   </si>
   <si>
     <t>iam_menu_permission-151</t>
   </si>
   <si>
+    <t>iam_menu_permission-152</t>
+  </si>
+  <si>
     <t>devops-service.devops-gitlab-pipeline.listPipelineFrequency</t>
   </si>
   <si>
-    <t>iam_menu_permission-152</t>
+    <t>iam_menu_permission-153</t>
   </si>
   <si>
     <t>devops-service.devops-gitlab-pipeline.pageByOptions</t>
   </si>
   <si>
-    <t>iam_menu_permission-153</t>
-  </si>
-  <si>
     <t>iam_menu_permission-154</t>
   </si>
   <si>
+    <t>iam_menu_permission-155</t>
+  </si>
+  <si>
     <t>devops-service.devops-gitlab-pipeline.listPipelineTime</t>
   </si>
   <si>
-    <t>iam_menu_permission-155</t>
-  </si>
-  <si>
     <t>iam_menu_permission-156</t>
   </si>
   <si>
+    <t>iam_menu_permission-157</t>
+  </si>
+  <si>
     <t>devops-service.app-service-instance.listDeployTimeReport</t>
   </si>
   <si>
-    <t>iam_menu_permission-157</t>
+    <t>iam_menu_permission-158</t>
   </si>
   <si>
     <t>devops-service.app-service-instance.pageDeployTimeTable</t>
   </si>
   <si>
-    <t>iam_menu_permission-158</t>
+    <t>iam_menu_permission-159</t>
   </si>
   <si>
     <t>devops-service.app-service.listByEnvIdAndStatus</t>
   </si>
   <si>
-    <t>iam_menu_permission-159</t>
+    <t>iam_menu_permission-160</t>
   </si>
   <si>
     <t>devops-service.devops-environment.listByActive</t>
   </si>
   <si>
-    <t>iam_menu_permission-160</t>
+    <t>iam_menu_permission-161</t>
   </si>
   <si>
     <t>devops-service.app-service-instance.listDeployFrequencyReport</t>
   </si>
   <si>
-    <t>iam_menu_permission-161</t>
+    <t>iam_menu_permission-162</t>
   </si>
   <si>
     <t>devops-service.app-service-instance.pageDeployFrequencyDetailTable</t>
   </si>
   <si>
-    <t>iam_menu_permission-162</t>
+    <t>iam_menu_permission-163</t>
   </si>
   <si>
     <t>devops-service.app-service.listAll</t>
   </si>
   <si>
-    <t>iam_menu_permission-163</t>
-  </si>
-  <si>
     <t>iam_menu_permission-164</t>
   </si>
   <si>
     <t>iam_menu_permission-165</t>
   </si>
   <si>
+    <t>iam_menu_permission-166</t>
+  </si>
+  <si>
     <t>test-manager-service.test-priority.create</t>
   </si>
   <si>
-    <t>iam_menu_permission-166</t>
+    <t>iam_menu_permission-167</t>
   </si>
   <si>
     <t>test-manager-service.test-priority.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-167</t>
+    <t>iam_menu_permission-168</t>
   </si>
   <si>
     <t>test-manager-service.test-priority.remove</t>
   </si>
   <si>
-    <t>iam_menu_permission-168</t>
+    <t>iam_menu_permission-169</t>
   </si>
   <si>
     <t>test-manager-service.test-priority.checkDelete</t>
   </si>
   <si>
-    <t>iam_menu_permission-169</t>
+    <t>iam_menu_permission-170</t>
   </si>
   <si>
     <t>test-manager-service.test-priority.checkName</t>
   </si>
   <si>
-    <t>iam_menu_permission-170</t>
+    <t>iam_menu_permission-171</t>
   </si>
   <si>
     <t>test-manager-service.test-priority.updateByList</t>
   </si>
   <si>
-    <t>iam_menu_permission-171</t>
+    <t>iam_menu_permission-172</t>
   </si>
   <si>
     <t>test-manager-service.test-priority.disablePriority</t>
   </si>
   <si>
-    <t>iam_menu_permission-172</t>
+    <t>iam_menu_permission-173</t>
   </si>
   <si>
     <t>test-manager-service.test-priority.enablePriority</t>
@@ -4125,10 +4131,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -4207,16 +4213,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4228,8 +4234,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -4244,23 +4257,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4274,37 +4331,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4319,15 +4348,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4336,22 +4358,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4433,25 +4439,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4469,13 +4493,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4487,7 +4541,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4499,19 +4565,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4523,73 +4607,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4601,19 +4619,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4722,15 +4728,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -4750,6 +4747,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -4760,6 +4781,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4775,30 +4805,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4820,148 +4826,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5672,8 +5678,8 @@
   <sheetPr/>
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H23" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -7488,10 +7494,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G172"/>
+  <dimension ref="A1:G173"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="E176" sqref="E176"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="E181" sqref="E181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
@@ -8141,23 +8147,23 @@
         <v>341</v>
       </c>
       <c r="F57" t="str">
-        <f>菜单SAAS版!$E$38</f>
-        <v>iam_menu-38</v>
+        <f>菜单SAAS版!$E$36</f>
+        <v>iam_menu-36</v>
       </c>
       <c r="G57" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F58" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G58" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="59" spans="5:7">
@@ -8193,55 +8199,55 @@
         <v>iam_menu-38</v>
       </c>
       <c r="G61" t="s">
-        <v>278</v>
+        <v>349</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F62" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G62" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="E63" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F63" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G63" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F64" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G64" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F65" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G65" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
     </row>
     <row r="66" spans="5:7">
@@ -8529,19 +8535,19 @@
         <v>iam_menu-38</v>
       </c>
       <c r="G89" t="s">
-        <v>336</v>
+        <v>401</v>
       </c>
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F90" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G90" t="s">
-        <v>402</v>
+        <v>336</v>
       </c>
     </row>
     <row r="91" spans="5:7">
@@ -8637,31 +8643,31 @@
         <v>iam_menu-38</v>
       </c>
       <c r="G98" t="s">
-        <v>250</v>
+        <v>418</v>
       </c>
     </row>
     <row r="99" spans="5:7">
       <c r="E99" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F99" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G99" t="s">
-        <v>340</v>
+        <v>250</v>
       </c>
     </row>
     <row r="100" spans="5:7">
       <c r="E100" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F100" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
+        <f>菜单SAAS版!$E$38</f>
+        <v>iam_menu-38</v>
       </c>
       <c r="G100" t="s">
-        <v>420</v>
+        <v>340</v>
       </c>
     </row>
     <row r="101" spans="5:7">
@@ -8697,19 +8703,19 @@
         <v>iam_menu-12</v>
       </c>
       <c r="G103" t="s">
-        <v>347</v>
+        <v>426</v>
       </c>
     </row>
     <row r="104" spans="5:7">
       <c r="E104" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F104" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G104" t="s">
-        <v>427</v>
+        <v>349</v>
       </c>
     </row>
     <row r="105" spans="5:7">
@@ -8729,35 +8735,35 @@
         <v>430</v>
       </c>
       <c r="F106" t="str">
-        <f>菜单SAAS版!$E$20</f>
-        <v>iam_menu-20</v>
+        <f>菜单SAAS版!$E$12</f>
+        <v>iam_menu-12</v>
       </c>
       <c r="G106" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="107" spans="5:7">
       <c r="E107" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F107" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G107" t="s">
-        <v>347</v>
+        <v>422</v>
       </c>
     </row>
     <row r="108" spans="5:7">
       <c r="E108" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F108" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G108" t="s">
-        <v>433</v>
+        <v>349</v>
       </c>
     </row>
     <row r="109" spans="5:7">
@@ -8769,12 +8775,12 @@
         <v>iam_menu-20</v>
       </c>
       <c r="G109" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
     </row>
     <row r="110" spans="5:7">
       <c r="E110" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F110" t="str">
         <f>菜单SAAS版!$E$20</f>
@@ -8786,14 +8792,14 @@
     </row>
     <row r="111" spans="5:7">
       <c r="E111" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F111" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G111" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="112" spans="5:7">
@@ -8801,8 +8807,8 @@
         <v>438</v>
       </c>
       <c r="F112" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
+        <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-20</v>
       </c>
       <c r="G112" t="s">
         <v>439</v>
@@ -8865,19 +8871,19 @@
         <v>iam_menu-13</v>
       </c>
       <c r="G117" t="s">
-        <v>347</v>
+        <v>449</v>
       </c>
     </row>
     <row r="118" spans="5:7">
       <c r="E118" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F118" t="str">
-        <f>菜单SAAS版!$E$23</f>
-        <v>iam_menu-23</v>
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="G118" t="s">
-        <v>450</v>
+        <v>349</v>
       </c>
     </row>
     <row r="119" spans="5:7">
@@ -8913,19 +8919,19 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G121" t="s">
-        <v>347</v>
+        <v>456</v>
       </c>
     </row>
     <row r="122" spans="5:7">
       <c r="E122" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F122" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
+        <f>菜单SAAS版!$E$23</f>
+        <v>iam_menu-23</v>
       </c>
       <c r="G122" t="s">
-        <v>457</v>
+        <v>349</v>
       </c>
     </row>
     <row r="123" spans="5:7">
@@ -8933,8 +8939,8 @@
         <v>458</v>
       </c>
       <c r="F123" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
+        <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="G123" t="s">
         <v>459</v>
@@ -8969,23 +8975,23 @@
         <v>464</v>
       </c>
       <c r="F126" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
+        <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-15</v>
       </c>
       <c r="G126" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
     </row>
     <row r="127" spans="5:7">
       <c r="E127" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F127" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-17</v>
       </c>
       <c r="G127" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
     </row>
     <row r="128" spans="5:7">
@@ -8997,31 +9003,31 @@
         <v>iam_menu-17</v>
       </c>
       <c r="G128" t="s">
-        <v>427</v>
+        <v>468</v>
       </c>
     </row>
     <row r="129" spans="5:7">
       <c r="E129" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F129" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
+        <f>菜单SAAS版!$E$17</f>
+        <v>iam_menu-17</v>
       </c>
       <c r="G129" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
     </row>
     <row r="130" spans="5:7">
       <c r="E130" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F130" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-14</v>
       </c>
       <c r="G130" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
     </row>
     <row r="131" spans="5:7">
@@ -9033,67 +9039,67 @@
         <v>iam_menu-14</v>
       </c>
       <c r="G131" t="s">
-        <v>424</v>
+        <v>472</v>
       </c>
     </row>
     <row r="132" spans="5:7">
       <c r="E132" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F132" t="str">
-        <f>菜单SAAS版!$E$22</f>
-        <v>iam_menu-22</v>
+        <f>菜单SAAS版!$E$14</f>
+        <v>iam_menu-14</v>
       </c>
       <c r="G132" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
     </row>
     <row r="133" spans="5:7">
       <c r="E133" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F133" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G133" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
     </row>
     <row r="134" spans="5:7">
       <c r="E134" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F134" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G134" t="s">
-        <v>424</v>
+        <v>472</v>
       </c>
     </row>
     <row r="135" spans="5:7">
       <c r="E135" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F135" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
+        <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
       </c>
       <c r="G135" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="136" spans="5:7">
       <c r="E136" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F136" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G136" t="s">
-        <v>477</v>
+        <v>429</v>
       </c>
     </row>
     <row r="137" spans="5:7">
@@ -9105,19 +9111,19 @@
         <v>iam_menu-19</v>
       </c>
       <c r="G137" t="s">
-        <v>250</v>
+        <v>479</v>
       </c>
     </row>
     <row r="138" spans="5:7">
       <c r="E138" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F138" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
+        <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G138" t="s">
-        <v>480</v>
+        <v>250</v>
       </c>
     </row>
     <row r="139" spans="5:7">
@@ -9165,31 +9171,31 @@
         <v>iam_menu-18</v>
       </c>
       <c r="G142" t="s">
-        <v>250</v>
+        <v>488</v>
       </c>
     </row>
     <row r="143" spans="5:7">
       <c r="E143" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F143" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
+        <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="G143" t="s">
-        <v>379</v>
+        <v>250</v>
       </c>
     </row>
     <row r="144" spans="5:7">
       <c r="E144" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F144" t="str">
         <f>菜单SAAS版!$E$16</f>
         <v>iam_menu-16</v>
       </c>
       <c r="G144" t="s">
-        <v>490</v>
+        <v>381</v>
       </c>
     </row>
     <row r="145" spans="5:7">
@@ -9197,8 +9203,8 @@
         <v>491</v>
       </c>
       <c r="F145" t="str">
-        <f>菜单SAAS版!$E$24</f>
-        <v>iam_menu-24</v>
+        <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="G145" t="s">
         <v>492</v>
@@ -9233,8 +9239,8 @@
         <v>497</v>
       </c>
       <c r="F148" t="str">
-        <f>菜单SAAS版!$E$28</f>
-        <v>iam_menu-28</v>
+        <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-24</v>
       </c>
       <c r="G148" t="s">
         <v>498</v>
@@ -9249,31 +9255,31 @@
         <v>iam_menu-28</v>
       </c>
       <c r="G149" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
     </row>
     <row r="150" spans="5:7">
       <c r="E150" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F150" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
+        <f>菜单SAAS版!$E$28</f>
+        <v>iam_menu-28</v>
       </c>
       <c r="G150" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="151" spans="5:7">
       <c r="E151" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F151" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G151" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="152" spans="5:7">
@@ -9293,23 +9299,23 @@
         <v>505</v>
       </c>
       <c r="F153" t="str">
-        <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-10</v>
+        <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G153" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
     </row>
     <row r="154" spans="5:7">
       <c r="E154" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F154" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G154" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
     </row>
     <row r="155" spans="5:7">
@@ -9321,19 +9327,19 @@
         <v>iam_menu-10</v>
       </c>
       <c r="G155" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="156" spans="5:7">
       <c r="E156" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F156" t="str">
-        <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-10</v>
       </c>
       <c r="G156" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="157" spans="5:7">
@@ -9377,8 +9383,8 @@
         <v>517</v>
       </c>
       <c r="F160" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
+        <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-26</v>
       </c>
       <c r="G160" t="s">
         <v>518</v>
@@ -9417,31 +9423,31 @@
         <v>iam_menu-27</v>
       </c>
       <c r="G163" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
     </row>
     <row r="164" spans="5:7">
       <c r="E164" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F164" t="str">
-        <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
       </c>
       <c r="G164" t="s">
-        <v>340</v>
+        <v>518</v>
       </c>
     </row>
     <row r="165" spans="5:7">
       <c r="E165" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F165" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G165" t="s">
-        <v>526</v>
+        <v>340</v>
       </c>
     </row>
     <row r="166" spans="5:7">
@@ -9526,6 +9532,18 @@
       </c>
       <c r="G172" t="s">
         <v>540</v>
+      </c>
+    </row>
+    <row r="173" spans="5:7">
+      <c r="E173" t="s">
+        <v>541</v>
+      </c>
+      <c r="F173" t="str">
+        <f>菜单SAAS版!$E$41</f>
+        <v>iam_menu-41</v>
+      </c>
+      <c r="G173" t="s">
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -9585,66 +9603,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="H7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="I7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="J7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="K7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="L7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="M7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="N7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="O7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F8" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G8" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H8" t="s">
         <v>83</v>
       </c>
       <c r="I8" t="s">
+        <v>558</v>
+      </c>
+      <c r="J8" t="s">
+        <v>559</v>
+      </c>
+      <c r="K8" t="s">
         <v>556</v>
-      </c>
-      <c r="J8" t="s">
-        <v>557</v>
-      </c>
-      <c r="K8" t="s">
-        <v>554</v>
       </c>
       <c r="M8" t="s">
         <v>83</v>
@@ -9658,25 +9676,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
+        <v>560</v>
+      </c>
+      <c r="F9" t="s">
+        <v>561</v>
+      </c>
+      <c r="G9" t="s">
+        <v>557</v>
+      </c>
+      <c r="H9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" t="s">
         <v>558</v>
       </c>
-      <c r="F9" t="s">
-        <v>559</v>
-      </c>
-      <c r="G9" t="s">
-        <v>555</v>
-      </c>
-      <c r="H9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I9" t="s">
-        <v>556</v>
-      </c>
       <c r="J9" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="K9" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="M9" t="s">
         <v>83</v>
@@ -9690,19 +9708,19 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F10" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G10" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H10" t="s">
         <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M10" t="s">
         <v>83</v>
@@ -9716,19 +9734,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F11" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="G11" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H11" t="s">
         <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -9742,25 +9760,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="F12" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="G12" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H12" t="s">
         <v>83</v>
       </c>
       <c r="I12" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="J12" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="K12" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="M12" t="s">
         <v>83</v>
@@ -9774,22 +9792,22 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F13" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="G13" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H13" t="s">
         <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="J13" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -9803,22 +9821,22 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F14" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="G14" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H14" t="s">
         <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="J14" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -9832,22 +9850,22 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F15" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="G15" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H15" t="s">
         <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="J15" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -9861,22 +9879,22 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F16" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="G16" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H16" t="s">
         <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="J16" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -9890,25 +9908,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="F17" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="G17" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H17" t="s">
         <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="J17" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="K17" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -9922,25 +9940,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="F18" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="G18" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H18" t="s">
         <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="J18" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="K18" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -9954,25 +9972,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F19" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="G19" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H19" t="s">
         <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="J19" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="K19" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="M19" t="s">
         <v>83</v>
@@ -9986,19 +10004,19 @@
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="F20" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="G20" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H20" t="s">
         <v>83</v>
       </c>
       <c r="I20" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M20" t="s">
         <v>83</v>
@@ -10012,25 +10030,25 @@
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="F21" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="G21" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H21" t="s">
         <v>83</v>
       </c>
       <c r="I21" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="J21" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K21" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="M21" t="s">
         <v>80</v>
@@ -10044,25 +10062,25 @@
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="F22" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G22" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H22" t="s">
         <v>83</v>
       </c>
       <c r="I22" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="J22" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="K22" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="M22" t="s">
         <v>80</v>
@@ -10076,25 +10094,25 @@
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="F23" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="G23" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H23" t="s">
         <v>83</v>
       </c>
       <c r="I23" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="J23" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="K23" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="M23" t="s">
         <v>80</v>
@@ -10108,19 +10126,19 @@
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="F24" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="G24" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H24" t="s">
         <v>83</v>
       </c>
       <c r="I24" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M24" t="s">
         <v>80</v>
@@ -10134,22 +10152,22 @@
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="F25" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="G25" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H25" t="s">
         <v>83</v>
       </c>
       <c r="I25" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="J25" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="M25" t="s">
         <v>80</v>
@@ -10163,22 +10181,22 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="F26" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="G26" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H26" t="s">
         <v>83</v>
       </c>
       <c r="I26" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="J26" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="M26" t="s">
         <v>80</v>
@@ -10198,33 +10216,33 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="I28" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F29" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G29" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -10235,15 +10253,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I29" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F30" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -10254,15 +10272,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I30" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F31" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G31" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -10273,15 +10291,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I31" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F32" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G32" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -10292,15 +10310,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I32" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F33" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G33" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -10311,15 +10329,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I33" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F34" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G34" t="str">
         <f>菜单SAAS版!$E$35</f>
@@ -10330,15 +10348,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I34" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F35" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G35" t="str">
         <f>菜单SAAS版!$E$35</f>
@@ -10349,15 +10367,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I35" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="36" spans="5:9">
       <c r="E36" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F36" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G36" t="str">
         <f>菜单SAAS版!$E$35</f>
@@ -10368,15 +10386,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I36" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="37" spans="5:9">
       <c r="E37" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F37" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G37" t="str">
         <f>菜单SAAS版!$E$37</f>
@@ -10387,15 +10405,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I37" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="38" spans="5:9">
       <c r="E38" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F38" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G38" t="str">
         <f>菜单SAAS版!$E$37</f>
@@ -10406,15 +10424,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I38" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="39" spans="5:9">
       <c r="E39" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F39" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G39" t="str">
         <f>菜单SAAS版!$E$37</f>
@@ -10425,15 +10443,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I39" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="40" s="5" customFormat="1" spans="5:9">
       <c r="E40" s="5" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G40" s="5" t="str">
         <f>菜单SAAS版!$E$33</f>
@@ -10444,15 +10462,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="41" spans="5:9">
       <c r="E41" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F41" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G41" t="str">
         <f>菜单SAAS版!$E$33</f>
@@ -10463,15 +10481,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I41" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="42" spans="5:9">
       <c r="E42" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F42" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G42" t="str">
         <f>菜单SAAS版!$E$33</f>
@@ -10482,15 +10500,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I42" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="43" spans="5:9">
       <c r="E43" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F43" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G43" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10501,15 +10519,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I43" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="44" spans="5:9">
       <c r="E44" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F44" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G44" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10520,15 +10538,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I44" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="45" spans="5:9">
       <c r="E45" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F45" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G45" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10539,15 +10557,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I45" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="46" spans="5:9">
       <c r="E46" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F46" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G46" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10558,15 +10576,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I46" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="47" spans="5:9">
       <c r="E47" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F47" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G47" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10577,15 +10595,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I47" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="48" spans="5:9">
       <c r="E48" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F48" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G48" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10596,15 +10614,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I48" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="49" spans="5:9">
       <c r="E49" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F49" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G49" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10615,15 +10633,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I49" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="50" spans="5:9">
       <c r="E50" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F50" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G50" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10634,15 +10652,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I50" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="51" spans="5:9">
       <c r="E51" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F51" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G51" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10653,15 +10671,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I51" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="52" spans="5:9">
       <c r="E52" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F52" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G52" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10672,15 +10690,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I52" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="53" spans="5:9">
       <c r="E53" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F53" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G53" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10691,15 +10709,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I53" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="54" spans="5:9">
       <c r="E54" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F54" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G54" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10710,15 +10728,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I54" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="55" spans="5:9">
       <c r="E55" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F55" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G55" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10729,15 +10747,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I55" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="56" spans="5:9">
       <c r="E56" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F56" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G56" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10748,15 +10766,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I56" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="57" spans="5:9">
       <c r="E57" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F57" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G57" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10767,15 +10785,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I57" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="58" spans="5:9">
       <c r="E58" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F58" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G58" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10786,15 +10804,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I58" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="59" spans="5:9">
       <c r="E59" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F59" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G59" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10805,15 +10823,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I59" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="60" spans="5:9">
       <c r="E60" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F60" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G60" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10824,15 +10842,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I60" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="61" spans="5:9">
       <c r="E61" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F61" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G61" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10843,15 +10861,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I61" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="62" spans="5:9">
       <c r="E62" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F62" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G62" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10862,15 +10880,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I62" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="63" spans="5:9">
       <c r="E63" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F63" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G63" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10881,15 +10899,15 @@
         <v>iam_label-22</v>
       </c>
       <c r="I63" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="64" spans="5:9">
       <c r="E64" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F64" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G64" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10900,15 +10918,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I64" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="65" spans="5:9">
       <c r="E65" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F65" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G65" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10919,15 +10937,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I65" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="66" spans="5:9">
       <c r="E66" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F66" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G66" t="str">
         <f>菜单SAAS版!$E$30</f>
@@ -10938,15 +10956,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I66" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="67" spans="5:9">
       <c r="E67" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F67" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G67" t="str">
         <f>菜单SAAS版!$E$30</f>
@@ -10957,15 +10975,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I67" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="68" spans="5:9">
       <c r="E68" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F68" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G68" t="str">
         <f>菜单SAAS版!$E$30</f>
@@ -10976,15 +10994,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I68" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="69" spans="5:9">
       <c r="E69" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F69" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G69" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -10995,15 +11013,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I69" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="70" spans="5:9">
       <c r="E70" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F70" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G70" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -11014,15 +11032,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I70" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="71" spans="5:9">
       <c r="E71" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F71" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G71" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -11033,15 +11051,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I71" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="72" spans="5:9">
       <c r="E72" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F72" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G72" t="str">
         <f>菜单SAAS版!$E$31</f>
@@ -11052,15 +11070,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I72" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="73" spans="5:9">
       <c r="E73" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F73" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G73" t="str">
         <f>菜单SAAS版!$E$31</f>
@@ -11071,15 +11089,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I73" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="74" spans="5:9">
       <c r="E74" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F74" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G74" t="str">
         <f>菜单SAAS版!$E$34</f>
@@ -11090,15 +11108,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I74" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="75" spans="5:9">
       <c r="E75" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F75" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G75" t="str">
         <f>菜单SAAS版!$E$34</f>
@@ -11109,15 +11127,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I75" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="76" spans="5:9">
       <c r="E76" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F76" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G76" t="str">
         <f>菜单SAAS版!$E$36</f>
@@ -11128,15 +11146,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I76" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="77" spans="5:9">
       <c r="E77" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F77" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G77" t="str">
         <f>菜单SAAS版!$E$36</f>
@@ -11147,15 +11165,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I77" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="78" spans="5:9">
       <c r="E78" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F78" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G78" t="str">
         <f>菜单SAAS版!$E$38</f>
@@ -11166,15 +11184,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I78" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="79" spans="5:9">
       <c r="E79" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F79" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G79" t="str">
         <f>菜单SAAS版!$E$38</f>
@@ -11185,15 +11203,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I79" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="80" customFormat="1" spans="5:9">
       <c r="E80" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F80" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G80" t="str">
         <f>菜单SAAS版!$E$40</f>
@@ -11204,15 +11222,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I80" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="81" customFormat="1" spans="5:9">
       <c r="E81" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F81" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G81" t="str">
         <f>菜单SAAS版!$E$40</f>
@@ -11223,7 +11241,7 @@
         <v>iam_label-26</v>
       </c>
       <c r="I81" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -11281,10 +11299,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -11299,75 +11317,75 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="J7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="O7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="P7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="Q7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="R7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="S7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="T7" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="X7" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="Y7" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="F8" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="G8" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="H8" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="I8" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="J8" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="K8" t="s">
         <v>80</v>
@@ -11400,10 +11418,10 @@
         <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="V8" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="W8" t="s">
         <v>80</v>
@@ -11411,19 +11429,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="F9" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="G9" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="H9" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="I9" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
@@ -11459,10 +11477,10 @@
         <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="V9" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="W9" t="s">
         <v>80</v>
@@ -11470,16 +11488,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="F10" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="G10" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H10" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
@@ -11516,33 +11534,33 @@
         <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="V10" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="W10" t="s">
         <v>80</v>
       </c>
       <c r="X10" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="Y10" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="F11" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="G11" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H11" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
@@ -11579,33 +11597,33 @@
         <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="V11" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="W11" t="s">
         <v>80</v>
       </c>
       <c r="X11" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="Y11" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="F12" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="G12" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H12" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -11642,33 +11660,33 @@
         <v>80</v>
       </c>
       <c r="U12" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="V12" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="W12" t="s">
         <v>80</v>
       </c>
       <c r="X12" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="Y12" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="F13" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G13" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="H13" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
@@ -11705,36 +11723,36 @@
         <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="V13" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="W13" t="s">
         <v>80</v>
       </c>
       <c r="X13" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="Y13" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="F14" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="G14" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H14" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="J14" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -11768,10 +11786,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="V14" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -11785,33 +11803,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="H16" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="I16" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -11822,18 +11840,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H17" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I17" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J17" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -11844,18 +11862,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H18" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I18" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J18" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -11866,18 +11884,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H19" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I19" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J19" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -11888,18 +11906,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H20" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I20" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J20" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -11910,18 +11928,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H21" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I21" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J21" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -11932,18 +11950,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H22" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I22" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J22" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -11954,18 +11972,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H23" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I23" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J23" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -11976,18 +11994,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H24" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I24" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J24" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -11998,18 +12016,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H25" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I25" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J25" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -12020,18 +12038,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H26" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I26" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J26" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -12042,18 +12060,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H27" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I27" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J27" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -12064,18 +12082,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H28" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I28" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J28" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$10</f>
@@ -12086,18 +12104,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H29" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I29" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J29" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$10</f>
@@ -12108,18 +12126,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H30" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I30" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J30" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$10</f>
@@ -12130,18 +12148,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H31" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I31" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J31" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$10</f>
@@ -12152,18 +12170,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H32" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I32" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J32" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$10</f>
@@ -12174,18 +12192,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H33" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I33" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J33" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$10</f>
@@ -12196,18 +12214,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H34" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I34" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J34" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$10</f>
@@ -12218,18 +12236,18 @@
         <v>iam_menu-28</v>
       </c>
       <c r="H35" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I35" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J35" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$10</f>
@@ -12240,18 +12258,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H36" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I36" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J36" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$10</f>
@@ -12262,18 +12280,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H37" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I37" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J37" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$10</f>
@@ -12284,18 +12302,18 @@
         <v>iam_menu-26</v>
       </c>
       <c r="H38" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I38" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J38" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$10</f>
@@ -12306,18 +12324,18 @@
         <v>iam_menu-27</v>
       </c>
       <c r="H39" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I39" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J39" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$10</f>
@@ -12328,18 +12346,18 @@
         <v>iam_menu-41</v>
       </c>
       <c r="H40" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I40" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J40" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="41" spans="5:10">
       <c r="E41" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="F41" t="str">
         <f>角色!$E$12</f>
@@ -12350,18 +12368,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H41" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I41" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J41" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="42" spans="5:10">
       <c r="E42" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="F42" t="str">
         <f>角色!$E$12</f>
@@ -12372,18 +12390,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H42" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I42" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J42" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="43" spans="5:10">
       <c r="E43" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="F43" t="str">
         <f>角色!$E$12</f>
@@ -12394,18 +12412,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H43" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I43" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J43" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="44" spans="5:10">
       <c r="E44" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="F44" t="str">
         <f>角色!$E$12</f>
@@ -12416,18 +12434,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H44" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I44" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J44" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="45" spans="5:10">
       <c r="E45" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="F45" t="str">
         <f>角色!$E$12</f>
@@ -12438,18 +12456,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H45" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I45" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J45" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="46" spans="5:10">
       <c r="E46" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="F46" t="str">
         <f>角色!$E$12</f>
@@ -12460,18 +12478,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H46" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I46" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J46" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="47" spans="5:10">
       <c r="E47" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="F47" t="str">
         <f>角色!$E$12</f>
@@ -12482,18 +12500,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H47" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I47" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J47" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="48" spans="5:10">
       <c r="E48" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="F48" t="str">
         <f>角色!$E$12</f>
@@ -12504,18 +12522,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H48" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I48" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J48" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="49" spans="5:10">
       <c r="E49" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="F49" t="str">
         <f>角色!$E$12</f>
@@ -12526,18 +12544,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H49" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I49" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J49" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="50" spans="5:10">
       <c r="E50" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="F50" t="str">
         <f>角色!$E$12</f>
@@ -12548,18 +12566,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H50" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I50" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J50" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="51" spans="5:10">
       <c r="E51" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="F51" t="str">
         <f>角色!$E$12</f>
@@ -12570,18 +12588,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H51" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I51" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J51" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="52" spans="5:10">
       <c r="E52" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="F52" t="str">
         <f>角色!$E$12</f>
@@ -12592,18 +12610,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H52" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I52" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J52" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="53" spans="5:10">
       <c r="E53" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="F53" t="str">
         <f>角色!$E$12</f>
@@ -12614,18 +12632,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H53" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I53" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J53" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="54" spans="5:10">
       <c r="E54" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="F54" t="str">
         <f>角色!$E$12</f>
@@ -12636,18 +12654,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H54" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I54" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J54" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="55" spans="5:10">
       <c r="E55" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="F55" t="str">
         <f>角色!$E$12</f>
@@ -12658,18 +12676,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H55" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I55" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J55" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="56" spans="5:10">
       <c r="E56" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="F56" t="str">
         <f>角色!$E$12</f>
@@ -12680,18 +12698,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H56" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I56" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J56" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="57" spans="5:10">
       <c r="E57" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="F57" t="str">
         <f>角色!$E$12</f>
@@ -12702,18 +12720,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H57" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I57" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J57" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="58" spans="5:10">
       <c r="E58" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="F58" t="str">
         <f>角色!$E$12</f>
@@ -12724,18 +12742,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H58" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I58" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J58" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="59" spans="5:10">
       <c r="E59" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="F59" t="str">
         <f>角色!$E$12</f>
@@ -12746,18 +12764,18 @@
         <v>iam_menu-28</v>
       </c>
       <c r="H59" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I59" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J59" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="60" spans="5:10">
       <c r="E60" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="F60" t="str">
         <f>角色!$E$12</f>
@@ -12768,18 +12786,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H60" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I60" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J60" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="61" spans="5:10">
       <c r="E61" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="F61" t="str">
         <f>角色!$E$12</f>
@@ -12790,18 +12808,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H61" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I61" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J61" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="62" spans="5:10">
       <c r="E62" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="F62" t="str">
         <f>角色!$E$12</f>
@@ -12812,18 +12830,18 @@
         <v>iam_menu-26</v>
       </c>
       <c r="H62" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I62" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J62" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="63" spans="5:10">
       <c r="E63" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="F63" t="str">
         <f>角色!$E$12</f>
@@ -12834,18 +12852,18 @@
         <v>iam_menu-27</v>
       </c>
       <c r="H63" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I63" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J63" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="64" spans="5:10">
       <c r="E64" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="F64" t="str">
         <f>角色!$E$13</f>
@@ -12856,18 +12874,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H64" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I64" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J64" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="65" spans="5:10">
       <c r="E65" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="F65" t="str">
         <f>角色!$E$13</f>
@@ -12878,18 +12896,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H65" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="I65" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J65" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="66" spans="5:10">
       <c r="E66" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="F66" t="str">
         <f>角色!$E$13</f>
@@ -12900,18 +12918,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H66" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I66" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J66" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="67" spans="5:10">
       <c r="E67" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="F67" t="str">
         <f>角色!$E$13</f>
@@ -12922,18 +12940,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H67" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I67" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J67" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="68" spans="5:10">
       <c r="E68" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="F68" t="str">
         <f>角色!$E$13</f>
@@ -12944,18 +12962,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H68" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I68" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J68" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="69" spans="5:10">
       <c r="E69" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="F69" t="str">
         <f>角色!$E$13</f>
@@ -12966,18 +12984,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H69" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I69" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J69" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="70" spans="5:10">
       <c r="E70" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="F70" t="str">
         <f>角色!$E$13</f>
@@ -12988,18 +13006,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H70" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I70" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J70" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="71" spans="5:10">
       <c r="E71" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="F71" t="str">
         <f>角色!$E$13</f>
@@ -13010,18 +13028,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H71" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I71" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J71" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="72" spans="5:10">
       <c r="E72" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="F72" t="str">
         <f>角色!$E$13</f>
@@ -13032,18 +13050,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H72" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I72" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J72" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="73" spans="5:10">
       <c r="E73" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="F73" t="str">
         <f>角色!$E$13</f>
@@ -13054,18 +13072,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H73" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I73" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J73" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="74" spans="5:10">
       <c r="E74" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="F74" t="str">
         <f>角色!$E$13</f>
@@ -13076,18 +13094,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H74" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I74" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J74" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="75" spans="5:10">
       <c r="E75" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="F75" t="str">
         <f>角色!$E$13</f>
@@ -13098,18 +13116,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H75" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I75" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J75" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="76" spans="5:10">
       <c r="E76" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="F76" t="str">
         <f>角色!$E$13</f>
@@ -13120,18 +13138,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H76" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I76" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J76" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="77" spans="5:10">
       <c r="E77" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="F77" t="str">
         <f>角色!$E$13</f>
@@ -13142,18 +13160,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H77" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I77" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J77" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="78" spans="5:10">
       <c r="E78" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="F78" t="str">
         <f>角色!$E$13</f>
@@ -13164,18 +13182,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H78" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I78" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J78" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="79" spans="5:10">
       <c r="E79" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="F79" t="str">
         <f>角色!$E$13</f>
@@ -13186,18 +13204,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H79" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I79" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J79" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="80" spans="5:10">
       <c r="E80" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="F80" t="str">
         <f>角色!$E$13</f>
@@ -13208,18 +13226,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H80" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I80" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J80" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="81" spans="5:10">
       <c r="E81" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="F81" t="str">
         <f>角色!$E$13</f>
@@ -13230,18 +13248,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H81" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I81" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J81" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="82" spans="5:10">
       <c r="E82" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="F82" t="str">
         <f>角色!$E$13</f>
@@ -13252,18 +13270,18 @@
         <v>iam_menu-28</v>
       </c>
       <c r="H82" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I82" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J82" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="83" spans="5:10">
       <c r="E83" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="F83" t="str">
         <f>角色!$E$13</f>
@@ -13274,18 +13292,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H83" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I83" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J83" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="84" spans="5:10">
       <c r="E84" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="F84" t="str">
         <f>角色!$E$13</f>
@@ -13296,18 +13314,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H84" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I84" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J84" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="85" spans="5:10">
       <c r="E85" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="F85" t="str">
         <f>角色!$E$13</f>
@@ -13318,18 +13336,18 @@
         <v>iam_menu-26</v>
       </c>
       <c r="H85" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I85" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J85" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="86" spans="5:10">
       <c r="E86" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="F86" t="str">
         <f>角色!$E$13</f>
@@ -13340,13 +13358,13 @@
         <v>iam_menu-27</v>
       </c>
       <c r="H86" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I86" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J86" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
   </sheetData>
@@ -13399,66 +13417,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="H7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="I7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="J7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="K7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="L7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="M7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="N7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="O7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F8" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="G8" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H8" t="s">
         <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="J8" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="K8" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="M8" t="s">
         <v>80</v>
@@ -13472,22 +13490,22 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="F9" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="G9" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H9" t="s">
         <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="J9" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
@@ -13501,25 +13519,25 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F10" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="G10" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H10" t="s">
         <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="J10" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="K10" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="M10" t="s">
         <v>80</v>
@@ -13533,25 +13551,25 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F11" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="G11" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H11" t="s">
         <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="J11" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="K11" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -13565,25 +13583,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="F12" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="G12" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H12" t="s">
         <v>83</v>
       </c>
       <c r="I12" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="J12" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="K12" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="M12" t="s">
         <v>80</v>
@@ -13597,25 +13615,25 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F13" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="G13" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H13" t="s">
         <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="J13" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="K13" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -13629,25 +13647,25 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F14" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="G14" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H14" t="s">
         <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="J14" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="K14" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -13661,25 +13679,25 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F15" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="G15" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H15" t="s">
         <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="J15" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="K15" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -13693,25 +13711,25 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F16" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="G16" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H16" t="s">
         <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="J16" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="K16" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -13725,25 +13743,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="F17" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="G17" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H17" t="s">
         <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="J17" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="K17" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -13757,25 +13775,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="F18" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="G18" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H18" t="s">
         <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="J18" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="K18" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -13789,25 +13807,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F19" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="G19" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H19" t="s">
         <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="J19" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="K19" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="M19" t="s">
         <v>80</v>
@@ -13827,33 +13845,33 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="I21" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F22" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="G22" t="str">
         <f>角色!$E$10</f>
@@ -13864,15 +13882,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I22" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F23" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="G23" t="str">
         <f>角色!$E$10</f>
@@ -13883,15 +13901,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I23" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F24" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="G24" t="str">
         <f>角色!$E$10</f>
@@ -13902,15 +13920,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I24" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F25" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="G25" t="str">
         <f>角色!$E$11</f>
@@ -13921,15 +13939,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I25" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="26" spans="5:9">
       <c r="E26" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F26" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="G26" t="str">
         <f>角色!$E$11</f>
@@ -13940,15 +13958,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I26" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="27" spans="5:9">
       <c r="E27" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F27" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="G27" t="str">
         <f>角色!$E$11</f>
@@ -13959,15 +13977,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I27" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="28" spans="5:9">
       <c r="E28" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F28" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
@@ -13978,15 +13996,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I28" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F29" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="G29" t="str">
         <f>角色!$E$12</f>
@@ -13997,15 +14015,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I29" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F30" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="G30" t="str">
         <f>角色!$E$12</f>
@@ -14016,15 +14034,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I30" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F31" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="G31" t="str">
         <f>角色!$E$12</f>
@@ -14035,15 +14053,15 @@
         <v>iam_label-18</v>
       </c>
       <c r="I31" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F32" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
@@ -14054,15 +14072,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I32" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F33" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="G33" t="str">
         <f>角色!$E$13</f>
@@ -14073,15 +14091,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I33" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F34" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="G34" t="str">
         <f>角色!$E$13</f>
@@ -14092,15 +14110,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I34" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F35" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="G35" t="str">
         <f>角色!$E$13</f>
@@ -14111,7 +14129,7 @@
         <v>iam_label-19</v>
       </c>
       <c r="I35" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8675" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="800">
   <si>
     <r>
       <rPr>
@@ -2764,36 +2764,42 @@
     <t>iam_menu_permission-57</t>
   </si>
   <si>
+    <t>test-manager-service.test-issue-folder.cloneTestCaseFolder</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-58</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-case.queryIssueByOptionForAgile</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-59</t>
+  </si>
+  <si>
     <t>test-manager-service.test-issue-folder.checkCopyFolderName</t>
   </si>
   <si>
-    <t>iam_menu_permission-58</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-59</t>
+    <t>iam_menu_permission-60</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-61</t>
   </si>
   <si>
     <t>agile-service.project-object-scheme-field.queryDescriptionTemplate</t>
   </si>
   <si>
-    <t>iam_menu_permission-60</t>
+    <t>iam_menu_permission-62</t>
   </si>
   <si>
     <t>agile-service.issue.listIssueWithoutSubToTestComponent</t>
   </si>
   <si>
-    <t>iam_menu_permission-61</t>
+    <t>iam_menu_permission-63</t>
   </si>
   <si>
     <t>agile-service.scheme.queryIssueTypesWithStateMachineIdByProjectId</t>
   </si>
   <si>
-    <t>iam_menu_permission-62</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-63</t>
-  </si>
-  <si>
     <t>iam_menu_permission-64</t>
   </si>
   <si>
@@ -2803,366 +2809,366 @@
     <t>iam_menu_permission-66</t>
   </si>
   <si>
+    <t>iam_menu_permission-67</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-68</t>
+  </si>
+  <si>
     <t>test-manager-service.test-cycle-case-defect-rel.createIssueAndLinkDefect</t>
   </si>
   <si>
-    <t>iam_menu_permission-67</t>
+    <t>iam_menu_permission-69</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case-defect-rel.insert</t>
   </si>
   <si>
-    <t>iam_menu_permission-68</t>
+    <t>iam_menu_permission-70</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case-defect-rel.removeAttachment</t>
   </si>
   <si>
-    <t>iam_menu_permission-69</t>
+    <t>iam_menu_permission-71</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case-history.query</t>
   </si>
   <si>
-    <t>iam_menu_permission-70</t>
+    <t>iam_menu_permission-72</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case-step.querySubStep</t>
   </si>
   <si>
-    <t>iam_menu_permission-71</t>
+    <t>iam_menu_permission-73</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case-step.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-72</t>
+    <t>iam_menu_permission-74</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.batchAssignCase</t>
   </si>
   <si>
-    <t>iam_menu_permission-73</t>
+    <t>iam_menu_permission-75</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.delete</t>
   </si>
   <si>
-    <t>iam_menu_permission-74</t>
+    <t>iam_menu_permission-76</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.ignoreUpdate</t>
   </si>
   <si>
-    <t>iam_menu_permission-75</t>
+    <t>iam_menu_permission-77</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.importCase</t>
   </si>
   <si>
-    <t>iam_menu_permission-76</t>
+    <t>iam_menu_permission-78</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.listCaseByCycleId</t>
   </si>
   <si>
-    <t>iam_menu_permission-77</t>
+    <t>iam_menu_permission-79</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.queryCaseAndStep</t>
   </si>
   <si>
-    <t>iam_menu_permission-78</t>
+    <t>iam_menu_permission-80</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.queryCaseInfo</t>
   </si>
   <si>
-    <t>iam_menu_permission-79</t>
+    <t>iam_menu_permission-81</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.queryExecutionStatus</t>
   </si>
   <si>
-    <t>iam_menu_permission-80</t>
+    <t>iam_menu_permission-82</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.selectUpdateCompare</t>
   </si>
   <si>
-    <t>iam_menu_permission-81</t>
+    <t>iam_menu_permission-83</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-82</t>
+    <t>iam_menu_permission-84</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.updateCaseAndStep</t>
   </si>
   <si>
-    <t>iam_menu_permission-83</t>
+    <t>iam_menu_permission-85</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle-case.updateCompare</t>
   </si>
   <si>
-    <t>iam_menu_permission-84</t>
+    <t>iam_menu_permission-86</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle.delete</t>
   </si>
   <si>
-    <t>iam_menu_permission-85</t>
+    <t>iam_menu_permission-87</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle.insert</t>
   </si>
   <si>
-    <t>iam_menu_permission-86</t>
+    <t>iam_menu_permission-88</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle.moveFolder</t>
   </si>
   <si>
-    <t>iam_menu_permission-87</t>
+    <t>iam_menu_permission-89</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle.operatePlanCalendar</t>
   </si>
   <si>
-    <t>iam_menu_permission-88</t>
+    <t>iam_menu_permission-90</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle.queryTree</t>
   </si>
   <si>
-    <t>iam_menu_permission-89</t>
+    <t>iam_menu_permission-91</t>
   </si>
   <si>
     <t>test-manager-service.test-cycle.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-90</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-91</t>
+    <t>iam_menu_permission-92</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-93</t>
   </si>
   <si>
     <t>test-manager-service.test-plan.clonePlan</t>
   </si>
   <si>
-    <t>iam_menu_permission-92</t>
+    <t>iam_menu_permission-94</t>
   </si>
   <si>
     <t>test-manager-service.test-plan.create</t>
   </si>
   <si>
-    <t>iam_menu_permission-93</t>
+    <t>iam_menu_permission-95</t>
   </si>
   <si>
     <t>test-manager-service.test-plan.deletePlan</t>
   </si>
   <si>
-    <t>iam_menu_permission-94</t>
+    <t>iam_menu_permission-96</t>
   </si>
   <si>
     <t>test-manager-service.test-plan.query</t>
   </si>
   <si>
-    <t>iam_menu_permission-95</t>
+    <t>iam_menu_permission-97</t>
   </si>
   <si>
     <t>test-manager-service.test-plan.queryInfo</t>
   </si>
   <si>
-    <t>iam_menu_permission-96</t>
+    <t>iam_menu_permission-98</t>
   </si>
   <si>
     <t>test-manager-service.test-plan.queryTree</t>
   </si>
   <si>
-    <t>iam_menu_permission-97</t>
+    <t>iam_menu_permission-99</t>
   </si>
   <si>
     <t>test-manager-service.test-plan.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-98</t>
+    <t>iam_menu_permission-100</t>
   </si>
   <si>
     <t>test-manager-service.test-plan.updateStatus</t>
   </si>
   <si>
-    <t>iam_menu_permission-99</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-100</t>
-  </si>
-  <si>
     <t>iam_menu_permission-101</t>
   </si>
   <si>
+    <t>iam_menu_permission-102</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-103</t>
+  </si>
+  <si>
     <t>agile-service.report.queryBurnDownCoordinate</t>
   </si>
   <si>
-    <t>iam_menu_permission-102</t>
+    <t>iam_menu_permission-104</t>
   </si>
   <si>
     <t>agile-service.report.queryBurnDownReport</t>
   </si>
   <si>
-    <t>iam_menu_permission-103</t>
+    <t>iam_menu_permission-105</t>
   </si>
   <si>
     <t>agile-service.report.queryBurnDownReportByType</t>
   </si>
   <si>
-    <t>iam_menu_permission-104</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-105</t>
+    <t>iam_menu_permission-106</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-107</t>
   </si>
   <si>
     <t>agile-service.sprint.queryNameByOptions</t>
   </si>
   <si>
-    <t>iam_menu_permission-106</t>
+    <t>iam_menu_permission-108</t>
   </si>
   <si>
     <t>agile-service.sprint.queryNonWorkdays</t>
   </si>
   <si>
-    <t>iam_menu_permission-107</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-108</t>
-  </si>
-  <si>
     <t>iam_menu_permission-109</t>
   </si>
   <si>
+    <t>iam_menu_permission-110</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-111</t>
+  </si>
+  <si>
     <t>agile-service.sprint.queryIssueByOptions</t>
   </si>
   <si>
-    <t>iam_menu_permission-110</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-111</t>
-  </si>
-  <si>
     <t>iam_menu_permission-112</t>
   </si>
   <si>
+    <t>iam_menu_permission-113</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-114</t>
+  </si>
+  <si>
     <t>agile-service.sprint.querySprintById</t>
   </si>
   <si>
-    <t>iam_menu_permission-113</t>
+    <t>iam_menu_permission-115</t>
   </si>
   <si>
     <t>agile-service.board.queryByOptions</t>
   </si>
   <si>
-    <t>iam_menu_permission-114</t>
+    <t>iam_menu_permission-116</t>
   </si>
   <si>
     <t>agile-service.board.queryByProjectId</t>
   </si>
   <si>
-    <t>iam_menu_permission-115</t>
+    <t>iam_menu_permission-117</t>
   </si>
   <si>
     <t>agile-service.project-info.queryProjectInfoByProjectId</t>
   </si>
   <si>
-    <t>iam_menu_permission-116</t>
+    <t>iam_menu_permission-118</t>
   </si>
   <si>
     <t>agile-service.quick-filter.listByProjectId</t>
   </si>
   <si>
-    <t>iam_menu_permission-117</t>
+    <t>iam_menu_permission-119</t>
   </si>
   <si>
     <t>agile-service.report.queryCumulativeFlowDiagram</t>
   </si>
   <si>
-    <t>iam_menu_permission-118</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-119</t>
+    <t>iam_menu_permission-120</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-121</t>
   </si>
   <si>
     <t>agile-service.product-version.queryNameByOptions</t>
   </si>
   <si>
-    <t>iam_menu_permission-120</t>
+    <t>iam_menu_permission-122</t>
   </si>
   <si>
     <t>agile-service.report.queryVersionChart</t>
   </si>
   <si>
-    <t>iam_menu_permission-121</t>
+    <t>iam_menu_permission-123</t>
   </si>
   <si>
     <t>agile-service.report.queryVersionChartList</t>
   </si>
   <si>
-    <t>iam_menu_permission-122</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-123</t>
+    <t>iam_menu_permission-124</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-125</t>
   </si>
   <si>
     <t>agile-service.report.queryVelocityChart</t>
   </si>
   <si>
-    <t>iam_menu_permission-124</t>
+    <t>iam_menu_permission-126</t>
   </si>
   <si>
     <t>agile-service.issue.listEpic</t>
   </si>
   <si>
-    <t>iam_menu_permission-125</t>
+    <t>iam_menu_permission-127</t>
   </si>
   <si>
     <t>agile-service.report.queryEpicChart</t>
   </si>
   <si>
-    <t>iam_menu_permission-126</t>
+    <t>iam_menu_permission-128</t>
   </si>
   <si>
     <t>agile-service.report.queryEpicChartList</t>
   </si>
   <si>
-    <t>iam_menu_permission-127</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-128</t>
+    <t>iam_menu_permission-129</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-130</t>
   </si>
   <si>
     <t>agile-service.report.queryPieChart</t>
   </si>
   <si>
-    <t>iam_menu_permission-129</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-130</t>
-  </si>
-  <si>
     <t>iam_menu_permission-131</t>
   </si>
   <si>
+    <t>iam_menu_permission-132</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-133</t>
+  </si>
+  <si>
     <t>agile-service.report.queryBurnDownCoordinateByType</t>
   </si>
   <si>
-    <t>iam_menu_permission-132</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-133</t>
-  </si>
-  <si>
     <t>iam_menu_permission-134</t>
   </si>
   <si>
@@ -3175,193 +3181,199 @@
     <t>iam_menu_permission-137</t>
   </si>
   <si>
+    <t>iam_menu_permission-138</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-139</t>
+  </si>
+  <si>
     <t>test-manager-service.test-case.createFormsFromIssueToDefect</t>
   </si>
   <si>
-    <t>iam_menu_permission-138</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-139</t>
+    <t>iam_menu_permission-140</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-141</t>
   </si>
   <si>
     <t>agile-service.product-version.listByProjectId</t>
   </si>
   <si>
-    <t>iam_menu_permission-140</t>
+    <t>iam_menu_permission-142</t>
   </si>
   <si>
     <t>agile-service.scheme.queryStatusByProjectId</t>
   </si>
   <si>
-    <t>iam_menu_permission-141</t>
+    <t>iam_menu_permission-143</t>
   </si>
   <si>
     <t>test-manager-service.test-case.createFormDefectFromIssue</t>
   </si>
   <si>
-    <t>iam_menu_permission-142</t>
+    <t>iam_menu_permission-144</t>
   </si>
   <si>
     <t>test-manager-service.test-case.createFormDefectFromIssueById</t>
   </si>
   <si>
-    <t>iam_menu_permission-143</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-144</t>
-  </si>
-  <si>
     <t>iam_menu_permission-145</t>
   </si>
   <si>
+    <t>iam_menu_permission-146</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-147</t>
+  </si>
+  <si>
     <t>test-manager-service.test-plan.allPlan</t>
   </si>
   <si>
-    <t>iam_menu_permission-146</t>
+    <t>iam_menu_permission-148</t>
   </si>
   <si>
     <t>devops-service.app-service.listByActive</t>
   </si>
   <si>
-    <t>iam_menu_permission-147</t>
+    <t>iam_menu_permission-149</t>
   </si>
   <si>
     <t>devops-service.devops-gitlab-commit.getCommits</t>
   </si>
   <si>
-    <t>iam_menu_permission-148</t>
+    <t>iam_menu_permission-150</t>
   </si>
   <si>
     <t>devops-service.devops-gitlab-commit.getRecordCommits</t>
   </si>
   <si>
-    <t>iam_menu_permission-149</t>
+    <t>iam_menu_permission-151</t>
   </si>
   <si>
     <t>devops-service.app-service.getSonarQubeTable</t>
   </si>
   <si>
-    <t>iam_menu_permission-150</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-151</t>
-  </si>
-  <si>
     <t>iam_menu_permission-152</t>
   </si>
   <si>
+    <t>iam_menu_permission-153</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-154</t>
+  </si>
+  <si>
     <t>devops-service.devops-gitlab-pipeline.listPipelineFrequency</t>
   </si>
   <si>
-    <t>iam_menu_permission-153</t>
+    <t>iam_menu_permission-155</t>
   </si>
   <si>
     <t>devops-service.devops-gitlab-pipeline.pageByOptions</t>
   </si>
   <si>
-    <t>iam_menu_permission-154</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-155</t>
+    <t>iam_menu_permission-156</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-157</t>
   </si>
   <si>
     <t>devops-service.devops-gitlab-pipeline.listPipelineTime</t>
   </si>
   <si>
-    <t>iam_menu_permission-156</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-157</t>
+    <t>iam_menu_permission-158</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-159</t>
   </si>
   <si>
     <t>devops-service.app-service-instance.listDeployTimeReport</t>
   </si>
   <si>
-    <t>iam_menu_permission-158</t>
+    <t>iam_menu_permission-160</t>
   </si>
   <si>
     <t>devops-service.app-service-instance.pageDeployTimeTable</t>
   </si>
   <si>
-    <t>iam_menu_permission-159</t>
+    <t>iam_menu_permission-161</t>
   </si>
   <si>
     <t>devops-service.app-service.listByEnvIdAndStatus</t>
   </si>
   <si>
-    <t>iam_menu_permission-160</t>
+    <t>iam_menu_permission-162</t>
   </si>
   <si>
     <t>devops-service.devops-environment.listByActive</t>
   </si>
   <si>
-    <t>iam_menu_permission-161</t>
+    <t>iam_menu_permission-163</t>
   </si>
   <si>
     <t>devops-service.app-service-instance.listDeployFrequencyReport</t>
   </si>
   <si>
-    <t>iam_menu_permission-162</t>
+    <t>iam_menu_permission-164</t>
   </si>
   <si>
     <t>devops-service.app-service-instance.pageDeployFrequencyDetailTable</t>
   </si>
   <si>
-    <t>iam_menu_permission-163</t>
+    <t>iam_menu_permission-165</t>
   </si>
   <si>
     <t>devops-service.app-service.listAll</t>
   </si>
   <si>
-    <t>iam_menu_permission-164</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-165</t>
-  </si>
-  <si>
     <t>iam_menu_permission-166</t>
   </si>
   <si>
+    <t>iam_menu_permission-167</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-168</t>
+  </si>
+  <si>
     <t>test-manager-service.test-priority.create</t>
   </si>
   <si>
-    <t>iam_menu_permission-167</t>
+    <t>iam_menu_permission-169</t>
   </si>
   <si>
     <t>test-manager-service.test-priority.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-168</t>
+    <t>iam_menu_permission-170</t>
   </si>
   <si>
     <t>test-manager-service.test-priority.remove</t>
   </si>
   <si>
-    <t>iam_menu_permission-169</t>
+    <t>iam_menu_permission-171</t>
   </si>
   <si>
     <t>test-manager-service.test-priority.checkDelete</t>
   </si>
   <si>
-    <t>iam_menu_permission-170</t>
+    <t>iam_menu_permission-172</t>
   </si>
   <si>
     <t>test-manager-service.test-priority.checkName</t>
   </si>
   <si>
-    <t>iam_menu_permission-171</t>
+    <t>iam_menu_permission-173</t>
   </si>
   <si>
     <t>test-manager-service.test-priority.updateByList</t>
   </si>
   <si>
-    <t>iam_menu_permission-172</t>
+    <t>iam_menu_permission-174</t>
   </si>
   <si>
     <t>test-manager-service.test-priority.disablePriority</t>
   </si>
   <si>
-    <t>iam_menu_permission-173</t>
+    <t>iam_menu_permission-175</t>
   </si>
   <si>
     <t>test-manager-service.test-priority.enablePriority</t>
@@ -4131,10 +4143,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -4213,44 +4225,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4263,8 +4245,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4278,15 +4277,30 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -4309,6 +4323,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -4323,25 +4345,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4349,17 +4361,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4439,13 +4451,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4457,25 +4475,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4493,19 +4505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4517,13 +4517,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4541,7 +4547,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4553,13 +4601,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4571,55 +4631,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4726,13 +4738,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4761,54 +4792,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4823,151 +4806,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5678,8 +5690,8 @@
   <sheetPr/>
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -7494,10 +7506,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G173"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="E181" sqref="E181"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="F180" sqref="F180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
@@ -8159,35 +8171,35 @@
         <v>343</v>
       </c>
       <c r="F58" t="str">
-        <f>菜单SAAS版!$E$38</f>
-        <v>iam_menu-38</v>
+        <f>菜单SAAS版!$E$36</f>
+        <v>iam_menu-36</v>
       </c>
       <c r="G58" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F59" t="str">
-        <f>菜单SAAS版!$E$38</f>
-        <v>iam_menu-38</v>
+        <f>菜单SAAS版!$E$36</f>
+        <v>iam_menu-36</v>
       </c>
       <c r="G59" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F60" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G60" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="61" spans="5:7">
@@ -8211,67 +8223,67 @@
         <v>iam_menu-38</v>
       </c>
       <c r="G62" t="s">
-        <v>278</v>
+        <v>351</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="E63" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F63" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G63" t="s">
-        <v>280</v>
+        <v>353</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F64" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G64" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F65" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G65" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F66" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G66" t="s">
-        <v>355</v>
+        <v>292</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F67" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G67" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
     </row>
     <row r="68" spans="5:7">
@@ -8547,31 +8559,31 @@
         <v>iam_menu-38</v>
       </c>
       <c r="G90" t="s">
-        <v>336</v>
+        <v>403</v>
       </c>
     </row>
     <row r="91" spans="5:7">
       <c r="E91" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F91" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G91" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="92" spans="5:7">
       <c r="E92" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F92" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G92" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="93" spans="5:7">
@@ -8655,43 +8667,43 @@
         <v>iam_menu-38</v>
       </c>
       <c r="G99" t="s">
-        <v>250</v>
+        <v>420</v>
       </c>
     </row>
     <row r="100" spans="5:7">
       <c r="E100" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F100" t="str">
         <f>菜单SAAS版!$E$38</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G100" t="s">
-        <v>340</v>
+        <v>422</v>
       </c>
     </row>
     <row r="101" spans="5:7">
       <c r="E101" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F101" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
+        <f>菜单SAAS版!$E$38</f>
+        <v>iam_menu-38</v>
       </c>
       <c r="G101" t="s">
-        <v>422</v>
+        <v>250</v>
       </c>
     </row>
     <row r="102" spans="5:7">
       <c r="E102" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F102" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
+        <f>菜单SAAS版!$E$38</f>
+        <v>iam_menu-38</v>
       </c>
       <c r="G102" t="s">
-        <v>424</v>
+        <v>340</v>
       </c>
     </row>
     <row r="103" spans="5:7">
@@ -8715,31 +8727,31 @@
         <v>iam_menu-12</v>
       </c>
       <c r="G104" t="s">
-        <v>349</v>
+        <v>428</v>
       </c>
     </row>
     <row r="105" spans="5:7">
       <c r="E105" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F105" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G105" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="106" spans="5:7">
       <c r="E106" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F106" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="G106" t="s">
-        <v>431</v>
+        <v>353</v>
       </c>
     </row>
     <row r="107" spans="5:7">
@@ -8747,83 +8759,83 @@
         <v>432</v>
       </c>
       <c r="F107" t="str">
-        <f>菜单SAAS版!$E$20</f>
-        <v>iam_menu-20</v>
+        <f>菜单SAAS版!$E$12</f>
+        <v>iam_menu-12</v>
       </c>
       <c r="G107" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
     </row>
     <row r="108" spans="5:7">
       <c r="E108" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F108" t="str">
-        <f>菜单SAAS版!$E$20</f>
-        <v>iam_menu-20</v>
+        <f>菜单SAAS版!$E$12</f>
+        <v>iam_menu-12</v>
       </c>
       <c r="G108" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
     </row>
     <row r="109" spans="5:7">
       <c r="E109" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F109" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G109" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="110" spans="5:7">
       <c r="E110" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F110" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G110" t="s">
-        <v>429</v>
+        <v>353</v>
       </c>
     </row>
     <row r="111" spans="5:7">
       <c r="E111" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F111" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G111" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
     </row>
     <row r="112" spans="5:7">
       <c r="E112" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F112" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G112" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="113" spans="5:7">
       <c r="E113" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F113" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
+        <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-20</v>
       </c>
       <c r="G113" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="114" spans="5:7">
@@ -8831,8 +8843,8 @@
         <v>442</v>
       </c>
       <c r="F114" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
+        <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-20</v>
       </c>
       <c r="G114" t="s">
         <v>443</v>
@@ -8883,31 +8895,31 @@
         <v>iam_menu-13</v>
       </c>
       <c r="G118" t="s">
-        <v>349</v>
+        <v>451</v>
       </c>
     </row>
     <row r="119" spans="5:7">
       <c r="E119" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F119" t="str">
-        <f>菜单SAAS版!$E$23</f>
-        <v>iam_menu-23</v>
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="G119" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="120" spans="5:7">
       <c r="E120" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F120" t="str">
-        <f>菜单SAAS版!$E$23</f>
-        <v>iam_menu-23</v>
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="G120" t="s">
-        <v>454</v>
+        <v>353</v>
       </c>
     </row>
     <row r="121" spans="5:7">
@@ -8931,31 +8943,31 @@
         <v>iam_menu-23</v>
       </c>
       <c r="G122" t="s">
-        <v>349</v>
+        <v>458</v>
       </c>
     </row>
     <row r="123" spans="5:7">
       <c r="E123" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F123" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
+        <f>菜单SAAS版!$E$23</f>
+        <v>iam_menu-23</v>
       </c>
       <c r="G123" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="124" spans="5:7">
       <c r="E124" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F124" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
+        <f>菜单SAAS版!$E$23</f>
+        <v>iam_menu-23</v>
       </c>
       <c r="G124" t="s">
-        <v>461</v>
+        <v>353</v>
       </c>
     </row>
     <row r="125" spans="5:7">
@@ -8963,8 +8975,8 @@
         <v>462</v>
       </c>
       <c r="F125" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
+        <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="G125" t="s">
         <v>463</v>
@@ -8987,167 +8999,167 @@
         <v>466</v>
       </c>
       <c r="F127" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
+        <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-15</v>
       </c>
       <c r="G127" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
     </row>
     <row r="128" spans="5:7">
       <c r="E128" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F128" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
+        <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-15</v>
       </c>
       <c r="G128" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="129" spans="5:7">
       <c r="E129" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F129" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-17</v>
       </c>
       <c r="G129" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
     </row>
     <row r="130" spans="5:7">
       <c r="E130" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F130" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
+        <f>菜单SAAS版!$E$17</f>
+        <v>iam_menu-17</v>
       </c>
       <c r="G130" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="131" spans="5:7">
       <c r="E131" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F131" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
+        <f>菜单SAAS版!$E$17</f>
+        <v>iam_menu-17</v>
       </c>
       <c r="G131" t="s">
-        <v>472</v>
+        <v>433</v>
       </c>
     </row>
     <row r="132" spans="5:7">
       <c r="E132" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F132" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-14</v>
       </c>
       <c r="G132" t="s">
-        <v>426</v>
+        <v>465</v>
       </c>
     </row>
     <row r="133" spans="5:7">
       <c r="E133" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F133" t="str">
-        <f>菜单SAAS版!$E$22</f>
-        <v>iam_menu-22</v>
+        <f>菜单SAAS版!$E$14</f>
+        <v>iam_menu-14</v>
       </c>
       <c r="G133" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
     </row>
     <row r="134" spans="5:7">
       <c r="E134" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F134" t="str">
-        <f>菜单SAAS版!$E$22</f>
-        <v>iam_menu-22</v>
+        <f>菜单SAAS版!$E$14</f>
+        <v>iam_menu-14</v>
       </c>
       <c r="G134" t="s">
-        <v>472</v>
+        <v>430</v>
       </c>
     </row>
     <row r="135" spans="5:7">
       <c r="E135" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F135" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G135" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
     </row>
     <row r="136" spans="5:7">
       <c r="E136" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F136" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
+        <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
       </c>
       <c r="G136" t="s">
-        <v>429</v>
+        <v>476</v>
       </c>
     </row>
     <row r="137" spans="5:7">
       <c r="E137" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F137" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
+        <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
       </c>
       <c r="G137" t="s">
-        <v>479</v>
+        <v>430</v>
       </c>
     </row>
     <row r="138" spans="5:7">
       <c r="E138" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F138" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G138" t="s">
-        <v>250</v>
+        <v>433</v>
       </c>
     </row>
     <row r="139" spans="5:7">
       <c r="E139" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F139" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
+        <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G139" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="140" spans="5:7">
       <c r="E140" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F140" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
+        <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G140" t="s">
-        <v>484</v>
+        <v>250</v>
       </c>
     </row>
     <row r="141" spans="5:7">
@@ -9183,43 +9195,43 @@
         <v>iam_menu-18</v>
       </c>
       <c r="G143" t="s">
-        <v>250</v>
+        <v>490</v>
       </c>
     </row>
     <row r="144" spans="5:7">
       <c r="E144" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F144" t="str">
+        <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
+      </c>
+      <c r="G144" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="145" spans="5:7">
+      <c r="E145" t="s">
+        <v>493</v>
+      </c>
+      <c r="F145" t="str">
+        <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
+      </c>
+      <c r="G145" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="146" spans="5:7">
+      <c r="E146" t="s">
+        <v>494</v>
+      </c>
+      <c r="F146" t="str">
         <f>菜单SAAS版!$E$16</f>
         <v>iam_menu-16</v>
       </c>
-      <c r="G144" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="145" spans="5:7">
-      <c r="E145" t="s">
-        <v>491</v>
-      </c>
-      <c r="F145" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="G145" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="146" spans="5:7">
-      <c r="E146" t="s">
-        <v>493</v>
-      </c>
-      <c r="F146" t="str">
-        <f>菜单SAAS版!$E$24</f>
-        <v>iam_menu-24</v>
-      </c>
       <c r="G146" t="s">
-        <v>494</v>
+        <v>385</v>
       </c>
     </row>
     <row r="147" spans="5:7">
@@ -9227,8 +9239,8 @@
         <v>495</v>
       </c>
       <c r="F147" t="str">
-        <f>菜单SAAS版!$E$24</f>
-        <v>iam_menu-24</v>
+        <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="G147" t="s">
         <v>496</v>
@@ -9251,8 +9263,8 @@
         <v>499</v>
       </c>
       <c r="F149" t="str">
-        <f>菜单SAAS版!$E$28</f>
-        <v>iam_menu-28</v>
+        <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-24</v>
       </c>
       <c r="G149" t="s">
         <v>500</v>
@@ -9263,47 +9275,47 @@
         <v>501</v>
       </c>
       <c r="F150" t="str">
+        <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-24</v>
+      </c>
+      <c r="G150" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="151" spans="5:7">
+      <c r="E151" t="s">
+        <v>503</v>
+      </c>
+      <c r="F151" t="str">
         <f>菜单SAAS版!$E$28</f>
         <v>iam_menu-28</v>
       </c>
-      <c r="G150" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="151" spans="5:7">
-      <c r="E151" t="s">
-        <v>502</v>
-      </c>
-      <c r="F151" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
       <c r="G151" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
     </row>
     <row r="152" spans="5:7">
       <c r="E152" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F152" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
+        <f>菜单SAAS版!$E$28</f>
+        <v>iam_menu-28</v>
       </c>
       <c r="G152" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="153" spans="5:7">
       <c r="E153" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F153" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G153" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="154" spans="5:7">
@@ -9311,59 +9323,59 @@
         <v>507</v>
       </c>
       <c r="F154" t="str">
-        <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-10</v>
+        <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G154" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
     </row>
     <row r="155" spans="5:7">
       <c r="E155" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F155" t="str">
-        <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-10</v>
+        <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G155" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="156" spans="5:7">
       <c r="E156" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F156" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
       <c r="G156" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="157" spans="5:7">
       <c r="E157" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F157" t="str">
-        <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-10</v>
       </c>
       <c r="G157" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="158" spans="5:7">
       <c r="E158" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F158" t="str">
-        <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-10</v>
       </c>
       <c r="G158" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="159" spans="5:7">
@@ -9395,8 +9407,8 @@
         <v>519</v>
       </c>
       <c r="F161" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
+        <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-26</v>
       </c>
       <c r="G161" t="s">
         <v>520</v>
@@ -9407,8 +9419,8 @@
         <v>521</v>
       </c>
       <c r="F162" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
+        <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-26</v>
       </c>
       <c r="G162" t="s">
         <v>522</v>
@@ -9435,43 +9447,43 @@
         <v>iam_menu-27</v>
       </c>
       <c r="G164" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
     </row>
     <row r="165" spans="5:7">
       <c r="E165" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F165" t="str">
-        <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
       </c>
       <c r="G165" t="s">
-        <v>340</v>
+        <v>528</v>
       </c>
     </row>
     <row r="166" spans="5:7">
       <c r="E166" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F166" t="str">
-        <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
       </c>
       <c r="G166" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="167" spans="5:7">
       <c r="E167" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F167" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G167" t="s">
-        <v>530</v>
+        <v>340</v>
       </c>
     </row>
     <row r="168" spans="5:7">
@@ -9544,6 +9556,30 @@
       </c>
       <c r="G173" t="s">
         <v>542</v>
+      </c>
+    </row>
+    <row r="174" spans="5:7">
+      <c r="E174" t="s">
+        <v>543</v>
+      </c>
+      <c r="F174" t="str">
+        <f>菜单SAAS版!$E$41</f>
+        <v>iam_menu-41</v>
+      </c>
+      <c r="G174" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="175" spans="5:7">
+      <c r="E175" t="s">
+        <v>545</v>
+      </c>
+      <c r="F175" t="str">
+        <f>菜单SAAS版!$E$41</f>
+        <v>iam_menu-41</v>
+      </c>
+      <c r="G175" t="s">
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -9603,66 +9639,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="H7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="I7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="J7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="K7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="L7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="M7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="N7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="O7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="F8" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="G8" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="H8" t="s">
         <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="J8" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="K8" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="M8" t="s">
         <v>83</v>
@@ -9676,25 +9712,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="F9" t="s">
+        <v>565</v>
+      </c>
+      <c r="G9" t="s">
         <v>561</v>
       </c>
-      <c r="G9" t="s">
-        <v>557</v>
-      </c>
       <c r="H9" t="s">
         <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="J9" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="K9" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="M9" t="s">
         <v>83</v>
@@ -9708,19 +9744,19 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="F10" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="G10" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="H10" t="s">
         <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="M10" t="s">
         <v>83</v>
@@ -9734,19 +9770,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="F11" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="G11" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="H11" t="s">
         <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -9760,25 +9796,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="F12" t="s">
+        <v>573</v>
+      </c>
+      <c r="G12" t="s">
+        <v>561</v>
+      </c>
+      <c r="H12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" t="s">
         <v>569</v>
       </c>
-      <c r="G12" t="s">
-        <v>557</v>
-      </c>
-      <c r="H12" t="s">
-        <v>83</v>
-      </c>
-      <c r="I12" t="s">
-        <v>565</v>
-      </c>
       <c r="J12" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="K12" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="M12" t="s">
         <v>83</v>
@@ -9792,22 +9828,22 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="F13" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="G13" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="H13" t="s">
         <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="J13" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -9821,22 +9857,22 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="F14" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="G14" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="H14" t="s">
         <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="J14" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -9850,22 +9886,22 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="F15" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="G15" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="H15" t="s">
         <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="J15" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -9879,22 +9915,22 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="F16" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="G16" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="H16" t="s">
         <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="J16" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -9908,25 +9944,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="F17" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="G17" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="H17" t="s">
         <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="J17" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="K17" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -9940,25 +9976,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="F18" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="G18" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="H18" t="s">
         <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="J18" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="K18" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -9972,25 +10008,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="F19" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="G19" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="H19" t="s">
         <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="J19" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="K19" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="M19" t="s">
         <v>83</v>
@@ -10004,19 +10040,19 @@
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="F20" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="G20" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="H20" t="s">
         <v>83</v>
       </c>
       <c r="I20" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="M20" t="s">
         <v>83</v>
@@ -10030,25 +10066,25 @@
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="F21" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="G21" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="H21" t="s">
         <v>83</v>
       </c>
       <c r="I21" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="J21" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="K21" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="M21" t="s">
         <v>80</v>
@@ -10062,25 +10098,25 @@
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="F22" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="G22" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="H22" t="s">
         <v>83</v>
       </c>
       <c r="I22" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="J22" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="K22" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="M22" t="s">
         <v>80</v>
@@ -10094,25 +10130,25 @@
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="F23" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="G23" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="H23" t="s">
         <v>83</v>
       </c>
       <c r="I23" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="J23" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="K23" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="M23" t="s">
         <v>80</v>
@@ -10126,19 +10162,19 @@
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="F24" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="G24" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="H24" t="s">
         <v>83</v>
       </c>
       <c r="I24" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="M24" t="s">
         <v>80</v>
@@ -10152,22 +10188,22 @@
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="F25" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="G25" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="H25" t="s">
         <v>83</v>
       </c>
       <c r="I25" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="J25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="M25" t="s">
         <v>80</v>
@@ -10181,22 +10217,22 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="F26" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="G26" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="H26" t="s">
         <v>83</v>
       </c>
       <c r="I26" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="J26" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="M26" t="s">
         <v>80</v>
@@ -10216,33 +10252,33 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="I28" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F29" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G29" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -10253,15 +10289,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I29" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F30" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -10272,15 +10308,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I30" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F31" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G31" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -10291,15 +10327,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I31" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F32" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G32" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -10310,15 +10346,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I32" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F33" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G33" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -10329,15 +10365,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I33" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F34" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G34" t="str">
         <f>菜单SAAS版!$E$35</f>
@@ -10348,15 +10384,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I34" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F35" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G35" t="str">
         <f>菜单SAAS版!$E$35</f>
@@ -10367,15 +10403,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I35" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="36" spans="5:9">
       <c r="E36" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F36" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G36" t="str">
         <f>菜单SAAS版!$E$35</f>
@@ -10386,15 +10422,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I36" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="37" spans="5:9">
       <c r="E37" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F37" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G37" t="str">
         <f>菜单SAAS版!$E$37</f>
@@ -10405,15 +10441,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I37" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="38" spans="5:9">
       <c r="E38" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F38" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G38" t="str">
         <f>菜单SAAS版!$E$37</f>
@@ -10424,15 +10460,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I38" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="39" spans="5:9">
       <c r="E39" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F39" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G39" t="str">
         <f>菜单SAAS版!$E$37</f>
@@ -10443,15 +10479,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I39" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="40" s="5" customFormat="1" spans="5:9">
       <c r="E40" s="5" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G40" s="5" t="str">
         <f>菜单SAAS版!$E$33</f>
@@ -10462,15 +10498,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="41" spans="5:9">
       <c r="E41" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F41" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G41" t="str">
         <f>菜单SAAS版!$E$33</f>
@@ -10481,15 +10517,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I41" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="42" spans="5:9">
       <c r="E42" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F42" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G42" t="str">
         <f>菜单SAAS版!$E$33</f>
@@ -10500,15 +10536,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I42" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="43" spans="5:9">
       <c r="E43" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F43" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G43" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10519,15 +10555,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I43" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="44" spans="5:9">
       <c r="E44" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F44" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G44" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10538,15 +10574,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I44" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="45" spans="5:9">
       <c r="E45" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F45" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G45" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10557,15 +10593,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I45" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="46" spans="5:9">
       <c r="E46" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F46" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G46" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10576,15 +10612,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I46" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="47" spans="5:9">
       <c r="E47" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F47" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G47" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10595,15 +10631,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I47" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="48" spans="5:9">
       <c r="E48" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F48" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G48" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10614,15 +10650,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I48" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="49" spans="5:9">
       <c r="E49" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F49" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G49" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10633,15 +10669,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I49" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="50" spans="5:9">
       <c r="E50" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F50" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G50" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10652,15 +10688,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I50" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="51" spans="5:9">
       <c r="E51" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F51" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G51" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10671,15 +10707,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I51" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="52" spans="5:9">
       <c r="E52" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F52" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G52" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10690,15 +10726,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I52" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="53" spans="5:9">
       <c r="E53" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F53" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G53" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10709,15 +10745,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I53" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="54" spans="5:9">
       <c r="E54" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F54" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G54" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10728,15 +10764,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I54" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="55" spans="5:9">
       <c r="E55" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F55" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G55" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10747,15 +10783,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I55" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="56" spans="5:9">
       <c r="E56" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F56" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G56" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10766,15 +10802,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I56" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="57" spans="5:9">
       <c r="E57" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F57" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G57" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10785,15 +10821,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I57" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="58" spans="5:9">
       <c r="E58" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F58" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G58" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10804,15 +10840,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I58" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="59" spans="5:9">
       <c r="E59" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F59" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G59" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10823,15 +10859,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I59" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="60" spans="5:9">
       <c r="E60" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F60" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G60" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10842,15 +10878,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I60" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="61" spans="5:9">
       <c r="E61" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F61" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G61" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10861,15 +10897,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I61" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="62" spans="5:9">
       <c r="E62" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F62" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G62" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10880,15 +10916,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I62" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="63" spans="5:9">
       <c r="E63" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F63" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G63" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10899,15 +10935,15 @@
         <v>iam_label-22</v>
       </c>
       <c r="I63" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="64" spans="5:9">
       <c r="E64" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F64" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G64" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10918,15 +10954,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I64" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="65" spans="5:9">
       <c r="E65" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F65" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G65" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10937,15 +10973,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I65" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="66" spans="5:9">
       <c r="E66" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F66" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G66" t="str">
         <f>菜单SAAS版!$E$30</f>
@@ -10956,15 +10992,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I66" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="67" spans="5:9">
       <c r="E67" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F67" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G67" t="str">
         <f>菜单SAAS版!$E$30</f>
@@ -10975,15 +11011,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I67" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="68" spans="5:9">
       <c r="E68" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F68" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G68" t="str">
         <f>菜单SAAS版!$E$30</f>
@@ -10994,15 +11030,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I68" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="69" spans="5:9">
       <c r="E69" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F69" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G69" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -11013,15 +11049,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I69" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="70" spans="5:9">
       <c r="E70" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F70" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G70" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -11032,15 +11068,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I70" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="71" spans="5:9">
       <c r="E71" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F71" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G71" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -11051,15 +11087,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I71" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="72" spans="5:9">
       <c r="E72" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F72" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G72" t="str">
         <f>菜单SAAS版!$E$31</f>
@@ -11070,15 +11106,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I72" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="73" spans="5:9">
       <c r="E73" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F73" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G73" t="str">
         <f>菜单SAAS版!$E$31</f>
@@ -11089,15 +11125,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I73" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="74" spans="5:9">
       <c r="E74" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F74" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G74" t="str">
         <f>菜单SAAS版!$E$34</f>
@@ -11108,15 +11144,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I74" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="75" spans="5:9">
       <c r="E75" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F75" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G75" t="str">
         <f>菜单SAAS版!$E$34</f>
@@ -11127,15 +11163,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I75" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="76" spans="5:9">
       <c r="E76" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F76" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G76" t="str">
         <f>菜单SAAS版!$E$36</f>
@@ -11146,15 +11182,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I76" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="77" spans="5:9">
       <c r="E77" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F77" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G77" t="str">
         <f>菜单SAAS版!$E$36</f>
@@ -11165,15 +11201,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I77" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="78" spans="5:9">
       <c r="E78" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F78" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G78" t="str">
         <f>菜单SAAS版!$E$38</f>
@@ -11184,15 +11220,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I78" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="79" spans="5:9">
       <c r="E79" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F79" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G79" t="str">
         <f>菜单SAAS版!$E$38</f>
@@ -11203,15 +11239,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I79" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="80" customFormat="1" spans="5:9">
       <c r="E80" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F80" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G80" t="str">
         <f>菜单SAAS版!$E$40</f>
@@ -11222,15 +11258,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I80" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="81" customFormat="1" spans="5:9">
       <c r="E81" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F81" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G81" t="str">
         <f>菜单SAAS版!$E$40</f>
@@ -11241,7 +11277,7 @@
         <v>iam_label-26</v>
       </c>
       <c r="I81" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>
@@ -11299,10 +11335,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -11317,75 +11353,75 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="J7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="O7" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="P7" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="Q7" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="R7" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="S7" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="T7" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="X7" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="Y7" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="F8" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="G8" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="H8" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="I8" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="J8" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="K8" t="s">
         <v>80</v>
@@ -11418,10 +11454,10 @@
         <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="V8" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="W8" t="s">
         <v>80</v>
@@ -11429,19 +11465,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="F9" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="G9" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="H9" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="I9" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
@@ -11477,10 +11513,10 @@
         <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="V9" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="W9" t="s">
         <v>80</v>
@@ -11488,16 +11524,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="F10" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="G10" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="H10" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
@@ -11534,33 +11570,33 @@
         <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="V10" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="W10" t="s">
         <v>80</v>
       </c>
       <c r="X10" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="Y10" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="F11" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="G11" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="H11" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
@@ -11597,33 +11633,33 @@
         <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="V11" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="W11" t="s">
         <v>80</v>
       </c>
       <c r="X11" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="Y11" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="F12" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="G12" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="H12" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -11660,33 +11696,33 @@
         <v>80</v>
       </c>
       <c r="U12" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="V12" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="W12" t="s">
         <v>80</v>
       </c>
       <c r="X12" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="Y12" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="F13" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="G13" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="H13" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
@@ -11723,36 +11759,36 @@
         <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="V13" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="W13" t="s">
         <v>80</v>
       </c>
       <c r="X13" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="Y13" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="F14" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="G14" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="H14" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="J14" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -11786,10 +11822,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="V14" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -11803,33 +11839,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="H16" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="I16" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -11840,18 +11876,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H17" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I17" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J17" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -11862,18 +11898,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H18" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I18" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J18" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -11884,18 +11920,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H19" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I19" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J19" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -11906,18 +11942,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H20" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I20" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J20" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -11928,18 +11964,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H21" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I21" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J21" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -11950,18 +11986,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H22" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I22" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J22" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -11972,18 +12008,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H23" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I23" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J23" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -11994,18 +12030,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H24" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I24" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J24" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -12016,18 +12052,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H25" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I25" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J25" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -12038,18 +12074,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H26" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I26" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J26" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -12060,18 +12096,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H27" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I27" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J27" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -12082,18 +12118,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H28" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I28" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J28" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$10</f>
@@ -12104,18 +12140,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H29" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I29" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J29" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$10</f>
@@ -12126,18 +12162,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H30" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I30" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J30" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$10</f>
@@ -12148,18 +12184,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H31" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I31" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J31" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$10</f>
@@ -12170,18 +12206,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H32" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I32" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J32" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$10</f>
@@ -12192,18 +12228,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H33" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I33" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J33" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$10</f>
@@ -12214,18 +12250,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H34" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I34" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J34" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$10</f>
@@ -12236,18 +12272,18 @@
         <v>iam_menu-28</v>
       </c>
       <c r="H35" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I35" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J35" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$10</f>
@@ -12258,18 +12294,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H36" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I36" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J36" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$10</f>
@@ -12280,18 +12316,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H37" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I37" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J37" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$10</f>
@@ -12302,18 +12338,18 @@
         <v>iam_menu-26</v>
       </c>
       <c r="H38" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I38" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J38" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$10</f>
@@ -12324,18 +12360,18 @@
         <v>iam_menu-27</v>
       </c>
       <c r="H39" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I39" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J39" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$10</f>
@@ -12346,18 +12382,18 @@
         <v>iam_menu-41</v>
       </c>
       <c r="H40" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I40" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J40" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="41" spans="5:10">
       <c r="E41" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="F41" t="str">
         <f>角色!$E$12</f>
@@ -12368,18 +12404,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H41" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I41" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J41" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="42" spans="5:10">
       <c r="E42" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="F42" t="str">
         <f>角色!$E$12</f>
@@ -12390,18 +12426,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H42" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I42" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J42" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="43" spans="5:10">
       <c r="E43" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="F43" t="str">
         <f>角色!$E$12</f>
@@ -12412,18 +12448,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H43" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I43" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J43" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="44" spans="5:10">
       <c r="E44" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="F44" t="str">
         <f>角色!$E$12</f>
@@ -12434,18 +12470,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H44" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I44" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J44" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="45" spans="5:10">
       <c r="E45" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="F45" t="str">
         <f>角色!$E$12</f>
@@ -12456,18 +12492,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H45" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I45" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J45" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="46" spans="5:10">
       <c r="E46" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="F46" t="str">
         <f>角色!$E$12</f>
@@ -12478,18 +12514,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H46" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I46" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J46" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="47" spans="5:10">
       <c r="E47" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="F47" t="str">
         <f>角色!$E$12</f>
@@ -12500,18 +12536,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H47" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I47" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J47" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="48" spans="5:10">
       <c r="E48" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="F48" t="str">
         <f>角色!$E$12</f>
@@ -12522,18 +12558,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H48" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I48" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J48" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="49" spans="5:10">
       <c r="E49" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="F49" t="str">
         <f>角色!$E$12</f>
@@ -12544,18 +12580,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H49" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I49" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J49" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="50" spans="5:10">
       <c r="E50" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="F50" t="str">
         <f>角色!$E$12</f>
@@ -12566,18 +12602,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H50" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I50" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J50" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="51" spans="5:10">
       <c r="E51" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="F51" t="str">
         <f>角色!$E$12</f>
@@ -12588,18 +12624,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H51" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I51" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J51" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="52" spans="5:10">
       <c r="E52" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="F52" t="str">
         <f>角色!$E$12</f>
@@ -12610,18 +12646,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H52" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I52" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J52" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="53" spans="5:10">
       <c r="E53" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="F53" t="str">
         <f>角色!$E$12</f>
@@ -12632,18 +12668,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H53" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I53" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J53" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="54" spans="5:10">
       <c r="E54" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="F54" t="str">
         <f>角色!$E$12</f>
@@ -12654,18 +12690,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H54" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I54" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J54" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="55" spans="5:10">
       <c r="E55" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="F55" t="str">
         <f>角色!$E$12</f>
@@ -12676,18 +12712,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H55" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I55" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J55" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="56" spans="5:10">
       <c r="E56" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="F56" t="str">
         <f>角色!$E$12</f>
@@ -12698,18 +12734,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H56" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I56" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J56" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="57" spans="5:10">
       <c r="E57" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="F57" t="str">
         <f>角色!$E$12</f>
@@ -12720,18 +12756,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H57" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I57" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J57" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="58" spans="5:10">
       <c r="E58" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="F58" t="str">
         <f>角色!$E$12</f>
@@ -12742,18 +12778,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H58" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I58" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J58" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="59" spans="5:10">
       <c r="E59" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="F59" t="str">
         <f>角色!$E$12</f>
@@ -12764,18 +12800,18 @@
         <v>iam_menu-28</v>
       </c>
       <c r="H59" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I59" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J59" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="60" spans="5:10">
       <c r="E60" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="F60" t="str">
         <f>角色!$E$12</f>
@@ -12786,18 +12822,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H60" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I60" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J60" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="61" spans="5:10">
       <c r="E61" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="F61" t="str">
         <f>角色!$E$12</f>
@@ -12808,18 +12844,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H61" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I61" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J61" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="62" spans="5:10">
       <c r="E62" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="F62" t="str">
         <f>角色!$E$12</f>
@@ -12830,18 +12866,18 @@
         <v>iam_menu-26</v>
       </c>
       <c r="H62" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I62" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J62" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="63" spans="5:10">
       <c r="E63" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="F63" t="str">
         <f>角色!$E$12</f>
@@ -12852,18 +12888,18 @@
         <v>iam_menu-27</v>
       </c>
       <c r="H63" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I63" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J63" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="64" spans="5:10">
       <c r="E64" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="F64" t="str">
         <f>角色!$E$13</f>
@@ -12874,18 +12910,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H64" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I64" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J64" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="65" spans="5:10">
       <c r="E65" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="F65" t="str">
         <f>角色!$E$13</f>
@@ -12896,18 +12932,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H65" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="I65" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J65" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="66" spans="5:10">
       <c r="E66" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="F66" t="str">
         <f>角色!$E$13</f>
@@ -12918,18 +12954,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H66" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I66" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J66" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="67" spans="5:10">
       <c r="E67" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="F67" t="str">
         <f>角色!$E$13</f>
@@ -12940,18 +12976,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H67" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I67" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J67" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="68" spans="5:10">
       <c r="E68" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="F68" t="str">
         <f>角色!$E$13</f>
@@ -12962,18 +12998,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H68" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I68" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J68" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="69" spans="5:10">
       <c r="E69" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="F69" t="str">
         <f>角色!$E$13</f>
@@ -12984,18 +13020,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H69" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I69" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J69" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="70" spans="5:10">
       <c r="E70" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="F70" t="str">
         <f>角色!$E$13</f>
@@ -13006,18 +13042,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H70" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I70" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J70" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="71" spans="5:10">
       <c r="E71" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="F71" t="str">
         <f>角色!$E$13</f>
@@ -13028,18 +13064,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H71" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I71" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J71" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="72" spans="5:10">
       <c r="E72" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="F72" t="str">
         <f>角色!$E$13</f>
@@ -13050,18 +13086,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H72" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I72" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J72" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="73" spans="5:10">
       <c r="E73" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="F73" t="str">
         <f>角色!$E$13</f>
@@ -13072,18 +13108,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H73" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I73" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J73" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="74" spans="5:10">
       <c r="E74" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="F74" t="str">
         <f>角色!$E$13</f>
@@ -13094,18 +13130,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H74" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I74" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J74" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="75" spans="5:10">
       <c r="E75" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="F75" t="str">
         <f>角色!$E$13</f>
@@ -13116,18 +13152,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H75" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I75" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J75" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="76" spans="5:10">
       <c r="E76" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="F76" t="str">
         <f>角色!$E$13</f>
@@ -13138,18 +13174,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H76" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I76" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J76" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="77" spans="5:10">
       <c r="E77" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="F77" t="str">
         <f>角色!$E$13</f>
@@ -13160,18 +13196,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H77" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I77" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J77" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="78" spans="5:10">
       <c r="E78" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="F78" t="str">
         <f>角色!$E$13</f>
@@ -13182,18 +13218,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H78" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I78" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J78" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="79" spans="5:10">
       <c r="E79" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="F79" t="str">
         <f>角色!$E$13</f>
@@ -13204,18 +13240,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H79" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I79" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J79" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="80" spans="5:10">
       <c r="E80" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="F80" t="str">
         <f>角色!$E$13</f>
@@ -13226,18 +13262,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H80" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I80" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J80" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="81" spans="5:10">
       <c r="E81" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="F81" t="str">
         <f>角色!$E$13</f>
@@ -13248,18 +13284,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H81" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I81" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J81" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="82" spans="5:10">
       <c r="E82" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="F82" t="str">
         <f>角色!$E$13</f>
@@ -13270,18 +13306,18 @@
         <v>iam_menu-28</v>
       </c>
       <c r="H82" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I82" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J82" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="83" spans="5:10">
       <c r="E83" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="F83" t="str">
         <f>角色!$E$13</f>
@@ -13292,18 +13328,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H83" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I83" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J83" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="84" spans="5:10">
       <c r="E84" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="F84" t="str">
         <f>角色!$E$13</f>
@@ -13314,18 +13350,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H84" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I84" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J84" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="85" spans="5:10">
       <c r="E85" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="F85" t="str">
         <f>角色!$E$13</f>
@@ -13336,18 +13372,18 @@
         <v>iam_menu-26</v>
       </c>
       <c r="H85" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I85" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J85" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="86" spans="5:10">
       <c r="E86" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F86" t="str">
         <f>角色!$E$13</f>
@@ -13358,13 +13394,13 @@
         <v>iam_menu-27</v>
       </c>
       <c r="H86" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I86" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J86" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
   </sheetData>
@@ -13417,66 +13453,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="H7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="I7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="J7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="K7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="L7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="M7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="N7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="O7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="F8" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="G8" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="H8" t="s">
         <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="J8" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="K8" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="M8" t="s">
         <v>80</v>
@@ -13490,22 +13526,22 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="F9" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="G9" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="H9" t="s">
         <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="J9" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
@@ -13519,25 +13555,25 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="F10" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="G10" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="H10" t="s">
         <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="J10" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="K10" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="M10" t="s">
         <v>80</v>
@@ -13551,25 +13587,25 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="F11" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="G11" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="H11" t="s">
         <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="J11" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="K11" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -13583,25 +13619,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="F12" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="G12" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="H12" t="s">
         <v>83</v>
       </c>
       <c r="I12" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="J12" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="K12" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="M12" t="s">
         <v>80</v>
@@ -13615,25 +13651,25 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="F13" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="G13" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="H13" t="s">
         <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="J13" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="K13" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -13647,25 +13683,25 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="F14" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="G14" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="H14" t="s">
         <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="J14" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="K14" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -13679,25 +13715,25 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="F15" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="G15" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="H15" t="s">
         <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="J15" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="K15" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -13711,25 +13747,25 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="F16" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="G16" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="H16" t="s">
         <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="J16" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="K16" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -13743,25 +13779,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="F17" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="G17" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="H17" t="s">
         <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="J17" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="K17" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -13775,25 +13811,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="F18" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="G18" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="H18" t="s">
         <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="J18" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="K18" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -13807,25 +13843,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="F19" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="G19" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="H19" t="s">
         <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="J19" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="K19" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="M19" t="s">
         <v>80</v>
@@ -13845,33 +13881,33 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="I21" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F22" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="G22" t="str">
         <f>角色!$E$10</f>
@@ -13882,15 +13918,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I22" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F23" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="G23" t="str">
         <f>角色!$E$10</f>
@@ -13901,15 +13937,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I23" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F24" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="G24" t="str">
         <f>角色!$E$10</f>
@@ -13920,15 +13956,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I24" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F25" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="G25" t="str">
         <f>角色!$E$11</f>
@@ -13939,15 +13975,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I25" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="26" spans="5:9">
       <c r="E26" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F26" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="G26" t="str">
         <f>角色!$E$11</f>
@@ -13958,15 +13994,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I26" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="27" spans="5:9">
       <c r="E27" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F27" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="G27" t="str">
         <f>角色!$E$11</f>
@@ -13977,15 +14013,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I27" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="28" spans="5:9">
       <c r="E28" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F28" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
@@ -13996,15 +14032,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I28" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F29" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="G29" t="str">
         <f>角色!$E$12</f>
@@ -14015,15 +14051,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I29" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F30" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="G30" t="str">
         <f>角色!$E$12</f>
@@ -14034,15 +14070,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I30" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F31" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="G31" t="str">
         <f>角色!$E$12</f>
@@ -14053,15 +14089,15 @@
         <v>iam_label-18</v>
       </c>
       <c r="I31" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F32" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
@@ -14072,15 +14108,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I32" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F33" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="G33" t="str">
         <f>角色!$E$13</f>
@@ -14091,15 +14127,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I33" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F34" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="G34" t="str">
         <f>角色!$E$13</f>
@@ -14110,15 +14146,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I34" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F35" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="G35" t="str">
         <f>角色!$E$13</f>
@@ -14129,7 +14165,7 @@
         <v>iam_label-19</v>
       </c>
       <c r="I35" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10670" tabRatio="597" activeTab="3"/>
+    <workbookView windowWidth="21600" windowHeight="10670" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2431,7 +2431,7 @@
     <t>iam_menu_permission-8</t>
   </si>
   <si>
-    <t>hzero-iam.choerodon-project-user.queryReportList</t>
+    <t>choerodon-iam.choerodon-project-user.queryReportList</t>
   </si>
   <si>
     <t>iam_menu_permission-9</t>
@@ -4017,12 +4017,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -4099,7 +4099,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4108,13 +4122,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4128,36 +4142,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4188,6 +4175,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -4195,7 +4189,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4203,7 +4197,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4224,8 +4218,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4242,14 +4244,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4276,13 +4270,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -4295,12 +4282,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -4344,13 +4325,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4362,55 +4397,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4428,7 +4469,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4440,91 +4505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4631,16 +4612,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -4670,13 +4651,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4686,15 +4680,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4714,176 +4699,171 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5346,10 +5326,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5571428571429" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.3285714285714" style="8" customWidth="1"/>
+    <col min="1" max="1" width="15.5571428571429" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.3285714285714" style="7" customWidth="1"/>
     <col min="3" max="3" width="28.1071428571429" customWidth="1"/>
-    <col min="4" max="4" width="35.3285714285714" style="9" customWidth="1"/>
+    <col min="4" max="4" width="35.3285714285714" style="8" customWidth="1"/>
     <col min="5" max="5" width="38.5571428571429" customWidth="1"/>
     <col min="6" max="6" width="23.4428571428571" customWidth="1"/>
     <col min="7" max="7" width="21.5571428571429" customWidth="1"/>
@@ -5363,79 +5343,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="13"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="9"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" ht="49.5" spans="3:6">
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -5443,56 +5423,56 @@
       </c>
     </row>
     <row r="10" ht="49.5" spans="3:5">
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="66" spans="3:5">
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" ht="33" spans="3:5">
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="32" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5502,64 +5482,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" ht="49.5" spans="3:3">
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="36" t="s">
         <v>43</v>
       </c>
     </row>
@@ -7247,8 +7227,8 @@
   <sheetPr/>
   <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -9148,7 +9128,7 @@
   <sheetPr/>
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
@@ -10038,21 +10018,21 @@
       </c>
     </row>
     <row r="40" s="5" customFormat="1" spans="5:9">
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="G40" s="6" t="str">
+      <c r="G40" s="5" t="str">
         <f>菜单SAAS版!$E$33</f>
         <v>iam_menu-33</v>
       </c>
-      <c r="H40" s="6" t="str">
+      <c r="H40" s="5" t="str">
         <f>菜单标签数据!$E$13</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="I40" s="5" t="s">
         <v>583</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="21600" windowHeight="10670" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="806">
   <si>
     <r>
       <rPr>
@@ -3377,6 +3377,24 @@
   </si>
   <si>
     <t>test-manager-service.test-priority.enablePriority</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-176</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.pagedQueryIssues</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-177</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.pagedQueryBugs</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-178</t>
+  </si>
+  <si>
+    <t>test-manager-service.test-plan.reporterInfo</t>
   </si>
   <si>
     <t>标签表</t>
@@ -4145,8 +4163,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -4225,7 +4243,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4239,15 +4319,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4270,54 +4364,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4331,8 +4378,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4342,36 +4390,6 @@
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4451,7 +4469,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4463,7 +4541,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4475,7 +4619,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4487,19 +4631,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4511,127 +4649,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4738,36 +4756,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -4792,6 +4780,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4807,11 +4830,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4824,162 +4853,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5450,22 +5468,22 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.3263888888889" style="7" customWidth="1"/>
-    <col min="3" max="3" width="28.1041666666667" customWidth="1"/>
-    <col min="4" max="4" width="35.3263888888889" style="8" customWidth="1"/>
-    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="15.5571428571429" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.3285714285714" style="7" customWidth="1"/>
+    <col min="3" max="3" width="28.1071428571429" customWidth="1"/>
+    <col min="4" max="4" width="35.3285714285714" style="8" customWidth="1"/>
+    <col min="5" max="5" width="38.5571428571429" customWidth="1"/>
+    <col min="6" max="6" width="23.4428571428571" customWidth="1"/>
+    <col min="7" max="7" width="21.5571428571429" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="24.5571428571429" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1041666666667" customWidth="1"/>
-    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="13.1041666666667" customWidth="1"/>
-    <col min="14" max="1025" width="10.3263888888889" customWidth="1"/>
+    <col min="11" max="11" width="19.1071428571429" customWidth="1"/>
+    <col min="12" max="12" width="18.5571428571429" customWidth="1"/>
+    <col min="13" max="13" width="13.1071428571429" customWidth="1"/>
+    <col min="14" max="1025" width="10.3285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
@@ -5534,7 +5552,7 @@
       </c>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" ht="52.2" spans="3:6">
+    <row r="9" ht="49.5" spans="3:6">
       <c r="C9" s="25" t="s">
         <v>13</v>
       </c>
@@ -5548,7 +5566,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
+    <row r="10" ht="49.5" spans="3:5">
       <c r="C10" s="28" t="s">
         <v>17</v>
       </c>
@@ -5559,7 +5577,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
+    <row r="11" ht="66" spans="3:5">
       <c r="C11" s="22" t="s">
         <v>20</v>
       </c>
@@ -5591,7 +5609,7 @@
       <c r="D14" s="23"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" ht="34.8" spans="3:5">
+    <row r="15" ht="33" spans="3:5">
       <c r="C15" s="30" t="s">
         <v>26</v>
       </c>
@@ -5664,7 +5682,7 @@
       </c>
       <c r="E26" s="13"/>
     </row>
-    <row r="27" ht="52.2" spans="3:3">
+    <row r="27" ht="49.5" spans="3:3">
       <c r="C27" s="36" t="s">
         <v>43</v>
       </c>
@@ -5691,14 +5709,14 @@
   <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="16.8611111111111" customWidth="1"/>
-    <col min="6" max="6" width="40.0833333333333" customWidth="1"/>
-    <col min="7" max="7" width="23.8611111111111" customWidth="1"/>
+    <col min="5" max="5" width="16.8642857142857" customWidth="1"/>
+    <col min="6" max="6" width="40.0857142857143" customWidth="1"/>
+    <col min="7" max="7" width="23.8642857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7506,16 +7524,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G175"/>
+  <dimension ref="A1:G178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="F180" sqref="F180"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="G180" sqref="G180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col min="5" max="5" width="23.8333333333333" customWidth="1"/>
-    <col min="6" max="6" width="12.4166666666667" customWidth="1"/>
+    <col min="5" max="5" width="23.8357142857143" customWidth="1"/>
+    <col min="6" max="6" width="12.4142857142857" customWidth="1"/>
+    <col min="7" max="7" width="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -9580,6 +9599,42 @@
       </c>
       <c r="G175" t="s">
         <v>546</v>
+      </c>
+    </row>
+    <row r="176" spans="5:7">
+      <c r="E176" t="s">
+        <v>547</v>
+      </c>
+      <c r="F176" t="str">
+        <f>菜单SAAS版!$E$38</f>
+        <v>iam_menu-38</v>
+      </c>
+      <c r="G176" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="177" spans="5:7">
+      <c r="E177" t="s">
+        <v>549</v>
+      </c>
+      <c r="F177" t="str">
+        <f>菜单SAAS版!$E$38</f>
+        <v>iam_menu-38</v>
+      </c>
+      <c r="G177" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="178" spans="5:7">
+      <c r="E178" t="s">
+        <v>551</v>
+      </c>
+      <c r="F178" t="str">
+        <f>菜单SAAS版!$E$38</f>
+        <v>iam_menu-38</v>
+      </c>
+      <c r="G178" t="s">
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -9597,13 +9652,13 @@
       <selection activeCell="A82" sqref="$A82:$XFD82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="14.0763888888889" customWidth="1"/>
-    <col min="6" max="6" width="19.5694444444444" customWidth="1"/>
-    <col min="7" max="7" width="18.6458333333333" customWidth="1"/>
-    <col min="8" max="8" width="21.0763888888889" customWidth="1"/>
-    <col min="10" max="10" width="36.5069444444444" customWidth="1"/>
+    <col min="5" max="5" width="14.0785714285714" customWidth="1"/>
+    <col min="6" max="6" width="19.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="18.6428571428571" customWidth="1"/>
+    <col min="8" max="8" width="21.0785714285714" customWidth="1"/>
+    <col min="10" max="10" width="36.5071428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -9639,66 +9694,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="H7" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="I7" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="J7" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="K7" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="L7" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="M7" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="N7" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="O7" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="F8" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="G8" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="H8" t="s">
         <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="J8" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="K8" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="M8" t="s">
         <v>83</v>
@@ -9712,25 +9767,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="F9" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="G9" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="H9" t="s">
         <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="J9" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="K9" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="M9" t="s">
         <v>83</v>
@@ -9744,19 +9799,19 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
+        <v>573</v>
+      </c>
+      <c r="F10" t="s">
+        <v>574</v>
+      </c>
+      <c r="G10" t="s">
         <v>567</v>
       </c>
-      <c r="F10" t="s">
-        <v>568</v>
-      </c>
-      <c r="G10" t="s">
-        <v>561</v>
-      </c>
       <c r="H10" t="s">
         <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="M10" t="s">
         <v>83</v>
@@ -9770,19 +9825,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="F11" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="G11" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="H11" t="s">
         <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -9796,25 +9851,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="F12" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="G12" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="H12" t="s">
         <v>83</v>
       </c>
       <c r="I12" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="J12" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="K12" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="M12" t="s">
         <v>83</v>
@@ -9828,22 +9883,22 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="F13" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="G13" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="H13" t="s">
         <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="J13" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -9857,22 +9912,22 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="F14" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="G14" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="H14" t="s">
         <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="J14" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -9886,22 +9941,22 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="F15" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="G15" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="H15" t="s">
         <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="J15" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -9915,22 +9970,22 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="F16" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="G16" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="H16" t="s">
         <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="J16" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -9944,25 +9999,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="F17" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="G17" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="H17" t="s">
         <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="J17" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="K17" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -9976,25 +10031,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="F18" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="G18" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="H18" t="s">
         <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="J18" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="K18" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -10008,25 +10063,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="F19" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="G19" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="H19" t="s">
         <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="J19" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="K19" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="M19" t="s">
         <v>83</v>
@@ -10040,19 +10095,19 @@
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="F20" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="G20" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="H20" t="s">
         <v>83</v>
       </c>
       <c r="I20" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="M20" t="s">
         <v>83</v>
@@ -10066,25 +10121,25 @@
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="F21" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="G21" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="H21" t="s">
         <v>83</v>
       </c>
       <c r="I21" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="J21" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="K21" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="M21" t="s">
         <v>80</v>
@@ -10098,25 +10153,25 @@
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="F22" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="G22" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="H22" t="s">
         <v>83</v>
       </c>
       <c r="I22" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="J22" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="K22" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="M22" t="s">
         <v>80</v>
@@ -10130,25 +10185,25 @@
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="F23" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="G23" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="H23" t="s">
         <v>83</v>
       </c>
       <c r="I23" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="J23" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="K23" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="M23" t="s">
         <v>80</v>
@@ -10162,19 +10217,19 @@
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="F24" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="G24" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="H24" t="s">
         <v>83</v>
       </c>
       <c r="I24" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="M24" t="s">
         <v>80</v>
@@ -10188,22 +10243,22 @@
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="F25" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="G25" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="H25" t="s">
         <v>83</v>
       </c>
       <c r="I25" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="J25" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="M25" t="s">
         <v>80</v>
@@ -10217,22 +10272,22 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="F26" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="G26" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="H26" t="s">
         <v>83</v>
       </c>
       <c r="I26" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="J26" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="M26" t="s">
         <v>80</v>
@@ -10252,33 +10307,33 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="I28" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F29" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G29" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -10289,15 +10344,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I29" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F30" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -10308,15 +10363,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I30" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F31" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G31" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -10327,15 +10382,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I31" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F32" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G32" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -10346,15 +10401,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I32" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F33" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G33" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -10365,15 +10420,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I33" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F34" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G34" t="str">
         <f>菜单SAAS版!$E$35</f>
@@ -10384,15 +10439,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I34" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F35" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G35" t="str">
         <f>菜单SAAS版!$E$35</f>
@@ -10403,15 +10458,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I35" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="36" spans="5:9">
       <c r="E36" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F36" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G36" t="str">
         <f>菜单SAAS版!$E$35</f>
@@ -10422,15 +10477,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I36" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="37" spans="5:9">
       <c r="E37" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F37" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G37" t="str">
         <f>菜单SAAS版!$E$37</f>
@@ -10441,15 +10496,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I37" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="38" spans="5:9">
       <c r="E38" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F38" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G38" t="str">
         <f>菜单SAAS版!$E$37</f>
@@ -10460,15 +10515,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I38" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="39" spans="5:9">
       <c r="E39" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F39" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G39" t="str">
         <f>菜单SAAS版!$E$37</f>
@@ -10479,15 +10534,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I39" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="40" s="5" customFormat="1" spans="5:9">
       <c r="E40" s="5" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G40" s="5" t="str">
         <f>菜单SAAS版!$E$33</f>
@@ -10498,15 +10553,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="41" spans="5:9">
       <c r="E41" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F41" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G41" t="str">
         <f>菜单SAAS版!$E$33</f>
@@ -10517,15 +10572,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I41" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="42" spans="5:9">
       <c r="E42" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F42" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G42" t="str">
         <f>菜单SAAS版!$E$33</f>
@@ -10536,15 +10591,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I42" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="43" spans="5:9">
       <c r="E43" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F43" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G43" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10555,15 +10610,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I43" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="44" spans="5:9">
       <c r="E44" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F44" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G44" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10574,15 +10629,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I44" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="45" spans="5:9">
       <c r="E45" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F45" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G45" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10593,15 +10648,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I45" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="46" spans="5:9">
       <c r="E46" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F46" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G46" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10612,15 +10667,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I46" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="47" spans="5:9">
       <c r="E47" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F47" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G47" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10631,15 +10686,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I47" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="48" spans="5:9">
       <c r="E48" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F48" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G48" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10650,15 +10705,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I48" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="49" spans="5:9">
       <c r="E49" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F49" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G49" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10669,15 +10724,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I49" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="50" spans="5:9">
       <c r="E50" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F50" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G50" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10688,15 +10743,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I50" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="51" spans="5:9">
       <c r="E51" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F51" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G51" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10707,15 +10762,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I51" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="52" spans="5:9">
       <c r="E52" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F52" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G52" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10726,15 +10781,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I52" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="53" spans="5:9">
       <c r="E53" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F53" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G53" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10745,15 +10800,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I53" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="54" spans="5:9">
       <c r="E54" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F54" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G54" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10764,15 +10819,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I54" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="55" spans="5:9">
       <c r="E55" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F55" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G55" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10783,15 +10838,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I55" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="56" spans="5:9">
       <c r="E56" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F56" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G56" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10802,15 +10857,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I56" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="57" spans="5:9">
       <c r="E57" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F57" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G57" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10821,15 +10876,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I57" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="58" spans="5:9">
       <c r="E58" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F58" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G58" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10840,15 +10895,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I58" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="59" spans="5:9">
       <c r="E59" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F59" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G59" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10859,15 +10914,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I59" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="60" spans="5:9">
       <c r="E60" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F60" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G60" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10878,15 +10933,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I60" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="61" spans="5:9">
       <c r="E61" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F61" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G61" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10897,15 +10952,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I61" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="62" spans="5:9">
       <c r="E62" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F62" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G62" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10916,15 +10971,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I62" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="63" spans="5:9">
       <c r="E63" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F63" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G63" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10935,15 +10990,15 @@
         <v>iam_label-22</v>
       </c>
       <c r="I63" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="64" spans="5:9">
       <c r="E64" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F64" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G64" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10954,15 +11009,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I64" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="65" spans="5:9">
       <c r="E65" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F65" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G65" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10973,15 +11028,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I65" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="66" spans="5:9">
       <c r="E66" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F66" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G66" t="str">
         <f>菜单SAAS版!$E$30</f>
@@ -10992,15 +11047,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I66" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="67" spans="5:9">
       <c r="E67" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F67" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G67" t="str">
         <f>菜单SAAS版!$E$30</f>
@@ -11011,15 +11066,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I67" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="68" spans="5:9">
       <c r="E68" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F68" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G68" t="str">
         <f>菜单SAAS版!$E$30</f>
@@ -11030,15 +11085,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I68" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="69" spans="5:9">
       <c r="E69" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F69" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G69" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -11049,15 +11104,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I69" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="70" spans="5:9">
       <c r="E70" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F70" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G70" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -11068,15 +11123,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I70" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="71" spans="5:9">
       <c r="E71" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F71" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G71" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -11087,15 +11142,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I71" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="72" spans="5:9">
       <c r="E72" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F72" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G72" t="str">
         <f>菜单SAAS版!$E$31</f>
@@ -11106,15 +11161,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I72" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="73" spans="5:9">
       <c r="E73" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F73" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G73" t="str">
         <f>菜单SAAS版!$E$31</f>
@@ -11125,15 +11180,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I73" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="74" spans="5:9">
       <c r="E74" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F74" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G74" t="str">
         <f>菜单SAAS版!$E$34</f>
@@ -11144,15 +11199,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I74" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="75" spans="5:9">
       <c r="E75" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F75" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G75" t="str">
         <f>菜单SAAS版!$E$34</f>
@@ -11163,15 +11218,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I75" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="76" spans="5:9">
       <c r="E76" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F76" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G76" t="str">
         <f>菜单SAAS版!$E$36</f>
@@ -11182,15 +11237,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I76" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="77" spans="5:9">
       <c r="E77" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F77" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G77" t="str">
         <f>菜单SAAS版!$E$36</f>
@@ -11201,15 +11256,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I77" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="78" spans="5:9">
       <c r="E78" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F78" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G78" t="str">
         <f>菜单SAAS版!$E$38</f>
@@ -11220,15 +11275,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I78" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="79" spans="5:9">
       <c r="E79" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F79" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G79" t="str">
         <f>菜单SAAS版!$E$38</f>
@@ -11239,15 +11294,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I79" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="80" customFormat="1" spans="5:9">
       <c r="E80" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F80" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G80" t="str">
         <f>菜单SAAS版!$E$40</f>
@@ -11258,15 +11313,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I80" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="81" customFormat="1" spans="5:9">
       <c r="E81" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F81" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G81" t="str">
         <f>菜单SAAS版!$E$40</f>
@@ -11277,7 +11332,7 @@
         <v>iam_label-26</v>
       </c>
       <c r="I81" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -11295,9 +11350,9 @@
       <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="21.1666666666667" customWidth="1"/>
+    <col min="5" max="5" width="21.1642857142857" customWidth="1"/>
     <col min="6" max="6" width="13.25" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
   </cols>
@@ -11335,10 +11390,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -11353,75 +11408,75 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="J7" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="O7" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="P7" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="Q7" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="R7" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="S7" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="T7" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="X7" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="Y7" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="F8" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="G8" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="H8" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="I8" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="J8" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="K8" t="s">
         <v>80</v>
@@ -11454,10 +11509,10 @@
         <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="V8" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="W8" t="s">
         <v>80</v>
@@ -11465,19 +11520,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="F9" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="G9" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="H9" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="I9" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
@@ -11513,10 +11568,10 @@
         <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="V9" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="W9" t="s">
         <v>80</v>
@@ -11524,16 +11579,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="F10" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="G10" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="H10" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
@@ -11570,33 +11625,33 @@
         <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="V10" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="W10" t="s">
         <v>80</v>
       </c>
       <c r="X10" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="Y10" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="F11" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="G11" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="H11" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
@@ -11633,33 +11688,33 @@
         <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="V11" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="W11" t="s">
         <v>80</v>
       </c>
       <c r="X11" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="Y11" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="F12" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="G12" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="H12" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -11696,33 +11751,33 @@
         <v>80</v>
       </c>
       <c r="U12" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="V12" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="W12" t="s">
         <v>80</v>
       </c>
       <c r="X12" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="Y12" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="F13" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="G13" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="H13" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
@@ -11759,36 +11814,36 @@
         <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="V13" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="W13" t="s">
         <v>80</v>
       </c>
       <c r="X13" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="Y13" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="F14" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="G14" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="H14" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="J14" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -11822,10 +11877,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="V14" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -11839,33 +11894,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="H16" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="I16" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -11876,18 +11931,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H17" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I17" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J17" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -11898,18 +11953,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H18" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I18" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J18" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -11920,18 +11975,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H19" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I19" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J19" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -11942,18 +11997,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H20" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I20" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J20" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -11964,18 +12019,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H21" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I21" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J21" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -11986,18 +12041,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H22" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I22" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J22" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -12008,18 +12063,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H23" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I23" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J23" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -12030,18 +12085,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H24" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I24" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J24" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -12052,18 +12107,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H25" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I25" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J25" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -12074,18 +12129,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H26" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I26" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J26" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -12096,18 +12151,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H27" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I27" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J27" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -12118,18 +12173,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H28" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I28" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J28" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$10</f>
@@ -12140,18 +12195,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H29" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I29" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J29" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$10</f>
@@ -12162,18 +12217,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H30" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I30" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J30" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$10</f>
@@ -12184,18 +12239,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H31" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I31" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J31" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$10</f>
@@ -12206,18 +12261,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H32" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I32" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J32" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$10</f>
@@ -12228,18 +12283,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H33" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I33" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J33" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$10</f>
@@ -12250,18 +12305,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H34" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I34" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J34" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$10</f>
@@ -12272,18 +12327,18 @@
         <v>iam_menu-28</v>
       </c>
       <c r="H35" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I35" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J35" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$10</f>
@@ -12294,18 +12349,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H36" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I36" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J36" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$10</f>
@@ -12316,18 +12371,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H37" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I37" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J37" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$10</f>
@@ -12338,18 +12393,18 @@
         <v>iam_menu-26</v>
       </c>
       <c r="H38" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I38" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J38" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$10</f>
@@ -12360,18 +12415,18 @@
         <v>iam_menu-27</v>
       </c>
       <c r="H39" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I39" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J39" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$10</f>
@@ -12382,18 +12437,18 @@
         <v>iam_menu-41</v>
       </c>
       <c r="H40" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I40" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J40" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="41" spans="5:10">
       <c r="E41" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="F41" t="str">
         <f>角色!$E$12</f>
@@ -12404,18 +12459,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H41" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I41" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J41" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="42" spans="5:10">
       <c r="E42" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="F42" t="str">
         <f>角色!$E$12</f>
@@ -12426,18 +12481,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H42" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I42" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J42" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="43" spans="5:10">
       <c r="E43" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="F43" t="str">
         <f>角色!$E$12</f>
@@ -12448,18 +12503,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H43" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I43" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J43" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="44" spans="5:10">
       <c r="E44" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="F44" t="str">
         <f>角色!$E$12</f>
@@ -12470,18 +12525,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H44" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I44" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J44" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="45" spans="5:10">
       <c r="E45" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="F45" t="str">
         <f>角色!$E$12</f>
@@ -12492,18 +12547,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H45" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I45" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J45" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="46" spans="5:10">
       <c r="E46" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="F46" t="str">
         <f>角色!$E$12</f>
@@ -12514,18 +12569,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H46" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I46" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J46" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="47" spans="5:10">
       <c r="E47" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="F47" t="str">
         <f>角色!$E$12</f>
@@ -12536,18 +12591,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H47" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I47" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J47" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="48" spans="5:10">
       <c r="E48" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="F48" t="str">
         <f>角色!$E$12</f>
@@ -12558,18 +12613,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H48" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I48" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J48" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="49" spans="5:10">
       <c r="E49" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="F49" t="str">
         <f>角色!$E$12</f>
@@ -12580,18 +12635,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H49" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I49" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J49" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="50" spans="5:10">
       <c r="E50" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="F50" t="str">
         <f>角色!$E$12</f>
@@ -12602,18 +12657,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H50" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I50" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J50" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="51" spans="5:10">
       <c r="E51" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="F51" t="str">
         <f>角色!$E$12</f>
@@ -12624,18 +12679,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H51" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I51" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J51" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="52" spans="5:10">
       <c r="E52" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="F52" t="str">
         <f>角色!$E$12</f>
@@ -12646,18 +12701,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H52" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I52" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J52" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="53" spans="5:10">
       <c r="E53" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="F53" t="str">
         <f>角色!$E$12</f>
@@ -12668,18 +12723,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H53" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I53" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J53" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="54" spans="5:10">
       <c r="E54" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="F54" t="str">
         <f>角色!$E$12</f>
@@ -12690,18 +12745,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H54" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I54" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J54" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="55" spans="5:10">
       <c r="E55" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="F55" t="str">
         <f>角色!$E$12</f>
@@ -12712,18 +12767,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H55" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I55" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J55" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="56" spans="5:10">
       <c r="E56" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="F56" t="str">
         <f>角色!$E$12</f>
@@ -12734,18 +12789,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H56" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I56" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J56" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="57" spans="5:10">
       <c r="E57" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="F57" t="str">
         <f>角色!$E$12</f>
@@ -12756,18 +12811,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H57" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I57" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J57" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="58" spans="5:10">
       <c r="E58" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="F58" t="str">
         <f>角色!$E$12</f>
@@ -12778,18 +12833,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H58" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I58" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J58" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="59" spans="5:10">
       <c r="E59" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="F59" t="str">
         <f>角色!$E$12</f>
@@ -12800,18 +12855,18 @@
         <v>iam_menu-28</v>
       </c>
       <c r="H59" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I59" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J59" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="60" spans="5:10">
       <c r="E60" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="F60" t="str">
         <f>角色!$E$12</f>
@@ -12822,18 +12877,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H60" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I60" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J60" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="61" spans="5:10">
       <c r="E61" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="F61" t="str">
         <f>角色!$E$12</f>
@@ -12844,18 +12899,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H61" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I61" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J61" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="62" spans="5:10">
       <c r="E62" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="F62" t="str">
         <f>角色!$E$12</f>
@@ -12866,18 +12921,18 @@
         <v>iam_menu-26</v>
       </c>
       <c r="H62" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I62" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J62" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="63" spans="5:10">
       <c r="E63" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="F63" t="str">
         <f>角色!$E$12</f>
@@ -12888,18 +12943,18 @@
         <v>iam_menu-27</v>
       </c>
       <c r="H63" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I63" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J63" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="64" spans="5:10">
       <c r="E64" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="F64" t="str">
         <f>角色!$E$13</f>
@@ -12910,18 +12965,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H64" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I64" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J64" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="65" spans="5:10">
       <c r="E65" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="F65" t="str">
         <f>角色!$E$13</f>
@@ -12932,18 +12987,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H65" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="I65" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J65" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="66" spans="5:10">
       <c r="E66" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="F66" t="str">
         <f>角色!$E$13</f>
@@ -12954,18 +13009,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H66" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I66" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J66" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="67" spans="5:10">
       <c r="E67" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="F67" t="str">
         <f>角色!$E$13</f>
@@ -12976,18 +13031,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H67" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I67" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J67" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="68" spans="5:10">
       <c r="E68" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="F68" t="str">
         <f>角色!$E$13</f>
@@ -12998,18 +13053,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H68" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I68" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J68" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="69" spans="5:10">
       <c r="E69" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="F69" t="str">
         <f>角色!$E$13</f>
@@ -13020,18 +13075,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H69" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I69" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J69" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="70" spans="5:10">
       <c r="E70" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="F70" t="str">
         <f>角色!$E$13</f>
@@ -13042,18 +13097,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H70" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I70" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J70" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="71" spans="5:10">
       <c r="E71" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="F71" t="str">
         <f>角色!$E$13</f>
@@ -13064,18 +13119,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H71" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I71" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J71" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="72" spans="5:10">
       <c r="E72" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="F72" t="str">
         <f>角色!$E$13</f>
@@ -13086,18 +13141,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H72" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I72" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J72" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="73" spans="5:10">
       <c r="E73" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="F73" t="str">
         <f>角色!$E$13</f>
@@ -13108,18 +13163,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H73" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I73" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J73" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="74" spans="5:10">
       <c r="E74" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="F74" t="str">
         <f>角色!$E$13</f>
@@ -13130,18 +13185,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H74" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I74" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J74" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="75" spans="5:10">
       <c r="E75" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="F75" t="str">
         <f>角色!$E$13</f>
@@ -13152,18 +13207,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H75" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I75" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J75" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="76" spans="5:10">
       <c r="E76" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="F76" t="str">
         <f>角色!$E$13</f>
@@ -13174,18 +13229,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H76" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I76" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J76" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="77" spans="5:10">
       <c r="E77" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="F77" t="str">
         <f>角色!$E$13</f>
@@ -13196,18 +13251,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H77" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I77" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J77" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="78" spans="5:10">
       <c r="E78" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="F78" t="str">
         <f>角色!$E$13</f>
@@ -13218,18 +13273,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H78" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I78" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J78" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="79" spans="5:10">
       <c r="E79" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="F79" t="str">
         <f>角色!$E$13</f>
@@ -13240,18 +13295,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H79" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I79" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J79" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="80" spans="5:10">
       <c r="E80" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="F80" t="str">
         <f>角色!$E$13</f>
@@ -13262,18 +13317,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H80" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I80" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J80" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="81" spans="5:10">
       <c r="E81" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="F81" t="str">
         <f>角色!$E$13</f>
@@ -13284,18 +13339,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H81" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I81" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J81" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="82" spans="5:10">
       <c r="E82" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="F82" t="str">
         <f>角色!$E$13</f>
@@ -13306,18 +13361,18 @@
         <v>iam_menu-28</v>
       </c>
       <c r="H82" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I82" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J82" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="83" spans="5:10">
       <c r="E83" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="F83" t="str">
         <f>角色!$E$13</f>
@@ -13328,18 +13383,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H83" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I83" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J83" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="84" spans="5:10">
       <c r="E84" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="F84" t="str">
         <f>角色!$E$13</f>
@@ -13350,18 +13405,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H84" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I84" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J84" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="85" spans="5:10">
       <c r="E85" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="F85" t="str">
         <f>角色!$E$13</f>
@@ -13372,18 +13427,18 @@
         <v>iam_menu-26</v>
       </c>
       <c r="H85" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I85" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J85" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="86" spans="5:10">
       <c r="E86" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="F86" t="str">
         <f>角色!$E$13</f>
@@ -13394,13 +13449,13 @@
         <v>iam_menu-27</v>
       </c>
       <c r="H86" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I86" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J86" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
   </sheetData>
@@ -13418,7 +13473,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -13453,66 +13508,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="H7" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="I7" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="J7" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="K7" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="L7" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="M7" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="N7" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="O7" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="F8" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="G8" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="H8" t="s">
         <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="J8" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="K8" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="M8" t="s">
         <v>80</v>
@@ -13526,22 +13581,22 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="F9" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="G9" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="H9" t="s">
         <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="J9" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
@@ -13555,25 +13610,25 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="F10" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="G10" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="H10" t="s">
         <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="J10" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="K10" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="M10" t="s">
         <v>80</v>
@@ -13587,25 +13642,25 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="F11" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="G11" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="H11" t="s">
         <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="J11" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="K11" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -13619,25 +13674,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="F12" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="G12" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="H12" t="s">
         <v>83</v>
       </c>
       <c r="I12" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="J12" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="K12" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="M12" t="s">
         <v>80</v>
@@ -13651,25 +13706,25 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="F13" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="G13" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="H13" t="s">
         <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="J13" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="K13" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -13683,25 +13738,25 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="F14" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="G14" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="H14" t="s">
         <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="J14" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="K14" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -13715,25 +13770,25 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="F15" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="G15" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="H15" t="s">
         <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="J15" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="K15" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -13747,25 +13802,25 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="F16" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="G16" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="H16" t="s">
         <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="J16" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="K16" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -13779,25 +13834,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="F17" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="G17" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="H17" t="s">
         <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="J17" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="K17" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -13811,25 +13866,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="F18" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="G18" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="H18" t="s">
         <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="J18" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="K18" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -13843,25 +13898,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="F19" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="G19" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="H19" t="s">
         <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="J19" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="K19" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="M19" t="s">
         <v>80</v>
@@ -13881,33 +13936,33 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="I21" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F22" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="G22" t="str">
         <f>角色!$E$10</f>
@@ -13918,15 +13973,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I22" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F23" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="G23" t="str">
         <f>角色!$E$10</f>
@@ -13937,15 +13992,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I23" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F24" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="G24" t="str">
         <f>角色!$E$10</f>
@@ -13956,15 +14011,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I24" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F25" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="G25" t="str">
         <f>角色!$E$11</f>
@@ -13975,15 +14030,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I25" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="26" spans="5:9">
       <c r="E26" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F26" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="G26" t="str">
         <f>角色!$E$11</f>
@@ -13994,15 +14049,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I26" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="27" spans="5:9">
       <c r="E27" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F27" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="G27" t="str">
         <f>角色!$E$11</f>
@@ -14013,15 +14068,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I27" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="28" spans="5:9">
       <c r="E28" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F28" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
@@ -14032,15 +14087,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I28" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F29" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="G29" t="str">
         <f>角色!$E$12</f>
@@ -14051,15 +14106,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I29" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F30" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="G30" t="str">
         <f>角色!$E$12</f>
@@ -14070,15 +14125,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I30" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F31" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="G31" t="str">
         <f>角色!$E$12</f>
@@ -14089,15 +14144,15 @@
         <v>iam_label-18</v>
       </c>
       <c r="I31" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F32" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
@@ -14108,15 +14163,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I32" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F33" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="G33" t="str">
         <f>角色!$E$13</f>
@@ -14127,15 +14182,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I33" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F34" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="G34" t="str">
         <f>角色!$E$13</f>
@@ -14146,15 +14201,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I34" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F35" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="G35" t="str">
         <f>角色!$E$13</f>
@@ -14165,7 +14220,7 @@
         <v>iam_label-19</v>
       </c>
       <c r="I35" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\agile\test-manager-service\src\main\resources\script\db\init-data\test_manager_service\hzero_platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3838D2-49FA-4AD8-AE98-3B52765CA0E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10670" tabRatio="597" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,18 +26,19 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="780">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -50,6 +57,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -62,6 +70,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -80,6 +89,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -98,6 +108,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -116,6 +127,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -147,6 +159,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -165,6 +178,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -183,6 +197,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -204,6 +219,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -224,6 +240,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -244,6 +261,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -264,6 +282,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -284,6 +303,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -295,6 +315,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -313,6 +334,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -324,6 +346,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -342,6 +365,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -360,6 +384,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -378,6 +403,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -396,6 +422,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -443,6 +470,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -461,6 +489,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -479,6 +508,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -497,6 +527,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -508,6 +539,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -526,6 +558,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -544,6 +577,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -563,6 +597,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -581,6 +616,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -600,6 +636,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -618,6 +655,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -629,6 +667,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -647,6 +686,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -665,6 +705,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -688,6 +729,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -706,6 +748,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -724,6 +767,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -742,6 +786,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -760,6 +805,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -771,6 +817,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -789,6 +836,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -799,6 +847,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -819,6 +868,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -829,6 +879,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -847,6 +898,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -865,6 +917,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -888,6 +941,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -906,6 +960,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -925,6 +980,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -944,6 +1000,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -963,6 +1020,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -983,6 +1041,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1002,6 +1061,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1036,6 +1096,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1056,6 +1117,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1067,6 +1129,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1085,6 +1148,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1105,6 +1169,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1123,6 +1188,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1135,6 +1201,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1153,6 +1220,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1171,6 +1239,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1189,6 +1258,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1203,6 +1273,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1221,6 +1292,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1239,6 +1311,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1257,6 +1330,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1275,6 +1349,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1290,6 +1365,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1299,6 +1375,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1317,6 +1394,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1332,6 +1410,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1341,6 +1420,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1359,6 +1439,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1373,6 +1454,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1391,6 +1473,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1409,6 +1492,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1428,6 +1512,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1451,6 +1536,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1469,6 +1555,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1487,6 +1574,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1506,6 +1594,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1526,6 +1615,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1536,6 +1626,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1545,6 +1636,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1556,6 +1648,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1574,6 +1667,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1592,6 +1686,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1610,6 +1705,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1629,6 +1725,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1647,6 +1744,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1665,6 +1763,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1684,6 +1783,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1702,6 +1802,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1720,6 +1821,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1738,6 +1840,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1757,6 +1860,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1768,6 +1872,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1778,6 +1883,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1787,6 +1893,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1798,6 +1905,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1816,6 +1924,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1827,6 +1936,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1845,6 +1955,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1864,6 +1975,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -3451,18 +3563,9 @@
     <t>iam_label-9</t>
   </si>
   <si>
-    <t>PROJECT_MENU</t>
-  </si>
-  <si>
-    <t>标识项目层菜单</t>
-  </si>
-  <si>
     <t>iam_label-10</t>
   </si>
   <si>
-    <t>HZERO_MENU</t>
-  </si>
-  <si>
     <t>SITE</t>
   </si>
   <si>
@@ -3484,114 +3587,30 @@
     <t>iam_label-13</t>
   </si>
   <si>
-    <t>AGILE_MENU</t>
-  </si>
-  <si>
-    <t>标识敏捷类型菜单</t>
-  </si>
-  <si>
     <t>iam_label-14</t>
   </si>
   <si>
-    <t>GENERAL_MENU</t>
-  </si>
-  <si>
-    <t>标识devops全流程项目菜单</t>
-  </si>
-  <si>
     <t>iam_label-15</t>
   </si>
   <si>
-    <t>PROGRAM_MENU</t>
-  </si>
-  <si>
-    <t>标识项目群项目菜单</t>
-  </si>
-  <si>
     <t>iam_label-16</t>
   </si>
   <si>
-    <t>PROGRAM_PROJECT_MENU</t>
-  </si>
-  <si>
-    <t>标识项目群子项目菜单</t>
-  </si>
-  <si>
     <t>iam_label-17</t>
   </si>
   <si>
-    <t>OPERATIONS_MENU</t>
-  </si>
-  <si>
-    <t>标识运维项目菜单</t>
-  </si>
-  <si>
     <t>iam_label-18</t>
   </si>
   <si>
-    <t>KNOWLEDGE_MENU</t>
-  </si>
-  <si>
-    <t>标识组织层知识库菜单</t>
-  </si>
-  <si>
     <t>iam_label-19</t>
   </si>
   <si>
-    <t>CHOERODON_MENU</t>
-  </si>
-  <si>
-    <t>标识猪齿鱼菜单</t>
-  </si>
-  <si>
     <t>iam_label-20</t>
   </si>
   <si>
     <t>TENANT_GENERAL</t>
   </si>
   <si>
-    <t>iam_label-21</t>
-  </si>
-  <si>
-    <t>AGILE_SERVICE</t>
-  </si>
-  <si>
-    <t>敏捷服务菜单</t>
-  </si>
-  <si>
-    <t>iam_label-22</t>
-  </si>
-  <si>
-    <t>DEVOPS_SERVICE</t>
-  </si>
-  <si>
-    <t>devops服务菜单</t>
-  </si>
-  <si>
-    <t>iam_label-23</t>
-  </si>
-  <si>
-    <t>PLATFORM_SERVICE</t>
-  </si>
-  <si>
-    <t>平台服务标签</t>
-  </si>
-  <si>
-    <t>iam_label-24</t>
-  </si>
-  <si>
-    <t>IAM_SERVICE</t>
-  </si>
-  <si>
-    <t>iam_label-25</t>
-  </si>
-  <si>
-    <t>KNOWLEDGEBASE_SERVICE</t>
-  </si>
-  <si>
-    <t>知识服务菜单</t>
-  </si>
-  <si>
     <t>iam_label-26</t>
   </si>
   <si>
@@ -3625,9 +3644,6 @@
     <t>*</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -4154,19 +4170,36 @@
   </si>
   <si>
     <t>标识gitlab_developer</t>
+  </si>
+  <si>
+    <t>标识个人信息菜单</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识组织层通用菜单（项目、知识库）</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>N_TEST_MENU</t>
+  </si>
+  <si>
+    <t>标识测试管理菜单</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="39">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -4177,37 +4210,39 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <strike/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4215,6 +4250,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4233,6 +4269,7 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4240,157 +4277,6 @@
       <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -4421,12 +4307,14 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4435,8 +4323,21 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4467,194 +4368,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -4755,254 +4470,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5017,20 +4490,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5064,9 +4525,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5074,59 +4532,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -5199,6 +4643,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5456,270 +4903,269 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5571428571429" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.3285714285714" style="7" customWidth="1"/>
-    <col min="3" max="3" width="28.1071428571429" customWidth="1"/>
-    <col min="4" max="4" width="35.3285714285714" style="8" customWidth="1"/>
-    <col min="5" max="5" width="38.5571428571429" customWidth="1"/>
-    <col min="6" max="6" width="23.4428571428571" customWidth="1"/>
-    <col min="7" max="7" width="21.5571428571429" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5571428571429" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1071428571429" customWidth="1"/>
-    <col min="12" max="12" width="18.5571428571429" customWidth="1"/>
-    <col min="13" max="13" width="13.1071428571429" customWidth="1"/>
-    <col min="14" max="1025" width="10.3285714285714" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="9"/>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="13" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="15" t="s">
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="9"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="19" t="s">
+    <row r="7" spans="1:8" ht="18">
+      <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="22" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="24"/>
-    </row>
-    <row r="9" ht="49.5" spans="3:6">
-      <c r="C9" s="25" t="s">
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="51.75">
+      <c r="C9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="23" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="49.5" spans="3:5">
-      <c r="C10" s="28" t="s">
+    <row r="10" spans="1:8" ht="51.75">
+      <c r="C10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="66" spans="3:5">
-      <c r="C11" s="22" t="s">
+    <row r="11" spans="1:8" ht="69">
+      <c r="C11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="22" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-    </row>
-    <row r="15" ht="33" spans="3:5">
-      <c r="C15" s="30" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.5">
+      <c r="C15" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="34" t="s">
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+    </row>
+    <row r="20" spans="3:5" ht="18">
+      <c r="C20" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="34" t="s">
+    <row r="21" spans="3:5" ht="18">
+      <c r="C21" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="34" t="s">
+    <row r="22" spans="3:5" ht="18">
+      <c r="C22" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="34" t="s">
+    <row r="23" spans="3:5" ht="18">
+      <c r="C23" s="29" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="35" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="23" t="s">
+      <c r="E25" s="37"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" ht="49.5" spans="3:3">
-      <c r="C27" s="36" t="s">
+      <c r="E26" s="37"/>
+    </row>
+    <row r="27" spans="3:5" ht="51.75">
+      <c r="C27" s="31" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="16.8642857142857" customWidth="1"/>
-    <col min="6" max="6" width="40.0857142857143" customWidth="1"/>
-    <col min="7" max="7" width="23.8642857142857" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="51.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5733,7 +5179,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -5821,7 +5267,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="5:24">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -5871,7 +5317,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="5:24">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>85</v>
       </c>
@@ -5928,7 +5374,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="5:24">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>94</v>
       </c>
@@ -5976,7 +5422,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="5:24">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>100</v>
       </c>
@@ -6024,7 +5470,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="5:24">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>104</v>
       </c>
@@ -6072,7 +5518,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="5:24">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>108</v>
       </c>
@@ -6120,7 +5566,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="5:24">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>112</v>
       </c>
@@ -6168,7 +5614,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="5:24">
+    <row r="15" spans="1:25">
       <c r="E15" t="s">
         <v>116</v>
       </c>
@@ -6216,7 +5662,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="5:24">
+    <row r="16" spans="1:25">
       <c r="E16" t="s">
         <v>120</v>
       </c>
@@ -7516,28 +6962,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G180" sqref="G180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="23.8357142857143" customWidth="1"/>
-    <col min="6" max="6" width="12.4142857142857" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
     <col min="7" max="7" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -7551,7 +6996,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -7585,7 +7030,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="5:7">
+    <row r="8" spans="1:7">
       <c r="E8" t="s">
         <v>243</v>
       </c>
@@ -7597,7 +7042,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="5:7">
+    <row r="9" spans="1:7">
       <c r="E9" t="s">
         <v>245</v>
       </c>
@@ -7609,7 +7054,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="5:7">
+    <row r="10" spans="1:7">
       <c r="E10" t="s">
         <v>247</v>
       </c>
@@ -7621,7 +7066,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="5:7">
+    <row r="11" spans="1:7">
       <c r="E11" t="s">
         <v>249</v>
       </c>
@@ -7633,7 +7078,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="5:7">
+    <row r="12" spans="1:7">
       <c r="E12" t="s">
         <v>251</v>
       </c>
@@ -7645,7 +7090,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="5:7">
+    <row r="13" spans="1:7">
       <c r="E13" t="s">
         <v>253</v>
       </c>
@@ -7657,7 +7102,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="5:7">
+    <row r="14" spans="1:7">
       <c r="E14" t="s">
         <v>255</v>
       </c>
@@ -7669,7 +7114,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="5:7">
+    <row r="15" spans="1:7">
       <c r="E15" t="s">
         <v>257</v>
       </c>
@@ -7681,7 +7126,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="5:7">
+    <row r="16" spans="1:7">
       <c r="E16" t="s">
         <v>259</v>
       </c>
@@ -9638,30 +9083,31 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:O81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="A82" sqref="$A82:$XFD82"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="14.0785714285714" customWidth="1"/>
-    <col min="6" max="6" width="19.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="18.6428571428571" customWidth="1"/>
-    <col min="8" max="8" width="21.0785714285714" customWidth="1"/>
-    <col min="10" max="10" width="36.5071428571429" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" customWidth="1"/>
+    <col min="10" max="10" width="36.5546875" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -9675,7 +9121,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -9687,1677 +9133,508 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" t="s">
+      <c r="A7" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="32" t="s">
         <v>553</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="33" t="s">
         <v>554</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="35" t="s">
         <v>555</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="35" t="s">
         <v>556</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="32" t="s">
         <v>557</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="32" t="s">
         <v>558</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="32" t="s">
         <v>559</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="32" t="s">
         <v>560</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="32" t="s">
         <v>561</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="32" t="s">
         <v>562</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="32" t="s">
         <v>563</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="32" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
-      <c r="E8" t="s">
+    <row r="8" spans="1:15">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32" t="s">
         <v>565</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="32" t="s">
         <v>566</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="32" t="s">
         <v>567</v>
       </c>
-      <c r="H8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="H8" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="32" t="s">
         <v>568</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="32" t="s">
         <v>569</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="32" t="s">
         <v>566</v>
       </c>
-      <c r="M8" t="s">
-        <v>83</v>
-      </c>
-      <c r="N8" t="s">
-        <v>83</v>
-      </c>
-      <c r="O8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="5:15">
-      <c r="E9" t="s">
-        <v>570</v>
-      </c>
-      <c r="F9" t="s">
-        <v>571</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="L8" s="32"/>
+      <c r="M8" s="32">
+        <v>0</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="O8" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32" t="s">
+        <v>573</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>574</v>
+      </c>
+      <c r="G9" s="32" t="s">
         <v>567</v>
       </c>
-      <c r="H9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="H9" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="32" t="s">
         <v>568</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="36" t="s">
+        <v>774</v>
+      </c>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" s="32">
+        <v>1</v>
+      </c>
+      <c r="O9" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32" t="s">
+        <v>575</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>576</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>567</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="32" t="s">
         <v>572</v>
       </c>
-      <c r="K9" t="s">
-        <v>571</v>
-      </c>
-      <c r="M9" t="s">
-        <v>83</v>
-      </c>
-      <c r="N9" t="s">
-        <v>83</v>
-      </c>
-      <c r="O9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="5:15">
-      <c r="E10" t="s">
-        <v>573</v>
-      </c>
-      <c r="F10" t="s">
-        <v>574</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="J10" s="32" t="s">
+        <v>577</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>577</v>
+      </c>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32">
+        <v>0</v>
+      </c>
+      <c r="N10" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="O10" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32" t="s">
+        <v>578</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>777</v>
+      </c>
+      <c r="G11" s="32" t="s">
         <v>567</v>
       </c>
-      <c r="H10" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" t="s">
-        <v>575</v>
-      </c>
-      <c r="M10" t="s">
-        <v>83</v>
-      </c>
-      <c r="N10" t="s">
-        <v>83</v>
-      </c>
-      <c r="O10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="5:15">
-      <c r="E11" t="s">
-        <v>576</v>
-      </c>
-      <c r="F11" t="s">
-        <v>577</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>568</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>778</v>
+      </c>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" s="32">
+        <v>1</v>
+      </c>
+      <c r="O11" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32" t="s">
+        <v>585</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>586</v>
+      </c>
+      <c r="G12" s="32" t="s">
         <v>567</v>
       </c>
-      <c r="H11" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" t="s">
-        <v>568</v>
-      </c>
-      <c r="M11" t="s">
-        <v>80</v>
-      </c>
-      <c r="N11" t="s">
-        <v>80</v>
-      </c>
-      <c r="O11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="5:15">
-      <c r="E12" t="s">
-        <v>578</v>
-      </c>
-      <c r="F12" t="s">
-        <v>579</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>775</v>
+      </c>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32">
+        <v>0</v>
+      </c>
+      <c r="N12" s="32">
+        <v>1</v>
+      </c>
+      <c r="O12" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32" t="s">
+        <v>587</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>588</v>
+      </c>
+      <c r="G13" s="32" t="s">
         <v>567</v>
       </c>
-      <c r="H12" t="s">
-        <v>83</v>
-      </c>
-      <c r="I12" t="s">
-        <v>575</v>
-      </c>
-      <c r="J12" t="s">
-        <v>580</v>
-      </c>
-      <c r="K12" t="s">
-        <v>580</v>
-      </c>
-      <c r="M12" t="s">
-        <v>83</v>
-      </c>
-      <c r="N12" t="s">
-        <v>83</v>
-      </c>
-      <c r="O12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="5:15">
-      <c r="E13" t="s">
-        <v>581</v>
-      </c>
-      <c r="F13" t="s">
-        <v>582</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>589</v>
+      </c>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" s="32">
+        <v>1</v>
+      </c>
+      <c r="O13" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>590</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="I15" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="E16" s="42" t="s">
+        <v>776</v>
+      </c>
+      <c r="F16" t="s">
         <v>567</v>
       </c>
-      <c r="H13" t="s">
-        <v>83</v>
-      </c>
-      <c r="I13" t="s">
-        <v>568</v>
-      </c>
-      <c r="J13" t="s">
-        <v>583</v>
-      </c>
-      <c r="M13" t="s">
-        <v>80</v>
-      </c>
-      <c r="N13" t="s">
-        <v>80</v>
-      </c>
-      <c r="O13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="5:15">
-      <c r="E14" t="s">
-        <v>584</v>
-      </c>
-      <c r="F14" t="s">
-        <v>585</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="G16" t="str">
+        <f>菜单SAAS版!E8</f>
+        <v>iam_menu-8</v>
+      </c>
+      <c r="H16" t="str">
+        <f>E11</f>
+        <v>iam_label-13</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9">
+      <c r="E17" s="42" t="s">
+        <v>776</v>
+      </c>
+      <c r="F17" t="s">
         <v>567</v>
       </c>
-      <c r="H14" t="s">
-        <v>83</v>
-      </c>
-      <c r="I14" t="s">
-        <v>568</v>
-      </c>
-      <c r="J14" t="s">
-        <v>586</v>
-      </c>
-      <c r="M14" t="s">
-        <v>80</v>
-      </c>
-      <c r="N14" t="s">
-        <v>80</v>
-      </c>
-      <c r="O14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="5:15">
-      <c r="E15" t="s">
-        <v>587</v>
-      </c>
-      <c r="F15" t="s">
-        <v>588</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="G17" t="str">
+        <f>菜单SAAS版!E9</f>
+        <v>iam_menu-9</v>
+      </c>
+      <c r="H17" t="str">
+        <f>E11</f>
+        <v>iam_label-13</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9">
+      <c r="E18" s="42" t="s">
+        <v>776</v>
+      </c>
+      <c r="F18" t="s">
         <v>567</v>
       </c>
-      <c r="H15" t="s">
-        <v>83</v>
-      </c>
-      <c r="I15" t="s">
-        <v>568</v>
-      </c>
-      <c r="J15" t="s">
-        <v>589</v>
-      </c>
-      <c r="M15" t="s">
-        <v>80</v>
-      </c>
-      <c r="N15" t="s">
-        <v>80</v>
-      </c>
-      <c r="O15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="5:15">
-      <c r="E16" t="s">
-        <v>590</v>
-      </c>
-      <c r="F16" t="s">
-        <v>591</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="G18" t="str">
+        <f>菜单SAAS版!E29</f>
+        <v>iam_menu-29</v>
+      </c>
+      <c r="H18" t="str">
+        <f>E11</f>
+        <v>iam_label-13</v>
+      </c>
+      <c r="I18" s="42" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9">
+      <c r="E19" s="42" t="s">
+        <v>776</v>
+      </c>
+      <c r="F19" t="s">
         <v>567</v>
       </c>
-      <c r="H16" t="s">
-        <v>83</v>
-      </c>
-      <c r="I16" t="s">
-        <v>568</v>
-      </c>
-      <c r="J16" t="s">
-        <v>592</v>
-      </c>
-      <c r="M16" t="s">
-        <v>80</v>
-      </c>
-      <c r="N16" t="s">
-        <v>80</v>
-      </c>
-      <c r="O16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="5:15">
-      <c r="E17" t="s">
-        <v>593</v>
-      </c>
-      <c r="F17" t="s">
-        <v>594</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="G19" t="str">
+        <f>菜单SAAS版!E30</f>
+        <v>iam_menu-30</v>
+      </c>
+      <c r="H19" t="str">
+        <f>E11</f>
+        <v>iam_label-13</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9">
+      <c r="E20" s="42" t="s">
+        <v>776</v>
+      </c>
+      <c r="F20" t="s">
         <v>567</v>
       </c>
-      <c r="H17" t="s">
-        <v>83</v>
-      </c>
-      <c r="I17" t="s">
-        <v>568</v>
-      </c>
-      <c r="J17" t="s">
-        <v>595</v>
-      </c>
-      <c r="K17" t="s">
-        <v>595</v>
-      </c>
-      <c r="M17" t="s">
-        <v>80</v>
-      </c>
-      <c r="N17" t="s">
-        <v>80</v>
-      </c>
-      <c r="O17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="5:15">
-      <c r="E18" t="s">
-        <v>596</v>
-      </c>
-      <c r="F18" t="s">
-        <v>597</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="G20" t="str">
+        <f>菜单SAAS版!E32</f>
+        <v>iam_menu-32</v>
+      </c>
+      <c r="H20" t="str">
+        <f>E11</f>
+        <v>iam_label-13</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9">
+      <c r="E21" s="42" t="s">
+        <v>776</v>
+      </c>
+      <c r="F21" t="s">
         <v>567</v>
       </c>
-      <c r="H18" t="s">
-        <v>83</v>
-      </c>
-      <c r="I18" t="s">
-        <v>568</v>
-      </c>
-      <c r="J18" t="s">
-        <v>598</v>
-      </c>
-      <c r="K18" t="s">
-        <v>598</v>
-      </c>
-      <c r="M18" t="s">
-        <v>80</v>
-      </c>
-      <c r="N18" t="s">
-        <v>80</v>
-      </c>
-      <c r="O18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="5:15">
-      <c r="E19" t="s">
-        <v>599</v>
-      </c>
-      <c r="F19" t="s">
-        <v>600</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="G21" t="str">
+        <f>菜单SAAS版!E33</f>
+        <v>iam_menu-33</v>
+      </c>
+      <c r="H21" t="str">
+        <f>E11</f>
+        <v>iam_label-13</v>
+      </c>
+      <c r="I21" s="42" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9">
+      <c r="E22" s="42" t="s">
+        <v>776</v>
+      </c>
+      <c r="F22" t="s">
         <v>567</v>
       </c>
-      <c r="H19" t="s">
-        <v>83</v>
-      </c>
-      <c r="I19" t="s">
-        <v>568</v>
-      </c>
-      <c r="J19" t="s">
-        <v>601</v>
-      </c>
-      <c r="K19" t="s">
-        <v>600</v>
-      </c>
-      <c r="M19" t="s">
-        <v>83</v>
-      </c>
-      <c r="N19" t="s">
-        <v>83</v>
-      </c>
-      <c r="O19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="5:15">
-      <c r="E20" t="s">
-        <v>602</v>
-      </c>
-      <c r="F20" t="s">
-        <v>603</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="G22" t="str">
+        <f>菜单SAAS版!E35</f>
+        <v>iam_menu-35</v>
+      </c>
+      <c r="H22" t="str">
+        <f>E11</f>
+        <v>iam_label-13</v>
+      </c>
+      <c r="I22" s="42" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9">
+      <c r="E23" s="42" t="s">
+        <v>776</v>
+      </c>
+      <c r="F23" t="s">
         <v>567</v>
       </c>
-      <c r="H20" t="s">
-        <v>83</v>
-      </c>
-      <c r="I20" t="s">
-        <v>575</v>
-      </c>
-      <c r="M20" t="s">
-        <v>83</v>
-      </c>
-      <c r="N20" t="s">
-        <v>80</v>
-      </c>
-      <c r="O20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="5:15">
-      <c r="E21" t="s">
-        <v>604</v>
-      </c>
-      <c r="F21" t="s">
-        <v>605</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="G23" t="str">
+        <f>菜单SAAS版!E37</f>
+        <v>iam_menu-37</v>
+      </c>
+      <c r="H23" t="str">
+        <f>E11</f>
+        <v>iam_label-13</v>
+      </c>
+      <c r="I23" s="42" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9">
+      <c r="E24" s="42" t="s">
+        <v>776</v>
+      </c>
+      <c r="F24" t="s">
         <v>567</v>
       </c>
-      <c r="H21" t="s">
-        <v>83</v>
-      </c>
-      <c r="I21" t="s">
-        <v>575</v>
-      </c>
-      <c r="J21" t="s">
-        <v>606</v>
-      </c>
-      <c r="K21" t="s">
-        <v>606</v>
-      </c>
-      <c r="M21" t="s">
-        <v>80</v>
-      </c>
-      <c r="N21" t="s">
-        <v>80</v>
-      </c>
-      <c r="O21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="5:15">
-      <c r="E22" t="s">
-        <v>607</v>
-      </c>
-      <c r="F22" t="s">
-        <v>608</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="G24" t="str">
+        <f>菜单SAAS版!E39</f>
+        <v>iam_menu-39</v>
+      </c>
+      <c r="H24" t="str">
+        <f>E11</f>
+        <v>iam_label-13</v>
+      </c>
+      <c r="I24" s="42" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9">
+      <c r="E25" s="42" t="s">
+        <v>776</v>
+      </c>
+      <c r="F25" t="s">
         <v>567</v>
       </c>
-      <c r="H22" t="s">
-        <v>83</v>
-      </c>
-      <c r="I22" t="s">
-        <v>575</v>
-      </c>
-      <c r="J22" t="s">
-        <v>609</v>
-      </c>
-      <c r="K22" t="s">
-        <v>609</v>
-      </c>
-      <c r="M22" t="s">
-        <v>80</v>
-      </c>
-      <c r="N22" t="s">
-        <v>80</v>
-      </c>
-      <c r="O22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="5:15">
-      <c r="E23" t="s">
-        <v>610</v>
-      </c>
-      <c r="F23" t="s">
-        <v>611</v>
-      </c>
-      <c r="G23" t="s">
-        <v>567</v>
-      </c>
-      <c r="H23" t="s">
-        <v>83</v>
-      </c>
-      <c r="I23" t="s">
-        <v>575</v>
-      </c>
-      <c r="J23" t="s">
-        <v>612</v>
-      </c>
-      <c r="K23" t="s">
-        <v>612</v>
-      </c>
-      <c r="M23" t="s">
-        <v>80</v>
-      </c>
-      <c r="N23" t="s">
-        <v>80</v>
-      </c>
-      <c r="O23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="5:15">
-      <c r="E24" t="s">
-        <v>613</v>
-      </c>
-      <c r="F24" t="s">
-        <v>614</v>
-      </c>
-      <c r="G24" t="s">
-        <v>567</v>
-      </c>
-      <c r="H24" t="s">
-        <v>83</v>
-      </c>
-      <c r="I24" t="s">
-        <v>575</v>
-      </c>
-      <c r="M24" t="s">
-        <v>80</v>
-      </c>
-      <c r="N24" t="s">
-        <v>80</v>
-      </c>
-      <c r="O24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="5:15">
-      <c r="E25" t="s">
-        <v>615</v>
-      </c>
-      <c r="F25" t="s">
-        <v>616</v>
-      </c>
-      <c r="G25" t="s">
-        <v>567</v>
-      </c>
-      <c r="H25" t="s">
-        <v>83</v>
-      </c>
-      <c r="I25" t="s">
-        <v>575</v>
-      </c>
-      <c r="J25" t="s">
-        <v>617</v>
-      </c>
-      <c r="M25" t="s">
-        <v>80</v>
-      </c>
-      <c r="N25" t="s">
-        <v>80</v>
-      </c>
-      <c r="O25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="5:15">
-      <c r="E26" t="s">
-        <v>618</v>
-      </c>
-      <c r="F26" t="s">
-        <v>619</v>
-      </c>
-      <c r="G26" t="s">
-        <v>567</v>
-      </c>
-      <c r="H26" t="s">
-        <v>83</v>
-      </c>
-      <c r="I26" t="s">
-        <v>575</v>
-      </c>
-      <c r="J26" t="s">
-        <v>620</v>
-      </c>
-      <c r="M26" t="s">
-        <v>80</v>
-      </c>
-      <c r="N26" t="s">
-        <v>80</v>
-      </c>
-      <c r="O26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" t="s">
-        <v>621</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="I28" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="29" spans="5:9">
-      <c r="E29" t="s">
-        <v>628</v>
-      </c>
-      <c r="F29" t="s">
-        <v>567</v>
-      </c>
-      <c r="G29" t="str">
-        <f>菜单SAAS版!$E$32</f>
-        <v>iam_menu-32</v>
-      </c>
-      <c r="H29" t="str">
-        <f>菜单标签数据!$E$13</f>
+      <c r="G25" t="str">
+        <f>菜单SAAS版!E40</f>
+        <v>iam_menu-40</v>
+      </c>
+      <c r="H25" t="str">
+        <f>E11</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I29" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="30" spans="5:9">
-      <c r="E30" t="s">
-        <v>628</v>
-      </c>
-      <c r="F30" t="s">
-        <v>567</v>
-      </c>
-      <c r="G30" t="str">
-        <f>菜单SAAS版!$E$32</f>
-        <v>iam_menu-32</v>
-      </c>
-      <c r="H30" t="str">
-        <f>菜单标签数据!$E$14</f>
-        <v>iam_label-14</v>
-      </c>
-      <c r="I30" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="31" spans="5:9">
-      <c r="E31" t="s">
-        <v>628</v>
-      </c>
-      <c r="F31" t="s">
-        <v>567</v>
-      </c>
-      <c r="G31" t="str">
-        <f>菜单SAAS版!$E$32</f>
-        <v>iam_menu-32</v>
-      </c>
-      <c r="H31" t="str">
-        <f>菜单标签数据!$E$15</f>
-        <v>iam_label-15</v>
-      </c>
-      <c r="I31" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="32" spans="5:9">
-      <c r="E32" t="s">
-        <v>628</v>
-      </c>
-      <c r="F32" t="s">
-        <v>567</v>
-      </c>
-      <c r="G32" t="str">
-        <f>菜单SAAS版!$E$32</f>
-        <v>iam_menu-32</v>
-      </c>
-      <c r="H32" t="str">
-        <f>菜单标签数据!$E$16</f>
-        <v>iam_label-16</v>
-      </c>
-      <c r="I32" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="33" spans="5:9">
-      <c r="E33" t="s">
-        <v>628</v>
-      </c>
-      <c r="F33" t="s">
-        <v>567</v>
-      </c>
-      <c r="G33" t="str">
-        <f>菜单SAAS版!$E$32</f>
-        <v>iam_menu-32</v>
-      </c>
-      <c r="H33" t="str">
-        <f>菜单标签数据!$E$26</f>
-        <v>iam_label-26</v>
-      </c>
-      <c r="I33" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="34" spans="5:9">
-      <c r="E34" t="s">
-        <v>628</v>
-      </c>
-      <c r="F34" t="s">
-        <v>567</v>
-      </c>
-      <c r="G34" t="str">
-        <f>菜单SAAS版!$E$35</f>
-        <v>iam_menu-35</v>
-      </c>
-      <c r="H34" t="str">
-        <f>菜单标签数据!$E$13</f>
-        <v>iam_label-13</v>
-      </c>
-      <c r="I34" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="35" spans="5:9">
-      <c r="E35" t="s">
-        <v>628</v>
-      </c>
-      <c r="F35" t="s">
-        <v>567</v>
-      </c>
-      <c r="G35" t="str">
-        <f>菜单SAAS版!$E$35</f>
-        <v>iam_menu-35</v>
-      </c>
-      <c r="H35" t="str">
-        <f>菜单标签数据!$E$14</f>
-        <v>iam_label-14</v>
-      </c>
-      <c r="I35" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="36" spans="5:9">
-      <c r="E36" t="s">
-        <v>628</v>
-      </c>
-      <c r="F36" t="s">
-        <v>567</v>
-      </c>
-      <c r="G36" t="str">
-        <f>菜单SAAS版!$E$35</f>
-        <v>iam_menu-35</v>
-      </c>
-      <c r="H36" t="str">
-        <f>菜单标签数据!$E$26</f>
-        <v>iam_label-26</v>
-      </c>
-      <c r="I36" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="37" spans="5:9">
-      <c r="E37" t="s">
-        <v>628</v>
-      </c>
-      <c r="F37" t="s">
-        <v>567</v>
-      </c>
-      <c r="G37" t="str">
-        <f>菜单SAAS版!$E$37</f>
-        <v>iam_menu-37</v>
-      </c>
-      <c r="H37" t="str">
-        <f>菜单标签数据!$E$13</f>
-        <v>iam_label-13</v>
-      </c>
-      <c r="I37" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="38" spans="5:9">
-      <c r="E38" t="s">
-        <v>628</v>
-      </c>
-      <c r="F38" t="s">
-        <v>567</v>
-      </c>
-      <c r="G38" t="str">
-        <f>菜单SAAS版!$E$37</f>
-        <v>iam_menu-37</v>
-      </c>
-      <c r="H38" t="str">
-        <f>菜单标签数据!$E$14</f>
-        <v>iam_label-14</v>
-      </c>
-      <c r="I38" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="39" spans="5:9">
-      <c r="E39" t="s">
-        <v>628</v>
-      </c>
-      <c r="F39" t="s">
-        <v>567</v>
-      </c>
-      <c r="G39" t="str">
-        <f>菜单SAAS版!$E$37</f>
-        <v>iam_menu-37</v>
-      </c>
-      <c r="H39" t="str">
-        <f>菜单标签数据!$E$26</f>
-        <v>iam_label-26</v>
-      </c>
-      <c r="I39" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="40" s="5" customFormat="1" spans="5:9">
-      <c r="E40" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="G40" s="5" t="str">
-        <f>菜单SAAS版!$E$33</f>
-        <v>iam_menu-33</v>
-      </c>
-      <c r="H40" s="5" t="str">
-        <f>菜单标签数据!$E$13</f>
-        <v>iam_label-13</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="41" spans="5:9">
-      <c r="E41" t="s">
-        <v>628</v>
-      </c>
-      <c r="F41" t="s">
-        <v>567</v>
-      </c>
-      <c r="G41" t="str">
-        <f>菜单SAAS版!$E$33</f>
-        <v>iam_menu-33</v>
-      </c>
-      <c r="H41" t="str">
-        <f>菜单标签数据!$E$14</f>
-        <v>iam_label-14</v>
-      </c>
-      <c r="I41" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="42" spans="5:9">
-      <c r="E42" t="s">
-        <v>628</v>
-      </c>
-      <c r="F42" t="s">
-        <v>567</v>
-      </c>
-      <c r="G42" t="str">
-        <f>菜单SAAS版!$E$33</f>
-        <v>iam_menu-33</v>
-      </c>
-      <c r="H42" t="str">
-        <f>菜单标签数据!$E$26</f>
-        <v>iam_label-26</v>
-      </c>
-      <c r="I42" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="43" spans="5:9">
-      <c r="E43" t="s">
-        <v>628</v>
-      </c>
-      <c r="F43" t="s">
-        <v>567</v>
-      </c>
-      <c r="G43" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
-      </c>
-      <c r="H43" t="str">
-        <f>菜单标签数据!$E$13</f>
-        <v>iam_label-13</v>
-      </c>
-      <c r="I43" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="44" spans="5:9">
-      <c r="E44" t="s">
-        <v>628</v>
-      </c>
-      <c r="F44" t="s">
-        <v>567</v>
-      </c>
-      <c r="G44" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
-      </c>
-      <c r="H44" t="str">
-        <f>菜单标签数据!$E$14</f>
-        <v>iam_label-14</v>
-      </c>
-      <c r="I44" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="45" spans="5:9">
-      <c r="E45" t="s">
-        <v>628</v>
-      </c>
-      <c r="F45" t="s">
-        <v>567</v>
-      </c>
-      <c r="G45" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
-      </c>
-      <c r="H45" t="str">
-        <f>菜单标签数据!$E$15</f>
-        <v>iam_label-15</v>
-      </c>
-      <c r="I45" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="46" spans="5:9">
-      <c r="E46" t="s">
-        <v>628</v>
-      </c>
-      <c r="F46" t="s">
-        <v>567</v>
-      </c>
-      <c r="G46" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
-      </c>
-      <c r="H46" t="str">
-        <f>菜单标签数据!$E$16</f>
-        <v>iam_label-16</v>
-      </c>
-      <c r="I46" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="47" spans="5:9">
-      <c r="E47" t="s">
-        <v>628</v>
-      </c>
-      <c r="F47" t="s">
-        <v>567</v>
-      </c>
-      <c r="G47" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
-      </c>
-      <c r="H47" t="str">
-        <f>菜单标签数据!$E$17</f>
-        <v>iam_label-17</v>
-      </c>
-      <c r="I47" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="48" spans="5:9">
-      <c r="E48" t="s">
-        <v>628</v>
-      </c>
-      <c r="F48" t="s">
-        <v>567</v>
-      </c>
-      <c r="G48" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
-      </c>
-      <c r="H48" t="str">
-        <f>菜单标签数据!$E$21</f>
-        <v>iam_label-21</v>
-      </c>
-      <c r="I48" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="49" spans="5:9">
-      <c r="E49" t="s">
-        <v>628</v>
-      </c>
-      <c r="F49" t="s">
-        <v>567</v>
-      </c>
-      <c r="G49" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
-      </c>
-      <c r="H49" t="str">
-        <f>菜单标签数据!$E$24</f>
-        <v>iam_label-24</v>
-      </c>
-      <c r="I49" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="50" spans="5:9">
-      <c r="E50" t="s">
-        <v>628</v>
-      </c>
-      <c r="F50" t="s">
-        <v>567</v>
-      </c>
-      <c r="G50" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
-      </c>
-      <c r="H50" t="str">
-        <f>菜单标签数据!$E$26</f>
-        <v>iam_label-26</v>
-      </c>
-      <c r="I50" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="51" spans="5:9">
-      <c r="E51" t="s">
-        <v>628</v>
-      </c>
-      <c r="F51" t="s">
-        <v>567</v>
-      </c>
-      <c r="G51" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
-      </c>
-      <c r="H51" t="str">
-        <f>菜单标签数据!$E$13</f>
-        <v>iam_label-13</v>
-      </c>
-      <c r="I51" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="52" spans="5:9">
-      <c r="E52" t="s">
-        <v>628</v>
-      </c>
-      <c r="F52" t="s">
-        <v>567</v>
-      </c>
-      <c r="G52" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
-      </c>
-      <c r="H52" t="str">
-        <f>菜单标签数据!$E$14</f>
-        <v>iam_label-14</v>
-      </c>
-      <c r="I52" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="53" spans="5:9">
-      <c r="E53" t="s">
-        <v>628</v>
-      </c>
-      <c r="F53" t="s">
-        <v>567</v>
-      </c>
-      <c r="G53" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
-      </c>
-      <c r="H53" t="str">
-        <f>菜单标签数据!$E$17</f>
-        <v>iam_label-17</v>
-      </c>
-      <c r="I53" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="54" spans="5:9">
-      <c r="E54" t="s">
-        <v>628</v>
-      </c>
-      <c r="F54" t="s">
-        <v>567</v>
-      </c>
-      <c r="G54" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
-      </c>
-      <c r="H54" t="str">
-        <f>菜单标签数据!$E$21</f>
-        <v>iam_label-21</v>
-      </c>
-      <c r="I54" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="55" spans="5:9">
-      <c r="E55" t="s">
-        <v>628</v>
-      </c>
-      <c r="F55" t="s">
-        <v>567</v>
-      </c>
-      <c r="G55" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
-      </c>
-      <c r="H55" t="str">
-        <f>菜单标签数据!$E$24</f>
-        <v>iam_label-24</v>
-      </c>
-      <c r="I55" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="56" spans="5:9">
-      <c r="E56" t="s">
-        <v>628</v>
-      </c>
-      <c r="F56" t="s">
-        <v>567</v>
-      </c>
-      <c r="G56" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
-      </c>
-      <c r="H56" t="str">
-        <f>菜单标签数据!$E$26</f>
-        <v>iam_label-26</v>
-      </c>
-      <c r="I56" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="57" spans="5:9">
-      <c r="E57" t="s">
-        <v>628</v>
-      </c>
-      <c r="F57" t="s">
-        <v>567</v>
-      </c>
-      <c r="G57" t="str">
-        <f>菜单SAAS版!$E$29</f>
-        <v>iam_menu-29</v>
-      </c>
-      <c r="H57" t="str">
-        <f>菜单标签数据!$E$13</f>
-        <v>iam_label-13</v>
-      </c>
-      <c r="I57" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="58" spans="5:9">
-      <c r="E58" t="s">
-        <v>628</v>
-      </c>
-      <c r="F58" t="s">
-        <v>567</v>
-      </c>
-      <c r="G58" t="str">
-        <f>菜单SAAS版!$E$29</f>
-        <v>iam_menu-29</v>
-      </c>
-      <c r="H58" t="str">
-        <f>菜单标签数据!$E$14</f>
-        <v>iam_label-14</v>
-      </c>
-      <c r="I58" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="59" spans="5:9">
-      <c r="E59" t="s">
-        <v>628</v>
-      </c>
-      <c r="F59" t="s">
-        <v>567</v>
-      </c>
-      <c r="G59" t="str">
-        <f>菜单SAAS版!$E$29</f>
-        <v>iam_menu-29</v>
-      </c>
-      <c r="H59" t="str">
-        <f>菜单标签数据!$E$15</f>
-        <v>iam_label-15</v>
-      </c>
-      <c r="I59" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="60" spans="5:9">
-      <c r="E60" t="s">
-        <v>628</v>
-      </c>
-      <c r="F60" t="s">
-        <v>567</v>
-      </c>
-      <c r="G60" t="str">
-        <f>菜单SAAS版!$E$29</f>
-        <v>iam_menu-29</v>
-      </c>
-      <c r="H60" t="str">
-        <f>菜单标签数据!$E$16</f>
-        <v>iam_label-16</v>
-      </c>
-      <c r="I60" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="61" spans="5:9">
-      <c r="E61" t="s">
-        <v>628</v>
-      </c>
-      <c r="F61" t="s">
-        <v>567</v>
-      </c>
-      <c r="G61" t="str">
-        <f>菜单SAAS版!$E$29</f>
-        <v>iam_menu-29</v>
-      </c>
-      <c r="H61" t="str">
-        <f>菜单标签数据!$E$17</f>
-        <v>iam_label-17</v>
-      </c>
-      <c r="I61" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="62" spans="5:9">
-      <c r="E62" t="s">
-        <v>628</v>
-      </c>
-      <c r="F62" t="s">
-        <v>567</v>
-      </c>
-      <c r="G62" t="str">
-        <f>菜单SAAS版!$E$29</f>
-        <v>iam_menu-29</v>
-      </c>
-      <c r="H62" t="str">
-        <f>菜单标签数据!$E$21</f>
-        <v>iam_label-21</v>
-      </c>
-      <c r="I62" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="63" spans="5:9">
-      <c r="E63" t="s">
-        <v>628</v>
-      </c>
-      <c r="F63" t="s">
-        <v>567</v>
-      </c>
-      <c r="G63" t="str">
-        <f>菜单SAAS版!$E$29</f>
-        <v>iam_menu-29</v>
-      </c>
-      <c r="H63" t="str">
-        <f>菜单标签数据!$E$22</f>
-        <v>iam_label-22</v>
-      </c>
-      <c r="I63" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="64" spans="5:9">
-      <c r="E64" t="s">
-        <v>628</v>
-      </c>
-      <c r="F64" t="s">
-        <v>567</v>
-      </c>
-      <c r="G64" t="str">
-        <f>菜单SAAS版!$E$29</f>
-        <v>iam_menu-29</v>
-      </c>
-      <c r="H64" t="str">
-        <f>菜单标签数据!$E$24</f>
-        <v>iam_label-24</v>
-      </c>
-      <c r="I64" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="65" spans="5:9">
-      <c r="E65" t="s">
-        <v>628</v>
-      </c>
-      <c r="F65" t="s">
-        <v>567</v>
-      </c>
-      <c r="G65" t="str">
-        <f>菜单SAAS版!$E$29</f>
-        <v>iam_menu-29</v>
-      </c>
-      <c r="H65" t="str">
-        <f>菜单标签数据!$E$26</f>
-        <v>iam_label-26</v>
-      </c>
-      <c r="I65" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="66" spans="5:9">
-      <c r="E66" t="s">
-        <v>628</v>
-      </c>
-      <c r="F66" t="s">
-        <v>567</v>
-      </c>
-      <c r="G66" t="str">
-        <f>菜单SAAS版!$E$30</f>
-        <v>iam_menu-30</v>
-      </c>
-      <c r="H66" t="str">
-        <f>菜单标签数据!$E$13</f>
-        <v>iam_label-13</v>
-      </c>
-      <c r="I66" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="67" spans="5:9">
-      <c r="E67" t="s">
-        <v>628</v>
-      </c>
-      <c r="F67" t="s">
-        <v>567</v>
-      </c>
-      <c r="G67" t="str">
-        <f>菜单SAAS版!$E$30</f>
-        <v>iam_menu-30</v>
-      </c>
-      <c r="H67" t="str">
-        <f>菜单标签数据!$E$14</f>
-        <v>iam_label-14</v>
-      </c>
-      <c r="I67" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="68" spans="5:9">
-      <c r="E68" t="s">
-        <v>628</v>
-      </c>
-      <c r="F68" t="s">
-        <v>567</v>
-      </c>
-      <c r="G68" t="str">
-        <f>菜单SAAS版!$E$30</f>
-        <v>iam_menu-30</v>
-      </c>
-      <c r="H68" t="str">
-        <f>菜单标签数据!$E$26</f>
-        <v>iam_label-26</v>
-      </c>
-      <c r="I68" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="69" spans="5:9">
-      <c r="E69" t="s">
-        <v>628</v>
-      </c>
-      <c r="F69" t="s">
-        <v>567</v>
-      </c>
-      <c r="G69" t="str">
-        <f>菜单SAAS版!$E$25</f>
-        <v>iam_menu-25</v>
-      </c>
-      <c r="H69" t="str">
-        <f>菜单标签数据!$E$13</f>
-        <v>iam_label-13</v>
-      </c>
-      <c r="I69" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="70" spans="5:9">
-      <c r="E70" t="s">
-        <v>628</v>
-      </c>
-      <c r="F70" t="s">
-        <v>567</v>
-      </c>
-      <c r="G70" t="str">
-        <f>菜单SAAS版!$E$25</f>
-        <v>iam_menu-25</v>
-      </c>
-      <c r="H70" t="str">
-        <f>菜单标签数据!$E$14</f>
-        <v>iam_label-14</v>
-      </c>
-      <c r="I70" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="71" spans="5:9">
-      <c r="E71" t="s">
-        <v>628</v>
-      </c>
-      <c r="F71" t="s">
-        <v>567</v>
-      </c>
-      <c r="G71" t="str">
-        <f>菜单SAAS版!$E$25</f>
-        <v>iam_menu-25</v>
-      </c>
-      <c r="H71" t="str">
-        <f>菜单标签数据!$E$17</f>
-        <v>iam_label-17</v>
-      </c>
-      <c r="I71" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="72" spans="5:9">
-      <c r="E72" t="s">
-        <v>628</v>
-      </c>
-      <c r="F72" t="s">
-        <v>567</v>
-      </c>
-      <c r="G72" t="str">
-        <f>菜单SAAS版!$E$31</f>
-        <v>iam_menu-31</v>
-      </c>
-      <c r="H72" t="str">
-        <f>菜单标签数据!$E$13</f>
-        <v>iam_label-13</v>
-      </c>
-      <c r="I72" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="73" spans="5:9">
-      <c r="E73" t="s">
-        <v>628</v>
-      </c>
-      <c r="F73" t="s">
-        <v>567</v>
-      </c>
-      <c r="G73" t="str">
-        <f>菜单SAAS版!$E$31</f>
-        <v>iam_menu-31</v>
-      </c>
-      <c r="H73" t="str">
-        <f>菜单标签数据!$E$14</f>
-        <v>iam_label-14</v>
-      </c>
-      <c r="I73" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="74" spans="5:9">
-      <c r="E74" t="s">
-        <v>628</v>
-      </c>
-      <c r="F74" t="s">
-        <v>567</v>
-      </c>
-      <c r="G74" t="str">
-        <f>菜单SAAS版!$E$34</f>
-        <v>iam_menu-34</v>
-      </c>
-      <c r="H74" t="str">
-        <f>菜单标签数据!$E$13</f>
-        <v>iam_label-13</v>
-      </c>
-      <c r="I74" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="75" spans="5:9">
-      <c r="E75" t="s">
-        <v>628</v>
-      </c>
-      <c r="F75" t="s">
-        <v>567</v>
-      </c>
-      <c r="G75" t="str">
-        <f>菜单SAAS版!$E$34</f>
-        <v>iam_menu-34</v>
-      </c>
-      <c r="H75" t="str">
-        <f>菜单标签数据!$E$14</f>
-        <v>iam_label-14</v>
-      </c>
-      <c r="I75" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="76" spans="5:9">
-      <c r="E76" t="s">
-        <v>628</v>
-      </c>
-      <c r="F76" t="s">
-        <v>567</v>
-      </c>
-      <c r="G76" t="str">
-        <f>菜单SAAS版!$E$36</f>
-        <v>iam_menu-36</v>
-      </c>
-      <c r="H76" t="str">
-        <f>菜单标签数据!$E$13</f>
-        <v>iam_label-13</v>
-      </c>
-      <c r="I76" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="77" spans="5:9">
-      <c r="E77" t="s">
-        <v>628</v>
-      </c>
-      <c r="F77" t="s">
-        <v>567</v>
-      </c>
-      <c r="G77" t="str">
-        <f>菜单SAAS版!$E$36</f>
-        <v>iam_menu-36</v>
-      </c>
-      <c r="H77" t="str">
-        <f>菜单标签数据!$E$14</f>
-        <v>iam_label-14</v>
-      </c>
-      <c r="I77" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="78" spans="5:9">
-      <c r="E78" t="s">
-        <v>628</v>
-      </c>
-      <c r="F78" t="s">
-        <v>567</v>
-      </c>
-      <c r="G78" t="str">
-        <f>菜单SAAS版!$E$38</f>
-        <v>iam_menu-38</v>
-      </c>
-      <c r="H78" t="str">
-        <f>菜单标签数据!$E$13</f>
-        <v>iam_label-13</v>
-      </c>
-      <c r="I78" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="79" spans="5:9">
-      <c r="E79" t="s">
-        <v>628</v>
-      </c>
-      <c r="F79" t="s">
-        <v>567</v>
-      </c>
-      <c r="G79" t="str">
-        <f>菜单SAAS版!$E$38</f>
-        <v>iam_menu-38</v>
-      </c>
-      <c r="H79" t="str">
-        <f>菜单标签数据!$E$14</f>
-        <v>iam_label-14</v>
-      </c>
-      <c r="I79" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="80" customFormat="1" spans="5:9">
-      <c r="E80" t="s">
-        <v>628</v>
-      </c>
-      <c r="F80" t="s">
-        <v>567</v>
-      </c>
-      <c r="G80" t="str">
-        <f>菜单SAAS版!$E$40</f>
-        <v>iam_menu-40</v>
-      </c>
-      <c r="H80" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I80" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="81" customFormat="1" spans="5:9">
-      <c r="E81" t="s">
-        <v>628</v>
-      </c>
-      <c r="F81" t="s">
-        <v>567</v>
-      </c>
-      <c r="G81" t="str">
-        <f>菜单SAAS版!$E$40</f>
-        <v>iam_menu-40</v>
-      </c>
-      <c r="H81" t="str">
-        <f>菜单标签数据!$E$26</f>
-        <v>iam_label-26</v>
-      </c>
-      <c r="I81" t="s">
-        <v>630</v>
-      </c>
-    </row>
+      <c r="I25" s="42" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9" s="5" customFormat="1"/>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y86"/>
   <sheetViews>
     <sheetView topLeftCell="D70" workbookViewId="0">
       <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="21.1642857142857" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -11371,7 +9648,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -11390,10 +9667,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>631</v>
+        <v>599</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>632</v>
+        <v>600</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -11408,7 +9685,7 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>633</v>
+        <v>601</v>
       </c>
       <c r="J7" t="s">
         <v>558</v>
@@ -11417,66 +9694,66 @@
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>634</v>
+        <v>602</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>635</v>
+        <v>603</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>636</v>
+        <v>604</v>
       </c>
       <c r="O7" t="s">
-        <v>637</v>
+        <v>605</v>
       </c>
       <c r="P7" t="s">
-        <v>638</v>
+        <v>606</v>
       </c>
       <c r="Q7" t="s">
-        <v>639</v>
+        <v>607</v>
       </c>
       <c r="R7" t="s">
-        <v>640</v>
+        <v>608</v>
       </c>
       <c r="S7" t="s">
-        <v>641</v>
+        <v>609</v>
       </c>
       <c r="T7" t="s">
-        <v>642</v>
+        <v>610</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>643</v>
+        <v>611</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>644</v>
+        <v>612</v>
       </c>
       <c r="X7" t="s">
-        <v>645</v>
+        <v>613</v>
       </c>
       <c r="Y7" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="8" spans="5:23">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
-        <v>647</v>
+        <v>615</v>
       </c>
       <c r="F8" t="s">
-        <v>648</v>
+        <v>616</v>
       </c>
       <c r="G8" t="s">
-        <v>649</v>
+        <v>617</v>
       </c>
       <c r="H8" t="s">
-        <v>650</v>
+        <v>618</v>
       </c>
       <c r="I8" t="s">
-        <v>651</v>
+        <v>619</v>
       </c>
       <c r="J8" t="s">
-        <v>652</v>
+        <v>620</v>
       </c>
       <c r="K8" t="s">
         <v>80</v>
@@ -11509,30 +9786,30 @@
         <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>650</v>
+        <v>618</v>
       </c>
       <c r="V8" t="s">
-        <v>650</v>
+        <v>618</v>
       </c>
       <c r="W8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="5:23">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
-        <v>653</v>
+        <v>621</v>
       </c>
       <c r="F9" t="s">
-        <v>654</v>
+        <v>622</v>
       </c>
       <c r="G9" t="s">
-        <v>655</v>
+        <v>623</v>
       </c>
       <c r="H9" t="s">
-        <v>656</v>
+        <v>624</v>
       </c>
       <c r="I9" t="s">
-        <v>657</v>
+        <v>625</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
@@ -11568,27 +9845,27 @@
         <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>656</v>
+        <v>624</v>
       </c>
       <c r="V9" t="s">
-        <v>656</v>
+        <v>624</v>
       </c>
       <c r="W9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="5:25">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
-        <v>658</v>
+        <v>626</v>
       </c>
       <c r="F10" t="s">
-        <v>659</v>
+        <v>627</v>
       </c>
       <c r="G10" t="s">
-        <v>660</v>
+        <v>628</v>
       </c>
       <c r="H10" t="s">
-        <v>661</v>
+        <v>629</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
@@ -11625,33 +9902,33 @@
         <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>662</v>
+        <v>630</v>
       </c>
       <c r="V10" t="s">
-        <v>663</v>
+        <v>631</v>
       </c>
       <c r="W10" t="s">
         <v>80</v>
       </c>
       <c r="X10" t="s">
-        <v>664</v>
+        <v>632</v>
       </c>
       <c r="Y10" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="11" spans="5:25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
-        <v>666</v>
+        <v>634</v>
       </c>
       <c r="F11" t="s">
-        <v>667</v>
+        <v>635</v>
       </c>
       <c r="G11" t="s">
-        <v>668</v>
+        <v>636</v>
       </c>
       <c r="H11" t="s">
-        <v>669</v>
+        <v>637</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
@@ -11688,33 +9965,33 @@
         <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>670</v>
+        <v>638</v>
       </c>
       <c r="V11" t="s">
-        <v>671</v>
+        <v>639</v>
       </c>
       <c r="W11" t="s">
         <v>80</v>
       </c>
       <c r="X11" t="s">
-        <v>672</v>
+        <v>640</v>
       </c>
       <c r="Y11" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="12" spans="5:25">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="F12" t="s">
-        <v>675</v>
+        <v>643</v>
       </c>
       <c r="G12" t="s">
-        <v>676</v>
+        <v>644</v>
       </c>
       <c r="H12" t="s">
-        <v>677</v>
+        <v>645</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -11751,33 +10028,33 @@
         <v>80</v>
       </c>
       <c r="U12" t="s">
-        <v>678</v>
+        <v>646</v>
       </c>
       <c r="V12" t="s">
-        <v>679</v>
+        <v>647</v>
       </c>
       <c r="W12" t="s">
         <v>80</v>
       </c>
       <c r="X12" t="s">
-        <v>680</v>
+        <v>648</v>
       </c>
       <c r="Y12" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="13" spans="5:25">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
-        <v>682</v>
+        <v>650</v>
       </c>
       <c r="F13" t="s">
-        <v>683</v>
+        <v>651</v>
       </c>
       <c r="G13" t="s">
-        <v>684</v>
+        <v>652</v>
       </c>
       <c r="H13" t="s">
-        <v>685</v>
+        <v>653</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
@@ -11814,36 +10091,36 @@
         <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>686</v>
+        <v>654</v>
       </c>
       <c r="V13" t="s">
-        <v>687</v>
+        <v>655</v>
       </c>
       <c r="W13" t="s">
         <v>80</v>
       </c>
       <c r="X13" t="s">
-        <v>688</v>
+        <v>656</v>
       </c>
       <c r="Y13" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="14" spans="5:23">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
-        <v>690</v>
+        <v>658</v>
       </c>
       <c r="F14" t="s">
-        <v>691</v>
+        <v>659</v>
       </c>
       <c r="G14" t="s">
-        <v>691</v>
+        <v>659</v>
       </c>
       <c r="H14" t="s">
-        <v>692</v>
+        <v>660</v>
       </c>
       <c r="J14" t="s">
-        <v>652</v>
+        <v>620</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -11877,16 +10154,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>693</v>
+        <v>661</v>
       </c>
       <c r="V14" t="s">
-        <v>694</v>
+        <v>662</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -11894,25 +10171,25 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>695</v>
+        <v>663</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>696</v>
+        <v>664</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>697</v>
+        <v>665</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>698</v>
+        <v>666</v>
       </c>
       <c r="H16" t="s">
-        <v>699</v>
+        <v>667</v>
       </c>
       <c r="I16" t="s">
-        <v>700</v>
+        <v>668</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>556</v>
@@ -11920,7 +10197,7 @@
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>701</v>
+        <v>669</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -11931,18 +10208,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H17" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I17" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J17" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>705</v>
+        <v>673</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -11953,18 +10230,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H18" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I18" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J18" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>706</v>
+        <v>674</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -11975,18 +10252,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H19" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I19" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J19" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>707</v>
+        <v>675</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -11997,18 +10274,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H20" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I20" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J20" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>708</v>
+        <v>676</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -12019,18 +10296,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H21" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I21" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J21" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>709</v>
+        <v>677</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -12041,18 +10318,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H22" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I22" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J22" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>710</v>
+        <v>678</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -12063,18 +10340,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H23" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I23" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J23" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>711</v>
+        <v>679</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -12085,18 +10362,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H24" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I24" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J24" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>712</v>
+        <v>680</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -12107,18 +10384,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H25" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I25" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J25" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>713</v>
+        <v>681</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -12129,18 +10406,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H26" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I26" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J26" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>714</v>
+        <v>682</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -12151,18 +10428,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H27" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I27" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J27" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>715</v>
+        <v>683</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -12173,18 +10450,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H28" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I28" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J28" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>716</v>
+        <v>684</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$10</f>
@@ -12195,18 +10472,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H29" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I29" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J29" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>717</v>
+        <v>685</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$10</f>
@@ -12217,18 +10494,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H30" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I30" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J30" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>718</v>
+        <v>686</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$10</f>
@@ -12239,18 +10516,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H31" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I31" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J31" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>719</v>
+        <v>687</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$10</f>
@@ -12261,18 +10538,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H32" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I32" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J32" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>720</v>
+        <v>688</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$10</f>
@@ -12283,18 +10560,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H33" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I33" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J33" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>721</v>
+        <v>689</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$10</f>
@@ -12305,18 +10582,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H34" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I34" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J34" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>722</v>
+        <v>690</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$10</f>
@@ -12327,18 +10604,18 @@
         <v>iam_menu-28</v>
       </c>
       <c r="H35" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I35" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J35" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>723</v>
+        <v>691</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$10</f>
@@ -12349,18 +10626,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H36" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I36" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J36" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>724</v>
+        <v>692</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$10</f>
@@ -12371,18 +10648,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H37" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I37" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J37" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>725</v>
+        <v>693</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$10</f>
@@ -12393,18 +10670,18 @@
         <v>iam_menu-26</v>
       </c>
       <c r="H38" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I38" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J38" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>726</v>
+        <v>694</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$10</f>
@@ -12415,18 +10692,18 @@
         <v>iam_menu-27</v>
       </c>
       <c r="H39" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I39" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J39" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>727</v>
+        <v>695</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$10</f>
@@ -12437,18 +10714,18 @@
         <v>iam_menu-41</v>
       </c>
       <c r="H40" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I40" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J40" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="41" spans="5:10">
       <c r="E41" t="s">
-        <v>728</v>
+        <v>696</v>
       </c>
       <c r="F41" t="str">
         <f>角色!$E$12</f>
@@ -12459,18 +10736,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H41" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I41" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J41" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="42" spans="5:10">
       <c r="E42" t="s">
-        <v>729</v>
+        <v>697</v>
       </c>
       <c r="F42" t="str">
         <f>角色!$E$12</f>
@@ -12481,18 +10758,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H42" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I42" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J42" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="43" spans="5:10">
       <c r="E43" t="s">
-        <v>730</v>
+        <v>698</v>
       </c>
       <c r="F43" t="str">
         <f>角色!$E$12</f>
@@ -12503,18 +10780,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H43" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I43" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J43" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="44" spans="5:10">
       <c r="E44" t="s">
-        <v>731</v>
+        <v>699</v>
       </c>
       <c r="F44" t="str">
         <f>角色!$E$12</f>
@@ -12525,18 +10802,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H44" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I44" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J44" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="45" spans="5:10">
       <c r="E45" t="s">
-        <v>732</v>
+        <v>700</v>
       </c>
       <c r="F45" t="str">
         <f>角色!$E$12</f>
@@ -12547,18 +10824,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H45" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I45" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J45" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="46" spans="5:10">
       <c r="E46" t="s">
-        <v>733</v>
+        <v>701</v>
       </c>
       <c r="F46" t="str">
         <f>角色!$E$12</f>
@@ -12569,18 +10846,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H46" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I46" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J46" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="47" spans="5:10">
       <c r="E47" t="s">
-        <v>734</v>
+        <v>702</v>
       </c>
       <c r="F47" t="str">
         <f>角色!$E$12</f>
@@ -12591,18 +10868,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H47" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I47" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J47" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="48" spans="5:10">
       <c r="E48" t="s">
-        <v>735</v>
+        <v>703</v>
       </c>
       <c r="F48" t="str">
         <f>角色!$E$12</f>
@@ -12613,18 +10890,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H48" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I48" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J48" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="49" spans="5:10">
       <c r="E49" t="s">
-        <v>736</v>
+        <v>704</v>
       </c>
       <c r="F49" t="str">
         <f>角色!$E$12</f>
@@ -12635,18 +10912,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H49" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I49" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J49" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="50" spans="5:10">
       <c r="E50" t="s">
-        <v>737</v>
+        <v>705</v>
       </c>
       <c r="F50" t="str">
         <f>角色!$E$12</f>
@@ -12657,18 +10934,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H50" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I50" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J50" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="51" spans="5:10">
       <c r="E51" t="s">
-        <v>738</v>
+        <v>706</v>
       </c>
       <c r="F51" t="str">
         <f>角色!$E$12</f>
@@ -12679,18 +10956,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H51" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I51" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J51" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="52" spans="5:10">
       <c r="E52" t="s">
-        <v>739</v>
+        <v>707</v>
       </c>
       <c r="F52" t="str">
         <f>角色!$E$12</f>
@@ -12701,18 +10978,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H52" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I52" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J52" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="53" spans="5:10">
       <c r="E53" t="s">
-        <v>740</v>
+        <v>708</v>
       </c>
       <c r="F53" t="str">
         <f>角色!$E$12</f>
@@ -12723,18 +11000,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H53" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I53" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J53" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="54" spans="5:10">
       <c r="E54" t="s">
-        <v>741</v>
+        <v>709</v>
       </c>
       <c r="F54" t="str">
         <f>角色!$E$12</f>
@@ -12745,18 +11022,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H54" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I54" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J54" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="55" spans="5:10">
       <c r="E55" t="s">
-        <v>742</v>
+        <v>710</v>
       </c>
       <c r="F55" t="str">
         <f>角色!$E$12</f>
@@ -12767,18 +11044,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H55" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I55" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J55" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="56" spans="5:10">
       <c r="E56" t="s">
-        <v>743</v>
+        <v>711</v>
       </c>
       <c r="F56" t="str">
         <f>角色!$E$12</f>
@@ -12789,18 +11066,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H56" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I56" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J56" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="57" spans="5:10">
       <c r="E57" t="s">
-        <v>744</v>
+        <v>712</v>
       </c>
       <c r="F57" t="str">
         <f>角色!$E$12</f>
@@ -12811,18 +11088,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H57" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I57" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J57" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="58" spans="5:10">
       <c r="E58" t="s">
-        <v>745</v>
+        <v>713</v>
       </c>
       <c r="F58" t="str">
         <f>角色!$E$12</f>
@@ -12833,18 +11110,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H58" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I58" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J58" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="59" spans="5:10">
       <c r="E59" t="s">
-        <v>746</v>
+        <v>714</v>
       </c>
       <c r="F59" t="str">
         <f>角色!$E$12</f>
@@ -12855,18 +11132,18 @@
         <v>iam_menu-28</v>
       </c>
       <c r="H59" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I59" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J59" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="60" spans="5:10">
       <c r="E60" t="s">
-        <v>747</v>
+        <v>715</v>
       </c>
       <c r="F60" t="str">
         <f>角色!$E$12</f>
@@ -12877,18 +11154,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H60" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I60" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J60" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="61" spans="5:10">
       <c r="E61" t="s">
-        <v>748</v>
+        <v>716</v>
       </c>
       <c r="F61" t="str">
         <f>角色!$E$12</f>
@@ -12899,18 +11176,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H61" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I61" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J61" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="62" spans="5:10">
       <c r="E62" t="s">
-        <v>749</v>
+        <v>717</v>
       </c>
       <c r="F62" t="str">
         <f>角色!$E$12</f>
@@ -12921,18 +11198,18 @@
         <v>iam_menu-26</v>
       </c>
       <c r="H62" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I62" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J62" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="63" spans="5:10">
       <c r="E63" t="s">
-        <v>750</v>
+        <v>718</v>
       </c>
       <c r="F63" t="str">
         <f>角色!$E$12</f>
@@ -12943,18 +11220,18 @@
         <v>iam_menu-27</v>
       </c>
       <c r="H63" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I63" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J63" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="64" spans="5:10">
       <c r="E64" t="s">
-        <v>751</v>
+        <v>719</v>
       </c>
       <c r="F64" t="str">
         <f>角色!$E$13</f>
@@ -12965,18 +11242,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H64" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I64" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J64" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="65" spans="5:10">
       <c r="E65" t="s">
-        <v>752</v>
+        <v>720</v>
       </c>
       <c r="F65" t="str">
         <f>角色!$E$13</f>
@@ -12987,18 +11264,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H65" t="s">
-        <v>753</v>
+        <v>721</v>
       </c>
       <c r="I65" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J65" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="66" spans="5:10">
       <c r="E66" t="s">
-        <v>754</v>
+        <v>722</v>
       </c>
       <c r="F66" t="str">
         <f>角色!$E$13</f>
@@ -13009,18 +11286,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H66" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I66" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J66" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="67" spans="5:10">
       <c r="E67" t="s">
-        <v>755</v>
+        <v>723</v>
       </c>
       <c r="F67" t="str">
         <f>角色!$E$13</f>
@@ -13031,18 +11308,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H67" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I67" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J67" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="68" spans="5:10">
       <c r="E68" t="s">
-        <v>756</v>
+        <v>724</v>
       </c>
       <c r="F68" t="str">
         <f>角色!$E$13</f>
@@ -13053,18 +11330,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H68" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I68" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J68" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="69" spans="5:10">
       <c r="E69" t="s">
-        <v>757</v>
+        <v>725</v>
       </c>
       <c r="F69" t="str">
         <f>角色!$E$13</f>
@@ -13075,18 +11352,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H69" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I69" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J69" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="70" spans="5:10">
       <c r="E70" t="s">
-        <v>758</v>
+        <v>726</v>
       </c>
       <c r="F70" t="str">
         <f>角色!$E$13</f>
@@ -13097,18 +11374,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H70" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I70" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J70" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="71" spans="5:10">
       <c r="E71" t="s">
-        <v>759</v>
+        <v>727</v>
       </c>
       <c r="F71" t="str">
         <f>角色!$E$13</f>
@@ -13119,18 +11396,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H71" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I71" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J71" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="72" spans="5:10">
       <c r="E72" t="s">
-        <v>760</v>
+        <v>728</v>
       </c>
       <c r="F72" t="str">
         <f>角色!$E$13</f>
@@ -13141,18 +11418,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H72" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I72" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J72" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="73" spans="5:10">
       <c r="E73" t="s">
-        <v>761</v>
+        <v>729</v>
       </c>
       <c r="F73" t="str">
         <f>角色!$E$13</f>
@@ -13163,18 +11440,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H73" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I73" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J73" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="74" spans="5:10">
       <c r="E74" t="s">
-        <v>762</v>
+        <v>730</v>
       </c>
       <c r="F74" t="str">
         <f>角色!$E$13</f>
@@ -13185,18 +11462,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H74" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I74" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J74" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="75" spans="5:10">
       <c r="E75" t="s">
-        <v>763</v>
+        <v>731</v>
       </c>
       <c r="F75" t="str">
         <f>角色!$E$13</f>
@@ -13207,18 +11484,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H75" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I75" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J75" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="76" spans="5:10">
       <c r="E76" t="s">
-        <v>764</v>
+        <v>732</v>
       </c>
       <c r="F76" t="str">
         <f>角色!$E$13</f>
@@ -13229,18 +11506,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H76" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I76" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J76" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="77" spans="5:10">
       <c r="E77" t="s">
-        <v>765</v>
+        <v>733</v>
       </c>
       <c r="F77" t="str">
         <f>角色!$E$13</f>
@@ -13251,18 +11528,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H77" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I77" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J77" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="78" spans="5:10">
       <c r="E78" t="s">
-        <v>766</v>
+        <v>734</v>
       </c>
       <c r="F78" t="str">
         <f>角色!$E$13</f>
@@ -13273,18 +11550,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H78" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I78" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J78" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="79" spans="5:10">
       <c r="E79" t="s">
-        <v>767</v>
+        <v>735</v>
       </c>
       <c r="F79" t="str">
         <f>角色!$E$13</f>
@@ -13295,18 +11572,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H79" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I79" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J79" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="80" spans="5:10">
       <c r="E80" t="s">
-        <v>768</v>
+        <v>736</v>
       </c>
       <c r="F80" t="str">
         <f>角色!$E$13</f>
@@ -13317,18 +11594,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H80" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I80" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J80" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="81" spans="5:10">
       <c r="E81" t="s">
-        <v>769</v>
+        <v>737</v>
       </c>
       <c r="F81" t="str">
         <f>角色!$E$13</f>
@@ -13339,18 +11616,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H81" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I81" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J81" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="82" spans="5:10">
       <c r="E82" t="s">
-        <v>770</v>
+        <v>738</v>
       </c>
       <c r="F82" t="str">
         <f>角色!$E$13</f>
@@ -13361,18 +11638,18 @@
         <v>iam_menu-28</v>
       </c>
       <c r="H82" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I82" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J82" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="83" spans="5:10">
       <c r="E83" t="s">
-        <v>771</v>
+        <v>739</v>
       </c>
       <c r="F83" t="str">
         <f>角色!$E$13</f>
@@ -13383,18 +11660,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H83" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I83" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J83" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="84" spans="5:10">
       <c r="E84" t="s">
-        <v>772</v>
+        <v>740</v>
       </c>
       <c r="F84" t="str">
         <f>角色!$E$13</f>
@@ -13405,18 +11682,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H84" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I84" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J84" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="85" spans="5:10">
       <c r="E85" t="s">
-        <v>773</v>
+        <v>741</v>
       </c>
       <c r="F85" t="str">
         <f>角色!$E$13</f>
@@ -13427,18 +11704,18 @@
         <v>iam_menu-26</v>
       </c>
       <c r="H85" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I85" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J85" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
     <row r="86" spans="5:10">
       <c r="E86" t="s">
-        <v>774</v>
+        <v>742</v>
       </c>
       <c r="F86" t="str">
         <f>角色!$E$13</f>
@@ -13449,33 +11726,30 @@
         <v>iam_menu-27</v>
       </c>
       <c r="H86" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="I86" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="J86" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -13489,7 +11763,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -13547,15 +11821,15 @@
         <v>564</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>565</v>
       </c>
       <c r="F8" t="s">
-        <v>775</v>
+        <v>743</v>
       </c>
       <c r="G8" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="H8" t="s">
         <v>83</v>
@@ -13564,10 +11838,10 @@
         <v>568</v>
       </c>
       <c r="J8" t="s">
-        <v>777</v>
+        <v>745</v>
       </c>
       <c r="K8" t="s">
-        <v>778</v>
+        <v>746</v>
       </c>
       <c r="M8" t="s">
         <v>80</v>
@@ -13579,24 +11853,24 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>570</v>
       </c>
       <c r="F9" t="s">
-        <v>779</v>
+        <v>747</v>
       </c>
       <c r="G9" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="H9" t="s">
         <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="J9" t="s">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
@@ -13608,15 +11882,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F10" t="s">
-        <v>781</v>
+        <v>749</v>
       </c>
       <c r="G10" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="H10" t="s">
         <v>83</v>
@@ -13625,10 +11899,10 @@
         <v>568</v>
       </c>
       <c r="J10" t="s">
-        <v>782</v>
+        <v>750</v>
       </c>
       <c r="K10" t="s">
-        <v>782</v>
+        <v>750</v>
       </c>
       <c r="M10" t="s">
         <v>80</v>
@@ -13640,15 +11914,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="F11" t="s">
-        <v>783</v>
+        <v>751</v>
       </c>
       <c r="G11" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="H11" t="s">
         <v>83</v>
@@ -13657,10 +11931,10 @@
         <v>568</v>
       </c>
       <c r="J11" t="s">
-        <v>784</v>
+        <v>752</v>
       </c>
       <c r="K11" t="s">
-        <v>785</v>
+        <v>753</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -13672,15 +11946,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F12" t="s">
-        <v>786</v>
+        <v>754</v>
       </c>
       <c r="G12" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="H12" t="s">
         <v>83</v>
@@ -13689,10 +11963,10 @@
         <v>568</v>
       </c>
       <c r="J12" t="s">
-        <v>787</v>
+        <v>755</v>
       </c>
       <c r="K12" t="s">
-        <v>787</v>
+        <v>755</v>
       </c>
       <c r="M12" t="s">
         <v>80</v>
@@ -13704,15 +11978,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F13" t="s">
-        <v>788</v>
+        <v>756</v>
       </c>
       <c r="G13" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="H13" t="s">
         <v>83</v>
@@ -13721,10 +11995,10 @@
         <v>568</v>
       </c>
       <c r="J13" t="s">
-        <v>789</v>
+        <v>757</v>
       </c>
       <c r="K13" t="s">
-        <v>790</v>
+        <v>758</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -13736,15 +12010,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="F14" t="s">
-        <v>791</v>
+        <v>759</v>
       </c>
       <c r="G14" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="H14" t="s">
         <v>83</v>
@@ -13753,10 +12027,10 @@
         <v>568</v>
       </c>
       <c r="J14" t="s">
-        <v>792</v>
+        <v>760</v>
       </c>
       <c r="K14" t="s">
-        <v>681</v>
+        <v>649</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -13768,15 +12042,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="F15" t="s">
-        <v>793</v>
+        <v>761</v>
       </c>
       <c r="G15" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="H15" t="s">
         <v>83</v>
@@ -13785,10 +12059,10 @@
         <v>568</v>
       </c>
       <c r="J15" t="s">
-        <v>794</v>
+        <v>762</v>
       </c>
       <c r="K15" t="s">
-        <v>795</v>
+        <v>763</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -13800,15 +12074,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="F16" t="s">
-        <v>796</v>
+        <v>764</v>
       </c>
       <c r="G16" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="H16" t="s">
         <v>83</v>
@@ -13817,10 +12091,10 @@
         <v>568</v>
       </c>
       <c r="J16" t="s">
-        <v>797</v>
+        <v>765</v>
       </c>
       <c r="K16" t="s">
-        <v>798</v>
+        <v>766</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -13832,15 +12106,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="5:15">
+    <row r="17" spans="1:15">
       <c r="E17" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="F17" t="s">
-        <v>799</v>
+        <v>767</v>
       </c>
       <c r="G17" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="H17" t="s">
         <v>83</v>
@@ -13849,10 +12123,10 @@
         <v>568</v>
       </c>
       <c r="J17" t="s">
-        <v>800</v>
+        <v>768</v>
       </c>
       <c r="K17" t="s">
-        <v>801</v>
+        <v>769</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -13864,15 +12138,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="1:15">
       <c r="E18" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="F18" t="s">
-        <v>802</v>
+        <v>770</v>
       </c>
       <c r="G18" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="H18" t="s">
         <v>83</v>
@@ -13881,10 +12155,10 @@
         <v>568</v>
       </c>
       <c r="J18" t="s">
-        <v>803</v>
+        <v>771</v>
       </c>
       <c r="K18" t="s">
-        <v>802</v>
+        <v>770</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -13896,15 +12170,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="1:15">
       <c r="E19" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="F19" t="s">
-        <v>804</v>
+        <v>772</v>
       </c>
       <c r="G19" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="H19" t="s">
         <v>83</v>
@@ -13913,10 +12187,10 @@
         <v>568</v>
       </c>
       <c r="J19" t="s">
-        <v>805</v>
+        <v>773</v>
       </c>
       <c r="K19" t="s">
-        <v>804</v>
+        <v>772</v>
       </c>
       <c r="M19" t="s">
         <v>80</v>
@@ -13928,7 +12202,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -13936,33 +12210,33 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>621</v>
+        <v>590</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>622</v>
+        <v>591</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>623</v>
+        <v>592</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>624</v>
+        <v>593</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>626</v>
+        <v>595</v>
       </c>
       <c r="I21" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="22" spans="5:9">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
-        <v>628</v>
+        <v>597</v>
       </c>
       <c r="F22" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="G22" t="str">
         <f>角色!$E$10</f>
@@ -13973,15 +12247,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I22" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="23" spans="5:9">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
-        <v>628</v>
+        <v>597</v>
       </c>
       <c r="F23" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="G23" t="str">
         <f>角色!$E$10</f>
@@ -13992,15 +12266,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I23" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="24" spans="5:9">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
-        <v>628</v>
+        <v>597</v>
       </c>
       <c r="F24" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="G24" t="str">
         <f>角色!$E$10</f>
@@ -14011,15 +12285,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I24" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="25" spans="5:9">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
-        <v>628</v>
+        <v>597</v>
       </c>
       <c r="F25" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="G25" t="str">
         <f>角色!$E$11</f>
@@ -14030,15 +12304,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I25" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="26" spans="5:9">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
-        <v>628</v>
+        <v>597</v>
       </c>
       <c r="F26" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="G26" t="str">
         <f>角色!$E$11</f>
@@ -14049,15 +12323,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I26" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="27" spans="5:9">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="E27" t="s">
-        <v>628</v>
+        <v>597</v>
       </c>
       <c r="F27" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="G27" t="str">
         <f>角色!$E$11</f>
@@ -14068,15 +12342,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I27" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="28" spans="5:9">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="E28" t="s">
-        <v>628</v>
+        <v>597</v>
       </c>
       <c r="F28" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
@@ -14087,15 +12361,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I28" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="29" spans="5:9">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
-        <v>628</v>
+        <v>597</v>
       </c>
       <c r="F29" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="G29" t="str">
         <f>角色!$E$12</f>
@@ -14106,15 +12380,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I29" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="30" spans="5:9">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="E30" t="s">
-        <v>628</v>
+        <v>597</v>
       </c>
       <c r="F30" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="G30" t="str">
         <f>角色!$E$12</f>
@@ -14125,15 +12399,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I30" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="31" spans="5:9">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="E31" t="s">
-        <v>628</v>
+        <v>597</v>
       </c>
       <c r="F31" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="G31" t="str">
         <f>角色!$E$12</f>
@@ -14144,15 +12418,15 @@
         <v>iam_label-18</v>
       </c>
       <c r="I31" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="32" spans="5:9">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
-        <v>628</v>
+        <v>597</v>
       </c>
       <c r="F32" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
@@ -14163,15 +12437,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I32" t="s">
-        <v>630</v>
+        <v>598</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>628</v>
+        <v>597</v>
       </c>
       <c r="F33" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="G33" t="str">
         <f>角色!$E$13</f>
@@ -14182,15 +12456,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I33" t="s">
-        <v>630</v>
+        <v>598</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>628</v>
+        <v>597</v>
       </c>
       <c r="F34" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="G34" t="str">
         <f>角色!$E$13</f>
@@ -14201,15 +12475,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I34" t="s">
-        <v>630</v>
+        <v>598</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>628</v>
+        <v>597</v>
       </c>
       <c r="F35" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="G35" t="str">
         <f>角色!$E$13</f>
@@ -14220,12 +12494,12 @@
         <v>iam_label-19</v>
       </c>
       <c r="I35" t="s">
-        <v>630</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\agile\test-manager-service\src\main\resources\script\db\init-data\test_manager_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3838D2-49FA-4AD8-AE98-3B52765CA0E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9236BE-EBBB-4672-8786-41095E5BA072}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="600">
   <si>
     <r>
       <rPr>
@@ -2132,84 +2132,12 @@
     <t>choerodon.code.project.operation|choerodon.code.project.operation.chart</t>
   </si>
   <si>
-    <t>iam_menu-10</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation.chart.ps.build.duration</t>
-  </si>
-  <si>
-    <t>构建时长图</t>
-  </si>
-  <si>
     <t>ps</t>
   </si>
   <si>
     <t>link</t>
   </si>
   <si>
-    <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.build.duration</t>
-  </si>
-  <si>
-    <t>iam_menu-11</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation.chart.ps.build.times</t>
-  </si>
-  <si>
-    <t>构建次数图</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.build.times</t>
-  </si>
-  <si>
-    <t>iam_menu-12</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.burndown</t>
-  </si>
-  <si>
-    <t>燃尽图</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.burndown</t>
-  </si>
-  <si>
-    <t>iam_menu-13</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.cumulative_flow_diagram</t>
-  </si>
-  <si>
-    <t>累积流量图</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.cumulative_flow_diagram</t>
-  </si>
-  <si>
-    <t>iam_menu-14</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.epicburndown</t>
-  </si>
-  <si>
-    <t>史诗燃耗图</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.epicburndown</t>
-  </si>
-  <si>
-    <t>iam_menu-15</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.epicreport</t>
-  </si>
-  <si>
-    <t>史诗报告图</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.epicreport</t>
-  </si>
-  <si>
     <t>iam_menu-16</t>
   </si>
   <si>
@@ -2222,18 +2150,6 @@
     <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.excuteprogress</t>
   </si>
   <si>
-    <t>iam_menu-17</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.piechart</t>
-  </si>
-  <si>
-    <t>统计图</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.piechart</t>
-  </si>
-  <si>
     <t>iam_menu-18</t>
   </si>
   <si>
@@ -2258,54 +2174,6 @@
     <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.reportfromissue</t>
   </si>
   <si>
-    <t>iam_menu-20</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.sprintreport</t>
-  </si>
-  <si>
-    <t>冲刺报告图</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.sprintreport</t>
-  </si>
-  <si>
-    <t>iam_menu-21</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.velocity_chart</t>
-  </si>
-  <si>
-    <t>迭代速度图</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.velocity_chart</t>
-  </si>
-  <si>
-    <t>iam_menu-22</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.versionburndown</t>
-  </si>
-  <si>
-    <t>版本燃耗图</t>
-  </si>
-  <si>
-    <t>版本报告图</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.versionburndown</t>
-  </si>
-  <si>
-    <t>iam_menu-23</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.versionreport</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.choerodon.code.project.operation.chart.ps.versionreport</t>
-  </si>
-  <si>
     <t>iam_menu-24</t>
   </si>
   <si>
@@ -2330,42 +2198,6 @@
     <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.default</t>
   </si>
   <si>
-    <t>iam_menu-26</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation.chart.ps.deploy.duration</t>
-  </si>
-  <si>
-    <t>部署时长图</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.deploy.duration</t>
-  </si>
-  <si>
-    <t>iam_menu-27</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation.chart.ps.deploy.times</t>
-  </si>
-  <si>
-    <t>部署次数图</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.deploy.times</t>
-  </si>
-  <si>
-    <t>iam_menu-28</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation.chart.ps.sonarqube</t>
-  </si>
-  <si>
-    <t>代码质量图</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation|choerodon.code.project.operation.chart|choerodon.code.project.operation.chart.ps.sonarqube</t>
-  </si>
-  <si>
     <t>iam_menu-29</t>
   </si>
   <si>
@@ -3125,174 +2957,9 @@
     <t>iam_menu_permission-102</t>
   </si>
   <si>
-    <t>iam_menu_permission-103</t>
-  </si>
-  <si>
-    <t>agile-service.report.queryBurnDownCoordinate</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-104</t>
-  </si>
-  <si>
-    <t>agile-service.report.queryBurnDownReport</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-105</t>
-  </si>
-  <si>
-    <t>agile-service.report.queryBurnDownReportByType</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-106</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-107</t>
-  </si>
-  <si>
     <t>agile-service.sprint.queryNameByOptions</t>
   </si>
   <si>
-    <t>iam_menu_permission-108</t>
-  </si>
-  <si>
-    <t>agile-service.sprint.queryNonWorkdays</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-109</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-110</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-111</t>
-  </si>
-  <si>
-    <t>agile-service.sprint.queryIssueByOptions</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-112</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-113</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-114</t>
-  </si>
-  <si>
-    <t>agile-service.sprint.querySprintById</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-115</t>
-  </si>
-  <si>
-    <t>agile-service.board.queryByOptions</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-116</t>
-  </si>
-  <si>
-    <t>agile-service.board.queryByProjectId</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-117</t>
-  </si>
-  <si>
-    <t>agile-service.project-info.queryProjectInfoByProjectId</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-118</t>
-  </si>
-  <si>
-    <t>agile-service.quick-filter.listByProjectId</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-119</t>
-  </si>
-  <si>
-    <t>agile-service.report.queryCumulativeFlowDiagram</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-120</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-121</t>
-  </si>
-  <si>
-    <t>agile-service.product-version.queryNameByOptions</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-122</t>
-  </si>
-  <si>
-    <t>agile-service.report.queryVersionChart</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-123</t>
-  </si>
-  <si>
-    <t>agile-service.report.queryVersionChartList</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-124</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-125</t>
-  </si>
-  <si>
-    <t>agile-service.report.queryVelocityChart</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-126</t>
-  </si>
-  <si>
-    <t>agile-service.issue.listEpic</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-127</t>
-  </si>
-  <si>
-    <t>agile-service.report.queryEpicChart</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-128</t>
-  </si>
-  <si>
-    <t>agile-service.report.queryEpicChartList</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-129</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-130</t>
-  </si>
-  <si>
-    <t>agile-service.report.queryPieChart</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-131</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-132</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-133</t>
-  </si>
-  <si>
-    <t>agile-service.report.queryBurnDownCoordinateByType</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-134</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-135</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-136</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-137</t>
-  </si>
-  <si>
     <t>iam_menu_permission-138</t>
   </si>
   <si>
@@ -3359,87 +3026,6 @@
     <t>devops-service.devops-gitlab-commit.getRecordCommits</t>
   </si>
   <si>
-    <t>iam_menu_permission-151</t>
-  </si>
-  <si>
-    <t>devops-service.app-service.getSonarQubeTable</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-152</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-153</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-154</t>
-  </si>
-  <si>
-    <t>devops-service.devops-gitlab-pipeline.listPipelineFrequency</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-155</t>
-  </si>
-  <si>
-    <t>devops-service.devops-gitlab-pipeline.pageByOptions</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-156</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-157</t>
-  </si>
-  <si>
-    <t>devops-service.devops-gitlab-pipeline.listPipelineTime</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-158</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-159</t>
-  </si>
-  <si>
-    <t>devops-service.app-service-instance.listDeployTimeReport</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-160</t>
-  </si>
-  <si>
-    <t>devops-service.app-service-instance.pageDeployTimeTable</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-161</t>
-  </si>
-  <si>
-    <t>devops-service.app-service.listByEnvIdAndStatus</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-162</t>
-  </si>
-  <si>
-    <t>devops-service.devops-environment.listByActive</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-163</t>
-  </si>
-  <si>
-    <t>devops-service.app-service-instance.listDeployFrequencyReport</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-164</t>
-  </si>
-  <si>
-    <t>devops-service.app-service-instance.pageDeployFrequencyDetailTable</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-165</t>
-  </si>
-  <si>
-    <t>devops-service.app-service.listAll</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-166</t>
-  </si>
-  <si>
     <t>iam_menu_permission-167</t>
   </si>
   <si>
@@ -3881,33 +3467,6 @@
     <t>iam_role_permission-21</t>
   </si>
   <si>
-    <t>iam_role_permission-22</t>
-  </si>
-  <si>
-    <t>iam_role_permission-23</t>
-  </si>
-  <si>
-    <t>iam_role_permission-24</t>
-  </si>
-  <si>
-    <t>iam_role_permission-25</t>
-  </si>
-  <si>
-    <t>iam_role_permission-26</t>
-  </si>
-  <si>
-    <t>iam_role_permission-27</t>
-  </si>
-  <si>
-    <t>iam_role_permission-28</t>
-  </si>
-  <si>
-    <t>iam_role_permission-29</t>
-  </si>
-  <si>
-    <t>iam_role_permission-30</t>
-  </si>
-  <si>
     <t>iam_role_permission-31</t>
   </si>
   <si>
@@ -3920,21 +3479,6 @@
     <t>iam_role_permission-34</t>
   </si>
   <si>
-    <t>iam_role_permission-35</t>
-  </si>
-  <si>
-    <t>iam_role_permission-36</t>
-  </si>
-  <si>
-    <t>iam_role_permission-37</t>
-  </si>
-  <si>
-    <t>iam_role_permission-38</t>
-  </si>
-  <si>
-    <t>iam_role_permission-39</t>
-  </si>
-  <si>
     <t>iam_role_permission-40</t>
   </si>
   <si>
@@ -3953,33 +3497,6 @@
     <t>iam_role_permission-45</t>
   </si>
   <si>
-    <t>iam_role_permission-46</t>
-  </si>
-  <si>
-    <t>iam_role_permission-47</t>
-  </si>
-  <si>
-    <t>iam_role_permission-48</t>
-  </si>
-  <si>
-    <t>iam_role_permission-49</t>
-  </si>
-  <si>
-    <t>iam_role_permission-50</t>
-  </si>
-  <si>
-    <t>iam_role_permission-51</t>
-  </si>
-  <si>
-    <t>iam_role_permission-52</t>
-  </si>
-  <si>
-    <t>iam_role_permission-53</t>
-  </si>
-  <si>
-    <t>iam_role_permission-54</t>
-  </si>
-  <si>
     <t>iam_role_permission-55</t>
   </si>
   <si>
@@ -3992,21 +3509,6 @@
     <t>iam_role_permission-58</t>
   </si>
   <si>
-    <t>iam_role_permission-59</t>
-  </si>
-  <si>
-    <t>iam_role_permission-60</t>
-  </si>
-  <si>
-    <t>iam_role_permission-61</t>
-  </si>
-  <si>
-    <t>iam_role_permission-62</t>
-  </si>
-  <si>
-    <t>iam_role_permission-63</t>
-  </si>
-  <si>
     <t>iam_role_permission-64</t>
   </si>
   <si>
@@ -4025,33 +3527,6 @@
     <t>iam_role_permission-68</t>
   </si>
   <si>
-    <t>iam_role_permission-69</t>
-  </si>
-  <si>
-    <t>iam_role_permission-70</t>
-  </si>
-  <si>
-    <t>iam_role_permission-71</t>
-  </si>
-  <si>
-    <t>iam_role_permission-72</t>
-  </si>
-  <si>
-    <t>iam_role_permission-73</t>
-  </si>
-  <si>
-    <t>iam_role_permission-74</t>
-  </si>
-  <si>
-    <t>iam_role_permission-75</t>
-  </si>
-  <si>
-    <t>iam_role_permission-76</t>
-  </si>
-  <si>
-    <t>iam_role_permission-77</t>
-  </si>
-  <si>
     <t>iam_role_permission-78</t>
   </si>
   <si>
@@ -4062,21 +3537,6 @@
   </si>
   <si>
     <t>iam_role_permission-81</t>
-  </si>
-  <si>
-    <t>iam_role_permission-82</t>
-  </si>
-  <si>
-    <t>iam_role_permission-83</t>
-  </si>
-  <si>
-    <t>iam_role_permission-84</t>
-  </si>
-  <si>
-    <t>iam_role_permission-85</t>
-  </si>
-  <si>
-    <t>iam_role_permission-86</t>
   </si>
   <si>
     <t>TENANT_MGR</t>
@@ -4547,6 +4007,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4561,9 +4024,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4935,11 +4395,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="9"/>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
@@ -4948,21 +4408,21 @@
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="39" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="12" t="s">
         <v>4</v>
       </c>
@@ -5073,11 +4533,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="29" t="s">
@@ -5115,19 +4575,19 @@
       <c r="C25" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="37"/>
+      <c r="E25" s="38"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="37"/>
+      <c r="E26" s="38"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="31" t="s">
@@ -5152,16 +4612,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y41"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
     <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="51.5546875" customWidth="1"/>
+    <col min="6" max="6" width="90.77734375" customWidth="1"/>
     <col min="7" max="7" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5376,16 +4836,16 @@
     </row>
     <row r="10" spans="1:25">
       <c r="E10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
@@ -5395,13 +4855,13 @@
         <v>iam_menu-9</v>
       </c>
       <c r="L10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N10" t="s">
         <v>83</v>
       </c>
       <c r="O10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q10" t="s">
         <v>80</v>
@@ -5443,13 +4903,13 @@
         <v>iam_menu-9</v>
       </c>
       <c r="L11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N11" t="s">
         <v>83</v>
       </c>
       <c r="O11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q11" t="s">
         <v>80</v>
@@ -5491,13 +4951,13 @@
         <v>iam_menu-9</v>
       </c>
       <c r="L12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N12" t="s">
         <v>83</v>
       </c>
       <c r="O12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q12" t="s">
         <v>80</v>
@@ -5539,13 +4999,13 @@
         <v>iam_menu-9</v>
       </c>
       <c r="L13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N13" t="s">
         <v>83</v>
       </c>
       <c r="O13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q13" t="s">
         <v>80</v>
@@ -5587,13 +5047,13 @@
         <v>iam_menu-9</v>
       </c>
       <c r="L14" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="M14" t="s">
+        <v>80</v>
       </c>
       <c r="N14" t="s">
         <v>83</v>
-      </c>
-      <c r="O14" t="s">
-        <v>98</v>
       </c>
       <c r="Q14" t="s">
         <v>80</v>
@@ -5627,22 +5087,24 @@
       <c r="H15" t="s">
         <v>118</v>
       </c>
+      <c r="I15" t="s">
+        <v>119</v>
+      </c>
       <c r="J15" t="s">
         <v>79</v>
       </c>
-      <c r="K15" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
+      <c r="K15" t="s">
+        <v>80</v>
       </c>
       <c r="L15" t="s">
-        <v>97</v>
+        <v>81</v>
+      </c>
+      <c r="M15" t="s">
+        <v>120</v>
       </c>
       <c r="N15" t="s">
         <v>83</v>
       </c>
-      <c r="O15" t="s">
-        <v>98</v>
-      </c>
       <c r="Q15" t="s">
         <v>80</v>
       </c>
@@ -5650,7 +5112,7 @@
         <v>80</v>
       </c>
       <c r="S15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T15" t="s">
         <v>80</v>
@@ -5664,32 +5126,41 @@
     </row>
     <row r="16" spans="1:25">
       <c r="E16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H16" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="I16" t="s">
+        <v>124</v>
       </c>
       <c r="J16" t="s">
         <v>79</v>
       </c>
       <c r="K16" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
+        <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-29</v>
       </c>
       <c r="L16" t="s">
-        <v>97</v>
+        <v>89</v>
+      </c>
+      <c r="M16" t="s">
+        <v>125</v>
       </c>
       <c r="N16" t="s">
         <v>83</v>
       </c>
       <c r="O16" t="s">
-        <v>98</v>
+        <v>126</v>
+      </c>
+      <c r="P16" t="s">
+        <v>127</v>
       </c>
       <c r="Q16" t="s">
         <v>80</v>
@@ -5698,7 +5169,7 @@
         <v>80</v>
       </c>
       <c r="S16" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="T16" t="s">
         <v>80</v>
@@ -5712,33 +5183,33 @@
     </row>
     <row r="17" spans="5:24">
       <c r="E17" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F17" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G17" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H17" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="J17" t="s">
         <v>79</v>
       </c>
       <c r="K17" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
+        <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-30</v>
       </c>
       <c r="L17" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="M17" t="s">
+        <v>80</v>
       </c>
       <c r="N17" t="s">
         <v>83</v>
       </c>
-      <c r="O17" t="s">
-        <v>98</v>
-      </c>
       <c r="Q17" t="s">
         <v>80</v>
       </c>
@@ -5746,7 +5217,7 @@
         <v>80</v>
       </c>
       <c r="S17" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="T17" t="s">
         <v>80</v>
@@ -5760,33 +5231,35 @@
     </row>
     <row r="18" spans="5:24">
       <c r="E18" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G18" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="H18" t="s">
-        <v>130</v>
+        <v>123</v>
+      </c>
+      <c r="I18" t="s">
+        <v>124</v>
       </c>
       <c r="J18" t="s">
         <v>79</v>
       </c>
-      <c r="K18" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
+      <c r="K18" t="s">
+        <v>80</v>
       </c>
       <c r="L18" t="s">
-        <v>97</v>
+        <v>81</v>
+      </c>
+      <c r="M18" t="s">
+        <v>135</v>
       </c>
       <c r="N18" t="s">
         <v>83</v>
       </c>
-      <c r="O18" t="s">
-        <v>98</v>
-      </c>
       <c r="Q18" t="s">
         <v>80</v>
       </c>
@@ -5794,7 +5267,7 @@
         <v>80</v>
       </c>
       <c r="S18" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="T18" t="s">
         <v>80</v>
@@ -5808,32 +5281,41 @@
     </row>
     <row r="19" spans="5:24">
       <c r="E19" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F19" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G19" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H19" t="s">
-        <v>134</v>
+        <v>138</v>
+      </c>
+      <c r="I19" t="s">
+        <v>139</v>
       </c>
       <c r="J19" t="s">
         <v>79</v>
       </c>
       <c r="K19" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
+        <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-32</v>
       </c>
       <c r="L19" t="s">
-        <v>97</v>
+        <v>89</v>
+      </c>
+      <c r="M19" t="s">
+        <v>125</v>
       </c>
       <c r="N19" t="s">
         <v>83</v>
       </c>
       <c r="O19" t="s">
-        <v>98</v>
+        <v>140</v>
+      </c>
+      <c r="P19" t="s">
+        <v>141</v>
       </c>
       <c r="Q19" t="s">
         <v>80</v>
@@ -5842,7 +5324,7 @@
         <v>80</v>
       </c>
       <c r="S19" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="T19" t="s">
         <v>80</v>
@@ -5856,33 +5338,33 @@
     </row>
     <row r="20" spans="5:24">
       <c r="E20" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F20" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G20" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="H20" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="J20" t="s">
         <v>79</v>
       </c>
       <c r="K20" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
+        <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-33</v>
       </c>
       <c r="L20" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="M20" t="s">
+        <v>80</v>
       </c>
       <c r="N20" t="s">
         <v>83</v>
       </c>
-      <c r="O20" t="s">
-        <v>98</v>
-      </c>
       <c r="Q20" t="s">
         <v>80</v>
       </c>
@@ -5890,7 +5372,7 @@
         <v>80</v>
       </c>
       <c r="S20" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="T20" t="s">
         <v>80</v>
@@ -5904,32 +5386,41 @@
     </row>
     <row r="21" spans="5:24">
       <c r="E21" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F21" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G21" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="H21" t="s">
-        <v>142</v>
+        <v>149</v>
+      </c>
+      <c r="I21" t="s">
+        <v>150</v>
       </c>
       <c r="J21" t="s">
         <v>79</v>
       </c>
       <c r="K21" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
+        <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-32</v>
       </c>
       <c r="L21" t="s">
-        <v>97</v>
+        <v>89</v>
+      </c>
+      <c r="M21" t="s">
+        <v>90</v>
       </c>
       <c r="N21" t="s">
         <v>83</v>
       </c>
       <c r="O21" t="s">
-        <v>98</v>
+        <v>151</v>
+      </c>
+      <c r="P21" t="s">
+        <v>152</v>
       </c>
       <c r="Q21" t="s">
         <v>80</v>
@@ -5938,7 +5429,7 @@
         <v>80</v>
       </c>
       <c r="S21" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="T21" t="s">
         <v>80</v>
@@ -5952,33 +5443,33 @@
     </row>
     <row r="22" spans="5:24">
       <c r="E22" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="F22" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G22" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="H22" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="J22" t="s">
         <v>79</v>
       </c>
       <c r="K22" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
+        <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-35</v>
       </c>
       <c r="L22" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="M22" t="s">
+        <v>80</v>
       </c>
       <c r="N22" t="s">
         <v>83</v>
       </c>
-      <c r="O22" t="s">
-        <v>98</v>
-      </c>
       <c r="Q22" t="s">
         <v>80</v>
       </c>
@@ -5986,7 +5477,7 @@
         <v>80</v>
       </c>
       <c r="S22" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="T22" t="s">
         <v>80</v>
@@ -6000,32 +5491,41 @@
     </row>
     <row r="23" spans="5:24">
       <c r="E23" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F23" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="G23" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="H23" t="s">
-        <v>147</v>
+        <v>160</v>
+      </c>
+      <c r="I23" t="s">
+        <v>161</v>
       </c>
       <c r="J23" t="s">
         <v>79</v>
       </c>
       <c r="K23" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
+        <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-32</v>
       </c>
       <c r="L23" t="s">
-        <v>97</v>
+        <v>89</v>
+      </c>
+      <c r="M23" t="s">
+        <v>162</v>
       </c>
       <c r="N23" t="s">
         <v>83</v>
       </c>
       <c r="O23" t="s">
-        <v>98</v>
+        <v>163</v>
+      </c>
+      <c r="P23" t="s">
+        <v>164</v>
       </c>
       <c r="Q23" t="s">
         <v>80</v>
@@ -6034,7 +5534,7 @@
         <v>80</v>
       </c>
       <c r="S23" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="T23" t="s">
         <v>80</v>
@@ -6048,33 +5548,33 @@
     </row>
     <row r="24" spans="5:24">
       <c r="E24" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="F24" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="G24" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="H24" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="J24" t="s">
         <v>79</v>
       </c>
       <c r="K24" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
+        <f>菜单SAAS版!$E$23</f>
+        <v>iam_menu-37</v>
       </c>
       <c r="L24" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="M24" t="s">
+        <v>80</v>
       </c>
       <c r="N24" t="s">
         <v>83</v>
       </c>
-      <c r="O24" t="s">
-        <v>98</v>
-      </c>
       <c r="Q24" t="s">
         <v>80</v>
       </c>
@@ -6082,7 +5582,7 @@
         <v>80</v>
       </c>
       <c r="S24" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="T24" t="s">
         <v>80</v>
@@ -6096,29 +5596,31 @@
     </row>
     <row r="25" spans="5:24">
       <c r="E25" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="F25" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="G25" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="H25" t="s">
-        <v>158</v>
+        <v>118</v>
+      </c>
+      <c r="I25" t="s">
+        <v>119</v>
       </c>
       <c r="J25" t="s">
         <v>79</v>
       </c>
-      <c r="K25" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
+      <c r="K25" t="s">
+        <v>80</v>
       </c>
       <c r="L25" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="M25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N25" t="s">
         <v>83</v>
@@ -6130,7 +5632,7 @@
         <v>80</v>
       </c>
       <c r="S25" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="T25" t="s">
         <v>80</v>
@@ -6144,32 +5646,41 @@
     </row>
     <row r="26" spans="5:24">
       <c r="E26" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F26" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="G26" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="H26" t="s">
-        <v>162</v>
+        <v>174</v>
+      </c>
+      <c r="I26" t="s">
+        <v>175</v>
       </c>
       <c r="J26" t="s">
         <v>79</v>
       </c>
       <c r="K26" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
+        <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-39</v>
       </c>
       <c r="L26" t="s">
-        <v>97</v>
+        <v>89</v>
+      </c>
+      <c r="M26">
+        <v>55</v>
       </c>
       <c r="N26" t="s">
         <v>83</v>
       </c>
       <c r="O26" t="s">
-        <v>98</v>
+        <v>176</v>
+      </c>
+      <c r="P26" t="s">
+        <v>177</v>
       </c>
       <c r="Q26" t="s">
         <v>80</v>
@@ -6178,7 +5689,7 @@
         <v>80</v>
       </c>
       <c r="S26" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="T26" t="s">
         <v>80</v>
@@ -6192,33 +5703,33 @@
     </row>
     <row r="27" spans="5:24">
       <c r="E27" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="F27" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="G27" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="H27" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="J27" t="s">
         <v>79</v>
       </c>
       <c r="K27" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
+        <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-40</v>
       </c>
       <c r="L27" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="M27" t="s">
+        <v>80</v>
       </c>
       <c r="N27" t="s">
         <v>83</v>
       </c>
-      <c r="O27" t="s">
-        <v>98</v>
-      </c>
       <c r="Q27" t="s">
         <v>80</v>
       </c>
@@ -6226,7 +5737,7 @@
         <v>80</v>
       </c>
       <c r="S27" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="T27" t="s">
         <v>80</v>
@@ -6235,729 +5746,6 @@
         <v>84</v>
       </c>
       <c r="X27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="5:24">
-      <c r="E28" t="s">
-        <v>168</v>
-      </c>
-      <c r="F28" t="s">
-        <v>169</v>
-      </c>
-      <c r="G28" t="s">
-        <v>170</v>
-      </c>
-      <c r="H28" t="s">
-        <v>170</v>
-      </c>
-      <c r="J28" t="s">
-        <v>79</v>
-      </c>
-      <c r="K28" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
-      </c>
-      <c r="L28" t="s">
-        <v>97</v>
-      </c>
-      <c r="N28" t="s">
-        <v>83</v>
-      </c>
-      <c r="O28" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>80</v>
-      </c>
-      <c r="R28" t="s">
-        <v>80</v>
-      </c>
-      <c r="S28" t="s">
-        <v>171</v>
-      </c>
-      <c r="T28" t="s">
-        <v>80</v>
-      </c>
-      <c r="V28" t="s">
-        <v>84</v>
-      </c>
-      <c r="X28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="5:24">
-      <c r="E29" t="s">
-        <v>172</v>
-      </c>
-      <c r="F29" t="s">
-        <v>173</v>
-      </c>
-      <c r="G29" t="s">
-        <v>174</v>
-      </c>
-      <c r="H29" t="s">
-        <v>174</v>
-      </c>
-      <c r="I29" t="s">
-        <v>175</v>
-      </c>
-      <c r="J29" t="s">
-        <v>79</v>
-      </c>
-      <c r="K29" t="s">
-        <v>80</v>
-      </c>
-      <c r="L29" t="s">
-        <v>81</v>
-      </c>
-      <c r="M29" t="s">
-        <v>176</v>
-      </c>
-      <c r="N29" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>80</v>
-      </c>
-      <c r="R29" t="s">
-        <v>80</v>
-      </c>
-      <c r="S29" t="s">
-        <v>173</v>
-      </c>
-      <c r="T29" t="s">
-        <v>80</v>
-      </c>
-      <c r="V29" t="s">
-        <v>84</v>
-      </c>
-      <c r="X29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="5:24">
-      <c r="E30" t="s">
-        <v>177</v>
-      </c>
-      <c r="F30" t="s">
-        <v>178</v>
-      </c>
-      <c r="G30" t="s">
-        <v>179</v>
-      </c>
-      <c r="H30" t="s">
-        <v>179</v>
-      </c>
-      <c r="I30" t="s">
-        <v>180</v>
-      </c>
-      <c r="J30" t="s">
-        <v>79</v>
-      </c>
-      <c r="K30" t="str">
-        <f>菜单SAAS版!$E$29</f>
-        <v>iam_menu-29</v>
-      </c>
-      <c r="L30" t="s">
-        <v>89</v>
-      </c>
-      <c r="M30" t="s">
-        <v>181</v>
-      </c>
-      <c r="N30" t="s">
-        <v>83</v>
-      </c>
-      <c r="O30" t="s">
-        <v>182</v>
-      </c>
-      <c r="P30" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>80</v>
-      </c>
-      <c r="R30" t="s">
-        <v>80</v>
-      </c>
-      <c r="S30" t="s">
-        <v>184</v>
-      </c>
-      <c r="T30" t="s">
-        <v>80</v>
-      </c>
-      <c r="V30" t="s">
-        <v>84</v>
-      </c>
-      <c r="X30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="5:24">
-      <c r="E31" t="s">
-        <v>185</v>
-      </c>
-      <c r="F31" t="s">
-        <v>186</v>
-      </c>
-      <c r="G31" t="s">
-        <v>187</v>
-      </c>
-      <c r="H31" t="s">
-        <v>187</v>
-      </c>
-      <c r="J31" t="s">
-        <v>79</v>
-      </c>
-      <c r="K31" t="str">
-        <f>菜单SAAS版!$E$30</f>
-        <v>iam_menu-30</v>
-      </c>
-      <c r="L31" t="s">
-        <v>97</v>
-      </c>
-      <c r="M31" t="s">
-        <v>80</v>
-      </c>
-      <c r="N31" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>80</v>
-      </c>
-      <c r="R31" t="s">
-        <v>80</v>
-      </c>
-      <c r="S31" t="s">
-        <v>188</v>
-      </c>
-      <c r="T31" t="s">
-        <v>80</v>
-      </c>
-      <c r="V31" t="s">
-        <v>84</v>
-      </c>
-      <c r="X31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="5:24">
-      <c r="E32" t="s">
-        <v>189</v>
-      </c>
-      <c r="F32" t="s">
-        <v>190</v>
-      </c>
-      <c r="G32" t="s">
-        <v>179</v>
-      </c>
-      <c r="H32" t="s">
-        <v>179</v>
-      </c>
-      <c r="I32" t="s">
-        <v>180</v>
-      </c>
-      <c r="J32" t="s">
-        <v>79</v>
-      </c>
-      <c r="K32" t="s">
-        <v>80</v>
-      </c>
-      <c r="L32" t="s">
-        <v>81</v>
-      </c>
-      <c r="M32" t="s">
-        <v>191</v>
-      </c>
-      <c r="N32" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>80</v>
-      </c>
-      <c r="R32" t="s">
-        <v>80</v>
-      </c>
-      <c r="S32" t="s">
-        <v>190</v>
-      </c>
-      <c r="T32" t="s">
-        <v>80</v>
-      </c>
-      <c r="V32" t="s">
-        <v>84</v>
-      </c>
-      <c r="X32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="5:24">
-      <c r="E33" t="s">
-        <v>192</v>
-      </c>
-      <c r="F33" t="s">
-        <v>193</v>
-      </c>
-      <c r="G33" t="s">
-        <v>194</v>
-      </c>
-      <c r="H33" t="s">
-        <v>194</v>
-      </c>
-      <c r="I33" t="s">
-        <v>195</v>
-      </c>
-      <c r="J33" t="s">
-        <v>79</v>
-      </c>
-      <c r="K33" t="str">
-        <f>菜单SAAS版!$E$32</f>
-        <v>iam_menu-32</v>
-      </c>
-      <c r="L33" t="s">
-        <v>89</v>
-      </c>
-      <c r="M33" t="s">
-        <v>181</v>
-      </c>
-      <c r="N33" t="s">
-        <v>83</v>
-      </c>
-      <c r="O33" t="s">
-        <v>196</v>
-      </c>
-      <c r="P33" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>80</v>
-      </c>
-      <c r="R33" t="s">
-        <v>80</v>
-      </c>
-      <c r="S33" t="s">
-        <v>198</v>
-      </c>
-      <c r="T33" t="s">
-        <v>80</v>
-      </c>
-      <c r="V33" t="s">
-        <v>84</v>
-      </c>
-      <c r="X33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="5:24">
-      <c r="E34" t="s">
-        <v>199</v>
-      </c>
-      <c r="F34" t="s">
-        <v>200</v>
-      </c>
-      <c r="G34" t="s">
-        <v>201</v>
-      </c>
-      <c r="H34" t="s">
-        <v>201</v>
-      </c>
-      <c r="J34" t="s">
-        <v>79</v>
-      </c>
-      <c r="K34" t="str">
-        <f>菜单SAAS版!$E$33</f>
-        <v>iam_menu-33</v>
-      </c>
-      <c r="L34" t="s">
-        <v>97</v>
-      </c>
-      <c r="M34" t="s">
-        <v>80</v>
-      </c>
-      <c r="N34" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>80</v>
-      </c>
-      <c r="R34" t="s">
-        <v>80</v>
-      </c>
-      <c r="S34" t="s">
-        <v>202</v>
-      </c>
-      <c r="T34" t="s">
-        <v>80</v>
-      </c>
-      <c r="V34" t="s">
-        <v>84</v>
-      </c>
-      <c r="X34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="5:24">
-      <c r="E35" t="s">
-        <v>203</v>
-      </c>
-      <c r="F35" t="s">
-        <v>204</v>
-      </c>
-      <c r="G35" t="s">
-        <v>205</v>
-      </c>
-      <c r="H35" t="s">
-        <v>205</v>
-      </c>
-      <c r="I35" t="s">
-        <v>206</v>
-      </c>
-      <c r="J35" t="s">
-        <v>79</v>
-      </c>
-      <c r="K35" t="str">
-        <f>菜单SAAS版!$E$32</f>
-        <v>iam_menu-32</v>
-      </c>
-      <c r="L35" t="s">
-        <v>89</v>
-      </c>
-      <c r="M35" t="s">
-        <v>90</v>
-      </c>
-      <c r="N35" t="s">
-        <v>83</v>
-      </c>
-      <c r="O35" t="s">
-        <v>207</v>
-      </c>
-      <c r="P35" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>80</v>
-      </c>
-      <c r="R35" t="s">
-        <v>80</v>
-      </c>
-      <c r="S35" t="s">
-        <v>209</v>
-      </c>
-      <c r="T35" t="s">
-        <v>80</v>
-      </c>
-      <c r="V35" t="s">
-        <v>84</v>
-      </c>
-      <c r="X35" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="5:24">
-      <c r="E36" t="s">
-        <v>210</v>
-      </c>
-      <c r="F36" t="s">
-        <v>211</v>
-      </c>
-      <c r="G36" t="s">
-        <v>212</v>
-      </c>
-      <c r="H36" t="s">
-        <v>212</v>
-      </c>
-      <c r="J36" t="s">
-        <v>79</v>
-      </c>
-      <c r="K36" t="str">
-        <f>菜单SAAS版!$E$35</f>
-        <v>iam_menu-35</v>
-      </c>
-      <c r="L36" t="s">
-        <v>97</v>
-      </c>
-      <c r="M36" t="s">
-        <v>80</v>
-      </c>
-      <c r="N36" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>80</v>
-      </c>
-      <c r="R36" t="s">
-        <v>80</v>
-      </c>
-      <c r="S36" t="s">
-        <v>213</v>
-      </c>
-      <c r="T36" t="s">
-        <v>80</v>
-      </c>
-      <c r="V36" t="s">
-        <v>84</v>
-      </c>
-      <c r="X36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="5:24">
-      <c r="E37" t="s">
-        <v>214</v>
-      </c>
-      <c r="F37" t="s">
-        <v>215</v>
-      </c>
-      <c r="G37" t="s">
-        <v>216</v>
-      </c>
-      <c r="H37" t="s">
-        <v>216</v>
-      </c>
-      <c r="I37" t="s">
-        <v>217</v>
-      </c>
-      <c r="J37" t="s">
-        <v>79</v>
-      </c>
-      <c r="K37" t="str">
-        <f>菜单SAAS版!$E$32</f>
-        <v>iam_menu-32</v>
-      </c>
-      <c r="L37" t="s">
-        <v>89</v>
-      </c>
-      <c r="M37" t="s">
-        <v>218</v>
-      </c>
-      <c r="N37" t="s">
-        <v>83</v>
-      </c>
-      <c r="O37" t="s">
-        <v>219</v>
-      </c>
-      <c r="P37" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>80</v>
-      </c>
-      <c r="R37" t="s">
-        <v>80</v>
-      </c>
-      <c r="S37" t="s">
-        <v>221</v>
-      </c>
-      <c r="T37" t="s">
-        <v>80</v>
-      </c>
-      <c r="V37" t="s">
-        <v>84</v>
-      </c>
-      <c r="X37" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="5:24">
-      <c r="E38" t="s">
-        <v>222</v>
-      </c>
-      <c r="F38" t="s">
-        <v>223</v>
-      </c>
-      <c r="G38" t="s">
-        <v>224</v>
-      </c>
-      <c r="H38" t="s">
-        <v>224</v>
-      </c>
-      <c r="J38" t="s">
-        <v>79</v>
-      </c>
-      <c r="K38" t="str">
-        <f>菜单SAAS版!$E$37</f>
-        <v>iam_menu-37</v>
-      </c>
-      <c r="L38" t="s">
-        <v>97</v>
-      </c>
-      <c r="M38" t="s">
-        <v>80</v>
-      </c>
-      <c r="N38" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>80</v>
-      </c>
-      <c r="R38" t="s">
-        <v>80</v>
-      </c>
-      <c r="S38" t="s">
-        <v>225</v>
-      </c>
-      <c r="T38" t="s">
-        <v>80</v>
-      </c>
-      <c r="V38" t="s">
-        <v>84</v>
-      </c>
-      <c r="X38" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="5:24">
-      <c r="E39" t="s">
-        <v>226</v>
-      </c>
-      <c r="F39" t="s">
-        <v>227</v>
-      </c>
-      <c r="G39" t="s">
-        <v>174</v>
-      </c>
-      <c r="H39" t="s">
-        <v>174</v>
-      </c>
-      <c r="I39" t="s">
-        <v>175</v>
-      </c>
-      <c r="J39" t="s">
-        <v>79</v>
-      </c>
-      <c r="K39" t="s">
-        <v>80</v>
-      </c>
-      <c r="L39" t="s">
-        <v>81</v>
-      </c>
-      <c r="M39" t="s">
-        <v>83</v>
-      </c>
-      <c r="N39" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>80</v>
-      </c>
-      <c r="R39" t="s">
-        <v>80</v>
-      </c>
-      <c r="S39" t="s">
-        <v>227</v>
-      </c>
-      <c r="T39" t="s">
-        <v>80</v>
-      </c>
-      <c r="V39" t="s">
-        <v>84</v>
-      </c>
-      <c r="X39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="5:24">
-      <c r="E40" t="s">
-        <v>228</v>
-      </c>
-      <c r="F40" t="s">
-        <v>229</v>
-      </c>
-      <c r="G40" t="s">
-        <v>230</v>
-      </c>
-      <c r="H40" t="s">
-        <v>230</v>
-      </c>
-      <c r="I40" t="s">
-        <v>231</v>
-      </c>
-      <c r="J40" t="s">
-        <v>79</v>
-      </c>
-      <c r="K40" t="str">
-        <f>菜单SAAS版!$E$39</f>
-        <v>iam_menu-39</v>
-      </c>
-      <c r="L40" t="s">
-        <v>89</v>
-      </c>
-      <c r="M40">
-        <v>55</v>
-      </c>
-      <c r="N40" t="s">
-        <v>83</v>
-      </c>
-      <c r="O40" t="s">
-        <v>232</v>
-      </c>
-      <c r="P40" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>80</v>
-      </c>
-      <c r="R40" t="s">
-        <v>80</v>
-      </c>
-      <c r="S40" t="s">
-        <v>234</v>
-      </c>
-      <c r="T40" t="s">
-        <v>80</v>
-      </c>
-      <c r="V40" t="s">
-        <v>84</v>
-      </c>
-      <c r="X40" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="5:24">
-      <c r="E41" t="s">
-        <v>235</v>
-      </c>
-      <c r="F41" t="s">
-        <v>236</v>
-      </c>
-      <c r="G41" t="s">
-        <v>237</v>
-      </c>
-      <c r="H41" t="s">
-        <v>237</v>
-      </c>
-      <c r="J41" t="s">
-        <v>79</v>
-      </c>
-      <c r="K41" t="str">
-        <f>菜单SAAS版!$E$40</f>
-        <v>iam_menu-40</v>
-      </c>
-      <c r="L41" t="s">
-        <v>97</v>
-      </c>
-      <c r="M41" t="s">
-        <v>80</v>
-      </c>
-      <c r="N41" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>80</v>
-      </c>
-      <c r="R41" t="s">
-        <v>80</v>
-      </c>
-      <c r="S41" t="s">
-        <v>238</v>
-      </c>
-      <c r="T41" t="s">
-        <v>80</v>
-      </c>
-      <c r="V41" t="s">
-        <v>84</v>
-      </c>
-      <c r="X41" t="s">
         <v>83</v>
       </c>
     </row>
@@ -6969,10 +5757,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G178"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G180" sqref="G180"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -7015,2071 +5803,1459 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>239</v>
+        <v>183</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>240</v>
+        <v>184</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>241</v>
+        <v>185</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>242</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="E8" t="s">
-        <v>243</v>
+        <v>187</v>
       </c>
       <c r="F8" t="str">
-        <f>菜单SAAS版!$E$25</f>
+        <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G8" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="E9" t="s">
-        <v>245</v>
+        <v>189</v>
       </c>
       <c r="F9" t="str">
-        <f>菜单SAAS版!$E$31</f>
+        <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-31</v>
       </c>
       <c r="G9" t="s">
-        <v>246</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="E10" t="s">
-        <v>247</v>
+        <v>191</v>
       </c>
       <c r="F10" t="str">
-        <f>菜单SAAS版!$E$31</f>
+        <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-31</v>
       </c>
       <c r="G10" t="s">
-        <v>248</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="E11" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="F11" t="str">
-        <f>菜单SAAS版!$E$31</f>
+        <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-31</v>
       </c>
       <c r="G11" t="s">
-        <v>250</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="E12" t="s">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="F12" t="str">
-        <f>菜单SAAS版!$E$31</f>
+        <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-31</v>
       </c>
       <c r="G12" t="s">
-        <v>252</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="E13" t="s">
-        <v>253</v>
+        <v>197</v>
       </c>
       <c r="F13" t="str">
-        <f>菜单SAAS版!$E$34</f>
+        <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-34</v>
       </c>
       <c r="G13" t="s">
-        <v>254</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="E14" t="s">
-        <v>255</v>
+        <v>199</v>
       </c>
       <c r="F14" t="str">
-        <f>菜单SAAS版!$E$34</f>
+        <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-34</v>
       </c>
       <c r="G14" t="s">
-        <v>256</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="E15" t="s">
-        <v>257</v>
+        <v>201</v>
       </c>
       <c r="F15" t="str">
-        <f>菜单SAAS版!$E$34</f>
+        <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-34</v>
       </c>
       <c r="G15" t="s">
-        <v>258</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="E16" t="s">
-        <v>259</v>
+        <v>203</v>
       </c>
       <c r="F16" t="str">
-        <f>菜单SAAS版!$E$34</f>
+        <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-34</v>
       </c>
       <c r="G16" t="s">
-        <v>260</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>261</v>
+        <v>205</v>
       </c>
       <c r="F17" t="str">
-        <f>菜单SAAS版!$E$34</f>
+        <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-34</v>
       </c>
       <c r="G17" t="s">
-        <v>262</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>263</v>
+        <v>207</v>
       </c>
       <c r="F18" t="str">
-        <f>菜单SAAS版!$E$34</f>
+        <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-34</v>
       </c>
       <c r="G18" t="s">
-        <v>264</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>265</v>
+        <v>209</v>
       </c>
       <c r="F19" t="str">
-        <f>菜单SAAS版!$E$34</f>
+        <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-34</v>
       </c>
       <c r="G19" t="s">
-        <v>266</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>267</v>
+        <v>211</v>
       </c>
       <c r="F20" t="str">
-        <f>菜单SAAS版!$E$34</f>
+        <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-34</v>
       </c>
       <c r="G20" t="s">
-        <v>268</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>269</v>
+        <v>213</v>
       </c>
       <c r="F21" t="str">
-        <f>菜单SAAS版!$E$34</f>
+        <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-34</v>
       </c>
       <c r="G21" t="s">
-        <v>270</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>271</v>
+        <v>215</v>
       </c>
       <c r="F22" t="str">
-        <f>菜单SAAS版!$E$34</f>
+        <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-34</v>
       </c>
       <c r="G22" t="s">
-        <v>272</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="F23" t="str">
-        <f>菜单SAAS版!$E$34</f>
+        <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-34</v>
       </c>
       <c r="G23" t="s">
-        <v>274</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>275</v>
+        <v>219</v>
       </c>
       <c r="F24" t="str">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G24" t="s">
-        <v>276</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>277</v>
+        <v>221</v>
       </c>
       <c r="F25" t="str">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G25" t="s">
-        <v>278</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>279</v>
+        <v>223</v>
       </c>
       <c r="F26" t="str">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G26" t="s">
-        <v>280</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c r="F27" t="str">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G27" t="s">
-        <v>282</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>283</v>
+        <v>227</v>
       </c>
       <c r="F28" t="str">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G28" t="s">
-        <v>284</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>285</v>
+        <v>229</v>
       </c>
       <c r="F29" t="str">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G29" t="s">
-        <v>286</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>287</v>
+        <v>231</v>
       </c>
       <c r="F30" t="str">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G30" t="s">
-        <v>288</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>289</v>
+        <v>233</v>
       </c>
       <c r="F31" t="str">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G31" t="s">
-        <v>290</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>291</v>
+        <v>235</v>
       </c>
       <c r="F32" t="str">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G32" t="s">
-        <v>292</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>293</v>
+        <v>237</v>
       </c>
       <c r="F33" t="str">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G33" t="s">
-        <v>294</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>295</v>
+        <v>239</v>
       </c>
       <c r="F34" t="str">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G34" t="s">
-        <v>296</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>297</v>
+        <v>241</v>
       </c>
       <c r="F35" t="str">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G35" t="s">
-        <v>298</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>299</v>
+        <v>243</v>
       </c>
       <c r="F36" t="str">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G36" t="s">
-        <v>300</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>301</v>
+        <v>245</v>
       </c>
       <c r="F37" t="str">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G37" t="s">
-        <v>302</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>303</v>
+        <v>247</v>
       </c>
       <c r="F38" t="str">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G38" t="s">
-        <v>304</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>305</v>
+        <v>249</v>
       </c>
       <c r="F39" t="str">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G39" t="s">
-        <v>306</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>307</v>
+        <v>251</v>
       </c>
       <c r="F40" t="str">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G40" t="s">
-        <v>308</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>309</v>
+        <v>253</v>
       </c>
       <c r="F41" t="str">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G41" t="s">
-        <v>310</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>311</v>
+        <v>255</v>
       </c>
       <c r="F42" t="str">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G42" t="s">
-        <v>312</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>313</v>
+        <v>257</v>
       </c>
       <c r="F43" t="str">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G43" t="s">
-        <v>314</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>315</v>
+        <v>259</v>
       </c>
       <c r="F44" t="str">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G44" t="s">
-        <v>316</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>317</v>
+        <v>261</v>
       </c>
       <c r="F45" t="str">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G45" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>319</v>
+        <v>263</v>
       </c>
       <c r="F46" t="str">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G46" t="s">
-        <v>320</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>321</v>
+        <v>265</v>
       </c>
       <c r="F47" t="str">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G47" t="s">
-        <v>322</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>323</v>
+        <v>267</v>
       </c>
       <c r="F48" t="str">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G48" t="s">
-        <v>324</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>325</v>
+        <v>269</v>
       </c>
       <c r="F49" t="str">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G49" t="s">
-        <v>326</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>327</v>
+        <v>271</v>
       </c>
       <c r="F50" t="str">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G50" t="s">
-        <v>328</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>329</v>
+        <v>273</v>
       </c>
       <c r="F51" t="str">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G51" t="s">
-        <v>330</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>331</v>
+        <v>275</v>
       </c>
       <c r="F52" t="str">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G52" t="s">
-        <v>332</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>333</v>
+        <v>277</v>
       </c>
       <c r="F53" t="str">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G53" t="s">
-        <v>334</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>335</v>
+        <v>279</v>
       </c>
       <c r="F54" t="str">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G54" t="s">
-        <v>336</v>
+        <v>280</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" t="s">
-        <v>337</v>
+        <v>281</v>
       </c>
       <c r="F55" t="str">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G55" t="s">
-        <v>338</v>
+        <v>282</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>339</v>
+        <v>283</v>
       </c>
       <c r="F56" t="str">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G56" t="s">
-        <v>340</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>341</v>
+        <v>285</v>
       </c>
       <c r="F57" t="str">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G57" t="s">
-        <v>342</v>
+        <v>286</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>343</v>
+        <v>287</v>
       </c>
       <c r="F58" t="str">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G58" t="s">
-        <v>344</v>
+        <v>288</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="F59" t="str">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G59" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>347</v>
+        <v>291</v>
       </c>
       <c r="F60" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G60" t="s">
-        <v>338</v>
+        <v>282</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" t="s">
-        <v>348</v>
+        <v>292</v>
       </c>
       <c r="F61" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G61" t="s">
-        <v>349</v>
+        <v>293</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" t="s">
-        <v>350</v>
+        <v>294</v>
       </c>
       <c r="F62" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G62" t="s">
-        <v>351</v>
+        <v>295</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="E63" t="s">
-        <v>352</v>
+        <v>296</v>
       </c>
       <c r="F63" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G63" t="s">
-        <v>353</v>
+        <v>297</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>354</v>
+        <v>298</v>
       </c>
       <c r="F64" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G64" t="s">
-        <v>278</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>355</v>
+        <v>299</v>
       </c>
       <c r="F65" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G65" t="s">
-        <v>280</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>356</v>
+        <v>300</v>
       </c>
       <c r="F66" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G66" t="s">
-        <v>292</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>357</v>
+        <v>301</v>
       </c>
       <c r="F67" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G67" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" t="s">
-        <v>358</v>
+        <v>302</v>
       </c>
       <c r="F68" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G68" t="s">
-        <v>359</v>
+        <v>303</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="F69" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G69" t="s">
-        <v>361</v>
+        <v>305</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" t="s">
-        <v>362</v>
+        <v>306</v>
       </c>
       <c r="F70" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G70" t="s">
-        <v>363</v>
+        <v>307</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" t="s">
-        <v>364</v>
+        <v>308</v>
       </c>
       <c r="F71" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G71" t="s">
-        <v>365</v>
+        <v>309</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" t="s">
-        <v>366</v>
+        <v>310</v>
       </c>
       <c r="F72" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G72" t="s">
-        <v>367</v>
+        <v>311</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" t="s">
-        <v>368</v>
+        <v>312</v>
       </c>
       <c r="F73" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G73" t="s">
-        <v>369</v>
+        <v>313</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" t="s">
-        <v>370</v>
+        <v>314</v>
       </c>
       <c r="F74" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G74" t="s">
-        <v>371</v>
+        <v>315</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" t="s">
-        <v>372</v>
+        <v>316</v>
       </c>
       <c r="F75" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G75" t="s">
-        <v>373</v>
+        <v>317</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" t="s">
-        <v>374</v>
+        <v>318</v>
       </c>
       <c r="F76" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G76" t="s">
-        <v>375</v>
+        <v>319</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" t="s">
-        <v>376</v>
+        <v>320</v>
       </c>
       <c r="F77" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G77" t="s">
-        <v>377</v>
+        <v>321</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" t="s">
-        <v>378</v>
+        <v>322</v>
       </c>
       <c r="F78" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G78" t="s">
-        <v>379</v>
+        <v>323</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="E79" t="s">
-        <v>380</v>
+        <v>324</v>
       </c>
       <c r="F79" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G79" t="s">
-        <v>381</v>
+        <v>325</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="E80" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="F80" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G80" t="s">
-        <v>383</v>
+        <v>327</v>
       </c>
     </row>
     <row r="81" spans="5:7">
       <c r="E81" t="s">
-        <v>384</v>
+        <v>328</v>
       </c>
       <c r="F81" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G81" t="s">
-        <v>385</v>
+        <v>329</v>
       </c>
     </row>
     <row r="82" spans="5:7">
       <c r="E82" t="s">
-        <v>386</v>
+        <v>330</v>
       </c>
       <c r="F82" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G82" t="s">
-        <v>387</v>
+        <v>331</v>
       </c>
     </row>
     <row r="83" spans="5:7">
       <c r="E83" t="s">
-        <v>388</v>
+        <v>332</v>
       </c>
       <c r="F83" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G83" t="s">
-        <v>389</v>
+        <v>333</v>
       </c>
     </row>
     <row r="84" spans="5:7">
       <c r="E84" t="s">
-        <v>390</v>
+        <v>334</v>
       </c>
       <c r="F84" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G84" t="s">
-        <v>391</v>
+        <v>335</v>
       </c>
     </row>
     <row r="85" spans="5:7">
       <c r="E85" t="s">
-        <v>392</v>
+        <v>336</v>
       </c>
       <c r="F85" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G85" t="s">
-        <v>393</v>
+        <v>337</v>
       </c>
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>394</v>
+        <v>338</v>
       </c>
       <c r="F86" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G86" t="s">
-        <v>395</v>
+        <v>339</v>
       </c>
     </row>
     <row r="87" spans="5:7">
       <c r="E87" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="F87" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G87" t="s">
-        <v>397</v>
+        <v>341</v>
       </c>
     </row>
     <row r="88" spans="5:7">
       <c r="E88" t="s">
-        <v>398</v>
+        <v>342</v>
       </c>
       <c r="F88" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G88" t="s">
-        <v>399</v>
+        <v>343</v>
       </c>
     </row>
     <row r="89" spans="5:7">
       <c r="E89" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="F89" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G89" t="s">
-        <v>401</v>
+        <v>345</v>
       </c>
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>402</v>
+        <v>346</v>
       </c>
       <c r="F90" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G90" t="s">
-        <v>403</v>
+        <v>347</v>
       </c>
     </row>
     <row r="91" spans="5:7">
       <c r="E91" t="s">
-        <v>404</v>
+        <v>348</v>
       </c>
       <c r="F91" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G91" t="s">
-        <v>405</v>
+        <v>349</v>
       </c>
     </row>
     <row r="92" spans="5:7">
       <c r="E92" t="s">
-        <v>406</v>
+        <v>350</v>
       </c>
       <c r="F92" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G92" t="s">
-        <v>336</v>
+        <v>280</v>
       </c>
     </row>
     <row r="93" spans="5:7">
       <c r="E93" t="s">
-        <v>407</v>
+        <v>351</v>
       </c>
       <c r="F93" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G93" t="s">
-        <v>408</v>
+        <v>352</v>
       </c>
     </row>
     <row r="94" spans="5:7">
       <c r="E94" t="s">
-        <v>409</v>
+        <v>353</v>
       </c>
       <c r="F94" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G94" t="s">
-        <v>410</v>
+        <v>354</v>
       </c>
     </row>
     <row r="95" spans="5:7">
       <c r="E95" t="s">
-        <v>411</v>
+        <v>355</v>
       </c>
       <c r="F95" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G95" t="s">
-        <v>412</v>
+        <v>356</v>
       </c>
     </row>
     <row r="96" spans="5:7">
       <c r="E96" t="s">
-        <v>413</v>
+        <v>357</v>
       </c>
       <c r="F96" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G96" t="s">
-        <v>414</v>
+        <v>358</v>
       </c>
     </row>
     <row r="97" spans="5:7">
       <c r="E97" t="s">
-        <v>415</v>
+        <v>359</v>
       </c>
       <c r="F97" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G97" t="s">
-        <v>416</v>
+        <v>360</v>
       </c>
     </row>
     <row r="98" spans="5:7">
       <c r="E98" t="s">
-        <v>417</v>
+        <v>361</v>
       </c>
       <c r="F98" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G98" t="s">
-        <v>418</v>
+        <v>362</v>
       </c>
     </row>
     <row r="99" spans="5:7">
       <c r="E99" t="s">
-        <v>419</v>
+        <v>363</v>
       </c>
       <c r="F99" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G99" t="s">
-        <v>420</v>
+        <v>364</v>
       </c>
     </row>
     <row r="100" spans="5:7">
       <c r="E100" t="s">
-        <v>421</v>
+        <v>365</v>
       </c>
       <c r="F100" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G100" t="s">
-        <v>422</v>
+        <v>366</v>
       </c>
     </row>
     <row r="101" spans="5:7">
       <c r="E101" t="s">
-        <v>423</v>
+        <v>367</v>
       </c>
       <c r="F101" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G101" t="s">
-        <v>250</v>
+        <v>194</v>
       </c>
     </row>
     <row r="102" spans="5:7">
       <c r="E102" t="s">
-        <v>424</v>
+        <v>368</v>
       </c>
       <c r="F102" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G102" t="s">
-        <v>340</v>
+        <v>284</v>
       </c>
     </row>
     <row r="103" spans="5:7">
       <c r="E103" t="s">
-        <v>425</v>
+        <v>370</v>
       </c>
       <c r="F103" t="str">
         <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
+        <v>iam_menu-19</v>
       </c>
       <c r="G103" t="s">
-        <v>426</v>
+        <v>369</v>
       </c>
     </row>
     <row r="104" spans="5:7">
       <c r="E104" t="s">
-        <v>427</v>
+        <v>371</v>
       </c>
       <c r="F104" t="str">
         <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
+        <v>iam_menu-19</v>
       </c>
       <c r="G104" t="s">
-        <v>428</v>
+        <v>372</v>
       </c>
     </row>
     <row r="105" spans="5:7">
       <c r="E105" t="s">
-        <v>429</v>
+        <v>373</v>
       </c>
       <c r="F105" t="str">
         <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
+        <v>iam_menu-19</v>
       </c>
       <c r="G105" t="s">
-        <v>430</v>
+        <v>194</v>
       </c>
     </row>
     <row r="106" spans="5:7">
       <c r="E106" t="s">
-        <v>431</v>
+        <v>374</v>
       </c>
       <c r="F106" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
+        <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="G106" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
     </row>
     <row r="107" spans="5:7">
       <c r="E107" t="s">
-        <v>432</v>
+        <v>376</v>
       </c>
       <c r="F107" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
+        <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="G107" t="s">
-        <v>433</v>
+        <v>377</v>
       </c>
     </row>
     <row r="108" spans="5:7">
       <c r="E108" t="s">
-        <v>434</v>
+        <v>378</v>
       </c>
       <c r="F108" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
+        <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="G108" t="s">
-        <v>435</v>
+        <v>379</v>
       </c>
     </row>
     <row r="109" spans="5:7">
       <c r="E109" t="s">
-        <v>436</v>
+        <v>380</v>
       </c>
       <c r="F109" t="str">
-        <f>菜单SAAS版!$E$20</f>
-        <v>iam_menu-20</v>
+        <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="G109" t="s">
-        <v>426</v>
+        <v>381</v>
       </c>
     </row>
     <row r="110" spans="5:7">
       <c r="E110" t="s">
-        <v>437</v>
+        <v>382</v>
       </c>
       <c r="F110" t="str">
-        <f>菜单SAAS版!$E$20</f>
-        <v>iam_menu-20</v>
+        <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="G110" t="s">
-        <v>353</v>
+        <v>194</v>
       </c>
     </row>
     <row r="111" spans="5:7">
       <c r="E111" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="F111" t="str">
-        <f>菜单SAAS版!$E$20</f>
-        <v>iam_menu-20</v>
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="G111" t="s">
-        <v>439</v>
+        <v>329</v>
       </c>
     </row>
     <row r="112" spans="5:7">
       <c r="E112" t="s">
-        <v>440</v>
+        <v>384</v>
       </c>
       <c r="F112" t="str">
-        <f>菜单SAAS版!$E$20</f>
-        <v>iam_menu-20</v>
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="G112" t="s">
-        <v>433</v>
+        <v>385</v>
       </c>
     </row>
     <row r="113" spans="5:7">
       <c r="E113" t="s">
-        <v>441</v>
+        <v>386</v>
       </c>
       <c r="F113" t="str">
-        <f>菜单SAAS版!$E$20</f>
-        <v>iam_menu-20</v>
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-24</v>
       </c>
       <c r="G113" t="s">
-        <v>435</v>
+        <v>387</v>
       </c>
     </row>
     <row r="114" spans="5:7">
       <c r="E114" t="s">
-        <v>442</v>
+        <v>388</v>
       </c>
       <c r="F114" t="str">
-        <f>菜单SAAS版!$E$20</f>
-        <v>iam_menu-20</v>
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-24</v>
       </c>
       <c r="G114" t="s">
-        <v>443</v>
+        <v>389</v>
       </c>
     </row>
     <row r="115" spans="5:7">
       <c r="E115" t="s">
-        <v>444</v>
+        <v>390</v>
       </c>
       <c r="F115" t="str">
         <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
+        <v>iam_menu-24</v>
       </c>
       <c r="G115" t="s">
-        <v>445</v>
+        <v>391</v>
       </c>
     </row>
     <row r="116" spans="5:7">
       <c r="E116" t="s">
-        <v>446</v>
+        <v>392</v>
       </c>
       <c r="F116" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-41</v>
       </c>
       <c r="G116" t="s">
-        <v>447</v>
+        <v>284</v>
       </c>
     </row>
     <row r="117" spans="5:7">
       <c r="E117" t="s">
-        <v>448</v>
+        <v>393</v>
       </c>
       <c r="F117" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-41</v>
       </c>
       <c r="G117" t="s">
-        <v>449</v>
+        <v>394</v>
       </c>
     </row>
     <row r="118" spans="5:7">
       <c r="E118" t="s">
-        <v>450</v>
+        <v>395</v>
       </c>
       <c r="F118" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-41</v>
       </c>
       <c r="G118" t="s">
-        <v>451</v>
+        <v>396</v>
       </c>
     </row>
     <row r="119" spans="5:7">
       <c r="E119" t="s">
-        <v>452</v>
+        <v>397</v>
       </c>
       <c r="F119" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-41</v>
       </c>
       <c r="G119" t="s">
-        <v>453</v>
+        <v>398</v>
       </c>
     </row>
     <row r="120" spans="5:7">
       <c r="E120" t="s">
-        <v>454</v>
+        <v>399</v>
       </c>
       <c r="F120" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-41</v>
       </c>
       <c r="G120" t="s">
-        <v>353</v>
+        <v>400</v>
       </c>
     </row>
     <row r="121" spans="5:7">
       <c r="E121" t="s">
-        <v>455</v>
+        <v>401</v>
       </c>
       <c r="F121" t="str">
-        <f>菜单SAAS版!$E$23</f>
-        <v>iam_menu-23</v>
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-41</v>
       </c>
       <c r="G121" t="s">
-        <v>456</v>
+        <v>402</v>
       </c>
     </row>
     <row r="122" spans="5:7">
       <c r="E122" t="s">
-        <v>457</v>
+        <v>403</v>
       </c>
       <c r="F122" t="str">
-        <f>菜单SAAS版!$E$23</f>
-        <v>iam_menu-23</v>
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-41</v>
       </c>
       <c r="G122" t="s">
-        <v>458</v>
+        <v>404</v>
       </c>
     </row>
     <row r="123" spans="5:7">
       <c r="E123" t="s">
-        <v>459</v>
+        <v>405</v>
       </c>
       <c r="F123" t="str">
-        <f>菜单SAAS版!$E$23</f>
-        <v>iam_menu-23</v>
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-41</v>
       </c>
       <c r="G123" t="s">
-        <v>460</v>
+        <v>406</v>
       </c>
     </row>
     <row r="124" spans="5:7">
       <c r="E124" t="s">
-        <v>461</v>
+        <v>407</v>
       </c>
       <c r="F124" t="str">
-        <f>菜单SAAS版!$E$23</f>
-        <v>iam_menu-23</v>
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-41</v>
       </c>
       <c r="G124" t="s">
-        <v>353</v>
+        <v>408</v>
       </c>
     </row>
     <row r="125" spans="5:7">
       <c r="E125" t="s">
-        <v>462</v>
+        <v>409</v>
       </c>
       <c r="F125" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
+        <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-38</v>
       </c>
       <c r="G125" t="s">
-        <v>463</v>
+        <v>410</v>
       </c>
     </row>
     <row r="126" spans="5:7">
       <c r="E126" t="s">
-        <v>464</v>
+        <v>411</v>
       </c>
       <c r="F126" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
+        <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-38</v>
       </c>
       <c r="G126" t="s">
-        <v>465</v>
+        <v>412</v>
       </c>
     </row>
     <row r="127" spans="5:7">
       <c r="E127" t="s">
-        <v>466</v>
+        <v>413</v>
       </c>
       <c r="F127" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
+        <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-38</v>
       </c>
       <c r="G127" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="128" spans="5:7">
-      <c r="E128" t="s">
-        <v>468</v>
-      </c>
-      <c r="F128" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="G128" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="129" spans="5:7">
-      <c r="E129" t="s">
-        <v>470</v>
-      </c>
-      <c r="F129" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
-      </c>
-      <c r="G129" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="130" spans="5:7">
-      <c r="E130" t="s">
-        <v>471</v>
-      </c>
-      <c r="F130" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
-      </c>
-      <c r="G130" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="131" spans="5:7">
-      <c r="E131" t="s">
-        <v>473</v>
-      </c>
-      <c r="F131" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
-      </c>
-      <c r="G131" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="132" spans="5:7">
-      <c r="E132" t="s">
-        <v>474</v>
-      </c>
-      <c r="F132" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
-      </c>
-      <c r="G132" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="133" spans="5:7">
-      <c r="E133" t="s">
-        <v>475</v>
-      </c>
-      <c r="F133" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
-      </c>
-      <c r="G133" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="134" spans="5:7">
-      <c r="E134" t="s">
-        <v>477</v>
-      </c>
-      <c r="F134" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
-      </c>
-      <c r="G134" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="135" spans="5:7">
-      <c r="E135" t="s">
-        <v>478</v>
-      </c>
-      <c r="F135" t="str">
-        <f>菜单SAAS版!$E$22</f>
-        <v>iam_menu-22</v>
-      </c>
-      <c r="G135" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="136" spans="5:7">
-      <c r="E136" t="s">
-        <v>479</v>
-      </c>
-      <c r="F136" t="str">
-        <f>菜单SAAS版!$E$22</f>
-        <v>iam_menu-22</v>
-      </c>
-      <c r="G136" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="137" spans="5:7">
-      <c r="E137" t="s">
-        <v>480</v>
-      </c>
-      <c r="F137" t="str">
-        <f>菜单SAAS版!$E$22</f>
-        <v>iam_menu-22</v>
-      </c>
-      <c r="G137" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="138" spans="5:7">
-      <c r="E138" t="s">
-        <v>481</v>
-      </c>
-      <c r="F138" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G138" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="139" spans="5:7">
-      <c r="E139" t="s">
-        <v>482</v>
-      </c>
-      <c r="F139" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G139" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="140" spans="5:7">
-      <c r="E140" t="s">
-        <v>484</v>
-      </c>
-      <c r="F140" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G140" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="141" spans="5:7">
-      <c r="E141" t="s">
-        <v>485</v>
-      </c>
-      <c r="F141" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
-      </c>
-      <c r="G141" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="142" spans="5:7">
-      <c r="E142" t="s">
-        <v>487</v>
-      </c>
-      <c r="F142" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
-      </c>
-      <c r="G142" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="143" spans="5:7">
-      <c r="E143" t="s">
-        <v>489</v>
-      </c>
-      <c r="F143" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
-      </c>
-      <c r="G143" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="144" spans="5:7">
-      <c r="E144" t="s">
-        <v>491</v>
-      </c>
-      <c r="F144" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
-      </c>
-      <c r="G144" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="145" spans="5:7">
-      <c r="E145" t="s">
-        <v>493</v>
-      </c>
-      <c r="F145" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
-      </c>
-      <c r="G145" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="146" spans="5:7">
-      <c r="E146" t="s">
-        <v>494</v>
-      </c>
-      <c r="F146" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="G146" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="147" spans="5:7">
-      <c r="E147" t="s">
-        <v>495</v>
-      </c>
-      <c r="F147" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="G147" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="148" spans="5:7">
-      <c r="E148" t="s">
-        <v>497</v>
-      </c>
-      <c r="F148" t="str">
-        <f>菜单SAAS版!$E$24</f>
-        <v>iam_menu-24</v>
-      </c>
-      <c r="G148" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="149" spans="5:7">
-      <c r="E149" t="s">
-        <v>499</v>
-      </c>
-      <c r="F149" t="str">
-        <f>菜单SAAS版!$E$24</f>
-        <v>iam_menu-24</v>
-      </c>
-      <c r="G149" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="150" spans="5:7">
-      <c r="E150" t="s">
-        <v>501</v>
-      </c>
-      <c r="F150" t="str">
-        <f>菜单SAAS版!$E$24</f>
-        <v>iam_menu-24</v>
-      </c>
-      <c r="G150" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="151" spans="5:7">
-      <c r="E151" t="s">
-        <v>503</v>
-      </c>
-      <c r="F151" t="str">
-        <f>菜单SAAS版!$E$28</f>
-        <v>iam_menu-28</v>
-      </c>
-      <c r="G151" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="152" spans="5:7">
-      <c r="E152" t="s">
-        <v>505</v>
-      </c>
-      <c r="F152" t="str">
-        <f>菜单SAAS版!$E$28</f>
-        <v>iam_menu-28</v>
-      </c>
-      <c r="G152" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="153" spans="5:7">
-      <c r="E153" t="s">
-        <v>506</v>
-      </c>
-      <c r="F153" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="G153" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="154" spans="5:7">
-      <c r="E154" t="s">
-        <v>507</v>
-      </c>
-      <c r="F154" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="G154" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="155" spans="5:7">
-      <c r="E155" t="s">
-        <v>509</v>
-      </c>
-      <c r="F155" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="G155" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="156" spans="5:7">
-      <c r="E156" t="s">
-        <v>511</v>
-      </c>
-      <c r="F156" t="str">
-        <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-10</v>
-      </c>
-      <c r="G156" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="157" spans="5:7">
-      <c r="E157" t="s">
-        <v>512</v>
-      </c>
-      <c r="F157" t="str">
-        <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-10</v>
-      </c>
-      <c r="G157" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="158" spans="5:7">
-      <c r="E158" t="s">
-        <v>514</v>
-      </c>
-      <c r="F158" t="str">
-        <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-10</v>
-      </c>
-      <c r="G158" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="159" spans="5:7">
-      <c r="E159" t="s">
-        <v>515</v>
-      </c>
-      <c r="F159" t="str">
-        <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
-      </c>
-      <c r="G159" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="160" spans="5:7">
-      <c r="E160" t="s">
-        <v>517</v>
-      </c>
-      <c r="F160" t="str">
-        <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
-      </c>
-      <c r="G160" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="161" spans="5:7">
-      <c r="E161" t="s">
-        <v>519</v>
-      </c>
-      <c r="F161" t="str">
-        <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
-      </c>
-      <c r="G161" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="162" spans="5:7">
-      <c r="E162" t="s">
-        <v>521</v>
-      </c>
-      <c r="F162" t="str">
-        <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
-      </c>
-      <c r="G162" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="163" spans="5:7">
-      <c r="E163" t="s">
-        <v>523</v>
-      </c>
-      <c r="F163" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
-      </c>
-      <c r="G163" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="164" spans="5:7">
-      <c r="E164" t="s">
-        <v>525</v>
-      </c>
-      <c r="F164" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
-      </c>
-      <c r="G164" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="165" spans="5:7">
-      <c r="E165" t="s">
-        <v>527</v>
-      </c>
-      <c r="F165" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
-      </c>
-      <c r="G165" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="166" spans="5:7">
-      <c r="E166" t="s">
-        <v>529</v>
-      </c>
-      <c r="F166" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
-      </c>
-      <c r="G166" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="167" spans="5:7">
-      <c r="E167" t="s">
-        <v>530</v>
-      </c>
-      <c r="F167" t="str">
-        <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
-      </c>
-      <c r="G167" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="168" spans="5:7">
-      <c r="E168" t="s">
-        <v>531</v>
-      </c>
-      <c r="F168" t="str">
-        <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
-      </c>
-      <c r="G168" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="169" spans="5:7">
-      <c r="E169" t="s">
-        <v>533</v>
-      </c>
-      <c r="F169" t="str">
-        <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
-      </c>
-      <c r="G169" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="170" spans="5:7">
-      <c r="E170" t="s">
-        <v>535</v>
-      </c>
-      <c r="F170" t="str">
-        <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
-      </c>
-      <c r="G170" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="171" spans="5:7">
-      <c r="E171" t="s">
-        <v>537</v>
-      </c>
-      <c r="F171" t="str">
-        <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
-      </c>
-      <c r="G171" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="172" spans="5:7">
-      <c r="E172" t="s">
-        <v>539</v>
-      </c>
-      <c r="F172" t="str">
-        <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
-      </c>
-      <c r="G172" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="173" spans="5:7">
-      <c r="E173" t="s">
-        <v>541</v>
-      </c>
-      <c r="F173" t="str">
-        <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
-      </c>
-      <c r="G173" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="174" spans="5:7">
-      <c r="E174" t="s">
-        <v>543</v>
-      </c>
-      <c r="F174" t="str">
-        <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
-      </c>
-      <c r="G174" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="175" spans="5:7">
-      <c r="E175" t="s">
-        <v>545</v>
-      </c>
-      <c r="F175" t="str">
-        <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
-      </c>
-      <c r="G175" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="176" spans="5:7">
-      <c r="E176" t="s">
-        <v>547</v>
-      </c>
-      <c r="F176" t="str">
-        <f>菜单SAAS版!$E$38</f>
-        <v>iam_menu-38</v>
-      </c>
-      <c r="G176" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="177" spans="5:7">
-      <c r="E177" t="s">
-        <v>549</v>
-      </c>
-      <c r="F177" t="str">
-        <f>菜单SAAS版!$E$38</f>
-        <v>iam_menu-38</v>
-      </c>
-      <c r="G177" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="178" spans="5:7">
-      <c r="E178" t="s">
-        <v>551</v>
-      </c>
-      <c r="F178" t="str">
-        <f>菜单SAAS版!$E$38</f>
-        <v>iam_menu-38</v>
-      </c>
-      <c r="G178" t="s">
-        <v>552</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -9092,8 +7268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -9140,43 +7316,43 @@
         <v>51</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>553</v>
+        <v>415</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>554</v>
+        <v>416</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>555</v>
+        <v>417</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>556</v>
+        <v>418</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>557</v>
+        <v>419</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>558</v>
+        <v>420</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>559</v>
+        <v>421</v>
       </c>
       <c r="K7" s="32" t="s">
-        <v>560</v>
+        <v>422</v>
       </c>
       <c r="L7" s="32" t="s">
-        <v>561</v>
+        <v>423</v>
       </c>
       <c r="M7" s="32" t="s">
-        <v>562</v>
+        <v>424</v>
       </c>
       <c r="N7" s="32" t="s">
-        <v>563</v>
+        <v>425</v>
       </c>
       <c r="O7" s="32" t="s">
-        <v>564</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -9185,25 +7361,25 @@
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
       <c r="E8" s="32" t="s">
-        <v>565</v>
+        <v>427</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>566</v>
+        <v>428</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>567</v>
+        <v>429</v>
       </c>
       <c r="H8" s="32" t="s">
         <v>83</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>568</v>
+        <v>430</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>569</v>
+        <v>431</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>566</v>
+        <v>428</v>
       </c>
       <c r="L8" s="32"/>
       <c r="M8" s="32">
@@ -9222,22 +7398,22 @@
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="E9" s="32" t="s">
-        <v>573</v>
+        <v>435</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>574</v>
+        <v>436</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>567</v>
+        <v>429</v>
       </c>
       <c r="H9" s="32" t="s">
         <v>83</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>568</v>
+        <v>430</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>774</v>
+        <v>594</v>
       </c>
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
@@ -9257,25 +7433,25 @@
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
       <c r="E10" s="32" t="s">
-        <v>575</v>
+        <v>437</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>576</v>
+        <v>438</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>567</v>
+        <v>429</v>
       </c>
       <c r="H10" s="32" t="s">
         <v>83</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>572</v>
+        <v>434</v>
       </c>
       <c r="J10" s="32" t="s">
-        <v>577</v>
+        <v>439</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>577</v>
+        <v>439</v>
       </c>
       <c r="L10" s="32"/>
       <c r="M10" s="32">
@@ -9294,22 +7470,22 @@
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
       <c r="E11" s="32" t="s">
-        <v>578</v>
+        <v>440</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>777</v>
+        <v>597</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>567</v>
+        <v>429</v>
       </c>
       <c r="H11" s="32" t="s">
         <v>83</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>568</v>
+        <v>430</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>778</v>
+        <v>598</v>
       </c>
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
@@ -9329,22 +7505,22 @@
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32" t="s">
-        <v>585</v>
+        <v>447</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>586</v>
+        <v>448</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>567</v>
+        <v>429</v>
       </c>
       <c r="H12" s="32" t="s">
         <v>83</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>572</v>
+        <v>434</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>775</v>
+        <v>595</v>
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
@@ -9364,22 +7540,22 @@
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="32" t="s">
-        <v>587</v>
+        <v>449</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>588</v>
+        <v>450</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>567</v>
+        <v>429</v>
       </c>
       <c r="H13" s="32" t="s">
         <v>83</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>572</v>
+        <v>434</v>
       </c>
       <c r="J13" s="32" t="s">
-        <v>589</v>
+        <v>451</v>
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
@@ -9401,33 +7577,33 @@
         <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>590</v>
+        <v>452</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>591</v>
+        <v>453</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>592</v>
+        <v>454</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>593</v>
+        <v>455</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>594</v>
+        <v>456</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>595</v>
+        <v>457</v>
       </c>
       <c r="I15" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="E16" s="37" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="E16" s="42" t="s">
-        <v>776</v>
-      </c>
       <c r="F16" t="s">
-        <v>567</v>
+        <v>429</v>
       </c>
       <c r="G16" t="str">
         <f>菜单SAAS版!E8</f>
@@ -9437,16 +7613,16 @@
         <f>E11</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I16" s="42" t="s">
-        <v>779</v>
+      <c r="I16" s="37" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="17" spans="5:9">
-      <c r="E17" s="42" t="s">
-        <v>776</v>
+      <c r="E17" s="37" t="s">
+        <v>596</v>
       </c>
       <c r="F17" t="s">
-        <v>567</v>
+        <v>429</v>
       </c>
       <c r="G17" t="str">
         <f>菜单SAAS版!E9</f>
@@ -9456,160 +7632,160 @@
         <f>E11</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I17" s="42" t="s">
-        <v>779</v>
+      <c r="I17" s="37" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="18" spans="5:9">
-      <c r="E18" s="42" t="s">
-        <v>776</v>
+      <c r="E18" s="37" t="s">
+        <v>596</v>
       </c>
       <c r="F18" t="s">
-        <v>567</v>
+        <v>429</v>
       </c>
       <c r="G18" t="str">
-        <f>菜单SAAS版!E29</f>
+        <f>菜单SAAS版!E15</f>
         <v>iam_menu-29</v>
       </c>
       <c r="H18" t="str">
         <f>E11</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I18" s="42" t="s">
-        <v>779</v>
+      <c r="I18" s="37" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="19" spans="5:9">
-      <c r="E19" s="42" t="s">
-        <v>776</v>
+      <c r="E19" s="37" t="s">
+        <v>596</v>
       </c>
       <c r="F19" t="s">
-        <v>567</v>
+        <v>429</v>
       </c>
       <c r="G19" t="str">
-        <f>菜单SAAS版!E30</f>
+        <f>菜单SAAS版!E16</f>
         <v>iam_menu-30</v>
       </c>
       <c r="H19" t="str">
         <f>E11</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I19" s="42" t="s">
-        <v>779</v>
+      <c r="I19" s="37" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="20" spans="5:9">
-      <c r="E20" s="42" t="s">
-        <v>776</v>
+      <c r="E20" s="37" t="s">
+        <v>596</v>
       </c>
       <c r="F20" t="s">
-        <v>567</v>
+        <v>429</v>
       </c>
       <c r="G20" t="str">
-        <f>菜单SAAS版!E32</f>
+        <f>菜单SAAS版!E18</f>
         <v>iam_menu-32</v>
       </c>
       <c r="H20" t="str">
         <f>E11</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I20" s="42" t="s">
-        <v>779</v>
+      <c r="I20" s="37" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="21" spans="5:9">
-      <c r="E21" s="42" t="s">
-        <v>776</v>
+      <c r="E21" s="37" t="s">
+        <v>596</v>
       </c>
       <c r="F21" t="s">
-        <v>567</v>
+        <v>429</v>
       </c>
       <c r="G21" t="str">
-        <f>菜单SAAS版!E33</f>
+        <f>菜单SAAS版!E19</f>
         <v>iam_menu-33</v>
       </c>
       <c r="H21" t="str">
         <f>E11</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I21" s="42" t="s">
-        <v>779</v>
+      <c r="I21" s="37" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="22" spans="5:9">
-      <c r="E22" s="42" t="s">
-        <v>776</v>
+      <c r="E22" s="37" t="s">
+        <v>596</v>
       </c>
       <c r="F22" t="s">
-        <v>567</v>
+        <v>429</v>
       </c>
       <c r="G22" t="str">
-        <f>菜单SAAS版!E35</f>
+        <f>菜单SAAS版!E21</f>
         <v>iam_menu-35</v>
       </c>
       <c r="H22" t="str">
         <f>E11</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I22" s="42" t="s">
-        <v>779</v>
+      <c r="I22" s="37" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="23" spans="5:9">
-      <c r="E23" s="42" t="s">
-        <v>776</v>
+      <c r="E23" s="37" t="s">
+        <v>596</v>
       </c>
       <c r="F23" t="s">
-        <v>567</v>
+        <v>429</v>
       </c>
       <c r="G23" t="str">
-        <f>菜单SAAS版!E37</f>
+        <f>菜单SAAS版!E23</f>
         <v>iam_menu-37</v>
       </c>
       <c r="H23" t="str">
         <f>E11</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I23" s="42" t="s">
-        <v>779</v>
+      <c r="I23" s="37" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="24" spans="5:9">
-      <c r="E24" s="42" t="s">
-        <v>776</v>
+      <c r="E24" s="37" t="s">
+        <v>596</v>
       </c>
       <c r="F24" t="s">
-        <v>567</v>
+        <v>429</v>
       </c>
       <c r="G24" t="str">
-        <f>菜单SAAS版!E39</f>
+        <f>菜单SAAS版!E25</f>
         <v>iam_menu-39</v>
       </c>
       <c r="H24" t="str">
         <f>E11</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I24" s="42" t="s">
-        <v>779</v>
+      <c r="I24" s="37" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="25" spans="5:9">
-      <c r="E25" s="42" t="s">
-        <v>776</v>
+      <c r="E25" s="37" t="s">
+        <v>596</v>
       </c>
       <c r="F25" t="s">
-        <v>567</v>
+        <v>429</v>
       </c>
       <c r="G25" t="str">
-        <f>菜单SAAS版!E40</f>
+        <f>菜单SAAS版!E26</f>
         <v>iam_menu-40</v>
       </c>
       <c r="H25" t="str">
-        <f>E11</f>
-        <v>iam_label-13</v>
-      </c>
-      <c r="I25" s="42" t="s">
-        <v>779</v>
+        <f>E8</f>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I25" s="37" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="27" spans="5:9" s="5" customFormat="1"/>
@@ -9621,10 +7797,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Y86"/>
+  <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView topLeftCell="D70" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45:J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -9667,10 +7843,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>599</v>
+        <v>461</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>600</v>
+        <v>462</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -9685,75 +7861,75 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>601</v>
+        <v>463</v>
       </c>
       <c r="J7" t="s">
-        <v>558</v>
+        <v>420</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>602</v>
+        <v>464</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>603</v>
+        <v>465</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>604</v>
+        <v>466</v>
       </c>
       <c r="O7" t="s">
-        <v>605</v>
+        <v>467</v>
       </c>
       <c r="P7" t="s">
-        <v>606</v>
+        <v>468</v>
       </c>
       <c r="Q7" t="s">
-        <v>607</v>
+        <v>469</v>
       </c>
       <c r="R7" t="s">
-        <v>608</v>
+        <v>470</v>
       </c>
       <c r="S7" t="s">
-        <v>609</v>
+        <v>471</v>
       </c>
       <c r="T7" t="s">
-        <v>610</v>
+        <v>472</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>611</v>
+        <v>473</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>612</v>
+        <v>474</v>
       </c>
       <c r="X7" t="s">
-        <v>613</v>
+        <v>475</v>
       </c>
       <c r="Y7" t="s">
-        <v>614</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="E8" t="s">
-        <v>615</v>
+        <v>477</v>
       </c>
       <c r="F8" t="s">
-        <v>616</v>
+        <v>478</v>
       </c>
       <c r="G8" t="s">
-        <v>617</v>
+        <v>479</v>
       </c>
       <c r="H8" t="s">
-        <v>618</v>
+        <v>480</v>
       </c>
       <c r="I8" t="s">
-        <v>619</v>
+        <v>481</v>
       </c>
       <c r="J8" t="s">
-        <v>620</v>
+        <v>482</v>
       </c>
       <c r="K8" t="s">
         <v>80</v>
@@ -9786,10 +7962,10 @@
         <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>618</v>
+        <v>480</v>
       </c>
       <c r="V8" t="s">
-        <v>618</v>
+        <v>480</v>
       </c>
       <c r="W8" t="s">
         <v>80</v>
@@ -9797,19 +7973,19 @@
     </row>
     <row r="9" spans="1:25">
       <c r="E9" t="s">
-        <v>621</v>
+        <v>483</v>
       </c>
       <c r="F9" t="s">
-        <v>622</v>
+        <v>484</v>
       </c>
       <c r="G9" t="s">
-        <v>623</v>
+        <v>485</v>
       </c>
       <c r="H9" t="s">
-        <v>624</v>
+        <v>486</v>
       </c>
       <c r="I9" t="s">
-        <v>625</v>
+        <v>487</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
@@ -9845,10 +8021,10 @@
         <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>624</v>
+        <v>486</v>
       </c>
       <c r="V9" t="s">
-        <v>624</v>
+        <v>486</v>
       </c>
       <c r="W9" t="s">
         <v>80</v>
@@ -9856,16 +8032,16 @@
     </row>
     <row r="10" spans="1:25">
       <c r="E10" t="s">
-        <v>626</v>
+        <v>488</v>
       </c>
       <c r="F10" t="s">
-        <v>627</v>
+        <v>489</v>
       </c>
       <c r="G10" t="s">
-        <v>628</v>
+        <v>490</v>
       </c>
       <c r="H10" t="s">
-        <v>629</v>
+        <v>491</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
@@ -9902,33 +8078,33 @@
         <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>630</v>
+        <v>492</v>
       </c>
       <c r="V10" t="s">
-        <v>631</v>
+        <v>493</v>
       </c>
       <c r="W10" t="s">
         <v>80</v>
       </c>
       <c r="X10" t="s">
-        <v>632</v>
+        <v>494</v>
       </c>
       <c r="Y10" t="s">
-        <v>633</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="E11" t="s">
-        <v>634</v>
+        <v>496</v>
       </c>
       <c r="F11" t="s">
-        <v>635</v>
+        <v>497</v>
       </c>
       <c r="G11" t="s">
-        <v>636</v>
+        <v>498</v>
       </c>
       <c r="H11" t="s">
-        <v>637</v>
+        <v>499</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
@@ -9965,33 +8141,33 @@
         <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>638</v>
+        <v>500</v>
       </c>
       <c r="V11" t="s">
-        <v>639</v>
+        <v>501</v>
       </c>
       <c r="W11" t="s">
         <v>80</v>
       </c>
       <c r="X11" t="s">
-        <v>640</v>
+        <v>502</v>
       </c>
       <c r="Y11" t="s">
-        <v>641</v>
+        <v>503</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="E12" t="s">
-        <v>642</v>
+        <v>504</v>
       </c>
       <c r="F12" t="s">
-        <v>643</v>
+        <v>505</v>
       </c>
       <c r="G12" t="s">
-        <v>644</v>
+        <v>506</v>
       </c>
       <c r="H12" t="s">
-        <v>645</v>
+        <v>507</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -10028,33 +8204,33 @@
         <v>80</v>
       </c>
       <c r="U12" t="s">
-        <v>646</v>
+        <v>508</v>
       </c>
       <c r="V12" t="s">
-        <v>647</v>
+        <v>509</v>
       </c>
       <c r="W12" t="s">
         <v>80</v>
       </c>
       <c r="X12" t="s">
-        <v>648</v>
+        <v>510</v>
       </c>
       <c r="Y12" t="s">
-        <v>649</v>
+        <v>511</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="E13" t="s">
-        <v>650</v>
+        <v>512</v>
       </c>
       <c r="F13" t="s">
-        <v>651</v>
+        <v>513</v>
       </c>
       <c r="G13" t="s">
-        <v>652</v>
+        <v>514</v>
       </c>
       <c r="H13" t="s">
-        <v>653</v>
+        <v>515</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
@@ -10091,36 +8267,36 @@
         <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>654</v>
+        <v>516</v>
       </c>
       <c r="V13" t="s">
-        <v>655</v>
+        <v>517</v>
       </c>
       <c r="W13" t="s">
         <v>80</v>
       </c>
       <c r="X13" t="s">
-        <v>656</v>
+        <v>518</v>
       </c>
       <c r="Y13" t="s">
-        <v>657</v>
+        <v>519</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="E14" t="s">
-        <v>658</v>
+        <v>520</v>
       </c>
       <c r="F14" t="s">
-        <v>659</v>
+        <v>521</v>
       </c>
       <c r="G14" t="s">
-        <v>659</v>
+        <v>521</v>
       </c>
       <c r="H14" t="s">
-        <v>660</v>
+        <v>522</v>
       </c>
       <c r="J14" t="s">
-        <v>620</v>
+        <v>482</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -10154,10 +8330,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>661</v>
+        <v>523</v>
       </c>
       <c r="V14" t="s">
-        <v>662</v>
+        <v>524</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -10171,143 +8347,143 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>663</v>
+        <v>525</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>664</v>
+        <v>526</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>665</v>
+        <v>527</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>666</v>
+        <v>528</v>
       </c>
       <c r="H16" t="s">
-        <v>667</v>
+        <v>529</v>
       </c>
       <c r="I16" t="s">
-        <v>668</v>
+        <v>530</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>556</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>669</v>
+        <v>531</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
       <c r="G17" t="str">
-        <f>菜单SAAS版!$E$25</f>
+        <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-25</v>
       </c>
       <c r="H17" t="s">
-        <v>670</v>
+        <v>532</v>
       </c>
       <c r="I17" t="s">
-        <v>671</v>
+        <v>533</v>
       </c>
       <c r="J17" t="s">
-        <v>672</v>
+        <v>534</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>673</v>
+        <v>535</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
       <c r="G18" t="str">
-        <f>菜单SAAS版!$E$31</f>
+        <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-31</v>
       </c>
       <c r="H18" t="s">
-        <v>670</v>
+        <v>532</v>
       </c>
       <c r="I18" t="s">
-        <v>671</v>
+        <v>533</v>
       </c>
       <c r="J18" t="s">
-        <v>672</v>
+        <v>534</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>674</v>
+        <v>536</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
       <c r="G19" t="str">
-        <f>菜单SAAS版!$E$34</f>
+        <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-34</v>
       </c>
       <c r="H19" t="s">
-        <v>670</v>
+        <v>532</v>
       </c>
       <c r="I19" t="s">
-        <v>671</v>
+        <v>533</v>
       </c>
       <c r="J19" t="s">
-        <v>672</v>
+        <v>534</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>675</v>
+        <v>537</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
       <c r="G20" t="str">
-        <f>菜单SAAS版!$E$36</f>
+        <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="H20" t="s">
-        <v>670</v>
+        <v>532</v>
       </c>
       <c r="I20" t="s">
-        <v>671</v>
+        <v>533</v>
       </c>
       <c r="J20" t="s">
-        <v>672</v>
+        <v>534</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>676</v>
+        <v>538</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
       <c r="G21" t="str">
-        <f>菜单SAAS版!$E$38</f>
+        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="H21" t="s">
-        <v>670</v>
+        <v>532</v>
       </c>
       <c r="I21" t="s">
-        <v>671</v>
+        <v>533</v>
       </c>
       <c r="J21" t="s">
-        <v>672</v>
+        <v>534</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>677</v>
+        <v>539</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -10315,1424 +8491,500 @@
       </c>
       <c r="G22" t="str">
         <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
+        <v>iam_menu-19</v>
       </c>
       <c r="H22" t="s">
-        <v>670</v>
+        <v>532</v>
       </c>
       <c r="I22" t="s">
-        <v>671</v>
+        <v>533</v>
       </c>
       <c r="J22" t="s">
-        <v>672</v>
+        <v>534</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>678</v>
+        <v>540</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
       <c r="G23" t="str">
-        <f>菜单SAAS版!$E$20</f>
-        <v>iam_menu-20</v>
+        <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="H23" t="s">
-        <v>670</v>
+        <v>532</v>
       </c>
       <c r="I23" t="s">
-        <v>671</v>
+        <v>533</v>
       </c>
       <c r="J23" t="s">
-        <v>672</v>
+        <v>534</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>679</v>
+        <v>541</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
       <c r="G24" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="H24" t="s">
-        <v>670</v>
+        <v>532</v>
       </c>
       <c r="I24" t="s">
-        <v>671</v>
+        <v>533</v>
       </c>
       <c r="J24" t="s">
-        <v>672</v>
+        <v>534</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>680</v>
+        <v>542</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
       <c r="G25" t="str">
-        <f>菜单SAAS版!$E$23</f>
-        <v>iam_menu-23</v>
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-24</v>
       </c>
       <c r="H25" t="s">
-        <v>670</v>
+        <v>532</v>
       </c>
       <c r="I25" t="s">
-        <v>671</v>
+        <v>533</v>
       </c>
       <c r="J25" t="s">
-        <v>672</v>
+        <v>534</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>681</v>
+        <v>543</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
       <c r="G26" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-41</v>
       </c>
       <c r="H26" t="s">
-        <v>670</v>
+        <v>532</v>
       </c>
       <c r="I26" t="s">
-        <v>671</v>
+        <v>533</v>
       </c>
       <c r="J26" t="s">
-        <v>672</v>
+        <v>534</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>682</v>
+        <v>544</v>
       </c>
       <c r="F27" t="str">
-        <f>角色!$E$10</f>
-        <v>iam_role-10</v>
+        <f>角色!$E$12</f>
+        <v>iam_role-12</v>
       </c>
       <c r="G27" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
+        <f>菜单SAAS版!$E$14</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="H27" t="s">
-        <v>670</v>
+        <v>532</v>
       </c>
       <c r="I27" t="s">
-        <v>671</v>
+        <v>533</v>
       </c>
       <c r="J27" t="s">
-        <v>672</v>
+        <v>534</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>683</v>
+        <v>545</v>
       </c>
       <c r="F28" t="str">
-        <f>角色!$E$10</f>
-        <v>iam_role-10</v>
+        <f>角色!$E$12</f>
+        <v>iam_role-12</v>
       </c>
       <c r="G28" t="str">
         <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
+        <v>iam_menu-31</v>
       </c>
       <c r="H28" t="s">
-        <v>670</v>
+        <v>532</v>
       </c>
       <c r="I28" t="s">
-        <v>671</v>
+        <v>533</v>
       </c>
       <c r="J28" t="s">
-        <v>672</v>
+        <v>534</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>684</v>
+        <v>546</v>
       </c>
       <c r="F29" t="str">
-        <f>角色!$E$10</f>
-        <v>iam_role-10</v>
+        <f>角色!$E$12</f>
+        <v>iam_role-12</v>
       </c>
       <c r="G29" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
+        <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-34</v>
       </c>
       <c r="H29" t="s">
-        <v>670</v>
+        <v>532</v>
       </c>
       <c r="I29" t="s">
-        <v>671</v>
+        <v>533</v>
       </c>
       <c r="J29" t="s">
-        <v>672</v>
+        <v>534</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>685</v>
+        <v>547</v>
       </c>
       <c r="F30" t="str">
-        <f>角色!$E$10</f>
-        <v>iam_role-10</v>
+        <f>角色!$E$12</f>
+        <v>iam_role-12</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$22</f>
-        <v>iam_menu-22</v>
+        <v>iam_menu-36</v>
       </c>
       <c r="H30" t="s">
-        <v>670</v>
+        <v>532</v>
       </c>
       <c r="I30" t="s">
-        <v>671</v>
+        <v>533</v>
       </c>
       <c r="J30" t="s">
-        <v>672</v>
+        <v>534</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>686</v>
+        <v>548</v>
       </c>
       <c r="F31" t="str">
-        <f>角色!$E$10</f>
-        <v>iam_role-10</v>
+        <f>角色!$E$12</f>
+        <v>iam_role-12</v>
       </c>
       <c r="G31" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
+        <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-38</v>
       </c>
       <c r="H31" t="s">
-        <v>670</v>
+        <v>532</v>
       </c>
       <c r="I31" t="s">
-        <v>671</v>
+        <v>533</v>
       </c>
       <c r="J31" t="s">
-        <v>672</v>
+        <v>534</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>687</v>
+        <v>549</v>
       </c>
       <c r="F32" t="str">
-        <f>角色!$E$10</f>
-        <v>iam_role-10</v>
+        <f>角色!$E$12</f>
+        <v>iam_role-12</v>
       </c>
       <c r="G32" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
+        <f>菜单SAAS版!$E$12</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="H32" t="s">
-        <v>670</v>
+        <v>532</v>
       </c>
       <c r="I32" t="s">
-        <v>671</v>
+        <v>533</v>
       </c>
       <c r="J32" t="s">
-        <v>672</v>
+        <v>534</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>688</v>
+        <v>550</v>
       </c>
       <c r="F33" t="str">
-        <f>角色!$E$10</f>
-        <v>iam_role-10</v>
+        <f>角色!$E$12</f>
+        <v>iam_role-12</v>
       </c>
       <c r="G33" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
+        <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="H33" t="s">
-        <v>670</v>
+        <v>532</v>
       </c>
       <c r="I33" t="s">
-        <v>671</v>
+        <v>533</v>
       </c>
       <c r="J33" t="s">
-        <v>672</v>
+        <v>534</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>689</v>
+        <v>551</v>
       </c>
       <c r="F34" t="str">
-        <f>角色!$E$10</f>
-        <v>iam_role-10</v>
+        <f>角色!$E$12</f>
+        <v>iam_role-12</v>
       </c>
       <c r="G34" t="str">
-        <f>菜单SAAS版!$E$24</f>
-        <v>iam_menu-24</v>
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="H34" t="s">
-        <v>670</v>
+        <v>532</v>
       </c>
       <c r="I34" t="s">
-        <v>671</v>
+        <v>533</v>
       </c>
       <c r="J34" t="s">
-        <v>672</v>
+        <v>534</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>690</v>
+        <v>552</v>
       </c>
       <c r="F35" t="str">
-        <f>角色!$E$10</f>
-        <v>iam_role-10</v>
+        <f>角色!$E$12</f>
+        <v>iam_role-12</v>
       </c>
       <c r="G35" t="str">
-        <f>菜单SAAS版!$E$28</f>
-        <v>iam_menu-28</v>
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-24</v>
       </c>
       <c r="H35" t="s">
-        <v>670</v>
+        <v>532</v>
       </c>
       <c r="I35" t="s">
-        <v>671</v>
+        <v>533</v>
       </c>
       <c r="J35" t="s">
-        <v>672</v>
+        <v>534</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>691</v>
+        <v>553</v>
       </c>
       <c r="F36" t="str">
-        <f>角色!$E$10</f>
-        <v>iam_role-10</v>
+        <f>角色!$E$13</f>
+        <v>iam_role-13</v>
       </c>
       <c r="G36" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
+        <f>菜单SAAS版!$E$14</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="H36" t="s">
-        <v>670</v>
+        <v>532</v>
       </c>
       <c r="I36" t="s">
-        <v>671</v>
+        <v>533</v>
       </c>
       <c r="J36" t="s">
-        <v>672</v>
+        <v>534</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>692</v>
+        <v>554</v>
       </c>
       <c r="F37" t="str">
-        <f>角色!$E$10</f>
-        <v>iam_role-10</v>
+        <f>角色!$E$13</f>
+        <v>iam_role-13</v>
       </c>
       <c r="G37" t="str">
-        <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-10</v>
+        <f>菜单SAAS版!$E$17</f>
+        <v>iam_menu-31</v>
       </c>
       <c r="H37" t="s">
-        <v>670</v>
+        <v>555</v>
       </c>
       <c r="I37" t="s">
-        <v>671</v>
+        <v>533</v>
       </c>
       <c r="J37" t="s">
-        <v>672</v>
+        <v>534</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>693</v>
+        <v>556</v>
       </c>
       <c r="F38" t="str">
-        <f>角色!$E$10</f>
-        <v>iam_role-10</v>
+        <f>角色!$E$13</f>
+        <v>iam_role-13</v>
       </c>
       <c r="G38" t="str">
-        <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
+        <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-34</v>
       </c>
       <c r="H38" t="s">
-        <v>670</v>
+        <v>532</v>
       </c>
       <c r="I38" t="s">
-        <v>671</v>
+        <v>533</v>
       </c>
       <c r="J38" t="s">
-        <v>672</v>
+        <v>534</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>694</v>
+        <v>557</v>
       </c>
       <c r="F39" t="str">
-        <f>角色!$E$10</f>
-        <v>iam_role-10</v>
+        <f>角色!$E$13</f>
+        <v>iam_role-13</v>
       </c>
       <c r="G39" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
+        <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-36</v>
       </c>
       <c r="H39" t="s">
-        <v>670</v>
+        <v>532</v>
       </c>
       <c r="I39" t="s">
-        <v>671</v>
+        <v>533</v>
       </c>
       <c r="J39" t="s">
-        <v>672</v>
+        <v>534</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>695</v>
+        <v>558</v>
       </c>
       <c r="F40" t="str">
-        <f>角色!$E$10</f>
-        <v>iam_role-10</v>
+        <f>角色!$E$13</f>
+        <v>iam_role-13</v>
       </c>
       <c r="G40" t="str">
-        <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
+        <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-38</v>
       </c>
       <c r="H40" t="s">
-        <v>670</v>
+        <v>532</v>
       </c>
       <c r="I40" t="s">
-        <v>671</v>
+        <v>533</v>
       </c>
       <c r="J40" t="s">
-        <v>672</v>
+        <v>534</v>
       </c>
     </row>
     <row r="41" spans="5:10">
       <c r="E41" t="s">
-        <v>696</v>
+        <v>559</v>
       </c>
       <c r="F41" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
+        <f>角色!$E$13</f>
+        <v>iam_role-13</v>
       </c>
       <c r="G41" t="str">
-        <f>菜单SAAS版!$E$25</f>
-        <v>iam_menu-25</v>
+        <f>菜单SAAS版!$E$12</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="H41" t="s">
-        <v>670</v>
+        <v>532</v>
       </c>
       <c r="I41" t="s">
-        <v>671</v>
+        <v>533</v>
       </c>
       <c r="J41" t="s">
-        <v>672</v>
+        <v>534</v>
       </c>
     </row>
     <row r="42" spans="5:10">
       <c r="E42" t="s">
-        <v>697</v>
+        <v>560</v>
       </c>
       <c r="F42" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
+        <f>角色!$E$13</f>
+        <v>iam_role-13</v>
       </c>
       <c r="G42" t="str">
-        <f>菜单SAAS版!$E$31</f>
-        <v>iam_menu-31</v>
+        <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="H42" t="s">
-        <v>670</v>
+        <v>532</v>
       </c>
       <c r="I42" t="s">
-        <v>671</v>
+        <v>533</v>
       </c>
       <c r="J42" t="s">
-        <v>672</v>
+        <v>534</v>
       </c>
     </row>
     <row r="43" spans="5:10">
       <c r="E43" t="s">
-        <v>698</v>
+        <v>561</v>
       </c>
       <c r="F43" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
+        <f>角色!$E$13</f>
+        <v>iam_role-13</v>
       </c>
       <c r="G43" t="str">
-        <f>菜单SAAS版!$E$34</f>
-        <v>iam_menu-34</v>
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="H43" t="s">
-        <v>670</v>
+        <v>532</v>
       </c>
       <c r="I43" t="s">
-        <v>671</v>
+        <v>533</v>
       </c>
       <c r="J43" t="s">
-        <v>672</v>
+        <v>534</v>
       </c>
     </row>
     <row r="44" spans="5:10">
       <c r="E44" t="s">
-        <v>699</v>
+        <v>562</v>
       </c>
       <c r="F44" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
-      </c>
-      <c r="G44" t="str">
-        <f>菜单SAAS版!$E$36</f>
-        <v>iam_menu-36</v>
-      </c>
-      <c r="H44" t="s">
-        <v>670</v>
-      </c>
-      <c r="I44" t="s">
-        <v>671</v>
-      </c>
-      <c r="J44" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="45" spans="5:10">
-      <c r="E45" t="s">
-        <v>700</v>
-      </c>
-      <c r="F45" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
-      </c>
-      <c r="G45" t="str">
-        <f>菜单SAAS版!$E$38</f>
-        <v>iam_menu-38</v>
-      </c>
-      <c r="H45" t="s">
-        <v>670</v>
-      </c>
-      <c r="I45" t="s">
-        <v>671</v>
-      </c>
-      <c r="J45" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="46" spans="5:10">
-      <c r="E46" t="s">
-        <v>701</v>
-      </c>
-      <c r="F46" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
-      </c>
-      <c r="G46" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
-      </c>
-      <c r="H46" t="s">
-        <v>670</v>
-      </c>
-      <c r="I46" t="s">
-        <v>671</v>
-      </c>
-      <c r="J46" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="47" spans="5:10">
-      <c r="E47" t="s">
-        <v>702</v>
-      </c>
-      <c r="F47" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
-      </c>
-      <c r="G47" t="str">
-        <f>菜单SAAS版!$E$20</f>
-        <v>iam_menu-20</v>
-      </c>
-      <c r="H47" t="s">
-        <v>670</v>
-      </c>
-      <c r="I47" t="s">
-        <v>671</v>
-      </c>
-      <c r="J47" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="48" spans="5:10">
-      <c r="E48" t="s">
-        <v>703</v>
-      </c>
-      <c r="F48" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
-      </c>
-      <c r="G48" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="H48" t="s">
-        <v>670</v>
-      </c>
-      <c r="I48" t="s">
-        <v>671</v>
-      </c>
-      <c r="J48" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="49" spans="5:10">
-      <c r="E49" t="s">
-        <v>704</v>
-      </c>
-      <c r="F49" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
-      </c>
-      <c r="G49" t="str">
-        <f>菜单SAAS版!$E$23</f>
-        <v>iam_menu-23</v>
-      </c>
-      <c r="H49" t="s">
-        <v>670</v>
-      </c>
-      <c r="I49" t="s">
-        <v>671</v>
-      </c>
-      <c r="J49" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="50" spans="5:10">
-      <c r="E50" t="s">
-        <v>705</v>
-      </c>
-      <c r="F50" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
-      </c>
-      <c r="G50" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
-      </c>
-      <c r="H50" t="s">
-        <v>670</v>
-      </c>
-      <c r="I50" t="s">
-        <v>671</v>
-      </c>
-      <c r="J50" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="51" spans="5:10">
-      <c r="E51" t="s">
-        <v>706</v>
-      </c>
-      <c r="F51" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
-      </c>
-      <c r="G51" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="H51" t="s">
-        <v>670</v>
-      </c>
-      <c r="I51" t="s">
-        <v>671</v>
-      </c>
-      <c r="J51" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="52" spans="5:10">
-      <c r="E52" t="s">
-        <v>707</v>
-      </c>
-      <c r="F52" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
-      </c>
-      <c r="G52" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
-      </c>
-      <c r="H52" t="s">
-        <v>670</v>
-      </c>
-      <c r="I52" t="s">
-        <v>671</v>
-      </c>
-      <c r="J52" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="53" spans="5:10">
-      <c r="E53" t="s">
-        <v>708</v>
-      </c>
-      <c r="F53" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
-      </c>
-      <c r="G53" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
-      </c>
-      <c r="H53" t="s">
-        <v>670</v>
-      </c>
-      <c r="I53" t="s">
-        <v>671</v>
-      </c>
-      <c r="J53" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="54" spans="5:10">
-      <c r="E54" t="s">
-        <v>709</v>
-      </c>
-      <c r="F54" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
-      </c>
-      <c r="G54" t="str">
-        <f>菜单SAAS版!$E$22</f>
-        <v>iam_menu-22</v>
-      </c>
-      <c r="H54" t="s">
-        <v>670</v>
-      </c>
-      <c r="I54" t="s">
-        <v>671</v>
-      </c>
-      <c r="J54" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="55" spans="5:10">
-      <c r="E55" t="s">
-        <v>710</v>
-      </c>
-      <c r="F55" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
-      </c>
-      <c r="G55" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="H55" t="s">
-        <v>670</v>
-      </c>
-      <c r="I55" t="s">
-        <v>671</v>
-      </c>
-      <c r="J55" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="56" spans="5:10">
-      <c r="E56" t="s">
-        <v>711</v>
-      </c>
-      <c r="F56" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
-      </c>
-      <c r="G56" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
-      </c>
-      <c r="H56" t="s">
-        <v>670</v>
-      </c>
-      <c r="I56" t="s">
-        <v>671</v>
-      </c>
-      <c r="J56" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="57" spans="5:10">
-      <c r="E57" t="s">
-        <v>712</v>
-      </c>
-      <c r="F57" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
-      </c>
-      <c r="G57" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="H57" t="s">
-        <v>670</v>
-      </c>
-      <c r="I57" t="s">
-        <v>671</v>
-      </c>
-      <c r="J57" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="58" spans="5:10">
-      <c r="E58" t="s">
-        <v>713</v>
-      </c>
-      <c r="F58" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
-      </c>
-      <c r="G58" t="str">
-        <f>菜单SAAS版!$E$24</f>
-        <v>iam_menu-24</v>
-      </c>
-      <c r="H58" t="s">
-        <v>670</v>
-      </c>
-      <c r="I58" t="s">
-        <v>671</v>
-      </c>
-      <c r="J58" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="59" spans="5:10">
-      <c r="E59" t="s">
-        <v>714</v>
-      </c>
-      <c r="F59" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
-      </c>
-      <c r="G59" t="str">
-        <f>菜单SAAS版!$E$28</f>
-        <v>iam_menu-28</v>
-      </c>
-      <c r="H59" t="s">
-        <v>670</v>
-      </c>
-      <c r="I59" t="s">
-        <v>671</v>
-      </c>
-      <c r="J59" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="60" spans="5:10">
-      <c r="E60" t="s">
-        <v>715</v>
-      </c>
-      <c r="F60" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
-      </c>
-      <c r="G60" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="H60" t="s">
-        <v>670</v>
-      </c>
-      <c r="I60" t="s">
-        <v>671</v>
-      </c>
-      <c r="J60" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="61" spans="5:10">
-      <c r="E61" t="s">
-        <v>716</v>
-      </c>
-      <c r="F61" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
-      </c>
-      <c r="G61" t="str">
-        <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-10</v>
-      </c>
-      <c r="H61" t="s">
-        <v>670</v>
-      </c>
-      <c r="I61" t="s">
-        <v>671</v>
-      </c>
-      <c r="J61" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="62" spans="5:10">
-      <c r="E62" t="s">
-        <v>717</v>
-      </c>
-      <c r="F62" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
-      </c>
-      <c r="G62" t="str">
-        <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
-      </c>
-      <c r="H62" t="s">
-        <v>670</v>
-      </c>
-      <c r="I62" t="s">
-        <v>671</v>
-      </c>
-      <c r="J62" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="63" spans="5:10">
-      <c r="E63" t="s">
-        <v>718</v>
-      </c>
-      <c r="F63" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
-      </c>
-      <c r="G63" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
-      </c>
-      <c r="H63" t="s">
-        <v>670</v>
-      </c>
-      <c r="I63" t="s">
-        <v>671</v>
-      </c>
-      <c r="J63" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="64" spans="5:10">
-      <c r="E64" t="s">
-        <v>719</v>
-      </c>
-      <c r="F64" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
-      <c r="G64" t="str">
-        <f>菜单SAAS版!$E$25</f>
-        <v>iam_menu-25</v>
-      </c>
-      <c r="H64" t="s">
-        <v>670</v>
-      </c>
-      <c r="I64" t="s">
-        <v>671</v>
-      </c>
-      <c r="J64" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="65" spans="5:10">
-      <c r="E65" t="s">
-        <v>720</v>
-      </c>
-      <c r="F65" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G65" t="str">
-        <f>菜单SAAS版!$E$31</f>
-        <v>iam_menu-31</v>
-      </c>
-      <c r="H65" t="s">
-        <v>721</v>
-      </c>
-      <c r="I65" t="s">
-        <v>671</v>
-      </c>
-      <c r="J65" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="66" spans="5:10">
-      <c r="E66" t="s">
-        <v>722</v>
-      </c>
-      <c r="F66" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G66" t="str">
-        <f>菜单SAAS版!$E$34</f>
-        <v>iam_menu-34</v>
-      </c>
-      <c r="H66" t="s">
-        <v>670</v>
-      </c>
-      <c r="I66" t="s">
-        <v>671</v>
-      </c>
-      <c r="J66" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="67" spans="5:10">
-      <c r="E67" t="s">
-        <v>723</v>
-      </c>
-      <c r="F67" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G67" t="str">
-        <f>菜单SAAS版!$E$36</f>
-        <v>iam_menu-36</v>
-      </c>
-      <c r="H67" t="s">
-        <v>670</v>
-      </c>
-      <c r="I67" t="s">
-        <v>671</v>
-      </c>
-      <c r="J67" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="68" spans="5:10">
-      <c r="E68" t="s">
-        <v>724</v>
-      </c>
-      <c r="F68" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G68" t="str">
-        <f>菜单SAAS版!$E$38</f>
-        <v>iam_menu-38</v>
-      </c>
-      <c r="H68" t="s">
-        <v>670</v>
-      </c>
-      <c r="I68" t="s">
-        <v>671</v>
-      </c>
-      <c r="J68" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="69" spans="5:10">
-      <c r="E69" t="s">
-        <v>725</v>
-      </c>
-      <c r="F69" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G69" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
-      </c>
-      <c r="H69" t="s">
-        <v>670</v>
-      </c>
-      <c r="I69" t="s">
-        <v>671</v>
-      </c>
-      <c r="J69" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="70" spans="5:10">
-      <c r="E70" t="s">
-        <v>726</v>
-      </c>
-      <c r="F70" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G70" t="str">
-        <f>菜单SAAS版!$E$20</f>
-        <v>iam_menu-20</v>
-      </c>
-      <c r="H70" t="s">
-        <v>670</v>
-      </c>
-      <c r="I70" t="s">
-        <v>671</v>
-      </c>
-      <c r="J70" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="71" spans="5:10">
-      <c r="E71" t="s">
-        <v>727</v>
-      </c>
-      <c r="F71" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G71" t="str">
+      <c r="G44" t="str">
         <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="H71" t="s">
-        <v>670</v>
-      </c>
-      <c r="I71" t="s">
-        <v>671</v>
-      </c>
-      <c r="J71" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="72" spans="5:10">
-      <c r="E72" t="s">
-        <v>728</v>
-      </c>
-      <c r="F72" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G72" t="str">
-        <f>菜单SAAS版!$E$23</f>
-        <v>iam_menu-23</v>
-      </c>
-      <c r="H72" t="s">
-        <v>670</v>
-      </c>
-      <c r="I72" t="s">
-        <v>671</v>
-      </c>
-      <c r="J72" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="73" spans="5:10">
-      <c r="E73" t="s">
-        <v>729</v>
-      </c>
-      <c r="F73" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G73" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
-      </c>
-      <c r="H73" t="s">
-        <v>670</v>
-      </c>
-      <c r="I73" t="s">
-        <v>671</v>
-      </c>
-      <c r="J73" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="74" spans="5:10">
-      <c r="E74" t="s">
-        <v>730</v>
-      </c>
-      <c r="F74" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G74" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="H74" t="s">
-        <v>670</v>
-      </c>
-      <c r="I74" t="s">
-        <v>671</v>
-      </c>
-      <c r="J74" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="75" spans="5:10">
-      <c r="E75" t="s">
-        <v>731</v>
-      </c>
-      <c r="F75" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G75" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
-      </c>
-      <c r="H75" t="s">
-        <v>670</v>
-      </c>
-      <c r="I75" t="s">
-        <v>671</v>
-      </c>
-      <c r="J75" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="76" spans="5:10">
-      <c r="E76" t="s">
-        <v>732</v>
-      </c>
-      <c r="F76" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G76" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
-      </c>
-      <c r="H76" t="s">
-        <v>670</v>
-      </c>
-      <c r="I76" t="s">
-        <v>671</v>
-      </c>
-      <c r="J76" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="77" spans="5:10">
-      <c r="E77" t="s">
-        <v>733</v>
-      </c>
-      <c r="F77" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G77" t="str">
-        <f>菜单SAAS版!$E$22</f>
-        <v>iam_menu-22</v>
-      </c>
-      <c r="H77" t="s">
-        <v>670</v>
-      </c>
-      <c r="I77" t="s">
-        <v>671</v>
-      </c>
-      <c r="J77" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="78" spans="5:10">
-      <c r="E78" t="s">
-        <v>734</v>
-      </c>
-      <c r="F78" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G78" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="H78" t="s">
-        <v>670</v>
-      </c>
-      <c r="I78" t="s">
-        <v>671</v>
-      </c>
-      <c r="J78" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="79" spans="5:10">
-      <c r="E79" t="s">
-        <v>735</v>
-      </c>
-      <c r="F79" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G79" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
-      </c>
-      <c r="H79" t="s">
-        <v>670</v>
-      </c>
-      <c r="I79" t="s">
-        <v>671</v>
-      </c>
-      <c r="J79" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="80" spans="5:10">
-      <c r="E80" t="s">
-        <v>736</v>
-      </c>
-      <c r="F80" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G80" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="H80" t="s">
-        <v>670</v>
-      </c>
-      <c r="I80" t="s">
-        <v>671</v>
-      </c>
-      <c r="J80" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="81" spans="5:10">
-      <c r="E81" t="s">
-        <v>737</v>
-      </c>
-      <c r="F81" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G81" t="str">
-        <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
-      <c r="H81" t="s">
-        <v>670</v>
-      </c>
-      <c r="I81" t="s">
-        <v>671</v>
-      </c>
-      <c r="J81" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="82" spans="5:10">
-      <c r="E82" t="s">
-        <v>738</v>
-      </c>
-      <c r="F82" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G82" t="str">
-        <f>菜单SAAS版!$E$28</f>
-        <v>iam_menu-28</v>
-      </c>
-      <c r="H82" t="s">
-        <v>670</v>
-      </c>
-      <c r="I82" t="s">
-        <v>671</v>
-      </c>
-      <c r="J82" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="83" spans="5:10">
-      <c r="E83" t="s">
-        <v>739</v>
-      </c>
-      <c r="F83" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G83" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="H83" t="s">
-        <v>670</v>
-      </c>
-      <c r="I83" t="s">
-        <v>671</v>
-      </c>
-      <c r="J83" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="84" spans="5:10">
-      <c r="E84" t="s">
-        <v>740</v>
-      </c>
-      <c r="F84" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G84" t="str">
-        <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-10</v>
-      </c>
-      <c r="H84" t="s">
-        <v>670</v>
-      </c>
-      <c r="I84" t="s">
-        <v>671</v>
-      </c>
-      <c r="J84" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="85" spans="5:10">
-      <c r="E85" t="s">
-        <v>741</v>
-      </c>
-      <c r="F85" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G85" t="str">
-        <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
-      </c>
-      <c r="H85" t="s">
-        <v>670</v>
-      </c>
-      <c r="I85" t="s">
-        <v>671</v>
-      </c>
-      <c r="J85" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="86" spans="5:10">
-      <c r="E86" t="s">
-        <v>742</v>
-      </c>
-      <c r="F86" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G86" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
-      </c>
-      <c r="H86" t="s">
-        <v>670</v>
-      </c>
-      <c r="I86" t="s">
-        <v>671</v>
-      </c>
-      <c r="J86" t="s">
-        <v>672</v>
+      <c r="H44" t="s">
+        <v>532</v>
+      </c>
+      <c r="I44" t="s">
+        <v>533</v>
+      </c>
+      <c r="J44" t="s">
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -11745,7 +8997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <sheetData>
@@ -11782,66 +9034,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>553</v>
+        <v>415</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>554</v>
+        <v>416</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>555</v>
+        <v>417</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>556</v>
+        <v>418</v>
       </c>
       <c r="H7" t="s">
-        <v>557</v>
+        <v>419</v>
       </c>
       <c r="I7" t="s">
-        <v>558</v>
+        <v>420</v>
       </c>
       <c r="J7" t="s">
-        <v>559</v>
+        <v>421</v>
       </c>
       <c r="K7" t="s">
-        <v>560</v>
+        <v>422</v>
       </c>
       <c r="L7" t="s">
-        <v>561</v>
+        <v>423</v>
       </c>
       <c r="M7" t="s">
-        <v>562</v>
+        <v>424</v>
       </c>
       <c r="N7" t="s">
-        <v>563</v>
+        <v>425</v>
       </c>
       <c r="O7" t="s">
-        <v>564</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="E8" t="s">
+        <v>427</v>
+      </c>
+      <c r="F8" t="s">
+        <v>563</v>
+      </c>
+      <c r="G8" t="s">
+        <v>564</v>
+      </c>
+      <c r="H8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" t="s">
+        <v>430</v>
+      </c>
+      <c r="J8" t="s">
         <v>565</v>
       </c>
-      <c r="F8" t="s">
-        <v>743</v>
-      </c>
-      <c r="G8" t="s">
-        <v>744</v>
-      </c>
-      <c r="H8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" t="s">
-        <v>568</v>
-      </c>
-      <c r="J8" t="s">
-        <v>745</v>
-      </c>
       <c r="K8" t="s">
-        <v>746</v>
+        <v>566</v>
       </c>
       <c r="M8" t="s">
         <v>80</v>
@@ -11855,22 +9107,22 @@
     </row>
     <row r="9" spans="1:15">
       <c r="E9" t="s">
-        <v>570</v>
+        <v>432</v>
       </c>
       <c r="F9" t="s">
-        <v>747</v>
+        <v>567</v>
       </c>
       <c r="G9" t="s">
-        <v>744</v>
+        <v>564</v>
       </c>
       <c r="H9" t="s">
         <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>572</v>
+        <v>434</v>
       </c>
       <c r="J9" t="s">
-        <v>748</v>
+        <v>568</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
@@ -11884,25 +9136,25 @@
     </row>
     <row r="10" spans="1:15">
       <c r="E10" t="s">
-        <v>571</v>
+        <v>433</v>
       </c>
       <c r="F10" t="s">
-        <v>749</v>
+        <v>569</v>
       </c>
       <c r="G10" t="s">
-        <v>744</v>
+        <v>564</v>
       </c>
       <c r="H10" t="s">
         <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>568</v>
+        <v>430</v>
       </c>
       <c r="J10" t="s">
-        <v>750</v>
+        <v>570</v>
       </c>
       <c r="K10" t="s">
-        <v>750</v>
+        <v>570</v>
       </c>
       <c r="M10" t="s">
         <v>80</v>
@@ -11916,25 +9168,25 @@
     </row>
     <row r="11" spans="1:15">
       <c r="E11" t="s">
+        <v>435</v>
+      </c>
+      <c r="F11" t="s">
+        <v>571</v>
+      </c>
+      <c r="G11" t="s">
+        <v>564</v>
+      </c>
+      <c r="H11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" t="s">
+        <v>430</v>
+      </c>
+      <c r="J11" t="s">
+        <v>572</v>
+      </c>
+      <c r="K11" t="s">
         <v>573</v>
-      </c>
-      <c r="F11" t="s">
-        <v>751</v>
-      </c>
-      <c r="G11" t="s">
-        <v>744</v>
-      </c>
-      <c r="H11" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" t="s">
-        <v>568</v>
-      </c>
-      <c r="J11" t="s">
-        <v>752</v>
-      </c>
-      <c r="K11" t="s">
-        <v>753</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -11948,25 +9200,25 @@
     </row>
     <row r="12" spans="1:15">
       <c r="E12" t="s">
+        <v>437</v>
+      </c>
+      <c r="F12" t="s">
+        <v>574</v>
+      </c>
+      <c r="G12" t="s">
+        <v>564</v>
+      </c>
+      <c r="H12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" t="s">
+        <v>430</v>
+      </c>
+      <c r="J12" t="s">
         <v>575</v>
       </c>
-      <c r="F12" t="s">
-        <v>754</v>
-      </c>
-      <c r="G12" t="s">
-        <v>744</v>
-      </c>
-      <c r="H12" t="s">
-        <v>83</v>
-      </c>
-      <c r="I12" t="s">
-        <v>568</v>
-      </c>
-      <c r="J12" t="s">
-        <v>755</v>
-      </c>
       <c r="K12" t="s">
-        <v>755</v>
+        <v>575</v>
       </c>
       <c r="M12" t="s">
         <v>80</v>
@@ -11980,25 +9232,25 @@
     </row>
     <row r="13" spans="1:15">
       <c r="E13" t="s">
+        <v>440</v>
+      </c>
+      <c r="F13" t="s">
+        <v>576</v>
+      </c>
+      <c r="G13" t="s">
+        <v>564</v>
+      </c>
+      <c r="H13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" t="s">
+        <v>430</v>
+      </c>
+      <c r="J13" t="s">
+        <v>577</v>
+      </c>
+      <c r="K13" t="s">
         <v>578</v>
-      </c>
-      <c r="F13" t="s">
-        <v>756</v>
-      </c>
-      <c r="G13" t="s">
-        <v>744</v>
-      </c>
-      <c r="H13" t="s">
-        <v>83</v>
-      </c>
-      <c r="I13" t="s">
-        <v>568</v>
-      </c>
-      <c r="J13" t="s">
-        <v>757</v>
-      </c>
-      <c r="K13" t="s">
-        <v>758</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -12012,25 +9264,25 @@
     </row>
     <row r="14" spans="1:15">
       <c r="E14" t="s">
+        <v>441</v>
+      </c>
+      <c r="F14" t="s">
         <v>579</v>
       </c>
-      <c r="F14" t="s">
-        <v>759</v>
-      </c>
       <c r="G14" t="s">
-        <v>744</v>
+        <v>564</v>
       </c>
       <c r="H14" t="s">
         <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>568</v>
+        <v>430</v>
       </c>
       <c r="J14" t="s">
-        <v>760</v>
+        <v>580</v>
       </c>
       <c r="K14" t="s">
-        <v>649</v>
+        <v>511</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -12044,25 +9296,25 @@
     </row>
     <row r="15" spans="1:15">
       <c r="E15" t="s">
-        <v>580</v>
+        <v>442</v>
       </c>
       <c r="F15" t="s">
-        <v>761</v>
+        <v>581</v>
       </c>
       <c r="G15" t="s">
-        <v>744</v>
+        <v>564</v>
       </c>
       <c r="H15" t="s">
         <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>568</v>
+        <v>430</v>
       </c>
       <c r="J15" t="s">
-        <v>762</v>
+        <v>582</v>
       </c>
       <c r="K15" t="s">
-        <v>763</v>
+        <v>583</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -12076,25 +9328,25 @@
     </row>
     <row r="16" spans="1:15">
       <c r="E16" t="s">
-        <v>581</v>
+        <v>443</v>
       </c>
       <c r="F16" t="s">
-        <v>764</v>
+        <v>584</v>
       </c>
       <c r="G16" t="s">
-        <v>744</v>
+        <v>564</v>
       </c>
       <c r="H16" t="s">
         <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>568</v>
+        <v>430</v>
       </c>
       <c r="J16" t="s">
-        <v>765</v>
+        <v>585</v>
       </c>
       <c r="K16" t="s">
-        <v>766</v>
+        <v>586</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -12108,25 +9360,25 @@
     </row>
     <row r="17" spans="1:15">
       <c r="E17" t="s">
-        <v>582</v>
+        <v>444</v>
       </c>
       <c r="F17" t="s">
-        <v>767</v>
+        <v>587</v>
       </c>
       <c r="G17" t="s">
-        <v>744</v>
+        <v>564</v>
       </c>
       <c r="H17" t="s">
         <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>568</v>
+        <v>430</v>
       </c>
       <c r="J17" t="s">
-        <v>768</v>
+        <v>588</v>
       </c>
       <c r="K17" t="s">
-        <v>769</v>
+        <v>589</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -12140,25 +9392,25 @@
     </row>
     <row r="18" spans="1:15">
       <c r="E18" t="s">
-        <v>583</v>
+        <v>445</v>
       </c>
       <c r="F18" t="s">
-        <v>770</v>
+        <v>590</v>
       </c>
       <c r="G18" t="s">
-        <v>744</v>
+        <v>564</v>
       </c>
       <c r="H18" t="s">
         <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>568</v>
+        <v>430</v>
       </c>
       <c r="J18" t="s">
-        <v>771</v>
+        <v>591</v>
       </c>
       <c r="K18" t="s">
-        <v>770</v>
+        <v>590</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -12172,25 +9424,25 @@
     </row>
     <row r="19" spans="1:15">
       <c r="E19" t="s">
-        <v>584</v>
+        <v>446</v>
       </c>
       <c r="F19" t="s">
-        <v>772</v>
+        <v>592</v>
       </c>
       <c r="G19" t="s">
-        <v>744</v>
+        <v>564</v>
       </c>
       <c r="H19" t="s">
         <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>568</v>
+        <v>430</v>
       </c>
       <c r="J19" t="s">
-        <v>773</v>
+        <v>593</v>
       </c>
       <c r="K19" t="s">
-        <v>772</v>
+        <v>592</v>
       </c>
       <c r="M19" t="s">
         <v>80</v>
@@ -12210,33 +9462,33 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>590</v>
+        <v>452</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>591</v>
+        <v>453</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>592</v>
+        <v>454</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>593</v>
+        <v>455</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>594</v>
+        <v>456</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>595</v>
+        <v>457</v>
       </c>
       <c r="I21" t="s">
-        <v>596</v>
+        <v>458</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="E22" t="s">
-        <v>597</v>
+        <v>459</v>
       </c>
       <c r="F22" t="s">
-        <v>744</v>
+        <v>564</v>
       </c>
       <c r="G22" t="str">
         <f>角色!$E$10</f>
@@ -12247,15 +9499,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I22" t="s">
-        <v>598</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="E23" t="s">
-        <v>597</v>
+        <v>459</v>
       </c>
       <c r="F23" t="s">
-        <v>744</v>
+        <v>564</v>
       </c>
       <c r="G23" t="str">
         <f>角色!$E$10</f>
@@ -12266,15 +9518,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I23" t="s">
-        <v>598</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="E24" t="s">
-        <v>597</v>
+        <v>459</v>
       </c>
       <c r="F24" t="s">
-        <v>744</v>
+        <v>564</v>
       </c>
       <c r="G24" t="str">
         <f>角色!$E$10</f>
@@ -12285,15 +9537,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I24" t="s">
-        <v>598</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="E25" t="s">
-        <v>597</v>
+        <v>459</v>
       </c>
       <c r="F25" t="s">
-        <v>744</v>
+        <v>564</v>
       </c>
       <c r="G25" t="str">
         <f>角色!$E$11</f>
@@ -12304,15 +9556,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I25" t="s">
-        <v>598</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="E26" t="s">
-        <v>597</v>
+        <v>459</v>
       </c>
       <c r="F26" t="s">
-        <v>744</v>
+        <v>564</v>
       </c>
       <c r="G26" t="str">
         <f>角色!$E$11</f>
@@ -12323,15 +9575,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I26" t="s">
-        <v>598</v>
+        <v>460</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="E27" t="s">
-        <v>597</v>
+        <v>459</v>
       </c>
       <c r="F27" t="s">
-        <v>744</v>
+        <v>564</v>
       </c>
       <c r="G27" t="str">
         <f>角色!$E$11</f>
@@ -12342,15 +9594,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I27" t="s">
-        <v>598</v>
+        <v>460</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="E28" t="s">
-        <v>597</v>
+        <v>459</v>
       </c>
       <c r="F28" t="s">
-        <v>744</v>
+        <v>564</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
@@ -12361,15 +9613,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I28" t="s">
-        <v>598</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="E29" t="s">
-        <v>597</v>
+        <v>459</v>
       </c>
       <c r="F29" t="s">
-        <v>744</v>
+        <v>564</v>
       </c>
       <c r="G29" t="str">
         <f>角色!$E$12</f>
@@ -12380,15 +9632,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I29" t="s">
-        <v>598</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="E30" t="s">
-        <v>597</v>
+        <v>459</v>
       </c>
       <c r="F30" t="s">
-        <v>744</v>
+        <v>564</v>
       </c>
       <c r="G30" t="str">
         <f>角色!$E$12</f>
@@ -12399,15 +9651,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I30" t="s">
-        <v>598</v>
+        <v>460</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="E31" t="s">
-        <v>597</v>
+        <v>459</v>
       </c>
       <c r="F31" t="s">
-        <v>744</v>
+        <v>564</v>
       </c>
       <c r="G31" t="str">
         <f>角色!$E$12</f>
@@ -12418,15 +9670,15 @@
         <v>iam_label-18</v>
       </c>
       <c r="I31" t="s">
-        <v>598</v>
+        <v>460</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="E32" t="s">
-        <v>597</v>
+        <v>459</v>
       </c>
       <c r="F32" t="s">
-        <v>744</v>
+        <v>564</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
@@ -12437,15 +9689,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I32" t="s">
-        <v>598</v>
+        <v>460</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>597</v>
+        <v>459</v>
       </c>
       <c r="F33" t="s">
-        <v>744</v>
+        <v>564</v>
       </c>
       <c r="G33" t="str">
         <f>角色!$E$13</f>
@@ -12456,15 +9708,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I33" t="s">
-        <v>598</v>
+        <v>460</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>597</v>
+        <v>459</v>
       </c>
       <c r="F34" t="s">
-        <v>744</v>
+        <v>564</v>
       </c>
       <c r="G34" t="str">
         <f>角色!$E$13</f>
@@ -12475,15 +9727,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I34" t="s">
-        <v>598</v>
+        <v>460</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>597</v>
+        <v>459</v>
       </c>
       <c r="F35" t="s">
-        <v>744</v>
+        <v>564</v>
       </c>
       <c r="G35" t="str">
         <f>角色!$E$13</f>
@@ -12494,7 +9746,7 @@
         <v>iam_label-19</v>
       </c>
       <c r="I35" t="s">
-        <v>598</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\agile\test-manager-service\src\main\resources\script\db\init-data\test_manager_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9236BE-EBBB-4672-8786-41095E5BA072}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5BA5C8-405B-4FD3-B6DC-3D18CD4938D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="597">
   <si>
     <r>
       <rPr>
@@ -2096,9 +2096,6 @@
     <t>root</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -2210,9 +2207,6 @@
     <t>SZ</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>iam_menu-30</t>
   </si>
   <si>
@@ -2253,9 +2247,6 @@
   </si>
   <si>
     <t>choerodon.code.project.test</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>iam_menu-33</t>
@@ -4614,8 +4605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -4752,11 +4743,11 @@
       <c r="L8" t="s">
         <v>81</v>
       </c>
-      <c r="M8" t="s">
-        <v>82</v>
+      <c r="M8">
+        <v>80</v>
       </c>
       <c r="N8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q8" t="s">
         <v>80</v>
@@ -4771,27 +4762,27 @@
         <v>80</v>
       </c>
       <c r="V8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="E9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" t="s">
         <v>85</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>86</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" t="s">
         <v>87</v>
-      </c>
-      <c r="H9" t="s">
-        <v>87</v>
-      </c>
-      <c r="I9" t="s">
-        <v>88</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
@@ -4801,51 +4792,51 @@
         <v>iam_menu-8</v>
       </c>
       <c r="L9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" t="s">
         <v>89</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" t="s">
         <v>90</v>
       </c>
-      <c r="N9" t="s">
+      <c r="P9" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>80</v>
+      </c>
+      <c r="R9" t="s">
+        <v>80</v>
+      </c>
+      <c r="S9" t="s">
+        <v>92</v>
+      </c>
+      <c r="T9" t="s">
+        <v>80</v>
+      </c>
+      <c r="V9" t="s">
         <v>83</v>
       </c>
-      <c r="O9" t="s">
-        <v>91</v>
-      </c>
-      <c r="P9" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>80</v>
-      </c>
-      <c r="R9" t="s">
-        <v>80</v>
-      </c>
-      <c r="S9" t="s">
-        <v>93</v>
-      </c>
-      <c r="T9" t="s">
-        <v>80</v>
-      </c>
-      <c r="V9" t="s">
-        <v>84</v>
-      </c>
       <c r="X9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="E10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" t="s">
         <v>96</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>97</v>
       </c>
-      <c r="G10" t="s">
-        <v>98</v>
-      </c>
       <c r="H10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
@@ -4855,45 +4846,45 @@
         <v>iam_menu-9</v>
       </c>
       <c r="L10" t="s">
+        <v>93</v>
+      </c>
+      <c r="N10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" t="s">
         <v>94</v>
       </c>
-      <c r="N10" t="s">
+      <c r="Q10" t="s">
+        <v>80</v>
+      </c>
+      <c r="R10" t="s">
+        <v>80</v>
+      </c>
+      <c r="S10" t="s">
+        <v>98</v>
+      </c>
+      <c r="T10" t="s">
+        <v>80</v>
+      </c>
+      <c r="V10" t="s">
         <v>83</v>
       </c>
-      <c r="O10" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>80</v>
-      </c>
-      <c r="R10" t="s">
-        <v>80</v>
-      </c>
-      <c r="S10" t="s">
-        <v>99</v>
-      </c>
-      <c r="T10" t="s">
-        <v>80</v>
-      </c>
-      <c r="V10" t="s">
-        <v>84</v>
-      </c>
       <c r="X10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="E11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" t="s">
         <v>100</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>101</v>
       </c>
-      <c r="G11" t="s">
-        <v>102</v>
-      </c>
       <c r="H11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
@@ -4903,45 +4894,45 @@
         <v>iam_menu-9</v>
       </c>
       <c r="L11" t="s">
+        <v>93</v>
+      </c>
+      <c r="N11" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11" t="s">
         <v>94</v>
       </c>
-      <c r="N11" t="s">
+      <c r="Q11" t="s">
+        <v>80</v>
+      </c>
+      <c r="R11" t="s">
+        <v>80</v>
+      </c>
+      <c r="S11" t="s">
+        <v>102</v>
+      </c>
+      <c r="T11" t="s">
+        <v>80</v>
+      </c>
+      <c r="V11" t="s">
         <v>83</v>
       </c>
-      <c r="O11" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>80</v>
-      </c>
-      <c r="R11" t="s">
-        <v>80</v>
-      </c>
-      <c r="S11" t="s">
-        <v>103</v>
-      </c>
-      <c r="T11" t="s">
-        <v>80</v>
-      </c>
-      <c r="V11" t="s">
-        <v>84</v>
-      </c>
       <c r="X11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="E12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" t="s">
         <v>104</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>105</v>
       </c>
-      <c r="G12" t="s">
-        <v>106</v>
-      </c>
       <c r="H12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -4951,45 +4942,45 @@
         <v>iam_menu-9</v>
       </c>
       <c r="L12" t="s">
+        <v>93</v>
+      </c>
+      <c r="N12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" t="s">
         <v>94</v>
       </c>
-      <c r="N12" t="s">
+      <c r="Q12" t="s">
+        <v>80</v>
+      </c>
+      <c r="R12" t="s">
+        <v>80</v>
+      </c>
+      <c r="S12" t="s">
+        <v>106</v>
+      </c>
+      <c r="T12" t="s">
+        <v>80</v>
+      </c>
+      <c r="V12" t="s">
         <v>83</v>
       </c>
-      <c r="O12" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>80</v>
-      </c>
-      <c r="R12" t="s">
-        <v>80</v>
-      </c>
-      <c r="S12" t="s">
-        <v>107</v>
-      </c>
-      <c r="T12" t="s">
-        <v>80</v>
-      </c>
-      <c r="V12" t="s">
-        <v>84</v>
-      </c>
       <c r="X12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="E13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" t="s">
         <v>108</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>109</v>
       </c>
-      <c r="G13" t="s">
-        <v>110</v>
-      </c>
       <c r="H13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
@@ -4999,45 +4990,45 @@
         <v>iam_menu-9</v>
       </c>
       <c r="L13" t="s">
+        <v>93</v>
+      </c>
+      <c r="N13" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" t="s">
         <v>94</v>
       </c>
-      <c r="N13" t="s">
+      <c r="Q13" t="s">
+        <v>80</v>
+      </c>
+      <c r="R13" t="s">
+        <v>80</v>
+      </c>
+      <c r="S13" t="s">
+        <v>110</v>
+      </c>
+      <c r="T13" t="s">
+        <v>80</v>
+      </c>
+      <c r="V13" t="s">
         <v>83</v>
       </c>
-      <c r="O13" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>80</v>
-      </c>
-      <c r="R13" t="s">
-        <v>80</v>
-      </c>
-      <c r="S13" t="s">
-        <v>111</v>
-      </c>
-      <c r="T13" t="s">
-        <v>80</v>
-      </c>
-      <c r="V13" t="s">
-        <v>84</v>
-      </c>
       <c r="X13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="E14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" t="s">
         <v>112</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>113</v>
       </c>
-      <c r="G14" t="s">
-        <v>114</v>
-      </c>
       <c r="H14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J14" t="s">
         <v>79</v>
@@ -5047,48 +5038,48 @@
         <v>iam_menu-9</v>
       </c>
       <c r="L14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
       </c>
       <c r="N14" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>80</v>
+      </c>
+      <c r="R14" t="s">
+        <v>80</v>
+      </c>
+      <c r="S14" t="s">
+        <v>114</v>
+      </c>
+      <c r="T14" t="s">
+        <v>80</v>
+      </c>
+      <c r="V14" t="s">
         <v>83</v>
       </c>
-      <c r="Q14" t="s">
-        <v>80</v>
-      </c>
-      <c r="R14" t="s">
-        <v>80</v>
-      </c>
-      <c r="S14" t="s">
-        <v>115</v>
-      </c>
-      <c r="T14" t="s">
-        <v>80</v>
-      </c>
-      <c r="V14" t="s">
-        <v>84</v>
-      </c>
       <c r="X14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="E15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" t="s">
         <v>116</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>117</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I15" t="s">
         <v>118</v>
-      </c>
-      <c r="H15" t="s">
-        <v>118</v>
-      </c>
-      <c r="I15" t="s">
-        <v>119</v>
       </c>
       <c r="J15" t="s">
         <v>79</v>
@@ -5099,46 +5090,46 @@
       <c r="L15" t="s">
         <v>81</v>
       </c>
-      <c r="M15" t="s">
-        <v>120</v>
+      <c r="M15">
+        <v>100</v>
       </c>
       <c r="N15" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>80</v>
+      </c>
+      <c r="R15" t="s">
+        <v>80</v>
+      </c>
+      <c r="S15" t="s">
+        <v>116</v>
+      </c>
+      <c r="T15" t="s">
+        <v>80</v>
+      </c>
+      <c r="V15" t="s">
         <v>83</v>
       </c>
-      <c r="Q15" t="s">
-        <v>80</v>
-      </c>
-      <c r="R15" t="s">
-        <v>80</v>
-      </c>
-      <c r="S15" t="s">
-        <v>117</v>
-      </c>
-      <c r="T15" t="s">
-        <v>80</v>
-      </c>
-      <c r="V15" t="s">
-        <v>84</v>
-      </c>
       <c r="X15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="E16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" t="s">
         <v>121</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I16" t="s">
         <v>122</v>
-      </c>
-      <c r="G16" t="s">
-        <v>123</v>
-      </c>
-      <c r="H16" t="s">
-        <v>123</v>
-      </c>
-      <c r="I16" t="s">
-        <v>124</v>
       </c>
       <c r="J16" t="s">
         <v>79</v>
@@ -5148,51 +5139,51 @@
         <v>iam_menu-29</v>
       </c>
       <c r="L16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M16" t="s">
+        <v>123</v>
+      </c>
+      <c r="N16" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" t="s">
+        <v>124</v>
+      </c>
+      <c r="P16" t="s">
         <v>125</v>
       </c>
-      <c r="N16" t="s">
+      <c r="Q16" t="s">
+        <v>80</v>
+      </c>
+      <c r="R16" t="s">
+        <v>80</v>
+      </c>
+      <c r="S16" t="s">
+        <v>126</v>
+      </c>
+      <c r="T16" t="s">
+        <v>80</v>
+      </c>
+      <c r="V16" t="s">
         <v>83</v>
       </c>
-      <c r="O16" t="s">
-        <v>126</v>
-      </c>
-      <c r="P16" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>80</v>
-      </c>
-      <c r="R16" t="s">
-        <v>80</v>
-      </c>
-      <c r="S16" t="s">
-        <v>128</v>
-      </c>
-      <c r="T16" t="s">
-        <v>80</v>
-      </c>
-      <c r="V16" t="s">
-        <v>84</v>
-      </c>
       <c r="X16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="5:24">
       <c r="E17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" t="s">
         <v>129</v>
       </c>
-      <c r="F17" t="s">
-        <v>130</v>
-      </c>
-      <c r="G17" t="s">
-        <v>131</v>
-      </c>
       <c r="H17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J17" t="s">
         <v>79</v>
@@ -5202,48 +5193,48 @@
         <v>iam_menu-30</v>
       </c>
       <c r="L17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
       </c>
       <c r="N17" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>80</v>
+      </c>
+      <c r="R17" t="s">
+        <v>80</v>
+      </c>
+      <c r="S17" t="s">
+        <v>130</v>
+      </c>
+      <c r="T17" t="s">
+        <v>80</v>
+      </c>
+      <c r="V17" t="s">
         <v>83</v>
       </c>
-      <c r="Q17" t="s">
-        <v>80</v>
-      </c>
-      <c r="R17" t="s">
-        <v>80</v>
-      </c>
-      <c r="S17" t="s">
-        <v>132</v>
-      </c>
-      <c r="T17" t="s">
-        <v>80</v>
-      </c>
-      <c r="V17" t="s">
-        <v>84</v>
-      </c>
       <c r="X17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="5:24">
       <c r="E18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J18" t="s">
         <v>79</v>
@@ -5254,46 +5245,46 @@
       <c r="L18" t="s">
         <v>81</v>
       </c>
-      <c r="M18" t="s">
-        <v>135</v>
+      <c r="M18">
+        <v>70</v>
       </c>
       <c r="N18" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>80</v>
+      </c>
+      <c r="R18" t="s">
+        <v>80</v>
+      </c>
+      <c r="S18" t="s">
+        <v>132</v>
+      </c>
+      <c r="T18" t="s">
+        <v>80</v>
+      </c>
+      <c r="V18" t="s">
         <v>83</v>
       </c>
-      <c r="Q18" t="s">
-        <v>80</v>
-      </c>
-      <c r="R18" t="s">
-        <v>80</v>
-      </c>
-      <c r="S18" t="s">
-        <v>134</v>
-      </c>
-      <c r="T18" t="s">
-        <v>80</v>
-      </c>
-      <c r="V18" t="s">
-        <v>84</v>
-      </c>
       <c r="X18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="5:24">
       <c r="E19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19" t="s">
+        <v>135</v>
+      </c>
+      <c r="I19" t="s">
         <v>136</v>
-      </c>
-      <c r="F19" t="s">
-        <v>137</v>
-      </c>
-      <c r="G19" t="s">
-        <v>138</v>
-      </c>
-      <c r="H19" t="s">
-        <v>138</v>
-      </c>
-      <c r="I19" t="s">
-        <v>139</v>
       </c>
       <c r="J19" t="s">
         <v>79</v>
@@ -5303,51 +5294,51 @@
         <v>iam_menu-32</v>
       </c>
       <c r="L19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N19" t="s">
+        <v>82</v>
+      </c>
+      <c r="O19" t="s">
+        <v>137</v>
+      </c>
+      <c r="P19" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>80</v>
+      </c>
+      <c r="R19" t="s">
+        <v>80</v>
+      </c>
+      <c r="S19" t="s">
+        <v>139</v>
+      </c>
+      <c r="T19" t="s">
+        <v>80</v>
+      </c>
+      <c r="V19" t="s">
         <v>83</v>
       </c>
-      <c r="O19" t="s">
-        <v>140</v>
-      </c>
-      <c r="P19" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>80</v>
-      </c>
-      <c r="R19" t="s">
-        <v>80</v>
-      </c>
-      <c r="S19" t="s">
-        <v>142</v>
-      </c>
-      <c r="T19" t="s">
-        <v>80</v>
-      </c>
-      <c r="V19" t="s">
-        <v>84</v>
-      </c>
       <c r="X19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="5:24">
       <c r="E20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J20" t="s">
         <v>79</v>
@@ -5357,48 +5348,48 @@
         <v>iam_menu-33</v>
       </c>
       <c r="L20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M20" t="s">
         <v>80</v>
       </c>
       <c r="N20" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>80</v>
+      </c>
+      <c r="R20" t="s">
+        <v>80</v>
+      </c>
+      <c r="S20" t="s">
+        <v>143</v>
+      </c>
+      <c r="T20" t="s">
+        <v>80</v>
+      </c>
+      <c r="V20" t="s">
         <v>83</v>
       </c>
-      <c r="Q20" t="s">
-        <v>80</v>
-      </c>
-      <c r="R20" t="s">
-        <v>80</v>
-      </c>
-      <c r="S20" t="s">
-        <v>146</v>
-      </c>
-      <c r="T20" t="s">
-        <v>80</v>
-      </c>
-      <c r="V20" t="s">
-        <v>84</v>
-      </c>
       <c r="X20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="5:24">
       <c r="E21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" t="s">
+        <v>146</v>
+      </c>
+      <c r="H21" t="s">
+        <v>146</v>
+      </c>
+      <c r="I21" t="s">
         <v>147</v>
-      </c>
-      <c r="F21" t="s">
-        <v>148</v>
-      </c>
-      <c r="G21" t="s">
-        <v>149</v>
-      </c>
-      <c r="H21" t="s">
-        <v>149</v>
-      </c>
-      <c r="I21" t="s">
-        <v>150</v>
       </c>
       <c r="J21" t="s">
         <v>79</v>
@@ -5408,51 +5399,51 @@
         <v>iam_menu-32</v>
       </c>
       <c r="L21" t="s">
+        <v>88</v>
+      </c>
+      <c r="M21" t="s">
         <v>89</v>
       </c>
-      <c r="M21" t="s">
-        <v>90</v>
-      </c>
       <c r="N21" t="s">
+        <v>82</v>
+      </c>
+      <c r="O21" t="s">
+        <v>148</v>
+      </c>
+      <c r="P21" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>80</v>
+      </c>
+      <c r="R21" t="s">
+        <v>80</v>
+      </c>
+      <c r="S21" t="s">
+        <v>150</v>
+      </c>
+      <c r="T21" t="s">
+        <v>80</v>
+      </c>
+      <c r="V21" t="s">
         <v>83</v>
       </c>
-      <c r="O21" t="s">
-        <v>151</v>
-      </c>
-      <c r="P21" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>80</v>
-      </c>
-      <c r="R21" t="s">
-        <v>80</v>
-      </c>
-      <c r="S21" t="s">
-        <v>153</v>
-      </c>
-      <c r="T21" t="s">
-        <v>80</v>
-      </c>
-      <c r="V21" t="s">
-        <v>84</v>
-      </c>
       <c r="X21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="5:24">
       <c r="E22" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J22" t="s">
         <v>79</v>
@@ -5462,48 +5453,48 @@
         <v>iam_menu-35</v>
       </c>
       <c r="L22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M22" t="s">
         <v>80</v>
       </c>
       <c r="N22" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>80</v>
+      </c>
+      <c r="R22" t="s">
+        <v>80</v>
+      </c>
+      <c r="S22" t="s">
+        <v>154</v>
+      </c>
+      <c r="T22" t="s">
+        <v>80</v>
+      </c>
+      <c r="V22" t="s">
         <v>83</v>
       </c>
-      <c r="Q22" t="s">
-        <v>80</v>
-      </c>
-      <c r="R22" t="s">
-        <v>80</v>
-      </c>
-      <c r="S22" t="s">
-        <v>157</v>
-      </c>
-      <c r="T22" t="s">
-        <v>80</v>
-      </c>
-      <c r="V22" t="s">
-        <v>84</v>
-      </c>
       <c r="X22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="5:24">
       <c r="E23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" t="s">
+        <v>156</v>
+      </c>
+      <c r="G23" t="s">
+        <v>157</v>
+      </c>
+      <c r="H23" t="s">
+        <v>157</v>
+      </c>
+      <c r="I23" t="s">
         <v>158</v>
-      </c>
-      <c r="F23" t="s">
-        <v>159</v>
-      </c>
-      <c r="G23" t="s">
-        <v>160</v>
-      </c>
-      <c r="H23" t="s">
-        <v>160</v>
-      </c>
-      <c r="I23" t="s">
-        <v>161</v>
       </c>
       <c r="J23" t="s">
         <v>79</v>
@@ -5513,51 +5504,51 @@
         <v>iam_menu-32</v>
       </c>
       <c r="L23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M23" t="s">
+        <v>159</v>
+      </c>
+      <c r="N23" t="s">
+        <v>82</v>
+      </c>
+      <c r="O23" t="s">
+        <v>160</v>
+      </c>
+      <c r="P23" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>80</v>
+      </c>
+      <c r="R23" t="s">
+        <v>80</v>
+      </c>
+      <c r="S23" t="s">
         <v>162</v>
       </c>
-      <c r="N23" t="s">
+      <c r="T23" t="s">
+        <v>80</v>
+      </c>
+      <c r="V23" t="s">
         <v>83</v>
       </c>
-      <c r="O23" t="s">
-        <v>163</v>
-      </c>
-      <c r="P23" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>80</v>
-      </c>
-      <c r="R23" t="s">
-        <v>80</v>
-      </c>
-      <c r="S23" t="s">
-        <v>165</v>
-      </c>
-      <c r="T23" t="s">
-        <v>80</v>
-      </c>
-      <c r="V23" t="s">
-        <v>84</v>
-      </c>
       <c r="X23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="5:24">
       <c r="E24" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J24" t="s">
         <v>79</v>
@@ -5567,48 +5558,48 @@
         <v>iam_menu-37</v>
       </c>
       <c r="L24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M24" t="s">
         <v>80</v>
       </c>
       <c r="N24" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>80</v>
+      </c>
+      <c r="R24" t="s">
+        <v>80</v>
+      </c>
+      <c r="S24" t="s">
+        <v>166</v>
+      </c>
+      <c r="T24" t="s">
+        <v>80</v>
+      </c>
+      <c r="V24" t="s">
         <v>83</v>
       </c>
-      <c r="Q24" t="s">
-        <v>80</v>
-      </c>
-      <c r="R24" t="s">
-        <v>80</v>
-      </c>
-      <c r="S24" t="s">
-        <v>169</v>
-      </c>
-      <c r="T24" t="s">
-        <v>80</v>
-      </c>
-      <c r="V24" t="s">
-        <v>84</v>
-      </c>
       <c r="X24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="5:24">
       <c r="E25" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F25" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G25" t="s">
+        <v>117</v>
+      </c>
+      <c r="H25" t="s">
+        <v>117</v>
+      </c>
+      <c r="I25" t="s">
         <v>118</v>
-      </c>
-      <c r="H25" t="s">
-        <v>118</v>
-      </c>
-      <c r="I25" t="s">
-        <v>119</v>
       </c>
       <c r="J25" t="s">
         <v>79</v>
@@ -5620,45 +5611,45 @@
         <v>81</v>
       </c>
       <c r="M25" t="s">
+        <v>82</v>
+      </c>
+      <c r="N25" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>80</v>
+      </c>
+      <c r="R25" t="s">
+        <v>80</v>
+      </c>
+      <c r="S25" t="s">
+        <v>168</v>
+      </c>
+      <c r="T25" t="s">
+        <v>80</v>
+      </c>
+      <c r="V25" t="s">
         <v>83</v>
       </c>
-      <c r="N25" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>80</v>
-      </c>
-      <c r="R25" t="s">
-        <v>80</v>
-      </c>
-      <c r="S25" t="s">
-        <v>171</v>
-      </c>
-      <c r="T25" t="s">
-        <v>80</v>
-      </c>
-      <c r="V25" t="s">
-        <v>84</v>
-      </c>
       <c r="X25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="5:24">
       <c r="E26" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" t="s">
+        <v>170</v>
+      </c>
+      <c r="G26" t="s">
+        <v>171</v>
+      </c>
+      <c r="H26" t="s">
+        <v>171</v>
+      </c>
+      <c r="I26" t="s">
         <v>172</v>
-      </c>
-      <c r="F26" t="s">
-        <v>173</v>
-      </c>
-      <c r="G26" t="s">
-        <v>174</v>
-      </c>
-      <c r="H26" t="s">
-        <v>174</v>
-      </c>
-      <c r="I26" t="s">
-        <v>175</v>
       </c>
       <c r="J26" t="s">
         <v>79</v>
@@ -5668,51 +5659,51 @@
         <v>iam_menu-39</v>
       </c>
       <c r="L26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M26">
         <v>55</v>
       </c>
       <c r="N26" t="s">
+        <v>82</v>
+      </c>
+      <c r="O26" t="s">
+        <v>173</v>
+      </c>
+      <c r="P26" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>80</v>
+      </c>
+      <c r="R26" t="s">
+        <v>80</v>
+      </c>
+      <c r="S26" t="s">
+        <v>175</v>
+      </c>
+      <c r="T26" t="s">
+        <v>80</v>
+      </c>
+      <c r="V26" t="s">
         <v>83</v>
       </c>
-      <c r="O26" t="s">
-        <v>176</v>
-      </c>
-      <c r="P26" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>80</v>
-      </c>
-      <c r="R26" t="s">
-        <v>80</v>
-      </c>
-      <c r="S26" t="s">
-        <v>178</v>
-      </c>
-      <c r="T26" t="s">
-        <v>80</v>
-      </c>
-      <c r="V26" t="s">
-        <v>84</v>
-      </c>
       <c r="X26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="5:24">
       <c r="E27" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F27" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G27" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H27" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J27" t="s">
         <v>79</v>
@@ -5722,31 +5713,31 @@
         <v>iam_menu-40</v>
       </c>
       <c r="L27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M27" t="s">
         <v>80</v>
       </c>
       <c r="N27" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>80</v>
+      </c>
+      <c r="R27" t="s">
+        <v>80</v>
+      </c>
+      <c r="S27" t="s">
+        <v>179</v>
+      </c>
+      <c r="T27" t="s">
+        <v>80</v>
+      </c>
+      <c r="V27" t="s">
         <v>83</v>
       </c>
-      <c r="Q27" t="s">
-        <v>80</v>
-      </c>
-      <c r="R27" t="s">
-        <v>80</v>
-      </c>
-      <c r="S27" t="s">
-        <v>182</v>
-      </c>
-      <c r="T27" t="s">
-        <v>80</v>
-      </c>
-      <c r="V27" t="s">
-        <v>84</v>
-      </c>
       <c r="X27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -5803,1459 +5794,1459 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="E8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F8" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="E9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F9" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-31</v>
       </c>
       <c r="G9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="E10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F10" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-31</v>
       </c>
       <c r="G10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="E11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F11" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-31</v>
       </c>
       <c r="G11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="E12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F12" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-31</v>
       </c>
       <c r="G12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="E13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F13" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-34</v>
       </c>
       <c r="G13" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="E14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F14" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-34</v>
       </c>
       <c r="G14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="E15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F15" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-34</v>
       </c>
       <c r="G15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="E16" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F16" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-34</v>
       </c>
       <c r="G16" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F17" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-34</v>
       </c>
       <c r="G17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F18" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-34</v>
       </c>
       <c r="G18" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F19" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-34</v>
       </c>
       <c r="G19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F20" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-34</v>
       </c>
       <c r="G20" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F21" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-34</v>
       </c>
       <c r="G21" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F22" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-34</v>
       </c>
       <c r="G22" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F23" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-34</v>
       </c>
       <c r="G23" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F24" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G24" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F25" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G25" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F26" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G26" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F27" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G27" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F28" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G28" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F29" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G29" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F30" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G30" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F31" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G31" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F32" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G32" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F33" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G33" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F34" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G34" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F35" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G35" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F36" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F37" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G37" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F38" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G38" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F39" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G39" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F40" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G40" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F41" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G41" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F42" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G42" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F43" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G43" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F44" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G44" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F45" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G45" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F46" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G46" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F47" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G47" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F48" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G48" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F49" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G49" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F50" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G50" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F51" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G51" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F52" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G52" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F53" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G53" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F54" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G54" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F55" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G55" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F56" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G56" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F57" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G57" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F58" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G58" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F59" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G59" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F60" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G60" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F61" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G61" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F62" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G62" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="E63" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F63" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G63" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F64" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G64" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F65" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G65" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F66" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G66" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F67" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G67" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F68" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G68" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F69" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G69" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F70" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G70" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F71" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G71" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F72" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G72" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F73" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G73" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F74" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G74" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F75" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G75" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F76" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G76" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F77" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G77" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F78" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G78" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="E79" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F79" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G79" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="E80" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F80" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G80" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="81" spans="5:7">
       <c r="E81" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F81" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G81" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="82" spans="5:7">
       <c r="E82" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F82" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G82" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="83" spans="5:7">
       <c r="E83" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F83" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G83" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="84" spans="5:7">
       <c r="E84" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F84" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G84" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="85" spans="5:7">
       <c r="E85" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F85" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G85" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F86" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G86" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="87" spans="5:7">
       <c r="E87" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F87" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G87" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="88" spans="5:7">
       <c r="E88" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F88" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G88" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="89" spans="5:7">
       <c r="E89" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F89" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G89" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F90" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G90" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="91" spans="5:7">
       <c r="E91" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F91" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G91" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="92" spans="5:7">
       <c r="E92" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F92" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G92" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="93" spans="5:7">
       <c r="E93" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F93" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G93" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="94" spans="5:7">
       <c r="E94" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F94" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G94" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="95" spans="5:7">
       <c r="E95" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F95" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G95" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="96" spans="5:7">
       <c r="E96" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F96" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G96" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="97" spans="5:7">
       <c r="E97" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F97" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G97" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="98" spans="5:7">
       <c r="E98" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F98" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G98" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="99" spans="5:7">
       <c r="E99" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F99" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G99" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="100" spans="5:7">
       <c r="E100" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F100" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G100" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="101" spans="5:7">
       <c r="E101" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F101" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G101" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="102" spans="5:7">
       <c r="E102" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F102" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G102" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="103" spans="5:7">
       <c r="E103" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F103" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G103" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="104" spans="5:7">
       <c r="E104" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F104" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G104" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="105" spans="5:7">
       <c r="E105" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F105" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G105" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="106" spans="5:7">
       <c r="E106" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F106" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G106" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="107" spans="5:7">
       <c r="E107" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F107" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G107" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="108" spans="5:7">
       <c r="E108" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F108" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G108" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="109" spans="5:7">
       <c r="E109" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F109" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G109" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="110" spans="5:7">
       <c r="E110" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F110" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G110" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="111" spans="5:7">
       <c r="E111" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F111" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-16</v>
       </c>
       <c r="G111" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="112" spans="5:7">
       <c r="E112" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F112" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-16</v>
       </c>
       <c r="G112" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="113" spans="5:7">
       <c r="E113" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F113" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G113" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="114" spans="5:7">
       <c r="E114" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F114" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G114" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="115" spans="5:7">
       <c r="E115" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F115" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G115" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="116" spans="5:7">
       <c r="E116" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F116" t="str">
         <f>菜单SAAS版!$E$27</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G116" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="117" spans="5:7">
       <c r="E117" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F117" t="str">
         <f>菜单SAAS版!$E$27</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G117" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="118" spans="5:7">
       <c r="E118" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F118" t="str">
         <f>菜单SAAS版!$E$27</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G118" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="119" spans="5:7">
       <c r="E119" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F119" t="str">
         <f>菜单SAAS版!$E$27</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G119" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="120" spans="5:7">
       <c r="E120" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F120" t="str">
         <f>菜单SAAS版!$E$27</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G120" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="121" spans="5:7">
       <c r="E121" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F121" t="str">
         <f>菜单SAAS版!$E$27</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G121" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="122" spans="5:7">
       <c r="E122" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F122" t="str">
         <f>菜单SAAS版!$E$27</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G122" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="123" spans="5:7">
       <c r="E123" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F123" t="str">
         <f>菜单SAAS版!$E$27</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G123" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="124" spans="5:7">
       <c r="E124" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F124" t="str">
         <f>菜单SAAS版!$E$27</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G124" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="125" spans="5:7">
       <c r="E125" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F125" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G125" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="126" spans="5:7">
       <c r="E126" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F126" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G126" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="127" spans="5:7">
       <c r="E127" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F127" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-38</v>
       </c>
       <c r="G127" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -7316,43 +7307,43 @@
         <v>51</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="35" t="s">
+        <v>414</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>415</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>416</v>
+      </c>
+      <c r="I7" s="32" t="s">
         <v>417</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="J7" s="32" t="s">
         <v>418</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="K7" s="32" t="s">
         <v>419</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="L7" s="32" t="s">
         <v>420</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="M7" s="32" t="s">
         <v>421</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="N7" s="32" t="s">
         <v>422</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="O7" s="32" t="s">
         <v>423</v>
-      </c>
-      <c r="M7" s="32" t="s">
-        <v>424</v>
-      </c>
-      <c r="N7" s="32" t="s">
-        <v>425</v>
-      </c>
-      <c r="O7" s="32" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -7361,35 +7352,35 @@
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
       <c r="E8" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="32" t="s">
         <v>427</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="J8" s="32" t="s">
         <v>428</v>
       </c>
-      <c r="G8" s="32" t="s">
-        <v>429</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>430</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>431</v>
-      </c>
       <c r="K8" s="32" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="L8" s="32"/>
       <c r="M8" s="32">
         <v>0</v>
       </c>
       <c r="N8" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O8" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -7398,22 +7389,22 @@
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="E9" s="32" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
@@ -7424,7 +7415,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -7433,35 +7424,35 @@
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
       <c r="E10" s="32" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="J10" s="32" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="L10" s="32"/>
       <c r="M10" s="32">
         <v>0</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O10" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -7470,22 +7461,22 @@
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
       <c r="E11" s="32" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
@@ -7496,7 +7487,7 @@
         <v>1</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -7505,22 +7496,22 @@
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
@@ -7531,7 +7522,7 @@
         <v>1</v>
       </c>
       <c r="O12" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -7540,22 +7531,22 @@
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="32" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="J13" s="32" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
@@ -7566,7 +7557,7 @@
         <v>1</v>
       </c>
       <c r="O13" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -7577,33 +7568,33 @@
         <v>51</v>
       </c>
       <c r="C15" t="s">
+        <v>449</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="G15" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="H15" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="I15" t="s">
         <v>455</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="I15" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="E16" s="37" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F16" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G16" t="str">
         <f>菜单SAAS版!E8</f>
@@ -7614,15 +7605,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I16" s="37" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" s="37" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F17" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G17" t="str">
         <f>菜单SAAS版!E9</f>
@@ -7633,15 +7624,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I17" s="37" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="18" spans="5:9">
       <c r="E18" s="37" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F18" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G18" t="str">
         <f>菜单SAAS版!E15</f>
@@ -7652,15 +7643,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I18" s="37" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="19" spans="5:9">
       <c r="E19" s="37" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F19" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G19" t="str">
         <f>菜单SAAS版!E16</f>
@@ -7671,15 +7662,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I19" s="37" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="20" spans="5:9">
       <c r="E20" s="37" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F20" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G20" t="str">
         <f>菜单SAAS版!E18</f>
@@ -7690,15 +7681,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I20" s="37" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="21" spans="5:9">
       <c r="E21" s="37" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F21" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G21" t="str">
         <f>菜单SAAS版!E19</f>
@@ -7709,15 +7700,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I21" s="37" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" s="37" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F22" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G22" t="str">
         <f>菜单SAAS版!E21</f>
@@ -7728,15 +7719,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I22" s="37" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" s="37" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F23" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G23" t="str">
         <f>菜单SAAS版!E23</f>
@@ -7747,15 +7738,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I23" s="37" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" s="37" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F24" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G24" t="str">
         <f>菜单SAAS版!E25</f>
@@ -7766,15 +7757,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I24" s="37" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" s="37" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F25" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G25" t="str">
         <f>菜单SAAS版!E26</f>
@@ -7785,7 +7776,7 @@
         <v>iam_label-8</v>
       </c>
       <c r="I25" s="37" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="27" spans="5:9" s="5" customFormat="1"/>
@@ -7843,10 +7834,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -7861,75 +7852,75 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="J7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
+        <v>461</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="O7" t="s">
         <v>464</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="P7" t="s">
         <v>465</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="Q7" t="s">
         <v>466</v>
       </c>
-      <c r="O7" t="s">
+      <c r="R7" t="s">
         <v>467</v>
       </c>
-      <c r="P7" t="s">
+      <c r="S7" t="s">
         <v>468</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="T7" t="s">
         <v>469</v>
-      </c>
-      <c r="R7" t="s">
-        <v>470</v>
-      </c>
-      <c r="S7" t="s">
-        <v>471</v>
-      </c>
-      <c r="T7" t="s">
-        <v>472</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
+        <v>470</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="X7" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y7" t="s">
         <v>473</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="X7" t="s">
-        <v>475</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="E8" t="s">
+        <v>474</v>
+      </c>
+      <c r="F8" t="s">
+        <v>475</v>
+      </c>
+      <c r="G8" t="s">
+        <v>476</v>
+      </c>
+      <c r="H8" t="s">
         <v>477</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I8" t="s">
         <v>478</v>
       </c>
-      <c r="G8" t="s">
+      <c r="J8" t="s">
         <v>479</v>
-      </c>
-      <c r="H8" t="s">
-        <v>480</v>
-      </c>
-      <c r="I8" t="s">
-        <v>481</v>
-      </c>
-      <c r="J8" t="s">
-        <v>482</v>
       </c>
       <c r="K8" t="s">
         <v>80</v>
@@ -7947,25 +7938,25 @@
         <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q8" t="s">
         <v>80</v>
       </c>
       <c r="R8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T8" t="s">
         <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="V8" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="W8" t="s">
         <v>80</v>
@@ -7973,19 +7964,19 @@
     </row>
     <row r="9" spans="1:25">
       <c r="E9" t="s">
+        <v>480</v>
+      </c>
+      <c r="F9" t="s">
+        <v>481</v>
+      </c>
+      <c r="G9" t="s">
+        <v>482</v>
+      </c>
+      <c r="H9" t="s">
         <v>483</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
         <v>484</v>
-      </c>
-      <c r="G9" t="s">
-        <v>485</v>
-      </c>
-      <c r="H9" t="s">
-        <v>486</v>
-      </c>
-      <c r="I9" t="s">
-        <v>487</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
@@ -8006,25 +7997,25 @@
         <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q9" t="s">
         <v>80</v>
       </c>
       <c r="R9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T9" t="s">
         <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="V9" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="W9" t="s">
         <v>80</v>
@@ -8032,16 +8023,16 @@
     </row>
     <row r="10" spans="1:25">
       <c r="E10" t="s">
+        <v>485</v>
+      </c>
+      <c r="F10" t="s">
+        <v>486</v>
+      </c>
+      <c r="G10" t="s">
+        <v>487</v>
+      </c>
+      <c r="H10" t="s">
         <v>488</v>
-      </c>
-      <c r="F10" t="s">
-        <v>489</v>
-      </c>
-      <c r="G10" t="s">
-        <v>490</v>
-      </c>
-      <c r="H10" t="s">
-        <v>491</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
@@ -8063,48 +8054,48 @@
         <v>80</v>
       </c>
       <c r="P10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q10" t="s">
         <v>80</v>
       </c>
       <c r="R10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T10" t="s">
         <v>80</v>
       </c>
       <c r="U10" t="s">
+        <v>489</v>
+      </c>
+      <c r="V10" t="s">
+        <v>490</v>
+      </c>
+      <c r="W10" t="s">
+        <v>80</v>
+      </c>
+      <c r="X10" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y10" t="s">
         <v>492</v>
-      </c>
-      <c r="V10" t="s">
-        <v>493</v>
-      </c>
-      <c r="W10" t="s">
-        <v>80</v>
-      </c>
-      <c r="X10" t="s">
-        <v>494</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="E11" t="s">
+        <v>493</v>
+      </c>
+      <c r="F11" t="s">
+        <v>494</v>
+      </c>
+      <c r="G11" t="s">
+        <v>495</v>
+      </c>
+      <c r="H11" t="s">
         <v>496</v>
-      </c>
-      <c r="F11" t="s">
-        <v>497</v>
-      </c>
-      <c r="G11" t="s">
-        <v>498</v>
-      </c>
-      <c r="H11" t="s">
-        <v>499</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
@@ -8126,48 +8117,48 @@
         <v>80</v>
       </c>
       <c r="P11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q11" t="s">
         <v>80</v>
       </c>
       <c r="R11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T11" t="s">
         <v>80</v>
       </c>
       <c r="U11" t="s">
+        <v>497</v>
+      </c>
+      <c r="V11" t="s">
+        <v>498</v>
+      </c>
+      <c r="W11" t="s">
+        <v>80</v>
+      </c>
+      <c r="X11" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y11" t="s">
         <v>500</v>
-      </c>
-      <c r="V11" t="s">
-        <v>501</v>
-      </c>
-      <c r="W11" t="s">
-        <v>80</v>
-      </c>
-      <c r="X11" t="s">
-        <v>502</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="E12" t="s">
+        <v>501</v>
+      </c>
+      <c r="F12" t="s">
+        <v>502</v>
+      </c>
+      <c r="G12" t="s">
+        <v>503</v>
+      </c>
+      <c r="H12" t="s">
         <v>504</v>
-      </c>
-      <c r="F12" t="s">
-        <v>505</v>
-      </c>
-      <c r="G12" t="s">
-        <v>506</v>
-      </c>
-      <c r="H12" t="s">
-        <v>507</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -8189,48 +8180,48 @@
         <v>80</v>
       </c>
       <c r="P12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q12" t="s">
         <v>80</v>
       </c>
       <c r="R12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T12" t="s">
         <v>80</v>
       </c>
       <c r="U12" t="s">
+        <v>505</v>
+      </c>
+      <c r="V12" t="s">
+        <v>506</v>
+      </c>
+      <c r="W12" t="s">
+        <v>80</v>
+      </c>
+      <c r="X12" t="s">
+        <v>507</v>
+      </c>
+      <c r="Y12" t="s">
         <v>508</v>
-      </c>
-      <c r="V12" t="s">
-        <v>509</v>
-      </c>
-      <c r="W12" t="s">
-        <v>80</v>
-      </c>
-      <c r="X12" t="s">
-        <v>510</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="E13" t="s">
+        <v>509</v>
+      </c>
+      <c r="F13" t="s">
+        <v>510</v>
+      </c>
+      <c r="G13" t="s">
+        <v>511</v>
+      </c>
+      <c r="H13" t="s">
         <v>512</v>
-      </c>
-      <c r="F13" t="s">
-        <v>513</v>
-      </c>
-      <c r="G13" t="s">
-        <v>514</v>
-      </c>
-      <c r="H13" t="s">
-        <v>515</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
@@ -8252,51 +8243,51 @@
         <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q13" t="s">
         <v>80</v>
       </c>
       <c r="R13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T13" t="s">
         <v>80</v>
       </c>
       <c r="U13" t="s">
+        <v>513</v>
+      </c>
+      <c r="V13" t="s">
+        <v>514</v>
+      </c>
+      <c r="W13" t="s">
+        <v>80</v>
+      </c>
+      <c r="X13" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y13" t="s">
         <v>516</v>
-      </c>
-      <c r="V13" t="s">
-        <v>517</v>
-      </c>
-      <c r="W13" t="s">
-        <v>80</v>
-      </c>
-      <c r="X13" t="s">
-        <v>518</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="E14" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F14" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G14" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H14" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J14" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -8330,10 +8321,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="V14" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -8347,33 +8338,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="H16" t="s">
+        <v>526</v>
+      </c>
+      <c r="I16" t="s">
         <v>527</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="H16" t="s">
-        <v>529</v>
-      </c>
-      <c r="I16" t="s">
-        <v>530</v>
-      </c>
       <c r="J16" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -8384,18 +8375,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H17" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I17" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J17" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -8406,18 +8397,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H18" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I18" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J18" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -8428,18 +8419,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H19" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I19" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J19" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -8450,18 +8441,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H20" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I20" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J20" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -8472,18 +8463,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H21" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I21" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -8494,18 +8485,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H22" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I22" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J22" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -8516,18 +8507,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H23" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I23" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J23" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -8538,18 +8529,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H24" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I24" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J24" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -8560,18 +8551,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H25" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I25" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J25" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -8582,18 +8573,18 @@
         <v>iam_menu-41</v>
       </c>
       <c r="H26" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I26" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J26" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$12</f>
@@ -8604,18 +8595,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H27" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I27" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J27" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$12</f>
@@ -8626,18 +8617,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H28" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I28" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J28" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$12</f>
@@ -8648,18 +8639,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H29" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I29" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J29" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$12</f>
@@ -8670,18 +8661,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H30" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I30" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J30" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$12</f>
@@ -8692,18 +8683,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H31" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I31" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J31" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$12</f>
@@ -8714,18 +8705,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H32" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I32" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J32" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$12</f>
@@ -8736,18 +8727,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H33" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I33" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J33" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$12</f>
@@ -8758,18 +8749,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H34" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I34" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J34" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$12</f>
@@ -8780,18 +8771,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H35" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I35" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J35" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$13</f>
@@ -8802,18 +8793,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H36" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I36" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J36" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$13</f>
@@ -8824,18 +8815,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H37" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="I37" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J37" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$13</f>
@@ -8846,18 +8837,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H38" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I38" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J38" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$13</f>
@@ -8868,18 +8859,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H39" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I39" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J39" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$13</f>
@@ -8890,18 +8881,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H40" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I40" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J40" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="41" spans="5:10">
       <c r="E41" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F41" t="str">
         <f>角色!$E$13</f>
@@ -8912,18 +8903,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H41" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I41" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J41" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="42" spans="5:10">
       <c r="E42" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F42" t="str">
         <f>角色!$E$13</f>
@@ -8934,18 +8925,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H42" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I42" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J42" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="43" spans="5:10">
       <c r="E43" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F43" t="str">
         <f>角色!$E$13</f>
@@ -8956,18 +8947,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H43" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I43" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J43" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="44" spans="5:10">
       <c r="E44" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="F44" t="str">
         <f>角色!$E$13</f>
@@ -8978,13 +8969,13 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H44" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I44" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J44" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -8997,7 +8988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <sheetData>
@@ -9034,133 +9025,133 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="H7" t="s">
+        <v>416</v>
+      </c>
+      <c r="I7" t="s">
         <v>417</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="J7" t="s">
         <v>418</v>
       </c>
-      <c r="H7" t="s">
+      <c r="K7" t="s">
         <v>419</v>
       </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>420</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="s">
         <v>421</v>
       </c>
-      <c r="K7" t="s">
+      <c r="N7" t="s">
         <v>422</v>
       </c>
-      <c r="L7" t="s">
+      <c r="O7" t="s">
         <v>423</v>
-      </c>
-      <c r="M7" t="s">
-        <v>424</v>
-      </c>
-      <c r="N7" t="s">
-        <v>425</v>
-      </c>
-      <c r="O7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="E8" t="s">
+        <v>424</v>
+      </c>
+      <c r="F8" t="s">
+        <v>560</v>
+      </c>
+      <c r="G8" t="s">
+        <v>561</v>
+      </c>
+      <c r="H8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" t="s">
         <v>427</v>
       </c>
-      <c r="F8" t="s">
+      <c r="J8" t="s">
+        <v>562</v>
+      </c>
+      <c r="K8" t="s">
         <v>563</v>
       </c>
-      <c r="G8" t="s">
-        <v>564</v>
-      </c>
-      <c r="H8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" t="s">
-        <v>430</v>
-      </c>
-      <c r="J8" t="s">
-        <v>565</v>
-      </c>
-      <c r="K8" t="s">
-        <v>566</v>
-      </c>
       <c r="M8" t="s">
         <v>80</v>
       </c>
       <c r="N8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="E9" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F9" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="G9" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="J9" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
       </c>
       <c r="N9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="E10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F10" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="G10" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="J10" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="K10" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="M10" t="s">
         <v>80</v>
       </c>
       <c r="N10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O10" t="s">
         <v>80</v>
@@ -9168,31 +9159,31 @@
     </row>
     <row r="11" spans="1:15">
       <c r="E11" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F11" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="G11" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="J11" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="K11" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
       </c>
       <c r="N11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O11" t="s">
         <v>80</v>
@@ -9200,31 +9191,31 @@
     </row>
     <row r="12" spans="1:15">
       <c r="E12" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F12" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G12" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="H12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="J12" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="K12" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="M12" t="s">
         <v>80</v>
       </c>
       <c r="N12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O12" t="s">
         <v>80</v>
@@ -9232,31 +9223,31 @@
     </row>
     <row r="13" spans="1:15">
       <c r="E13" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F13" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G13" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="H13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="J13" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="K13" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
       </c>
       <c r="N13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O13" t="s">
         <v>80</v>
@@ -9264,31 +9255,31 @@
     </row>
     <row r="14" spans="1:15">
       <c r="E14" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F14" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="G14" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="J14" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="K14" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
       </c>
       <c r="N14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O14" t="s">
         <v>80</v>
@@ -9296,31 +9287,31 @@
     </row>
     <row r="15" spans="1:15">
       <c r="E15" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F15" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G15" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="J15" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="K15" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
       </c>
       <c r="N15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O15" t="s">
         <v>80</v>
@@ -9328,31 +9319,31 @@
     </row>
     <row r="16" spans="1:15">
       <c r="E16" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F16" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G16" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="H16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="J16" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="K16" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
       </c>
       <c r="N16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O16" t="s">
         <v>80</v>
@@ -9360,98 +9351,98 @@
     </row>
     <row r="17" spans="1:15">
       <c r="E17" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F17" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G17" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="H17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="J17" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="K17" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
       </c>
       <c r="N17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="E18" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F18" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G18" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="H18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="J18" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="K18" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
       </c>
       <c r="N18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="E19" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F19" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G19" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="H19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="J19" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="K19" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="M19" t="s">
         <v>80</v>
       </c>
       <c r="N19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -9462,33 +9453,33 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
+        <v>449</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="G21" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="H21" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="I21" t="s">
         <v>455</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="I21" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="E22" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F22" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G22" t="str">
         <f>角色!$E$10</f>
@@ -9499,15 +9490,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I22" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="E23" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F23" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G23" t="str">
         <f>角色!$E$10</f>
@@ -9518,15 +9509,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I23" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="E24" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F24" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G24" t="str">
         <f>角色!$E$10</f>
@@ -9537,15 +9528,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I24" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="E25" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F25" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G25" t="str">
         <f>角色!$E$11</f>
@@ -9556,15 +9547,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I25" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="E26" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F26" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G26" t="str">
         <f>角色!$E$11</f>
@@ -9575,15 +9566,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I26" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="E27" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F27" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G27" t="str">
         <f>角色!$E$11</f>
@@ -9594,15 +9585,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I27" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="E28" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F28" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
@@ -9613,15 +9604,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I28" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="E29" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F29" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G29" t="str">
         <f>角色!$E$12</f>
@@ -9632,15 +9623,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I29" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="E30" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F30" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G30" t="str">
         <f>角色!$E$12</f>
@@ -9651,15 +9642,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I30" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="E31" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F31" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G31" t="str">
         <f>角色!$E$12</f>
@@ -9670,15 +9661,15 @@
         <v>iam_label-18</v>
       </c>
       <c r="I31" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="E32" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F32" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
@@ -9689,15 +9680,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I32" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F33" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G33" t="str">
         <f>角色!$E$13</f>
@@ -9708,15 +9699,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I33" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F34" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G34" t="str">
         <f>角色!$E$13</f>
@@ -9727,15 +9718,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I34" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F35" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G35" t="str">
         <f>角色!$E$13</f>
@@ -9746,7 +9737,7 @@
         <v>iam_label-19</v>
       </c>
       <c r="I35" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero_menu_user_role_label.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/hzero_menu_user_role_label.xlsx
@@ -1969,7 +1969,7 @@
     <t>choerodon.code.project.cooperation</t>
   </si>
   <si>
-    <t>敏捷</t>
+    <t>协作</t>
   </si>
   <si>
     <t>XZ</t>
@@ -3537,9 +3537,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
@@ -3619,7 +3619,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3628,12 +3651,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3648,22 +3685,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3685,15 +3715,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3707,8 +3738,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3722,50 +3762,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3845,7 +3845,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3857,7 +3857,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3869,163 +4019,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patt